--- a/datas_lab_IN.xlsx
+++ b/datas_lab_IN.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14380" tabRatio="500"/>
+    <workbookView xWindow="14460" yWindow="0" windowWidth="11140" windowHeight="14540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,15 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="5">
   <si>
     <t>Temperature</t>
   </si>
   <si>
     <t>Nb frozen</t>
-  </si>
-  <si>
-    <t>Code</t>
   </si>
   <si>
     <t>Temperature [°C]</t>
@@ -36,14 +33,14 @@
     <t/>
   </si>
   <si>
-    <t>code</t>
+    <t>[Month, Source]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -55,6 +52,18 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -75,8 +84,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -85,7 +96,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -417,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CU32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BI1" workbookViewId="0">
-      <selection activeCell="BQ4" sqref="BQ4"/>
+    <sheetView tabSelected="1" topLeftCell="BI2" workbookViewId="0">
+      <selection activeCell="BQ5" sqref="BQ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -616,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -624,148 +637,197 @@
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="J2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="M2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="O2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="P2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="R2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="S2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="U2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="V2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="X2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="Y2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AA2" s="1"/>
+      <c r="AA2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="AB2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AD2" s="1"/>
+      <c r="AD2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="AE2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AG2" s="1"/>
+      <c r="AG2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="AH2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AI2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AJ2" s="1"/>
+      <c r="AJ2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="AK2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AL2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AM2" s="1"/>
+      <c r="AM2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="AN2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AP2" s="1"/>
+      <c r="AP2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="AQ2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AS2" s="1"/>
+      <c r="AS2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="AT2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AV2" s="1"/>
+      <c r="AV2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="AW2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AY2" s="1"/>
+      <c r="AY2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="AZ2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BB2" s="1"/>
+      <c r="BB2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="BC2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BE2" s="1"/>
+      <c r="BE2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="BF2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BH2" s="1"/>
+      <c r="BH2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="BI2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BK2" s="1"/>
+      <c r="BK2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="BL2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BM2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BN2" s="1"/>
+      <c r="BN2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="BO2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BP2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="BQ2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BR2" s="1"/>
       <c r="BS2" s="1"/>
@@ -805,24 +867,36 @@
       <c r="B3" s="1">
         <v>0</v>
       </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
       <c r="D3" s="1">
         <v>-1</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
       <c r="G3" s="1">
         <v>-1</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
       <c r="J3" s="1">
         <v>-1</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
       </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
       <c r="M3" s="1">
         <v>-1</v>
       </c>
@@ -835,124 +909,158 @@
       <c r="Q3" s="1">
         <v>0</v>
       </c>
+      <c r="R3">
+        <v>9</v>
+      </c>
       <c r="S3" s="1">
         <v>-1</v>
       </c>
       <c r="T3" s="1">
         <v>0</v>
       </c>
+      <c r="U3">
+        <v>9</v>
+      </c>
       <c r="V3" s="1">
         <v>-1</v>
       </c>
       <c r="W3" s="1">
         <v>0</v>
       </c>
+      <c r="X3">
+        <v>11</v>
+      </c>
       <c r="Y3" s="1">
         <v>-1</v>
       </c>
       <c r="Z3" s="1">
         <v>0</v>
       </c>
-      <c r="AA3" s="1"/>
+      <c r="AA3">
+        <v>11</v>
+      </c>
       <c r="AB3" s="1">
         <v>-1</v>
       </c>
       <c r="AC3" s="1">
         <v>0</v>
       </c>
-      <c r="AD3" s="1"/>
+      <c r="AD3">
+        <v>11</v>
+      </c>
       <c r="AE3" s="1">
         <v>-1</v>
       </c>
       <c r="AF3" s="1">
         <v>0</v>
       </c>
-      <c r="AG3" s="1"/>
+      <c r="AG3">
+        <v>10</v>
+      </c>
       <c r="AH3" s="1">
         <v>-1</v>
       </c>
       <c r="AI3" s="1">
         <v>0</v>
       </c>
-      <c r="AJ3" s="1"/>
+      <c r="AJ3">
+        <v>10</v>
+      </c>
       <c r="AK3" s="1">
         <v>-1</v>
       </c>
       <c r="AL3" s="1">
         <v>0</v>
       </c>
-      <c r="AM3" s="1"/>
+      <c r="AM3">
+        <v>10</v>
+      </c>
       <c r="AN3" s="1">
         <v>-1</v>
       </c>
       <c r="AO3" s="1">
         <v>0</v>
       </c>
-      <c r="AP3" s="1"/>
+      <c r="AP3">
+        <v>11</v>
+      </c>
       <c r="AQ3" s="1">
         <v>-1</v>
       </c>
       <c r="AR3" s="1">
         <v>0</v>
       </c>
-      <c r="AS3" s="1"/>
       <c r="AT3" s="1">
         <v>-1</v>
       </c>
       <c r="AU3" s="1">
         <v>0</v>
       </c>
-      <c r="AV3" s="1"/>
+      <c r="AV3">
+        <v>11</v>
+      </c>
       <c r="AW3" s="1">
         <v>-1</v>
       </c>
       <c r="AX3" s="1">
         <v>0</v>
       </c>
-      <c r="AY3" s="1"/>
+      <c r="AY3">
+        <v>11</v>
+      </c>
       <c r="AZ3" s="1">
         <v>-1</v>
       </c>
       <c r="BA3" s="1">
         <v>0</v>
       </c>
-      <c r="BB3" s="1"/>
+      <c r="BB3">
+        <v>12</v>
+      </c>
       <c r="BC3" s="1">
         <v>-1</v>
       </c>
       <c r="BD3" s="1">
         <v>0</v>
       </c>
-      <c r="BE3" s="1"/>
+      <c r="BE3">
+        <v>12</v>
+      </c>
       <c r="BF3" s="1">
         <v>-1</v>
       </c>
       <c r="BG3" s="1">
         <v>0</v>
       </c>
-      <c r="BH3" s="1"/>
+      <c r="BH3">
+        <v>12</v>
+      </c>
       <c r="BI3" s="1">
         <v>-1</v>
       </c>
       <c r="BJ3" s="1">
         <v>0</v>
       </c>
-      <c r="BK3" s="1"/>
+      <c r="BK3">
+        <v>12</v>
+      </c>
       <c r="BL3" s="1">
         <v>-1</v>
       </c>
       <c r="BM3" s="1">
         <v>0</v>
       </c>
-      <c r="BN3" s="1"/>
+      <c r="BN3">
+        <v>12</v>
+      </c>
       <c r="BO3" s="1">
         <v>-1</v>
       </c>
       <c r="BP3" s="1">
         <v>0</v>
       </c>
-      <c r="BQ3" s="1">
-        <v>0</v>
+      <c r="BQ3">
+        <v>12</v>
       </c>
       <c r="BR3" s="1"/>
       <c r="BS3" s="1"/>
@@ -992,24 +1100,36 @@
       <c r="B4" s="1">
         <v>0</v>
       </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
       <c r="D4" s="1">
         <v>-2</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
       <c r="G4" s="1">
         <v>-2</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
       <c r="J4" s="1">
         <v>-2</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
       </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
       <c r="M4" s="1">
         <v>-2</v>
       </c>
@@ -1022,60 +1142,81 @@
       <c r="Q4" s="1">
         <v>0</v>
       </c>
+      <c r="R4" s="1">
+        <v>2</v>
+      </c>
       <c r="S4" s="1">
         <v>-2</v>
       </c>
       <c r="T4" s="1">
         <v>0</v>
       </c>
+      <c r="U4" s="1">
+        <v>1</v>
+      </c>
       <c r="V4" s="1">
         <v>-2</v>
       </c>
       <c r="W4" s="1">
         <v>0</v>
       </c>
+      <c r="X4" s="1">
+        <v>2</v>
+      </c>
       <c r="Y4" s="1">
         <v>-2</v>
       </c>
       <c r="Z4" s="1">
         <v>0</v>
       </c>
-      <c r="AA4" s="1"/>
+      <c r="AA4" s="1">
+        <v>0</v>
+      </c>
       <c r="AB4" s="1">
         <v>-2</v>
       </c>
       <c r="AC4" s="1">
         <v>0</v>
       </c>
-      <c r="AD4" s="1"/>
+      <c r="AD4" s="1">
+        <v>0</v>
+      </c>
       <c r="AE4" s="1">
         <v>-2</v>
       </c>
       <c r="AF4" s="1">
         <v>0</v>
       </c>
-      <c r="AG4" s="1"/>
+      <c r="AG4" s="1">
+        <v>3</v>
+      </c>
       <c r="AH4" s="1">
         <v>-2</v>
       </c>
       <c r="AI4" s="1">
         <v>0</v>
       </c>
-      <c r="AJ4" s="1"/>
+      <c r="AJ4" s="1">
+        <v>1</v>
+      </c>
       <c r="AK4" s="1">
         <v>-2</v>
       </c>
       <c r="AL4" s="1">
         <v>0</v>
       </c>
-      <c r="AM4" s="1"/>
+      <c r="AM4" s="1">
+        <v>2</v>
+      </c>
       <c r="AN4" s="1">
         <v>-2</v>
       </c>
       <c r="AO4" s="1">
         <v>0</v>
       </c>
-      <c r="AP4" s="1"/>
+      <c r="AP4" s="1">
+        <v>3</v>
+      </c>
       <c r="AQ4" s="1">
         <v>-2</v>
       </c>
@@ -1089,56 +1230,72 @@
       <c r="AU4" s="1">
         <v>0</v>
       </c>
-      <c r="AV4" s="1"/>
+      <c r="AV4" s="1">
+        <v>2</v>
+      </c>
       <c r="AW4" s="1">
         <v>-2</v>
       </c>
       <c r="AX4" s="1">
         <v>0</v>
       </c>
-      <c r="AY4" s="1"/>
+      <c r="AY4" s="1">
+        <v>2</v>
+      </c>
       <c r="AZ4" s="1">
         <v>-2</v>
       </c>
       <c r="BA4" s="1">
         <v>0</v>
       </c>
-      <c r="BB4" s="1"/>
+      <c r="BB4" s="1">
+        <v>1</v>
+      </c>
       <c r="BC4" s="1">
         <v>-2</v>
       </c>
       <c r="BD4" s="1">
         <v>0</v>
       </c>
-      <c r="BE4" s="1"/>
+      <c r="BE4" s="1">
+        <v>4</v>
+      </c>
       <c r="BF4" s="1">
         <v>-2</v>
       </c>
       <c r="BG4" s="1">
         <v>0</v>
       </c>
-      <c r="BH4" s="1"/>
+      <c r="BH4" s="1">
+        <v>1</v>
+      </c>
       <c r="BI4" s="1">
         <v>-2</v>
       </c>
       <c r="BJ4" s="1">
         <v>0</v>
       </c>
-      <c r="BK4" s="1"/>
+      <c r="BK4" s="1">
+        <v>1</v>
+      </c>
       <c r="BL4" s="1">
         <v>-2</v>
       </c>
       <c r="BM4" s="1">
         <v>0</v>
       </c>
-      <c r="BN4" s="1"/>
+      <c r="BN4" s="1">
+        <v>1</v>
+      </c>
       <c r="BO4" s="1">
         <v>-2</v>
       </c>
       <c r="BP4" s="1">
         <v>0</v>
       </c>
-      <c r="BQ4" s="1"/>
+      <c r="BQ4" s="1">
+        <v>1</v>
+      </c>
       <c r="BR4" s="1"/>
       <c r="BS4" s="1"/>
       <c r="BT4" s="1"/>
@@ -4045,7 +4202,7 @@
       <c r="AY20" s="1"/>
       <c r="AZ20" s="1"/>
       <c r="BA20" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB20" s="1"/>
       <c r="BC20" s="1">
@@ -4333,7 +4490,7 @@
       <c r="AS22" s="1"/>
       <c r="AT22" s="1"/>
       <c r="AU22" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV22" s="1"/>
       <c r="AW22" s="1"/>
@@ -4784,6 +4941,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/datas_lab_IN.xlsx
+++ b/datas_lab_IN.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="17">
   <si>
     <t>About the codes</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>code</t>
   </si>
 </sst>
 </file>
@@ -446,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CU32"/>
+  <dimension ref="A1:EX32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BS1" workbookViewId="0">
-      <selection activeCell="CC5" sqref="CC5"/>
+    <sheetView tabSelected="1" topLeftCell="DK1" workbookViewId="0">
+      <selection activeCell="DP4" sqref="DP4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -457,7 +460,7 @@
     <col min="3" max="3" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" ht="15.75" customHeight="1">
+    <row r="1" spans="1:154" ht="15.75" customHeight="1">
       <c r="A1" s="1">
         <v>217</v>
       </c>
@@ -642,26 +645,133 @@
         <v>42170</v>
       </c>
       <c r="CC1" s="2"/>
-      <c r="CD1" s="2"/>
-      <c r="CE1" s="2"/>
+      <c r="CD1" s="1">
+        <v>557</v>
+      </c>
+      <c r="CE1" s="2">
+        <v>42170</v>
+      </c>
       <c r="CF1" s="2"/>
-      <c r="CG1" s="2"/>
-      <c r="CH1" s="2"/>
+      <c r="CG1" s="1">
+        <v>560</v>
+      </c>
+      <c r="CH1" s="2">
+        <v>42170</v>
+      </c>
       <c r="CI1" s="2"/>
-      <c r="CJ1" s="2"/>
-      <c r="CK1" s="2"/>
+      <c r="CJ1" s="1">
+        <v>564</v>
+      </c>
+      <c r="CK1" s="2">
+        <v>42171</v>
+      </c>
       <c r="CL1" s="2"/>
-      <c r="CM1" s="2"/>
-      <c r="CN1" s="2"/>
+      <c r="CM1" s="1">
+        <v>567</v>
+      </c>
+      <c r="CN1" s="2">
+        <v>42171</v>
+      </c>
       <c r="CO1" s="2"/>
-      <c r="CP1" s="2"/>
-      <c r="CQ1" s="2"/>
+      <c r="CP1" s="1">
+        <v>570</v>
+      </c>
+      <c r="CQ1" s="2">
+        <v>42171</v>
+      </c>
       <c r="CR1" s="2"/>
-      <c r="CS1" s="2"/>
-      <c r="CT1" s="2"/>
+      <c r="CS1" s="1">
+        <v>575</v>
+      </c>
+      <c r="CT1" s="2">
+        <v>42171</v>
+      </c>
       <c r="CU1" s="2"/>
+      <c r="CV1" s="1">
+        <v>590</v>
+      </c>
+      <c r="CW1" s="2">
+        <v>42172</v>
+      </c>
+      <c r="CX1" s="2"/>
+      <c r="CY1" s="1">
+        <v>603</v>
+      </c>
+      <c r="CZ1" s="2">
+        <v>42172</v>
+      </c>
+      <c r="DA1" s="2"/>
+      <c r="DB1" s="1">
+        <v>605</v>
+      </c>
+      <c r="DC1" s="2">
+        <v>42172</v>
+      </c>
+      <c r="DD1" s="2"/>
+      <c r="DE1" s="1">
+        <v>642</v>
+      </c>
+      <c r="DF1" s="2">
+        <v>42172</v>
+      </c>
+      <c r="DG1" s="2"/>
+      <c r="DH1" s="1">
+        <v>644</v>
+      </c>
+      <c r="DI1" s="2">
+        <v>42172</v>
+      </c>
+      <c r="DJ1" s="2"/>
+      <c r="DK1" s="1">
+        <v>565</v>
+      </c>
+      <c r="DL1" s="2">
+        <v>42173</v>
+      </c>
+      <c r="DM1" s="2"/>
+      <c r="DN1" s="1">
+        <v>566</v>
+      </c>
+      <c r="DO1" s="2">
+        <v>42173</v>
+      </c>
+      <c r="DP1" s="2"/>
+      <c r="DQ1" s="2"/>
+      <c r="DR1" s="2"/>
+      <c r="DS1" s="2"/>
+      <c r="DT1" s="2"/>
+      <c r="DU1" s="2"/>
+      <c r="DV1" s="2"/>
+      <c r="DW1" s="2"/>
+      <c r="DX1" s="2"/>
+      <c r="DY1" s="2"/>
+      <c r="DZ1" s="2"/>
+      <c r="EA1" s="2"/>
+      <c r="EB1" s="2"/>
+      <c r="EC1" s="2"/>
+      <c r="ED1" s="2"/>
+      <c r="EE1" s="2"/>
+      <c r="EF1" s="2"/>
+      <c r="EG1" s="2"/>
+      <c r="EH1" s="2"/>
+      <c r="EI1" s="2"/>
+      <c r="EJ1" s="2"/>
+      <c r="EK1" s="2"/>
+      <c r="EL1" s="2"/>
+      <c r="EM1" s="2"/>
+      <c r="EN1" s="2"/>
+      <c r="EO1" s="2"/>
+      <c r="EP1" s="2"/>
+      <c r="EQ1" s="2"/>
+      <c r="ER1" s="2"/>
+      <c r="ES1" s="2"/>
+      <c r="ET1" s="2"/>
+      <c r="EU1" s="2"/>
+      <c r="EV1" s="2"/>
+      <c r="EW1" s="2"/>
+      <c r="EX1" s="2"/>
     </row>
-    <row r="2" spans="1:99" ht="15.75" customHeight="1">
+    <row r="2" spans="1:154" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -843,29 +953,136 @@
       <c r="CB2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="CC2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD2" s="1"/>
-      <c r="CE2" s="1"/>
+      <c r="CC2" s="1"/>
+      <c r="CD2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="CF2" s="1"/>
-      <c r="CG2" s="1"/>
-      <c r="CH2" s="1"/>
+      <c r="CG2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="CI2" s="1"/>
-      <c r="CJ2" s="1"/>
-      <c r="CK2" s="1"/>
+      <c r="CJ2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="CK2" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="CL2" s="1"/>
-      <c r="CM2" s="1"/>
-      <c r="CN2" s="1"/>
+      <c r="CM2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="CN2" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="CO2" s="1"/>
-      <c r="CP2" s="1"/>
-      <c r="CQ2" s="1"/>
+      <c r="CP2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="CQ2" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="CR2" s="1"/>
-      <c r="CS2" s="1"/>
-      <c r="CT2" s="1"/>
+      <c r="CS2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="CT2" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="CU2" s="1"/>
+      <c r="CV2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="CW2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="CX2" s="1"/>
+      <c r="CY2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="CZ2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="DA2" s="1"/>
+      <c r="DB2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="DC2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="DD2" s="1"/>
+      <c r="DE2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="DF2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="DG2" s="1"/>
+      <c r="DH2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="DI2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="DJ2" s="1"/>
+      <c r="DK2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="DL2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="DM2" s="1"/>
+      <c r="DN2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="DO2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="DP2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="DQ2" s="1"/>
+      <c r="DR2" s="1"/>
+      <c r="DS2" s="1"/>
+      <c r="DT2" s="1"/>
+      <c r="DU2" s="1"/>
+      <c r="DV2" s="1"/>
+      <c r="DW2" s="1"/>
+      <c r="DX2" s="1"/>
+      <c r="DY2" s="1"/>
+      <c r="DZ2" s="1"/>
+      <c r="EA2" s="1"/>
+      <c r="EB2" s="1"/>
+      <c r="EC2" s="1"/>
+      <c r="ED2" s="1"/>
+      <c r="EE2" s="1"/>
+      <c r="EF2" s="1"/>
+      <c r="EG2" s="1"/>
+      <c r="EH2" s="1"/>
+      <c r="EI2" s="1"/>
+      <c r="EJ2" s="1"/>
+      <c r="EK2" s="1"/>
+      <c r="EL2" s="1"/>
+      <c r="EM2" s="1"/>
+      <c r="EN2" s="1"/>
+      <c r="EO2" s="1"/>
+      <c r="EP2" s="1"/>
+      <c r="EQ2" s="1"/>
+      <c r="ER2" s="1"/>
+      <c r="ES2" s="1"/>
+      <c r="ET2" s="1"/>
+      <c r="EU2" s="1"/>
+      <c r="EV2" s="1"/>
+      <c r="EW2" s="1"/>
+      <c r="EX2" s="1"/>
     </row>
-    <row r="3" spans="1:99" ht="15.75" customHeight="1">
+    <row r="3" spans="1:154" ht="15.75" customHeight="1">
       <c r="A3" s="1">
         <v>-1</v>
       </c>
@@ -1047,26 +1264,135 @@
         <v>0</v>
       </c>
       <c r="CC3" s="1"/>
-      <c r="CD3" s="1"/>
-      <c r="CE3" s="1"/>
+      <c r="CD3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="CE3" s="1">
+        <v>0</v>
+      </c>
       <c r="CF3" s="1"/>
-      <c r="CG3" s="1"/>
-      <c r="CH3" s="1"/>
+      <c r="CG3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="CH3" s="1">
+        <v>0</v>
+      </c>
       <c r="CI3" s="1"/>
-      <c r="CJ3" s="1"/>
-      <c r="CK3" s="1"/>
+      <c r="CJ3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="CK3" s="1">
+        <v>0</v>
+      </c>
       <c r="CL3" s="1"/>
-      <c r="CM3" s="1"/>
-      <c r="CN3" s="1"/>
+      <c r="CM3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="CN3" s="1">
+        <v>0</v>
+      </c>
       <c r="CO3" s="1"/>
-      <c r="CP3" s="1"/>
-      <c r="CQ3" s="1"/>
+      <c r="CP3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="CQ3" s="1">
+        <v>0</v>
+      </c>
       <c r="CR3" s="1"/>
-      <c r="CS3" s="1"/>
-      <c r="CT3" s="1"/>
+      <c r="CS3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="CT3" s="1">
+        <v>0</v>
+      </c>
       <c r="CU3" s="1"/>
+      <c r="CV3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="CW3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CX3" s="1"/>
+      <c r="CY3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="CZ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="DA3" s="1"/>
+      <c r="DB3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="DC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="DD3" s="1"/>
+      <c r="DE3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="DF3" s="1">
+        <v>0</v>
+      </c>
+      <c r="DG3" s="1"/>
+      <c r="DH3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="DI3" s="1">
+        <v>0</v>
+      </c>
+      <c r="DJ3" s="1"/>
+      <c r="DK3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="DL3" s="1">
+        <v>0</v>
+      </c>
+      <c r="DM3" s="1"/>
+      <c r="DN3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="DO3" s="1">
+        <v>0</v>
+      </c>
+      <c r="DP3" s="1">
+        <v>0</v>
+      </c>
+      <c r="DQ3" s="1"/>
+      <c r="DR3" s="1"/>
+      <c r="DS3" s="1"/>
+      <c r="DT3" s="1"/>
+      <c r="DU3" s="1"/>
+      <c r="DV3" s="1"/>
+      <c r="DW3" s="1"/>
+      <c r="DX3" s="1"/>
+      <c r="DY3" s="1"/>
+      <c r="DZ3" s="1"/>
+      <c r="EA3" s="1"/>
+      <c r="EB3" s="1"/>
+      <c r="EC3" s="1"/>
+      <c r="ED3" s="1"/>
+      <c r="EE3" s="1"/>
+      <c r="EF3" s="1"/>
+      <c r="EG3" s="1"/>
+      <c r="EH3" s="1"/>
+      <c r="EI3" s="1"/>
+      <c r="EJ3" s="1"/>
+      <c r="EK3" s="1"/>
+      <c r="EL3" s="1"/>
+      <c r="EM3" s="1"/>
+      <c r="EN3" s="1"/>
+      <c r="EO3" s="1"/>
+      <c r="EP3" s="1"/>
+      <c r="EQ3" s="1"/>
+      <c r="ER3" s="1"/>
+      <c r="ES3" s="1"/>
+      <c r="ET3" s="1"/>
+      <c r="EU3" s="1"/>
+      <c r="EV3" s="1"/>
+      <c r="EW3" s="1"/>
+      <c r="EX3" s="1"/>
     </row>
-    <row r="4" spans="1:99" ht="15.75" customHeight="1">
+    <row r="4" spans="1:154" ht="15.75" customHeight="1">
       <c r="A4" s="1">
         <v>-2</v>
       </c>
@@ -1248,26 +1574,133 @@
         <v>0</v>
       </c>
       <c r="CC4" s="1"/>
-      <c r="CD4" s="1"/>
-      <c r="CE4" s="1"/>
+      <c r="CD4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="CE4" s="1">
+        <v>0</v>
+      </c>
       <c r="CF4" s="1"/>
-      <c r="CG4" s="1"/>
-      <c r="CH4" s="1"/>
+      <c r="CG4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="CH4" s="1">
+        <v>0</v>
+      </c>
       <c r="CI4" s="1"/>
-      <c r="CJ4" s="1"/>
-      <c r="CK4" s="1"/>
+      <c r="CJ4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="CK4" s="1">
+        <v>0</v>
+      </c>
       <c r="CL4" s="1"/>
-      <c r="CM4" s="1"/>
-      <c r="CN4" s="1"/>
+      <c r="CM4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="CN4" s="1">
+        <v>0</v>
+      </c>
       <c r="CO4" s="1"/>
-      <c r="CP4" s="1"/>
-      <c r="CQ4" s="1"/>
+      <c r="CP4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="CQ4" s="1">
+        <v>0</v>
+      </c>
       <c r="CR4" s="1"/>
-      <c r="CS4" s="1"/>
-      <c r="CT4" s="1"/>
+      <c r="CS4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="CT4" s="1">
+        <v>0</v>
+      </c>
       <c r="CU4" s="1"/>
+      <c r="CV4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="CW4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CX4" s="1"/>
+      <c r="CY4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="CZ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="DA4" s="1"/>
+      <c r="DB4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="DC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="DD4" s="1"/>
+      <c r="DE4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="DF4" s="1">
+        <v>0</v>
+      </c>
+      <c r="DG4" s="1"/>
+      <c r="DH4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="DI4" s="1">
+        <v>0</v>
+      </c>
+      <c r="DJ4" s="1"/>
+      <c r="DK4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="DL4" s="1">
+        <v>0</v>
+      </c>
+      <c r="DM4" s="1"/>
+      <c r="DN4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="DO4" s="1">
+        <v>0</v>
+      </c>
+      <c r="DP4" s="1"/>
+      <c r="DQ4" s="1"/>
+      <c r="DR4" s="1"/>
+      <c r="DS4" s="1"/>
+      <c r="DT4" s="1"/>
+      <c r="DU4" s="1"/>
+      <c r="DV4" s="1"/>
+      <c r="DW4" s="1"/>
+      <c r="DX4" s="1"/>
+      <c r="DY4" s="1"/>
+      <c r="DZ4" s="1"/>
+      <c r="EA4" s="1"/>
+      <c r="EB4" s="1"/>
+      <c r="EC4" s="1"/>
+      <c r="ED4" s="1"/>
+      <c r="EE4" s="1"/>
+      <c r="EF4" s="1"/>
+      <c r="EG4" s="1"/>
+      <c r="EH4" s="1"/>
+      <c r="EI4" s="1"/>
+      <c r="EJ4" s="1"/>
+      <c r="EK4" s="1"/>
+      <c r="EL4" s="1"/>
+      <c r="EM4" s="1"/>
+      <c r="EN4" s="1"/>
+      <c r="EO4" s="1"/>
+      <c r="EP4" s="1"/>
+      <c r="EQ4" s="1"/>
+      <c r="ER4" s="1"/>
+      <c r="ES4" s="1"/>
+      <c r="ET4" s="1"/>
+      <c r="EU4" s="1"/>
+      <c r="EV4" s="1"/>
+      <c r="EW4" s="1"/>
+      <c r="EX4" s="1"/>
     </row>
-    <row r="5" spans="1:99" ht="15.75" customHeight="1">
+    <row r="5" spans="1:154" ht="15.75" customHeight="1">
       <c r="A5" s="1">
         <v>-3</v>
       </c>
@@ -1449,26 +1882,133 @@
         <v>0</v>
       </c>
       <c r="CC5" s="1"/>
-      <c r="CD5" s="1"/>
-      <c r="CE5" s="1"/>
+      <c r="CD5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="CE5" s="1">
+        <v>0</v>
+      </c>
       <c r="CF5" s="1"/>
-      <c r="CG5" s="1"/>
-      <c r="CH5" s="1"/>
+      <c r="CG5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="CH5" s="1">
+        <v>0</v>
+      </c>
       <c r="CI5" s="1"/>
-      <c r="CJ5" s="1"/>
-      <c r="CK5" s="1"/>
+      <c r="CJ5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="CK5" s="1">
+        <v>0</v>
+      </c>
       <c r="CL5" s="1"/>
-      <c r="CM5" s="1"/>
-      <c r="CN5" s="1"/>
+      <c r="CM5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="CN5" s="1">
+        <v>0</v>
+      </c>
       <c r="CO5" s="1"/>
-      <c r="CP5" s="1"/>
-      <c r="CQ5" s="1"/>
+      <c r="CP5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="CQ5" s="1">
+        <v>0</v>
+      </c>
       <c r="CR5" s="1"/>
-      <c r="CS5" s="1"/>
-      <c r="CT5" s="1"/>
+      <c r="CS5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="CT5" s="1">
+        <v>0</v>
+      </c>
       <c r="CU5" s="1"/>
+      <c r="CV5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="CW5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CX5" s="1"/>
+      <c r="CY5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="CZ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="DA5" s="1"/>
+      <c r="DB5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="DC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="DD5" s="1"/>
+      <c r="DE5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="DF5" s="1">
+        <v>0</v>
+      </c>
+      <c r="DG5" s="1"/>
+      <c r="DH5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="DI5" s="1">
+        <v>0</v>
+      </c>
+      <c r="DJ5" s="1"/>
+      <c r="DK5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="DL5" s="1">
+        <v>0</v>
+      </c>
+      <c r="DM5" s="1"/>
+      <c r="DN5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="DO5" s="1">
+        <v>0</v>
+      </c>
+      <c r="DP5" s="1"/>
+      <c r="DQ5" s="1"/>
+      <c r="DR5" s="1"/>
+      <c r="DS5" s="1"/>
+      <c r="DT5" s="1"/>
+      <c r="DU5" s="1"/>
+      <c r="DV5" s="1"/>
+      <c r="DW5" s="1"/>
+      <c r="DX5" s="1"/>
+      <c r="DY5" s="1"/>
+      <c r="DZ5" s="1"/>
+      <c r="EA5" s="1"/>
+      <c r="EB5" s="1"/>
+      <c r="EC5" s="1"/>
+      <c r="ED5" s="1"/>
+      <c r="EE5" s="1"/>
+      <c r="EF5" s="1"/>
+      <c r="EG5" s="1"/>
+      <c r="EH5" s="1"/>
+      <c r="EI5" s="1"/>
+      <c r="EJ5" s="1"/>
+      <c r="EK5" s="1"/>
+      <c r="EL5" s="1"/>
+      <c r="EM5" s="1"/>
+      <c r="EN5" s="1"/>
+      <c r="EO5" s="1"/>
+      <c r="EP5" s="1"/>
+      <c r="EQ5" s="1"/>
+      <c r="ER5" s="1"/>
+      <c r="ES5" s="1"/>
+      <c r="ET5" s="1"/>
+      <c r="EU5" s="1"/>
+      <c r="EV5" s="1"/>
+      <c r="EW5" s="1"/>
+      <c r="EX5" s="1"/>
     </row>
-    <row r="6" spans="1:99" ht="15.75" customHeight="1">
+    <row r="6" spans="1:154" ht="15.75" customHeight="1">
       <c r="A6" s="1">
         <v>-4</v>
       </c>
@@ -1650,26 +2190,133 @@
         <v>0</v>
       </c>
       <c r="CC6" s="1"/>
-      <c r="CD6" s="1"/>
-      <c r="CE6" s="1"/>
+      <c r="CD6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="CE6" s="1">
+        <v>0</v>
+      </c>
       <c r="CF6" s="1"/>
-      <c r="CG6" s="1"/>
-      <c r="CH6" s="1"/>
+      <c r="CG6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="CH6" s="1">
+        <v>0</v>
+      </c>
       <c r="CI6" s="1"/>
-      <c r="CJ6" s="1"/>
-      <c r="CK6" s="1"/>
+      <c r="CJ6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="CK6" s="1">
+        <v>0</v>
+      </c>
       <c r="CL6" s="1"/>
-      <c r="CM6" s="1"/>
-      <c r="CN6" s="1"/>
+      <c r="CM6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="CN6" s="1">
+        <v>0</v>
+      </c>
       <c r="CO6" s="1"/>
-      <c r="CP6" s="1"/>
-      <c r="CQ6" s="1"/>
+      <c r="CP6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="CQ6" s="1">
+        <v>0</v>
+      </c>
       <c r="CR6" s="1"/>
-      <c r="CS6" s="1"/>
-      <c r="CT6" s="1"/>
+      <c r="CS6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="CT6" s="1">
+        <v>0</v>
+      </c>
       <c r="CU6" s="1"/>
+      <c r="CV6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="CW6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CX6" s="1"/>
+      <c r="CY6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="CZ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="DA6" s="1"/>
+      <c r="DB6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="DC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="DD6" s="1"/>
+      <c r="DE6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="DF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="DG6" s="1"/>
+      <c r="DH6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="DI6" s="1">
+        <v>0</v>
+      </c>
+      <c r="DJ6" s="1"/>
+      <c r="DK6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="DL6" s="1">
+        <v>0</v>
+      </c>
+      <c r="DM6" s="1"/>
+      <c r="DN6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="DO6" s="1">
+        <v>0</v>
+      </c>
+      <c r="DP6" s="1"/>
+      <c r="DQ6" s="1"/>
+      <c r="DR6" s="1"/>
+      <c r="DS6" s="1"/>
+      <c r="DT6" s="1"/>
+      <c r="DU6" s="1"/>
+      <c r="DV6" s="1"/>
+      <c r="DW6" s="1"/>
+      <c r="DX6" s="1"/>
+      <c r="DY6" s="1"/>
+      <c r="DZ6" s="1"/>
+      <c r="EA6" s="1"/>
+      <c r="EB6" s="1"/>
+      <c r="EC6" s="1"/>
+      <c r="ED6" s="1"/>
+      <c r="EE6" s="1"/>
+      <c r="EF6" s="1"/>
+      <c r="EG6" s="1"/>
+      <c r="EH6" s="1"/>
+      <c r="EI6" s="1"/>
+      <c r="EJ6" s="1"/>
+      <c r="EK6" s="1"/>
+      <c r="EL6" s="1"/>
+      <c r="EM6" s="1"/>
+      <c r="EN6" s="1"/>
+      <c r="EO6" s="1"/>
+      <c r="EP6" s="1"/>
+      <c r="EQ6" s="1"/>
+      <c r="ER6" s="1"/>
+      <c r="ES6" s="1"/>
+      <c r="ET6" s="1"/>
+      <c r="EU6" s="1"/>
+      <c r="EV6" s="1"/>
+      <c r="EW6" s="1"/>
+      <c r="EX6" s="1"/>
     </row>
-    <row r="7" spans="1:99" ht="15.75" customHeight="1">
+    <row r="7" spans="1:154" ht="15.75" customHeight="1">
       <c r="A7" s="1">
         <v>-5</v>
       </c>
@@ -1851,26 +2498,133 @@
         <v>0</v>
       </c>
       <c r="CC7" s="1"/>
-      <c r="CD7" s="1"/>
-      <c r="CE7" s="1"/>
+      <c r="CD7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="CE7" s="1">
+        <v>0</v>
+      </c>
       <c r="CF7" s="1"/>
-      <c r="CG7" s="1"/>
-      <c r="CH7" s="1"/>
+      <c r="CG7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="CH7" s="1">
+        <v>0</v>
+      </c>
       <c r="CI7" s="1"/>
-      <c r="CJ7" s="1"/>
-      <c r="CK7" s="1"/>
+      <c r="CJ7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="CK7" s="1">
+        <v>0</v>
+      </c>
       <c r="CL7" s="1"/>
-      <c r="CM7" s="1"/>
-      <c r="CN7" s="1"/>
+      <c r="CM7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="CN7" s="1">
+        <v>0</v>
+      </c>
       <c r="CO7" s="1"/>
-      <c r="CP7" s="1"/>
-      <c r="CQ7" s="1"/>
+      <c r="CP7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="CQ7" s="1">
+        <v>0</v>
+      </c>
       <c r="CR7" s="1"/>
-      <c r="CS7" s="1"/>
-      <c r="CT7" s="1"/>
+      <c r="CS7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="CT7" s="1">
+        <v>0</v>
+      </c>
       <c r="CU7" s="1"/>
+      <c r="CV7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="CW7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CX7" s="1"/>
+      <c r="CY7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="CZ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DA7" s="1"/>
+      <c r="DB7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="DC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DD7" s="1"/>
+      <c r="DE7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="DF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DG7" s="1"/>
+      <c r="DH7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="DI7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DJ7" s="1"/>
+      <c r="DK7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="DL7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DM7" s="1"/>
+      <c r="DN7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="DO7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DP7" s="1"/>
+      <c r="DQ7" s="1"/>
+      <c r="DR7" s="1"/>
+      <c r="DS7" s="1"/>
+      <c r="DT7" s="1"/>
+      <c r="DU7" s="1"/>
+      <c r="DV7" s="1"/>
+      <c r="DW7" s="1"/>
+      <c r="DX7" s="1"/>
+      <c r="DY7" s="1"/>
+      <c r="DZ7" s="1"/>
+      <c r="EA7" s="1"/>
+      <c r="EB7" s="1"/>
+      <c r="EC7" s="1"/>
+      <c r="ED7" s="1"/>
+      <c r="EE7" s="1"/>
+      <c r="EF7" s="1"/>
+      <c r="EG7" s="1"/>
+      <c r="EH7" s="1"/>
+      <c r="EI7" s="1"/>
+      <c r="EJ7" s="1"/>
+      <c r="EK7" s="1"/>
+      <c r="EL7" s="1"/>
+      <c r="EM7" s="1"/>
+      <c r="EN7" s="1"/>
+      <c r="EO7" s="1"/>
+      <c r="EP7" s="1"/>
+      <c r="EQ7" s="1"/>
+      <c r="ER7" s="1"/>
+      <c r="ES7" s="1"/>
+      <c r="ET7" s="1"/>
+      <c r="EU7" s="1"/>
+      <c r="EV7" s="1"/>
+      <c r="EW7" s="1"/>
+      <c r="EX7" s="1"/>
     </row>
-    <row r="8" spans="1:99" ht="15.75" customHeight="1">
+    <row r="8" spans="1:154" ht="15.75" customHeight="1">
       <c r="A8" s="1">
         <v>-6</v>
       </c>
@@ -2052,26 +2806,133 @@
         <v>0</v>
       </c>
       <c r="CC8" s="1"/>
-      <c r="CD8" s="1"/>
-      <c r="CE8" s="1"/>
+      <c r="CD8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="CE8" s="1">
+        <v>0</v>
+      </c>
       <c r="CF8" s="1"/>
-      <c r="CG8" s="1"/>
-      <c r="CH8" s="1"/>
+      <c r="CG8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="CH8" s="1">
+        <v>0</v>
+      </c>
       <c r="CI8" s="1"/>
-      <c r="CJ8" s="1"/>
-      <c r="CK8" s="1"/>
+      <c r="CJ8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="CK8" s="1">
+        <v>0</v>
+      </c>
       <c r="CL8" s="1"/>
-      <c r="CM8" s="1"/>
-      <c r="CN8" s="1"/>
+      <c r="CM8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="CN8" s="1">
+        <v>1</v>
+      </c>
       <c r="CO8" s="1"/>
-      <c r="CP8" s="1"/>
-      <c r="CQ8" s="1"/>
+      <c r="CP8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="CQ8" s="1">
+        <v>0</v>
+      </c>
       <c r="CR8" s="1"/>
-      <c r="CS8" s="1"/>
-      <c r="CT8" s="1"/>
+      <c r="CS8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="CT8" s="1">
+        <v>0</v>
+      </c>
       <c r="CU8" s="1"/>
+      <c r="CV8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="CW8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CX8" s="1"/>
+      <c r="CY8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="CZ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DA8" s="1"/>
+      <c r="DB8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="DC8" s="1">
+        <v>2</v>
+      </c>
+      <c r="DD8" s="1"/>
+      <c r="DE8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="DF8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DG8" s="1"/>
+      <c r="DH8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="DI8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DJ8" s="1"/>
+      <c r="DK8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="DL8" s="1">
+        <v>6</v>
+      </c>
+      <c r="DM8" s="1"/>
+      <c r="DN8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="DO8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DP8" s="1"/>
+      <c r="DQ8" s="1"/>
+      <c r="DR8" s="1"/>
+      <c r="DS8" s="1"/>
+      <c r="DT8" s="1"/>
+      <c r="DU8" s="1"/>
+      <c r="DV8" s="1"/>
+      <c r="DW8" s="1"/>
+      <c r="DX8" s="1"/>
+      <c r="DY8" s="1"/>
+      <c r="DZ8" s="1"/>
+      <c r="EA8" s="1"/>
+      <c r="EB8" s="1"/>
+      <c r="EC8" s="1"/>
+      <c r="ED8" s="1"/>
+      <c r="EE8" s="1"/>
+      <c r="EF8" s="1"/>
+      <c r="EG8" s="1"/>
+      <c r="EH8" s="1"/>
+      <c r="EI8" s="1"/>
+      <c r="EJ8" s="1"/>
+      <c r="EK8" s="1"/>
+      <c r="EL8" s="1"/>
+      <c r="EM8" s="1"/>
+      <c r="EN8" s="1"/>
+      <c r="EO8" s="1"/>
+      <c r="EP8" s="1"/>
+      <c r="EQ8" s="1"/>
+      <c r="ER8" s="1"/>
+      <c r="ES8" s="1"/>
+      <c r="ET8" s="1"/>
+      <c r="EU8" s="1"/>
+      <c r="EV8" s="1"/>
+      <c r="EW8" s="1"/>
+      <c r="EX8" s="1"/>
     </row>
-    <row r="9" spans="1:99" ht="15.75" customHeight="1">
+    <row r="9" spans="1:154" ht="15.75" customHeight="1">
       <c r="A9" s="1">
         <v>-7</v>
       </c>
@@ -2253,26 +3114,133 @@
         <v>0</v>
       </c>
       <c r="CC9" s="1"/>
-      <c r="CD9" s="1"/>
-      <c r="CE9" s="1"/>
+      <c r="CD9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="CE9" s="1">
+        <v>2</v>
+      </c>
       <c r="CF9" s="1"/>
-      <c r="CG9" s="1"/>
-      <c r="CH9" s="1"/>
+      <c r="CG9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="CH9" s="1">
+        <v>0</v>
+      </c>
       <c r="CI9" s="1"/>
-      <c r="CJ9" s="1"/>
-      <c r="CK9" s="1"/>
+      <c r="CJ9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="CK9" s="1">
+        <v>0</v>
+      </c>
       <c r="CL9" s="1"/>
-      <c r="CM9" s="1"/>
-      <c r="CN9" s="1"/>
+      <c r="CM9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="CN9" s="1">
+        <v>1</v>
+      </c>
       <c r="CO9" s="1"/>
-      <c r="CP9" s="1"/>
-      <c r="CQ9" s="1"/>
+      <c r="CP9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="CQ9" s="1">
+        <v>0</v>
+      </c>
       <c r="CR9" s="1"/>
-      <c r="CS9" s="1"/>
-      <c r="CT9" s="1"/>
+      <c r="CS9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="CT9" s="1">
+        <v>0</v>
+      </c>
       <c r="CU9" s="1"/>
+      <c r="CV9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="CW9" s="1">
+        <v>2</v>
+      </c>
+      <c r="CX9" s="1"/>
+      <c r="CY9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="CZ9" s="1">
+        <v>1</v>
+      </c>
+      <c r="DA9" s="1"/>
+      <c r="DB9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="DC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DD9" s="1"/>
+      <c r="DE9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="DF9" s="1">
+        <v>4</v>
+      </c>
+      <c r="DG9" s="1"/>
+      <c r="DH9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="DI9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DJ9" s="1"/>
+      <c r="DK9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="DL9" s="1">
+        <v>9</v>
+      </c>
+      <c r="DM9" s="1"/>
+      <c r="DN9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="DO9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DP9" s="1"/>
+      <c r="DQ9" s="1"/>
+      <c r="DR9" s="1"/>
+      <c r="DS9" s="1"/>
+      <c r="DT9" s="1"/>
+      <c r="DU9" s="1"/>
+      <c r="DV9" s="1"/>
+      <c r="DW9" s="1"/>
+      <c r="DX9" s="1"/>
+      <c r="DY9" s="1"/>
+      <c r="DZ9" s="1"/>
+      <c r="EA9" s="1"/>
+      <c r="EB9" s="1"/>
+      <c r="EC9" s="1"/>
+      <c r="ED9" s="1"/>
+      <c r="EE9" s="1"/>
+      <c r="EF9" s="1"/>
+      <c r="EG9" s="1"/>
+      <c r="EH9" s="1"/>
+      <c r="EI9" s="1"/>
+      <c r="EJ9" s="1"/>
+      <c r="EK9" s="1"/>
+      <c r="EL9" s="1"/>
+      <c r="EM9" s="1"/>
+      <c r="EN9" s="1"/>
+      <c r="EO9" s="1"/>
+      <c r="EP9" s="1"/>
+      <c r="EQ9" s="1"/>
+      <c r="ER9" s="1"/>
+      <c r="ES9" s="1"/>
+      <c r="ET9" s="1"/>
+      <c r="EU9" s="1"/>
+      <c r="EV9" s="1"/>
+      <c r="EW9" s="1"/>
+      <c r="EX9" s="1"/>
     </row>
-    <row r="10" spans="1:99" ht="15.75" customHeight="1">
+    <row r="10" spans="1:154" ht="15.75" customHeight="1">
       <c r="A10" s="1">
         <v>-8</v>
       </c>
@@ -2454,26 +3422,133 @@
         <v>0</v>
       </c>
       <c r="CC10" s="1"/>
-      <c r="CD10" s="1"/>
-      <c r="CE10" s="1"/>
+      <c r="CD10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="CE10" s="1">
+        <v>1</v>
+      </c>
       <c r="CF10" s="1"/>
-      <c r="CG10" s="1"/>
-      <c r="CH10" s="1"/>
+      <c r="CG10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="CH10" s="1">
+        <v>0</v>
+      </c>
       <c r="CI10" s="1"/>
-      <c r="CJ10" s="1"/>
-      <c r="CK10" s="1"/>
+      <c r="CJ10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="CK10" s="1">
+        <v>2</v>
+      </c>
       <c r="CL10" s="1"/>
-      <c r="CM10" s="1"/>
-      <c r="CN10" s="1"/>
+      <c r="CM10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="CN10" s="1">
+        <v>1</v>
+      </c>
       <c r="CO10" s="1"/>
-      <c r="CP10" s="1"/>
-      <c r="CQ10" s="1"/>
+      <c r="CP10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="CQ10" s="1">
+        <v>3</v>
+      </c>
       <c r="CR10" s="1"/>
-      <c r="CS10" s="1"/>
-      <c r="CT10" s="1"/>
+      <c r="CS10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="CT10" s="1">
+        <v>0</v>
+      </c>
       <c r="CU10" s="1"/>
+      <c r="CV10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="CW10" s="1">
+        <v>2</v>
+      </c>
+      <c r="CX10" s="1"/>
+      <c r="CY10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="CZ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="DA10" s="1"/>
+      <c r="DB10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="DC10" s="1">
+        <v>1</v>
+      </c>
+      <c r="DD10" s="1"/>
+      <c r="DE10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="DF10" s="1">
+        <v>1</v>
+      </c>
+      <c r="DG10" s="1"/>
+      <c r="DH10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="DI10" s="1">
+        <v>0</v>
+      </c>
+      <c r="DJ10" s="1"/>
+      <c r="DK10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="DL10" s="1">
+        <v>4</v>
+      </c>
+      <c r="DM10" s="1"/>
+      <c r="DN10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="DO10" s="1">
+        <v>1</v>
+      </c>
+      <c r="DP10" s="1"/>
+      <c r="DQ10" s="1"/>
+      <c r="DR10" s="1"/>
+      <c r="DS10" s="1"/>
+      <c r="DT10" s="1"/>
+      <c r="DU10" s="1"/>
+      <c r="DV10" s="1"/>
+      <c r="DW10" s="1"/>
+      <c r="DX10" s="1"/>
+      <c r="DY10" s="1"/>
+      <c r="DZ10" s="1"/>
+      <c r="EA10" s="1"/>
+      <c r="EB10" s="1"/>
+      <c r="EC10" s="1"/>
+      <c r="ED10" s="1"/>
+      <c r="EE10" s="1"/>
+      <c r="EF10" s="1"/>
+      <c r="EG10" s="1"/>
+      <c r="EH10" s="1"/>
+      <c r="EI10" s="1"/>
+      <c r="EJ10" s="1"/>
+      <c r="EK10" s="1"/>
+      <c r="EL10" s="1"/>
+      <c r="EM10" s="1"/>
+      <c r="EN10" s="1"/>
+      <c r="EO10" s="1"/>
+      <c r="EP10" s="1"/>
+      <c r="EQ10" s="1"/>
+      <c r="ER10" s="1"/>
+      <c r="ES10" s="1"/>
+      <c r="ET10" s="1"/>
+      <c r="EU10" s="1"/>
+      <c r="EV10" s="1"/>
+      <c r="EW10" s="1"/>
+      <c r="EX10" s="1"/>
     </row>
-    <row r="11" spans="1:99" ht="15.75" customHeight="1">
+    <row r="11" spans="1:154" ht="15.75" customHeight="1">
       <c r="A11" s="1">
         <v>-8.5</v>
       </c>
@@ -2655,26 +3730,133 @@
         <v>1</v>
       </c>
       <c r="CC11" s="1"/>
-      <c r="CD11" s="1"/>
-      <c r="CE11" s="1"/>
+      <c r="CD11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="CE11" s="1">
+        <v>4</v>
+      </c>
       <c r="CF11" s="1"/>
-      <c r="CG11" s="1"/>
-      <c r="CH11" s="1"/>
+      <c r="CG11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="CH11" s="1">
+        <v>3</v>
+      </c>
       <c r="CI11" s="1"/>
-      <c r="CJ11" s="1"/>
-      <c r="CK11" s="1"/>
+      <c r="CJ11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="CK11" s="1">
+        <v>0</v>
+      </c>
       <c r="CL11" s="1"/>
-      <c r="CM11" s="1"/>
-      <c r="CN11" s="1"/>
+      <c r="CM11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="CN11" s="1">
+        <v>2</v>
+      </c>
       <c r="CO11" s="1"/>
-      <c r="CP11" s="1"/>
-      <c r="CQ11" s="1"/>
+      <c r="CP11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="CQ11" s="1">
+        <v>4</v>
+      </c>
       <c r="CR11" s="1"/>
-      <c r="CS11" s="1"/>
-      <c r="CT11" s="1"/>
+      <c r="CS11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="CT11" s="1">
+        <v>1</v>
+      </c>
       <c r="CU11" s="1"/>
+      <c r="CV11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="CW11" s="1">
+        <v>5</v>
+      </c>
+      <c r="CX11" s="1"/>
+      <c r="CY11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="CZ11" s="1">
+        <v>3</v>
+      </c>
+      <c r="DA11" s="1"/>
+      <c r="DB11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="DC11" s="1">
+        <v>12</v>
+      </c>
+      <c r="DD11" s="1"/>
+      <c r="DE11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="DF11" s="1">
+        <v>3</v>
+      </c>
+      <c r="DG11" s="1"/>
+      <c r="DH11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="DI11" s="1">
+        <v>1</v>
+      </c>
+      <c r="DJ11" s="1"/>
+      <c r="DK11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="DL11" s="1">
+        <v>11</v>
+      </c>
+      <c r="DM11" s="1"/>
+      <c r="DN11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="DO11" s="1">
+        <v>0</v>
+      </c>
+      <c r="DP11" s="1"/>
+      <c r="DQ11" s="1"/>
+      <c r="DR11" s="1"/>
+      <c r="DS11" s="1"/>
+      <c r="DT11" s="1"/>
+      <c r="DU11" s="1"/>
+      <c r="DV11" s="1"/>
+      <c r="DW11" s="1"/>
+      <c r="DX11" s="1"/>
+      <c r="DY11" s="1"/>
+      <c r="DZ11" s="1"/>
+      <c r="EA11" s="1"/>
+      <c r="EB11" s="1"/>
+      <c r="EC11" s="1"/>
+      <c r="ED11" s="1"/>
+      <c r="EE11" s="1"/>
+      <c r="EF11" s="1"/>
+      <c r="EG11" s="1"/>
+      <c r="EH11" s="1"/>
+      <c r="EI11" s="1"/>
+      <c r="EJ11" s="1"/>
+      <c r="EK11" s="1"/>
+      <c r="EL11" s="1"/>
+      <c r="EM11" s="1"/>
+      <c r="EN11" s="1"/>
+      <c r="EO11" s="1"/>
+      <c r="EP11" s="1"/>
+      <c r="EQ11" s="1"/>
+      <c r="ER11" s="1"/>
+      <c r="ES11" s="1"/>
+      <c r="ET11" s="1"/>
+      <c r="EU11" s="1"/>
+      <c r="EV11" s="1"/>
+      <c r="EW11" s="1"/>
+      <c r="EX11" s="1"/>
     </row>
-    <row r="12" spans="1:99" ht="15.75" customHeight="1">
+    <row r="12" spans="1:154" ht="15.75" customHeight="1">
       <c r="A12" s="1">
         <v>-9</v>
       </c>
@@ -2851,26 +4033,133 @@
         <v>4</v>
       </c>
       <c r="CC12" s="1"/>
-      <c r="CD12" s="1"/>
-      <c r="CE12" s="1"/>
+      <c r="CD12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="CE12" s="1">
+        <v>4</v>
+      </c>
       <c r="CF12" s="1"/>
-      <c r="CG12" s="1"/>
-      <c r="CH12" s="1"/>
+      <c r="CG12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="CH12" s="1">
+        <v>1</v>
+      </c>
       <c r="CI12" s="1"/>
-      <c r="CJ12" s="1"/>
-      <c r="CK12" s="1"/>
+      <c r="CJ12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="CK12" s="1">
+        <v>0</v>
+      </c>
       <c r="CL12" s="1"/>
-      <c r="CM12" s="1"/>
-      <c r="CN12" s="1"/>
+      <c r="CM12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="CN12" s="1">
+        <v>0</v>
+      </c>
       <c r="CO12" s="1"/>
-      <c r="CP12" s="1"/>
-      <c r="CQ12" s="1"/>
+      <c r="CP12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="CQ12" s="1">
+        <v>5</v>
+      </c>
       <c r="CR12" s="1"/>
-      <c r="CS12" s="1"/>
-      <c r="CT12" s="1"/>
+      <c r="CS12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="CT12" s="1">
+        <v>1</v>
+      </c>
       <c r="CU12" s="1"/>
+      <c r="CV12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="CW12" s="1">
+        <v>6</v>
+      </c>
+      <c r="CX12" s="1"/>
+      <c r="CY12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="CZ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="DA12" s="1"/>
+      <c r="DB12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="DC12" s="1">
+        <v>9</v>
+      </c>
+      <c r="DD12" s="1"/>
+      <c r="DE12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="DF12" s="1">
+        <v>8</v>
+      </c>
+      <c r="DG12" s="1"/>
+      <c r="DH12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="DI12" s="1">
+        <v>1</v>
+      </c>
+      <c r="DJ12" s="1"/>
+      <c r="DK12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="DL12" s="1">
+        <v>10</v>
+      </c>
+      <c r="DM12" s="1"/>
+      <c r="DN12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="DO12" s="1">
+        <v>1</v>
+      </c>
+      <c r="DP12" s="1"/>
+      <c r="DQ12" s="1"/>
+      <c r="DR12" s="1"/>
+      <c r="DS12" s="1"/>
+      <c r="DT12" s="1"/>
+      <c r="DU12" s="1"/>
+      <c r="DV12" s="1"/>
+      <c r="DW12" s="1"/>
+      <c r="DX12" s="1"/>
+      <c r="DY12" s="1"/>
+      <c r="DZ12" s="1"/>
+      <c r="EA12" s="1"/>
+      <c r="EB12" s="1"/>
+      <c r="EC12" s="1"/>
+      <c r="ED12" s="1"/>
+      <c r="EE12" s="1"/>
+      <c r="EF12" s="1"/>
+      <c r="EG12" s="1"/>
+      <c r="EH12" s="1"/>
+      <c r="EI12" s="1"/>
+      <c r="EJ12" s="1"/>
+      <c r="EK12" s="1"/>
+      <c r="EL12" s="1"/>
+      <c r="EM12" s="1"/>
+      <c r="EN12" s="1"/>
+      <c r="EO12" s="1"/>
+      <c r="EP12" s="1"/>
+      <c r="EQ12" s="1"/>
+      <c r="ER12" s="1"/>
+      <c r="ES12" s="1"/>
+      <c r="ET12" s="1"/>
+      <c r="EU12" s="1"/>
+      <c r="EV12" s="1"/>
+      <c r="EW12" s="1"/>
+      <c r="EX12" s="1"/>
     </row>
-    <row r="13" spans="1:99" ht="15.75" customHeight="1">
+    <row r="13" spans="1:154" ht="15.75" customHeight="1">
       <c r="A13" s="1">
         <v>-9.5</v>
       </c>
@@ -3052,26 +4341,133 @@
         <v>4</v>
       </c>
       <c r="CC13" s="1"/>
-      <c r="CD13" s="1"/>
-      <c r="CE13" s="1"/>
+      <c r="CD13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="CE13" s="1">
+        <v>4</v>
+      </c>
       <c r="CF13" s="1"/>
-      <c r="CG13" s="1"/>
-      <c r="CH13" s="1"/>
+      <c r="CG13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="CH13" s="1">
+        <v>2</v>
+      </c>
       <c r="CI13" s="1"/>
-      <c r="CJ13" s="1"/>
-      <c r="CK13" s="1"/>
+      <c r="CJ13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="CK13" s="1">
+        <v>0</v>
+      </c>
       <c r="CL13" s="1"/>
-      <c r="CM13" s="1"/>
-      <c r="CN13" s="1"/>
+      <c r="CM13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="CN13" s="1">
+        <v>4</v>
+      </c>
       <c r="CO13" s="1"/>
-      <c r="CP13" s="1"/>
-      <c r="CQ13" s="1"/>
+      <c r="CP13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="CQ13" s="1">
+        <v>11</v>
+      </c>
       <c r="CR13" s="1"/>
-      <c r="CS13" s="1"/>
-      <c r="CT13" s="1"/>
+      <c r="CS13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="CT13" s="1">
+        <v>1</v>
+      </c>
       <c r="CU13" s="1"/>
+      <c r="CV13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="CW13" s="1">
+        <v>6</v>
+      </c>
+      <c r="CX13" s="1"/>
+      <c r="CY13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="CZ13" s="1">
+        <v>3</v>
+      </c>
+      <c r="DA13" s="1"/>
+      <c r="DB13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="DC13" s="1">
+        <v>4</v>
+      </c>
+      <c r="DD13" s="1"/>
+      <c r="DE13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="DF13" s="1">
+        <v>10</v>
+      </c>
+      <c r="DG13" s="1"/>
+      <c r="DH13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="DI13" s="1">
+        <v>4</v>
+      </c>
+      <c r="DJ13" s="1"/>
+      <c r="DK13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="DL13" s="1">
+        <v>5</v>
+      </c>
+      <c r="DM13" s="1"/>
+      <c r="DN13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="DO13" s="1">
+        <v>3</v>
+      </c>
+      <c r="DP13" s="1"/>
+      <c r="DQ13" s="1"/>
+      <c r="DR13" s="1"/>
+      <c r="DS13" s="1"/>
+      <c r="DT13" s="1"/>
+      <c r="DU13" s="1"/>
+      <c r="DV13" s="1"/>
+      <c r="DW13" s="1"/>
+      <c r="DX13" s="1"/>
+      <c r="DY13" s="1"/>
+      <c r="DZ13" s="1"/>
+      <c r="EA13" s="1"/>
+      <c r="EB13" s="1"/>
+      <c r="EC13" s="1"/>
+      <c r="ED13" s="1"/>
+      <c r="EE13" s="1"/>
+      <c r="EF13" s="1"/>
+      <c r="EG13" s="1"/>
+      <c r="EH13" s="1"/>
+      <c r="EI13" s="1"/>
+      <c r="EJ13" s="1"/>
+      <c r="EK13" s="1"/>
+      <c r="EL13" s="1"/>
+      <c r="EM13" s="1"/>
+      <c r="EN13" s="1"/>
+      <c r="EO13" s="1"/>
+      <c r="EP13" s="1"/>
+      <c r="EQ13" s="1"/>
+      <c r="ER13" s="1"/>
+      <c r="ES13" s="1"/>
+      <c r="ET13" s="1"/>
+      <c r="EU13" s="1"/>
+      <c r="EV13" s="1"/>
+      <c r="EW13" s="1"/>
+      <c r="EX13" s="1"/>
     </row>
-    <row r="14" spans="1:99" ht="15.75" customHeight="1">
+    <row r="14" spans="1:154" ht="15.75" customHeight="1">
       <c r="A14" s="1">
         <v>-10</v>
       </c>
@@ -3253,26 +4649,133 @@
         <v>2</v>
       </c>
       <c r="CC14" s="1"/>
-      <c r="CD14" s="1"/>
-      <c r="CE14" s="1"/>
+      <c r="CD14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="CE14" s="1">
+        <v>6</v>
+      </c>
       <c r="CF14" s="1"/>
-      <c r="CG14" s="1"/>
-      <c r="CH14" s="1"/>
+      <c r="CG14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="CH14" s="1">
+        <v>2</v>
+      </c>
       <c r="CI14" s="1"/>
-      <c r="CJ14" s="1"/>
-      <c r="CK14" s="1"/>
+      <c r="CJ14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="CK14" s="1">
+        <v>7</v>
+      </c>
       <c r="CL14" s="1"/>
-      <c r="CM14" s="1"/>
-      <c r="CN14" s="1"/>
+      <c r="CM14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="CN14" s="1">
+        <v>4</v>
+      </c>
       <c r="CO14" s="1"/>
-      <c r="CP14" s="1"/>
-      <c r="CQ14" s="1"/>
+      <c r="CP14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="CQ14" s="1">
+        <v>15</v>
+      </c>
       <c r="CR14" s="1"/>
-      <c r="CS14" s="1"/>
-      <c r="CT14" s="1"/>
+      <c r="CS14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="CT14" s="1">
+        <v>4</v>
+      </c>
       <c r="CU14" s="1"/>
+      <c r="CV14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="CW14" s="1">
+        <v>5</v>
+      </c>
+      <c r="CX14" s="1"/>
+      <c r="CY14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="CZ14" s="1">
+        <v>2</v>
+      </c>
+      <c r="DA14" s="1"/>
+      <c r="DB14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="DC14" s="1">
+        <v>15</v>
+      </c>
+      <c r="DD14" s="1"/>
+      <c r="DE14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="DF14" s="1">
+        <v>19</v>
+      </c>
+      <c r="DG14" s="1"/>
+      <c r="DH14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="DI14" s="1">
+        <v>5</v>
+      </c>
+      <c r="DJ14" s="1"/>
+      <c r="DK14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="DL14" s="1">
+        <v>13</v>
+      </c>
+      <c r="DM14" s="1"/>
+      <c r="DN14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="DO14" s="1">
+        <v>0</v>
+      </c>
+      <c r="DP14" s="1"/>
+      <c r="DQ14" s="1"/>
+      <c r="DR14" s="1"/>
+      <c r="DS14" s="1"/>
+      <c r="DT14" s="1"/>
+      <c r="DU14" s="1"/>
+      <c r="DV14" s="1"/>
+      <c r="DW14" s="1"/>
+      <c r="DX14" s="1"/>
+      <c r="DY14" s="1"/>
+      <c r="DZ14" s="1"/>
+      <c r="EA14" s="1"/>
+      <c r="EB14" s="1"/>
+      <c r="EC14" s="1"/>
+      <c r="ED14" s="1"/>
+      <c r="EE14" s="1"/>
+      <c r="EF14" s="1"/>
+      <c r="EG14" s="1"/>
+      <c r="EH14" s="1"/>
+      <c r="EI14" s="1"/>
+      <c r="EJ14" s="1"/>
+      <c r="EK14" s="1"/>
+      <c r="EL14" s="1"/>
+      <c r="EM14" s="1"/>
+      <c r="EN14" s="1"/>
+      <c r="EO14" s="1"/>
+      <c r="EP14" s="1"/>
+      <c r="EQ14" s="1"/>
+      <c r="ER14" s="1"/>
+      <c r="ES14" s="1"/>
+      <c r="ET14" s="1"/>
+      <c r="EU14" s="1"/>
+      <c r="EV14" s="1"/>
+      <c r="EW14" s="1"/>
+      <c r="EX14" s="1"/>
     </row>
-    <row r="15" spans="1:99" ht="15.75" customHeight="1">
+    <row r="15" spans="1:154" ht="15.75" customHeight="1">
       <c r="A15" s="1">
         <v>-10.5</v>
       </c>
@@ -3454,26 +4957,133 @@
         <v>10</v>
       </c>
       <c r="CC15" s="1"/>
-      <c r="CD15" s="1"/>
-      <c r="CE15" s="1"/>
+      <c r="CD15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="CE15" s="1">
+        <v>8</v>
+      </c>
       <c r="CF15" s="1"/>
-      <c r="CG15" s="1"/>
-      <c r="CH15" s="1"/>
+      <c r="CG15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="CH15" s="1">
+        <v>2</v>
+      </c>
       <c r="CI15" s="1"/>
-      <c r="CJ15" s="1"/>
-      <c r="CK15" s="1"/>
+      <c r="CJ15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="CK15" s="1">
+        <v>10</v>
+      </c>
       <c r="CL15" s="1"/>
-      <c r="CM15" s="1"/>
-      <c r="CN15" s="1"/>
+      <c r="CM15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="CN15" s="1">
+        <v>7</v>
+      </c>
       <c r="CO15" s="1"/>
-      <c r="CP15" s="1"/>
-      <c r="CQ15" s="1"/>
+      <c r="CP15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="CQ15" s="1">
+        <v>18</v>
+      </c>
       <c r="CR15" s="1"/>
-      <c r="CS15" s="1"/>
-      <c r="CT15" s="1"/>
+      <c r="CS15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="CT15" s="1">
+        <v>3</v>
+      </c>
       <c r="CU15" s="1"/>
+      <c r="CV15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="CW15" s="1">
+        <v>5</v>
+      </c>
+      <c r="CX15" s="1"/>
+      <c r="CY15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="CZ15" s="1">
+        <v>14</v>
+      </c>
+      <c r="DA15" s="1"/>
+      <c r="DB15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="DC15" s="1">
+        <v>21</v>
+      </c>
+      <c r="DD15" s="1"/>
+      <c r="DE15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="DF15" s="1">
+        <v>13</v>
+      </c>
+      <c r="DG15" s="1"/>
+      <c r="DH15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="DI15" s="1">
+        <v>3</v>
+      </c>
+      <c r="DJ15" s="1"/>
+      <c r="DK15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="DL15" s="1">
+        <v>12</v>
+      </c>
+      <c r="DM15" s="1"/>
+      <c r="DN15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="DO15" s="1">
+        <v>6</v>
+      </c>
+      <c r="DP15" s="1"/>
+      <c r="DQ15" s="1"/>
+      <c r="DR15" s="1"/>
+      <c r="DS15" s="1"/>
+      <c r="DT15" s="1"/>
+      <c r="DU15" s="1"/>
+      <c r="DV15" s="1"/>
+      <c r="DW15" s="1"/>
+      <c r="DX15" s="1"/>
+      <c r="DY15" s="1"/>
+      <c r="DZ15" s="1"/>
+      <c r="EA15" s="1"/>
+      <c r="EB15" s="1"/>
+      <c r="EC15" s="1"/>
+      <c r="ED15" s="1"/>
+      <c r="EE15" s="1"/>
+      <c r="EF15" s="1"/>
+      <c r="EG15" s="1"/>
+      <c r="EH15" s="1"/>
+      <c r="EI15" s="1"/>
+      <c r="EJ15" s="1"/>
+      <c r="EK15" s="1"/>
+      <c r="EL15" s="1"/>
+      <c r="EM15" s="1"/>
+      <c r="EN15" s="1"/>
+      <c r="EO15" s="1"/>
+      <c r="EP15" s="1"/>
+      <c r="EQ15" s="1"/>
+      <c r="ER15" s="1"/>
+      <c r="ES15" s="1"/>
+      <c r="ET15" s="1"/>
+      <c r="EU15" s="1"/>
+      <c r="EV15" s="1"/>
+      <c r="EW15" s="1"/>
+      <c r="EX15" s="1"/>
     </row>
-    <row r="16" spans="1:99" ht="15.75" customHeight="1">
+    <row r="16" spans="1:154" ht="15.75" customHeight="1">
       <c r="A16" s="1">
         <v>-11</v>
       </c>
@@ -3655,26 +5265,133 @@
         <v>3</v>
       </c>
       <c r="CC16" s="1"/>
-      <c r="CD16" s="1"/>
-      <c r="CE16" s="1"/>
+      <c r="CD16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="CE16" s="1">
+        <v>3</v>
+      </c>
       <c r="CF16" s="1"/>
-      <c r="CG16" s="1"/>
-      <c r="CH16" s="1"/>
+      <c r="CG16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="CH16" s="1">
+        <v>4</v>
+      </c>
       <c r="CI16" s="1"/>
-      <c r="CJ16" s="1"/>
-      <c r="CK16" s="1"/>
+      <c r="CJ16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="CK16" s="1">
+        <v>29</v>
+      </c>
       <c r="CL16" s="1"/>
-      <c r="CM16" s="1"/>
-      <c r="CN16" s="1"/>
+      <c r="CM16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="CN16" s="1">
+        <v>15</v>
+      </c>
       <c r="CO16" s="1"/>
-      <c r="CP16" s="1"/>
-      <c r="CQ16" s="1"/>
+      <c r="CP16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="CQ16" s="1">
+        <v>15</v>
+      </c>
       <c r="CR16" s="1"/>
-      <c r="CS16" s="1"/>
-      <c r="CT16" s="1"/>
+      <c r="CS16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="CT16" s="1">
+        <v>6</v>
+      </c>
       <c r="CU16" s="1"/>
+      <c r="CV16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="CW16" s="1">
+        <v>18</v>
+      </c>
+      <c r="CX16" s="1"/>
+      <c r="CY16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="CZ16" s="1">
+        <v>12</v>
+      </c>
+      <c r="DA16" s="1"/>
+      <c r="DB16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="DC16" s="1">
+        <v>24</v>
+      </c>
+      <c r="DD16" s="1"/>
+      <c r="DE16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="DF16" s="1">
+        <v>15</v>
+      </c>
+      <c r="DG16" s="1"/>
+      <c r="DH16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="DI16" s="1">
+        <v>15</v>
+      </c>
+      <c r="DJ16" s="1"/>
+      <c r="DK16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="DL16" s="1">
+        <v>7</v>
+      </c>
+      <c r="DM16" s="1"/>
+      <c r="DN16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="DO16" s="1">
+        <v>5</v>
+      </c>
+      <c r="DP16" s="1"/>
+      <c r="DQ16" s="1"/>
+      <c r="DR16" s="1"/>
+      <c r="DS16" s="1"/>
+      <c r="DT16" s="1"/>
+      <c r="DU16" s="1"/>
+      <c r="DV16" s="1"/>
+      <c r="DW16" s="1"/>
+      <c r="DX16" s="1"/>
+      <c r="DY16" s="1"/>
+      <c r="DZ16" s="1"/>
+      <c r="EA16" s="1"/>
+      <c r="EB16" s="1"/>
+      <c r="EC16" s="1"/>
+      <c r="ED16" s="1"/>
+      <c r="EE16" s="1"/>
+      <c r="EF16" s="1"/>
+      <c r="EG16" s="1"/>
+      <c r="EH16" s="1"/>
+      <c r="EI16" s="1"/>
+      <c r="EJ16" s="1"/>
+      <c r="EK16" s="1"/>
+      <c r="EL16" s="1"/>
+      <c r="EM16" s="1"/>
+      <c r="EN16" s="1"/>
+      <c r="EO16" s="1"/>
+      <c r="EP16" s="1"/>
+      <c r="EQ16" s="1"/>
+      <c r="ER16" s="1"/>
+      <c r="ES16" s="1"/>
+      <c r="ET16" s="1"/>
+      <c r="EU16" s="1"/>
+      <c r="EV16" s="1"/>
+      <c r="EW16" s="1"/>
+      <c r="EX16" s="1"/>
     </row>
-    <row r="17" spans="1:99" ht="15.75" customHeight="1">
+    <row r="17" spans="1:154" ht="15.75" customHeight="1">
       <c r="A17" s="1">
         <v>-11.5</v>
       </c>
@@ -3856,26 +5573,133 @@
         <v>11</v>
       </c>
       <c r="CC17" s="1"/>
-      <c r="CD17" s="1"/>
-      <c r="CE17" s="1"/>
+      <c r="CD17" s="1">
+        <v>-15.5</v>
+      </c>
+      <c r="CE17" s="1">
+        <v>9</v>
+      </c>
       <c r="CF17" s="1"/>
-      <c r="CG17" s="1"/>
-      <c r="CH17" s="1"/>
+      <c r="CG17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="CH17" s="1">
+        <v>11</v>
+      </c>
       <c r="CI17" s="1"/>
-      <c r="CJ17" s="1"/>
-      <c r="CK17" s="1"/>
+      <c r="CJ17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="CK17" s="1">
+        <v>18</v>
+      </c>
       <c r="CL17" s="1"/>
-      <c r="CM17" s="1"/>
-      <c r="CN17" s="1"/>
+      <c r="CM17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="CN17" s="1">
+        <v>15</v>
+      </c>
       <c r="CO17" s="1"/>
-      <c r="CP17" s="1"/>
-      <c r="CQ17" s="1"/>
+      <c r="CP17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="CQ17" s="1">
+        <v>14</v>
+      </c>
       <c r="CR17" s="1"/>
-      <c r="CS17" s="1"/>
-      <c r="CT17" s="1"/>
+      <c r="CS17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="CT17" s="1">
+        <v>6</v>
+      </c>
       <c r="CU17" s="1"/>
+      <c r="CV17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="CW17" s="1">
+        <v>20</v>
+      </c>
+      <c r="CX17" s="1"/>
+      <c r="CY17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="CZ17" s="1">
+        <v>17</v>
+      </c>
+      <c r="DA17" s="1"/>
+      <c r="DB17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="DC17" s="1">
+        <v>9</v>
+      </c>
+      <c r="DD17" s="1"/>
+      <c r="DE17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="DF17" s="1">
+        <v>9</v>
+      </c>
+      <c r="DG17" s="1"/>
+      <c r="DH17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="DI17" s="1">
+        <v>19</v>
+      </c>
+      <c r="DJ17" s="1"/>
+      <c r="DK17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="DL17" s="1">
+        <v>6</v>
+      </c>
+      <c r="DM17" s="1"/>
+      <c r="DN17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="DO17" s="1">
+        <v>12</v>
+      </c>
+      <c r="DP17" s="1"/>
+      <c r="DQ17" s="1"/>
+      <c r="DR17" s="1"/>
+      <c r="DS17" s="1"/>
+      <c r="DT17" s="1"/>
+      <c r="DU17" s="1"/>
+      <c r="DV17" s="1"/>
+      <c r="DW17" s="1"/>
+      <c r="DX17" s="1"/>
+      <c r="DY17" s="1"/>
+      <c r="DZ17" s="1"/>
+      <c r="EA17" s="1"/>
+      <c r="EB17" s="1"/>
+      <c r="EC17" s="1"/>
+      <c r="ED17" s="1"/>
+      <c r="EE17" s="1"/>
+      <c r="EF17" s="1"/>
+      <c r="EG17" s="1"/>
+      <c r="EH17" s="1"/>
+      <c r="EI17" s="1"/>
+      <c r="EJ17" s="1"/>
+      <c r="EK17" s="1"/>
+      <c r="EL17" s="1"/>
+      <c r="EM17" s="1"/>
+      <c r="EN17" s="1"/>
+      <c r="EO17" s="1"/>
+      <c r="EP17" s="1"/>
+      <c r="EQ17" s="1"/>
+      <c r="ER17" s="1"/>
+      <c r="ES17" s="1"/>
+      <c r="ET17" s="1"/>
+      <c r="EU17" s="1"/>
+      <c r="EV17" s="1"/>
+      <c r="EW17" s="1"/>
+      <c r="EX17" s="1"/>
     </row>
-    <row r="18" spans="1:99" ht="15.75" customHeight="1">
+    <row r="18" spans="1:154" ht="15.75" customHeight="1">
       <c r="A18" s="1">
         <v>-12</v>
       </c>
@@ -4057,26 +5881,133 @@
         <v>20</v>
       </c>
       <c r="CC18" s="1"/>
-      <c r="CD18" s="1"/>
-      <c r="CE18" s="1"/>
+      <c r="CD18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="CE18" s="1">
+        <v>5</v>
+      </c>
       <c r="CF18" s="1"/>
-      <c r="CG18" s="1"/>
-      <c r="CH18" s="1"/>
+      <c r="CG18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="CH18" s="1">
+        <v>7</v>
+      </c>
       <c r="CI18" s="1"/>
-      <c r="CJ18" s="1"/>
-      <c r="CK18" s="1"/>
+      <c r="CJ18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="CK18" s="1">
+        <v>14</v>
+      </c>
       <c r="CL18" s="1"/>
-      <c r="CM18" s="1"/>
-      <c r="CN18" s="1"/>
+      <c r="CM18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="CN18" s="1">
+        <v>20</v>
+      </c>
       <c r="CO18" s="1"/>
-      <c r="CP18" s="1"/>
-      <c r="CQ18" s="1"/>
+      <c r="CP18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="CQ18" s="1">
+        <v>6</v>
+      </c>
       <c r="CR18" s="1"/>
-      <c r="CS18" s="1"/>
-      <c r="CT18" s="1"/>
+      <c r="CS18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="CT18" s="1">
+        <v>11</v>
+      </c>
       <c r="CU18" s="1"/>
+      <c r="CV18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="CW18" s="1">
+        <v>26</v>
+      </c>
+      <c r="CX18" s="1"/>
+      <c r="CY18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="CZ18" s="1">
+        <v>8</v>
+      </c>
+      <c r="DA18" s="1"/>
+      <c r="DB18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="DC18" s="1">
+        <v>4</v>
+      </c>
+      <c r="DD18" s="1"/>
+      <c r="DE18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="DF18" s="1">
+        <v>13</v>
+      </c>
+      <c r="DG18" s="1"/>
+      <c r="DH18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="DI18" s="1">
+        <v>20</v>
+      </c>
+      <c r="DJ18" s="1"/>
+      <c r="DK18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="DL18" s="1">
+        <v>6</v>
+      </c>
+      <c r="DM18" s="1"/>
+      <c r="DN18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="DO18" s="1">
+        <v>24</v>
+      </c>
+      <c r="DP18" s="1"/>
+      <c r="DQ18" s="1"/>
+      <c r="DR18" s="1"/>
+      <c r="DS18" s="1"/>
+      <c r="DT18" s="1"/>
+      <c r="DU18" s="1"/>
+      <c r="DV18" s="1"/>
+      <c r="DW18" s="1"/>
+      <c r="DX18" s="1"/>
+      <c r="DY18" s="1"/>
+      <c r="DZ18" s="1"/>
+      <c r="EA18" s="1"/>
+      <c r="EB18" s="1"/>
+      <c r="EC18" s="1"/>
+      <c r="ED18" s="1"/>
+      <c r="EE18" s="1"/>
+      <c r="EF18" s="1"/>
+      <c r="EG18" s="1"/>
+      <c r="EH18" s="1"/>
+      <c r="EI18" s="1"/>
+      <c r="EJ18" s="1"/>
+      <c r="EK18" s="1"/>
+      <c r="EL18" s="1"/>
+      <c r="EM18" s="1"/>
+      <c r="EN18" s="1"/>
+      <c r="EO18" s="1"/>
+      <c r="EP18" s="1"/>
+      <c r="EQ18" s="1"/>
+      <c r="ER18" s="1"/>
+      <c r="ES18" s="1"/>
+      <c r="ET18" s="1"/>
+      <c r="EU18" s="1"/>
+      <c r="EV18" s="1"/>
+      <c r="EW18" s="1"/>
+      <c r="EX18" s="1"/>
     </row>
-    <row r="19" spans="1:99" ht="15.75" customHeight="1">
+    <row r="19" spans="1:154" ht="15.75" customHeight="1">
       <c r="A19" s="1">
         <v>-12.5</v>
       </c>
@@ -4258,26 +6189,133 @@
         <v>12</v>
       </c>
       <c r="CC19" s="1"/>
-      <c r="CD19" s="1"/>
-      <c r="CE19" s="1"/>
+      <c r="CD19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="CE19" s="1">
+        <v>16</v>
+      </c>
       <c r="CF19" s="1"/>
-      <c r="CG19" s="1"/>
-      <c r="CH19" s="1"/>
+      <c r="CG19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="CH19" s="1">
+        <v>6</v>
+      </c>
       <c r="CI19" s="1"/>
-      <c r="CJ19" s="1"/>
-      <c r="CK19" s="1"/>
+      <c r="CJ19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="CK19" s="1">
+        <v>12</v>
+      </c>
       <c r="CL19" s="1"/>
-      <c r="CM19" s="1"/>
-      <c r="CN19" s="1"/>
+      <c r="CM19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="CN19" s="1">
+        <v>21</v>
+      </c>
       <c r="CO19" s="1"/>
-      <c r="CP19" s="1"/>
-      <c r="CQ19" s="1"/>
+      <c r="CP19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="CQ19" s="1">
+        <v>5</v>
+      </c>
       <c r="CR19" s="1"/>
-      <c r="CS19" s="1"/>
-      <c r="CT19" s="1"/>
+      <c r="CS19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="CT19" s="1">
+        <v>2</v>
+      </c>
       <c r="CU19" s="1"/>
+      <c r="CV19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="CW19" s="1">
+        <v>5</v>
+      </c>
+      <c r="CX19" s="1"/>
+      <c r="CY19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="CZ19" s="1">
+        <v>15</v>
+      </c>
+      <c r="DA19" s="1"/>
+      <c r="DB19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="DC19" s="1">
+        <v>0</v>
+      </c>
+      <c r="DD19" s="1"/>
+      <c r="DE19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="DF19" s="1">
+        <v>3</v>
+      </c>
+      <c r="DG19" s="1"/>
+      <c r="DH19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="DI19" s="1">
+        <v>19</v>
+      </c>
+      <c r="DJ19" s="1"/>
+      <c r="DK19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="DL19" s="1">
+        <v>6</v>
+      </c>
+      <c r="DM19" s="1"/>
+      <c r="DN19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="DO19" s="1">
+        <v>19</v>
+      </c>
+      <c r="DP19" s="1"/>
+      <c r="DQ19" s="1"/>
+      <c r="DR19" s="1"/>
+      <c r="DS19" s="1"/>
+      <c r="DT19" s="1"/>
+      <c r="DU19" s="1"/>
+      <c r="DV19" s="1"/>
+      <c r="DW19" s="1"/>
+      <c r="DX19" s="1"/>
+      <c r="DY19" s="1"/>
+      <c r="DZ19" s="1"/>
+      <c r="EA19" s="1"/>
+      <c r="EB19" s="1"/>
+      <c r="EC19" s="1"/>
+      <c r="ED19" s="1"/>
+      <c r="EE19" s="1"/>
+      <c r="EF19" s="1"/>
+      <c r="EG19" s="1"/>
+      <c r="EH19" s="1"/>
+      <c r="EI19" s="1"/>
+      <c r="EJ19" s="1"/>
+      <c r="EK19" s="1"/>
+      <c r="EL19" s="1"/>
+      <c r="EM19" s="1"/>
+      <c r="EN19" s="1"/>
+      <c r="EO19" s="1"/>
+      <c r="EP19" s="1"/>
+      <c r="EQ19" s="1"/>
+      <c r="ER19" s="1"/>
+      <c r="ES19" s="1"/>
+      <c r="ET19" s="1"/>
+      <c r="EU19" s="1"/>
+      <c r="EV19" s="1"/>
+      <c r="EW19" s="1"/>
+      <c r="EX19" s="1"/>
     </row>
-    <row r="20" spans="1:99" ht="15.75" customHeight="1">
+    <row r="20" spans="1:154" ht="15.75" customHeight="1">
       <c r="A20" s="1">
         <v>-13</v>
       </c>
@@ -4448,26 +6486,133 @@
         <v>9</v>
       </c>
       <c r="CC20" s="1"/>
-      <c r="CD20" s="1"/>
-      <c r="CE20" s="1"/>
+      <c r="CD20" s="1">
+        <v>-18</v>
+      </c>
+      <c r="CE20" s="1">
+        <v>7</v>
+      </c>
       <c r="CF20" s="1"/>
-      <c r="CG20" s="1"/>
-      <c r="CH20" s="1"/>
+      <c r="CG20" s="1">
+        <v>-18</v>
+      </c>
+      <c r="CH20" s="1">
+        <v>17</v>
+      </c>
       <c r="CI20" s="1"/>
-      <c r="CJ20" s="1"/>
-      <c r="CK20" s="1"/>
+      <c r="CJ20" s="1">
+        <v>-18</v>
+      </c>
+      <c r="CK20" s="1">
+        <v>8</v>
+      </c>
       <c r="CL20" s="1"/>
-      <c r="CM20" s="1"/>
-      <c r="CN20" s="1"/>
+      <c r="CM20" s="1">
+        <v>-18</v>
+      </c>
+      <c r="CN20" s="1">
+        <v>11</v>
+      </c>
       <c r="CO20" s="1"/>
-      <c r="CP20" s="1"/>
-      <c r="CQ20" s="1"/>
+      <c r="CP20" s="1">
+        <v>-18</v>
+      </c>
+      <c r="CQ20" s="1">
+        <v>5</v>
+      </c>
       <c r="CR20" s="1"/>
-      <c r="CS20" s="1"/>
-      <c r="CT20" s="1"/>
+      <c r="CS20" s="1">
+        <v>-18</v>
+      </c>
+      <c r="CT20" s="1">
+        <v>10</v>
+      </c>
       <c r="CU20" s="1"/>
+      <c r="CV20" s="1">
+        <v>-17.5</v>
+      </c>
+      <c r="CW20" s="1">
+        <v>2</v>
+      </c>
+      <c r="CX20" s="1"/>
+      <c r="CY20" s="1">
+        <v>-18</v>
+      </c>
+      <c r="CZ20" s="1">
+        <v>12</v>
+      </c>
+      <c r="DA20" s="1"/>
+      <c r="DB20" s="1">
+        <v>-18</v>
+      </c>
+      <c r="DC20" s="1">
+        <v>1</v>
+      </c>
+      <c r="DD20" s="1"/>
+      <c r="DE20" s="1">
+        <v>-18</v>
+      </c>
+      <c r="DF20" s="1">
+        <v>1</v>
+      </c>
+      <c r="DG20" s="1"/>
+      <c r="DH20" s="1">
+        <v>-18</v>
+      </c>
+      <c r="DI20" s="1">
+        <v>10</v>
+      </c>
+      <c r="DJ20" s="1"/>
+      <c r="DK20" s="1">
+        <v>-18</v>
+      </c>
+      <c r="DL20" s="1">
+        <v>4</v>
+      </c>
+      <c r="DM20" s="1"/>
+      <c r="DN20" s="1">
+        <v>-18</v>
+      </c>
+      <c r="DO20" s="1">
+        <v>26</v>
+      </c>
+      <c r="DP20" s="1"/>
+      <c r="DQ20" s="1"/>
+      <c r="DR20" s="1"/>
+      <c r="DS20" s="1"/>
+      <c r="DT20" s="1"/>
+      <c r="DU20" s="1"/>
+      <c r="DV20" s="1"/>
+      <c r="DW20" s="1"/>
+      <c r="DX20" s="1"/>
+      <c r="DY20" s="1"/>
+      <c r="DZ20" s="1"/>
+      <c r="EA20" s="1"/>
+      <c r="EB20" s="1"/>
+      <c r="EC20" s="1"/>
+      <c r="ED20" s="1"/>
+      <c r="EE20" s="1"/>
+      <c r="EF20" s="1"/>
+      <c r="EG20" s="1"/>
+      <c r="EH20" s="1"/>
+      <c r="EI20" s="1"/>
+      <c r="EJ20" s="1"/>
+      <c r="EK20" s="1"/>
+      <c r="EL20" s="1"/>
+      <c r="EM20" s="1"/>
+      <c r="EN20" s="1"/>
+      <c r="EO20" s="1"/>
+      <c r="EP20" s="1"/>
+      <c r="EQ20" s="1"/>
+      <c r="ER20" s="1"/>
+      <c r="ES20" s="1"/>
+      <c r="ET20" s="1"/>
+      <c r="EU20" s="1"/>
+      <c r="EV20" s="1"/>
+      <c r="EW20" s="1"/>
+      <c r="EX20" s="1"/>
     </row>
-    <row r="21" spans="1:99" ht="15.75" customHeight="1">
+    <row r="21" spans="1:154" ht="15.75" customHeight="1">
       <c r="A21" s="1">
         <v>-13.5</v>
       </c>
@@ -4612,26 +6757,129 @@
         <v>18</v>
       </c>
       <c r="CC21" s="1"/>
-      <c r="CD21" s="1"/>
-      <c r="CE21" s="1"/>
+      <c r="CD21" s="1">
+        <v>-18.5</v>
+      </c>
+      <c r="CE21" s="1">
+        <v>7</v>
+      </c>
       <c r="CF21" s="1"/>
-      <c r="CG21" s="1"/>
-      <c r="CH21" s="1"/>
+      <c r="CG21" s="1">
+        <v>-19</v>
+      </c>
+      <c r="CH21" s="1">
+        <v>12</v>
+      </c>
       <c r="CI21" s="1"/>
-      <c r="CJ21" s="1"/>
-      <c r="CK21" s="1"/>
+      <c r="CJ21" s="1">
+        <v>-19</v>
+      </c>
+      <c r="CK21" s="1">
+        <v>3</v>
+      </c>
       <c r="CL21" s="1"/>
-      <c r="CM21" s="1"/>
-      <c r="CN21" s="1"/>
+      <c r="CM21" s="1">
+        <v>-18.5</v>
+      </c>
+      <c r="CN21" s="1">
+        <v>1</v>
+      </c>
       <c r="CO21" s="1"/>
-      <c r="CP21" s="1"/>
-      <c r="CQ21" s="1"/>
+      <c r="CP21" s="1">
+        <v>-19</v>
+      </c>
+      <c r="CQ21" s="1">
+        <v>2</v>
+      </c>
       <c r="CR21" s="1"/>
-      <c r="CS21" s="1"/>
-      <c r="CT21" s="1"/>
+      <c r="CS21" s="1">
+        <v>-19</v>
+      </c>
+      <c r="CT21" s="1">
+        <v>15</v>
+      </c>
       <c r="CU21" s="1"/>
+      <c r="CV21" s="1"/>
+      <c r="CW21" s="1"/>
+      <c r="CX21" s="1"/>
+      <c r="CY21" s="1">
+        <v>-19</v>
+      </c>
+      <c r="CZ21" s="1">
+        <v>7</v>
+      </c>
+      <c r="DA21" s="1"/>
+      <c r="DB21" s="1">
+        <v>-19</v>
+      </c>
+      <c r="DC21" s="1">
+        <v>1</v>
+      </c>
+      <c r="DD21" s="1"/>
+      <c r="DE21" s="1">
+        <v>-19</v>
+      </c>
+      <c r="DF21" s="1">
+        <v>4</v>
+      </c>
+      <c r="DG21" s="1"/>
+      <c r="DH21" s="1">
+        <v>-19</v>
+      </c>
+      <c r="DI21" s="1">
+        <v>6</v>
+      </c>
+      <c r="DJ21" s="1"/>
+      <c r="DK21" s="1">
+        <v>-19</v>
+      </c>
+      <c r="DL21" s="1">
+        <v>4</v>
+      </c>
+      <c r="DM21" s="1"/>
+      <c r="DN21" s="1">
+        <v>-19</v>
+      </c>
+      <c r="DO21" s="1">
+        <v>5</v>
+      </c>
+      <c r="DP21" s="1"/>
+      <c r="DQ21" s="1"/>
+      <c r="DR21" s="1"/>
+      <c r="DS21" s="1"/>
+      <c r="DT21" s="1"/>
+      <c r="DU21" s="1"/>
+      <c r="DV21" s="1"/>
+      <c r="DW21" s="1"/>
+      <c r="DX21" s="1"/>
+      <c r="DY21" s="1"/>
+      <c r="DZ21" s="1"/>
+      <c r="EA21" s="1"/>
+      <c r="EB21" s="1"/>
+      <c r="EC21" s="1"/>
+      <c r="ED21" s="1"/>
+      <c r="EE21" s="1"/>
+      <c r="EF21" s="1"/>
+      <c r="EG21" s="1"/>
+      <c r="EH21" s="1"/>
+      <c r="EI21" s="1"/>
+      <c r="EJ21" s="1"/>
+      <c r="EK21" s="1"/>
+      <c r="EL21" s="1"/>
+      <c r="EM21" s="1"/>
+      <c r="EN21" s="1"/>
+      <c r="EO21" s="1"/>
+      <c r="EP21" s="1"/>
+      <c r="EQ21" s="1"/>
+      <c r="ER21" s="1"/>
+      <c r="ES21" s="1"/>
+      <c r="ET21" s="1"/>
+      <c r="EU21" s="1"/>
+      <c r="EV21" s="1"/>
+      <c r="EW21" s="1"/>
+      <c r="EX21" s="1"/>
     </row>
-    <row r="22" spans="1:99" ht="15.75" customHeight="1">
+    <row r="22" spans="1:154" ht="15.75" customHeight="1">
       <c r="A22" s="1">
         <v>-14</v>
       </c>
@@ -4766,11 +7014,19 @@
         <v>5</v>
       </c>
       <c r="CC22" s="1"/>
-      <c r="CD22" s="1"/>
-      <c r="CE22" s="1"/>
+      <c r="CD22" s="1">
+        <v>-19</v>
+      </c>
+      <c r="CE22" s="1">
+        <v>3</v>
+      </c>
       <c r="CF22" s="1"/>
-      <c r="CG22" s="1"/>
-      <c r="CH22" s="1"/>
+      <c r="CG22" s="1">
+        <v>-20</v>
+      </c>
+      <c r="CH22" s="1">
+        <v>16</v>
+      </c>
       <c r="CI22" s="1"/>
       <c r="CJ22" s="1"/>
       <c r="CK22" s="1"/>
@@ -4781,11 +7037,73 @@
       <c r="CP22" s="1"/>
       <c r="CQ22" s="1"/>
       <c r="CR22" s="1"/>
-      <c r="CS22" s="1"/>
-      <c r="CT22" s="1"/>
+      <c r="CS22" s="1">
+        <v>-20</v>
+      </c>
+      <c r="CT22" s="1">
+        <v>11</v>
+      </c>
       <c r="CU22" s="1"/>
+      <c r="CV22" s="1"/>
+      <c r="CW22" s="1"/>
+      <c r="CX22" s="1"/>
+      <c r="CY22" s="1">
+        <v>-20</v>
+      </c>
+      <c r="CZ22" s="1">
+        <v>6</v>
+      </c>
+      <c r="DA22" s="1"/>
+      <c r="DB22" s="1"/>
+      <c r="DC22" s="1"/>
+      <c r="DD22" s="1"/>
+      <c r="DE22" s="1"/>
+      <c r="DG22" s="1"/>
+      <c r="DH22" s="1"/>
+      <c r="DI22" s="1"/>
+      <c r="DJ22" s="1"/>
+      <c r="DK22" s="1"/>
+      <c r="DL22" s="1"/>
+      <c r="DM22" s="1"/>
+      <c r="DN22" s="1"/>
+      <c r="DO22" s="1"/>
+      <c r="DP22" s="1"/>
+      <c r="DQ22" s="1"/>
+      <c r="DR22" s="1"/>
+      <c r="DS22" s="1"/>
+      <c r="DT22" s="1"/>
+      <c r="DU22" s="1"/>
+      <c r="DV22" s="1"/>
+      <c r="DW22" s="1"/>
+      <c r="DX22" s="1"/>
+      <c r="DY22" s="1"/>
+      <c r="DZ22" s="1"/>
+      <c r="EA22" s="1"/>
+      <c r="EB22" s="1"/>
+      <c r="EC22" s="1"/>
+      <c r="ED22" s="1"/>
+      <c r="EE22" s="1"/>
+      <c r="EF22" s="1"/>
+      <c r="EG22" s="1"/>
+      <c r="EH22" s="1"/>
+      <c r="EI22" s="1"/>
+      <c r="EJ22" s="1"/>
+      <c r="EK22" s="1"/>
+      <c r="EL22" s="1"/>
+      <c r="EM22" s="1"/>
+      <c r="EN22" s="1"/>
+      <c r="EO22" s="1"/>
+      <c r="EP22" s="1"/>
+      <c r="EQ22" s="1"/>
+      <c r="ER22" s="1"/>
+      <c r="ES22" s="1"/>
+      <c r="ET22" s="1"/>
+      <c r="EU22" s="1"/>
+      <c r="EV22" s="1"/>
+      <c r="EW22" s="1"/>
+      <c r="EX22" s="1"/>
     </row>
-    <row r="23" spans="1:99" ht="15.75" customHeight="1">
+    <row r="23" spans="1:154" ht="15.75" customHeight="1">
       <c r="A23" s="1">
         <v>-14.5</v>
       </c>
@@ -4912,11 +7230,19 @@
         <v>4</v>
       </c>
       <c r="CC23" s="1"/>
-      <c r="CD23" s="1"/>
-      <c r="CE23" s="1"/>
+      <c r="CD23" s="1">
+        <v>-19.5</v>
+      </c>
+      <c r="CE23" s="1">
+        <v>8</v>
+      </c>
       <c r="CF23" s="1"/>
-      <c r="CG23" s="1"/>
-      <c r="CH23" s="1"/>
+      <c r="CG23" s="1">
+        <v>-21</v>
+      </c>
+      <c r="CH23" s="1">
+        <v>12</v>
+      </c>
       <c r="CI23" s="1"/>
       <c r="CJ23" s="1"/>
       <c r="CK23" s="1"/>
@@ -4927,11 +7253,74 @@
       <c r="CP23" s="1"/>
       <c r="CQ23" s="1"/>
       <c r="CR23" s="1"/>
-      <c r="CS23" s="1"/>
-      <c r="CT23" s="1"/>
+      <c r="CS23" s="1">
+        <v>-21</v>
+      </c>
+      <c r="CT23" s="1">
+        <v>15</v>
+      </c>
       <c r="CU23" s="1"/>
+      <c r="CV23" s="1"/>
+      <c r="CW23" s="1"/>
+      <c r="CX23" s="1"/>
+      <c r="CY23" s="1">
+        <v>-21</v>
+      </c>
+      <c r="CZ23" s="1">
+        <v>2</v>
+      </c>
+      <c r="DA23" s="1"/>
+      <c r="DB23" s="1"/>
+      <c r="DC23" s="1"/>
+      <c r="DD23" s="1"/>
+      <c r="DE23" s="1"/>
+      <c r="DF23" s="1"/>
+      <c r="DG23" s="1"/>
+      <c r="DH23" s="1"/>
+      <c r="DI23" s="1"/>
+      <c r="DJ23" s="1"/>
+      <c r="DK23" s="1"/>
+      <c r="DL23" s="1"/>
+      <c r="DM23" s="1"/>
+      <c r="DN23" s="1"/>
+      <c r="DO23" s="1"/>
+      <c r="DP23" s="1"/>
+      <c r="DQ23" s="1"/>
+      <c r="DR23" s="1"/>
+      <c r="DS23" s="1"/>
+      <c r="DT23" s="1"/>
+      <c r="DU23" s="1"/>
+      <c r="DV23" s="1"/>
+      <c r="DW23" s="1"/>
+      <c r="DX23" s="1"/>
+      <c r="DY23" s="1"/>
+      <c r="DZ23" s="1"/>
+      <c r="EA23" s="1"/>
+      <c r="EB23" s="1"/>
+      <c r="EC23" s="1"/>
+      <c r="ED23" s="1"/>
+      <c r="EE23" s="1"/>
+      <c r="EF23" s="1"/>
+      <c r="EG23" s="1"/>
+      <c r="EH23" s="1"/>
+      <c r="EI23" s="1"/>
+      <c r="EJ23" s="1"/>
+      <c r="EK23" s="1"/>
+      <c r="EL23" s="1"/>
+      <c r="EM23" s="1"/>
+      <c r="EN23" s="1"/>
+      <c r="EO23" s="1"/>
+      <c r="EP23" s="1"/>
+      <c r="EQ23" s="1"/>
+      <c r="ER23" s="1"/>
+      <c r="ES23" s="1"/>
+      <c r="ET23" s="1"/>
+      <c r="EU23" s="1"/>
+      <c r="EV23" s="1"/>
+      <c r="EW23" s="1"/>
+      <c r="EX23" s="1"/>
     </row>
-    <row r="24" spans="1:99" ht="15.75" customHeight="1">
+    <row r="24" spans="1:154" ht="15.75" customHeight="1">
       <c r="A24" s="1">
         <v>-15</v>
       </c>
@@ -5035,11 +7424,19 @@
       <c r="CA24" s="1"/>
       <c r="CB24" s="1"/>
       <c r="CC24" s="1"/>
-      <c r="CD24" s="1"/>
-      <c r="CE24" s="1"/>
+      <c r="CD24" s="1">
+        <v>-20</v>
+      </c>
+      <c r="CE24" s="1">
+        <v>3</v>
+      </c>
       <c r="CF24" s="1"/>
-      <c r="CG24" s="1"/>
-      <c r="CH24" s="1"/>
+      <c r="CG24" s="1">
+        <v>-22</v>
+      </c>
+      <c r="CH24" s="1">
+        <v>6</v>
+      </c>
       <c r="CI24" s="1"/>
       <c r="CJ24" s="1"/>
       <c r="CK24" s="1"/>
@@ -5050,11 +7447,70 @@
       <c r="CP24" s="1"/>
       <c r="CQ24" s="1"/>
       <c r="CR24" s="1"/>
-      <c r="CS24" s="1"/>
-      <c r="CT24" s="1"/>
+      <c r="CS24" s="1">
+        <v>-22</v>
+      </c>
+      <c r="CT24" s="1">
+        <v>10</v>
+      </c>
       <c r="CU24" s="1"/>
+      <c r="CV24" s="1"/>
+      <c r="CW24" s="1"/>
+      <c r="CX24" s="1"/>
+      <c r="CY24" s="1"/>
+      <c r="CZ24" s="1"/>
+      <c r="DA24" s="1"/>
+      <c r="DB24" s="1"/>
+      <c r="DC24" s="1"/>
+      <c r="DD24" s="1"/>
+      <c r="DE24" s="1"/>
+      <c r="DF24" s="1"/>
+      <c r="DG24" s="1"/>
+      <c r="DH24" s="1"/>
+      <c r="DI24" s="1"/>
+      <c r="DJ24" s="1"/>
+      <c r="DK24" s="1"/>
+      <c r="DL24" s="1"/>
+      <c r="DM24" s="1"/>
+      <c r="DN24" s="1"/>
+      <c r="DO24" s="1"/>
+      <c r="DP24" s="1"/>
+      <c r="DQ24" s="1"/>
+      <c r="DR24" s="1"/>
+      <c r="DS24" s="1"/>
+      <c r="DT24" s="1"/>
+      <c r="DU24" s="1"/>
+      <c r="DV24" s="1"/>
+      <c r="DW24" s="1"/>
+      <c r="DX24" s="1"/>
+      <c r="DY24" s="1"/>
+      <c r="DZ24" s="1"/>
+      <c r="EA24" s="1"/>
+      <c r="EB24" s="1"/>
+      <c r="EC24" s="1"/>
+      <c r="ED24" s="1"/>
+      <c r="EE24" s="1"/>
+      <c r="EF24" s="1"/>
+      <c r="EG24" s="1"/>
+      <c r="EH24" s="1"/>
+      <c r="EI24" s="1"/>
+      <c r="EJ24" s="1"/>
+      <c r="EK24" s="1"/>
+      <c r="EL24" s="1"/>
+      <c r="EM24" s="1"/>
+      <c r="EN24" s="1"/>
+      <c r="EO24" s="1"/>
+      <c r="EP24" s="1"/>
+      <c r="EQ24" s="1"/>
+      <c r="ER24" s="1"/>
+      <c r="ES24" s="1"/>
+      <c r="ET24" s="1"/>
+      <c r="EU24" s="1"/>
+      <c r="EV24" s="1"/>
+      <c r="EW24" s="1"/>
+      <c r="EX24" s="1"/>
     </row>
-    <row r="25" spans="1:99" ht="15.75" customHeight="1">
+    <row r="25" spans="1:154" ht="15.75" customHeight="1">
       <c r="A25" s="1">
         <v>-15.5</v>
       </c>
@@ -5101,8 +7557,28 @@
       </c>
       <c r="CA25" s="1"/>
       <c r="CB25" s="1"/>
+      <c r="CD25" s="1">
+        <v>-21</v>
+      </c>
+      <c r="CE25" s="1">
+        <v>9</v>
+      </c>
+      <c r="CG25" s="1">
+        <v>-22.5</v>
+      </c>
+      <c r="CH25" s="1">
+        <v>1</v>
+      </c>
+      <c r="CS25" s="1">
+        <v>-23</v>
+      </c>
+      <c r="CT25" s="1">
+        <v>7</v>
+      </c>
+      <c r="CV25" s="1"/>
+      <c r="CW25" s="1"/>
     </row>
-    <row r="26" spans="1:99" ht="15.75" customHeight="1">
+    <row r="26" spans="1:154" ht="15.75" customHeight="1">
       <c r="A26" s="1">
         <v>-16</v>
       </c>
@@ -5121,8 +7597,20 @@
       <c r="N26" s="1">
         <v>4</v>
       </c>
+      <c r="CD26" s="1">
+        <v>-21.5</v>
+      </c>
+      <c r="CE26" s="1">
+        <v>4</v>
+      </c>
+      <c r="CG26" s="1">
+        <v>-23</v>
+      </c>
+      <c r="CH26" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:99" ht="15.75" customHeight="1">
+    <row r="27" spans="1:154" ht="15.75" customHeight="1">
       <c r="A27" s="1">
         <v>-16.5</v>
       </c>
@@ -5136,7 +7624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:99" ht="15.75" customHeight="1">
+    <row r="28" spans="1:154" ht="15.75" customHeight="1">
       <c r="A28" s="1">
         <v>-17</v>
       </c>
@@ -5150,7 +7638,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:99" ht="15.75" customHeight="1">
+    <row r="29" spans="1:154" ht="15.75" customHeight="1">
       <c r="A29" s="1">
         <v>-17.5</v>
       </c>
@@ -5164,7 +7652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:99" ht="15.75" customHeight="1">
+    <row r="30" spans="1:154" ht="15.75" customHeight="1">
       <c r="A30" s="1">
         <v>-18.5</v>
       </c>
@@ -5178,7 +7666,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:99" ht="15.75" customHeight="1">
+    <row r="31" spans="1:154" ht="15.75" customHeight="1">
       <c r="B31" s="1"/>
       <c r="J31" s="1">
         <v>-19</v>
@@ -5187,7 +7675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:99" ht="15.75" customHeight="1">
+    <row r="32" spans="1:154" ht="15.75" customHeight="1">
       <c r="J32" s="1">
         <v>-19.5</v>
       </c>

--- a/datas_lab_IN.xlsx
+++ b/datas_lab_IN.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuille 2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,40 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="17">
-  <si>
-    <t>About the codes</t>
-  </si>
-  <si>
-    <t>Winter</t>
-  </si>
-  <si>
-    <t>Spring</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>Automn</t>
-  </si>
-  <si>
-    <t>Season</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Marine</t>
-  </si>
-  <si>
-    <t>Desert</t>
-  </si>
-  <si>
-    <t>Europe</t>
-  </si>
-  <si>
-    <t>America</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="6">
   <si>
     <t>[Season, Source]</t>
   </si>
@@ -70,20 +36,25 @@
     <t/>
   </si>
   <si>
-    <t>code</t>
+    <t>Code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
@@ -112,12 +83,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -449,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EX32"/>
+  <dimension ref="A1:GB32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DK1" workbookViewId="0">
-      <selection activeCell="DP4" sqref="DP4"/>
+    <sheetView tabSelected="1" topLeftCell="DR1" workbookViewId="0">
+      <selection activeCell="EA24" sqref="EA24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -460,7 +436,7 @@
     <col min="3" max="3" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:154" ht="15.75" customHeight="1">
+    <row r="1" spans="1:184" ht="15.75" customHeight="1">
       <c r="A1" s="1">
         <v>217</v>
       </c>
@@ -468,7 +444,7 @@
         <v>42152</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1">
         <v>218</v>
@@ -736,353 +712,549 @@
         <v>42173</v>
       </c>
       <c r="DP1" s="2"/>
-      <c r="DQ1" s="2"/>
-      <c r="DR1" s="2"/>
+      <c r="DQ1" s="1">
+        <v>568</v>
+      </c>
+      <c r="DR1" s="2">
+        <v>42173</v>
+      </c>
       <c r="DS1" s="2"/>
-      <c r="DT1" s="2"/>
-      <c r="DU1" s="2"/>
+      <c r="DT1" s="1">
+        <v>569</v>
+      </c>
+      <c r="DU1" s="2">
+        <v>42173</v>
+      </c>
       <c r="DV1" s="2"/>
-      <c r="DW1" s="2"/>
-      <c r="DX1" s="2"/>
+      <c r="DW1" s="1">
+        <v>613</v>
+      </c>
+      <c r="DX1" s="2">
+        <v>42173</v>
+      </c>
       <c r="DY1" s="2"/>
-      <c r="DZ1" s="2"/>
-      <c r="EA1" s="2"/>
+      <c r="DZ1" s="1">
+        <v>637</v>
+      </c>
+      <c r="EA1" s="2">
+        <v>42177</v>
+      </c>
       <c r="EB1" s="2"/>
-      <c r="EC1" s="2"/>
-      <c r="ED1" s="2"/>
+      <c r="EC1" s="1">
+        <v>645</v>
+      </c>
+      <c r="ED1" s="2">
+        <v>42177</v>
+      </c>
       <c r="EE1" s="2"/>
-      <c r="EF1" s="2"/>
-      <c r="EG1" s="2"/>
+      <c r="EF1" s="1">
+        <v>647</v>
+      </c>
+      <c r="EG1" s="2">
+        <v>42177</v>
+      </c>
       <c r="EH1" s="2"/>
-      <c r="EI1" s="2"/>
-      <c r="EJ1" s="2"/>
+      <c r="EI1" s="1">
+        <v>658</v>
+      </c>
+      <c r="EJ1" s="2">
+        <v>42177</v>
+      </c>
       <c r="EK1" s="2"/>
-      <c r="EL1" s="2"/>
-      <c r="EM1" s="2"/>
+      <c r="EL1" s="1">
+        <v>666</v>
+      </c>
+      <c r="EM1" s="2">
+        <v>42177</v>
+      </c>
       <c r="EN1" s="2"/>
-      <c r="EO1" s="2"/>
-      <c r="EP1" s="2"/>
+      <c r="EO1" s="1">
+        <v>670</v>
+      </c>
+      <c r="EP1" s="2">
+        <v>42178</v>
+      </c>
       <c r="EQ1" s="2"/>
-      <c r="ER1" s="2"/>
-      <c r="ES1" s="2"/>
+      <c r="ER1" s="1">
+        <v>674</v>
+      </c>
+      <c r="ES1" s="2">
+        <v>42178</v>
+      </c>
       <c r="ET1" s="2"/>
-      <c r="EU1" s="2"/>
-      <c r="EV1" s="2"/>
+      <c r="EU1" s="1">
+        <v>676</v>
+      </c>
+      <c r="EV1" s="2">
+        <v>42178</v>
+      </c>
       <c r="EW1" s="2"/>
-      <c r="EX1" s="2"/>
+      <c r="EX1" s="1">
+        <v>678</v>
+      </c>
+      <c r="EY1" s="2">
+        <v>42178</v>
+      </c>
+      <c r="EZ1" s="2"/>
+      <c r="FA1" s="1">
+        <v>683</v>
+      </c>
+      <c r="FB1" s="2">
+        <v>42179</v>
+      </c>
+      <c r="FC1" s="2"/>
+      <c r="FD1" s="1">
+        <v>684</v>
+      </c>
+      <c r="FE1" s="2">
+        <v>42179</v>
+      </c>
+      <c r="FF1" s="2"/>
+      <c r="FG1" s="1">
+        <v>702</v>
+      </c>
+      <c r="FH1" s="2">
+        <v>42179</v>
+      </c>
+      <c r="FI1" s="2"/>
+      <c r="FJ1" s="1">
+        <v>365.5</v>
+      </c>
+      <c r="FK1" s="2">
+        <v>42179</v>
+      </c>
+      <c r="FL1" s="2"/>
+      <c r="FM1" s="1">
+        <v>366.5</v>
+      </c>
+      <c r="FN1" s="2">
+        <v>42179</v>
+      </c>
+      <c r="FO1" s="5"/>
+      <c r="FP1" s="6"/>
+      <c r="FQ1" s="6"/>
+      <c r="FR1" s="6"/>
+      <c r="FS1" s="5"/>
+      <c r="FT1" s="5"/>
+      <c r="FU1" s="2"/>
+      <c r="FV1" s="2"/>
+      <c r="FW1" s="2"/>
+      <c r="FX1" s="2"/>
+      <c r="FY1" s="2"/>
+      <c r="FZ1" s="2"/>
+      <c r="GA1" s="2"/>
+      <c r="GB1" s="2"/>
     </row>
-    <row r="2" spans="1:154" ht="15.75" customHeight="1">
+    <row r="2" spans="1:184" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AM2" s="1"/>
       <c r="AN2" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AS2" s="1"/>
       <c r="AT2" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AV2" s="1"/>
       <c r="AW2" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="BB2" s="1"/>
       <c r="BC2" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="BH2" s="1"/>
       <c r="BI2" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="BM2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="BN2" s="1"/>
       <c r="BO2" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="BQ2" s="1"/>
       <c r="BR2" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="BS2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="BT2" s="1"/>
       <c r="BU2" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="BW2" s="1"/>
       <c r="BX2" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="BY2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="BZ2" s="1"/>
       <c r="CA2" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="CB2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="CC2" s="1"/>
       <c r="CD2" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="CE2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="CF2" s="1"/>
       <c r="CG2" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="CI2" s="1"/>
       <c r="CJ2" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="CL2" s="1"/>
       <c r="CM2" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="CN2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="CO2" s="1"/>
       <c r="CP2" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="CQ2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="CR2" s="1"/>
       <c r="CS2" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="CT2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="CU2" s="1"/>
       <c r="CV2" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="CW2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="CX2" s="1"/>
       <c r="CY2" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="CZ2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="DA2" s="1"/>
       <c r="DB2" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="DC2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="DD2" s="1"/>
       <c r="DE2" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="DF2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="DG2" s="1"/>
       <c r="DH2" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="DI2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="DJ2" s="1"/>
       <c r="DK2" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="DL2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="DM2" s="1"/>
       <c r="DN2" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="DO2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="DP2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="DQ2" s="1"/>
-      <c r="DR2" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="DP2" s="1"/>
+      <c r="DQ2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="DR2" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="DS2" s="1"/>
-      <c r="DT2" s="1"/>
-      <c r="DU2" s="1"/>
+      <c r="DT2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="DU2" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="DV2" s="1"/>
-      <c r="DW2" s="1"/>
-      <c r="DX2" s="1"/>
+      <c r="DW2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="DX2" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="DY2" s="1"/>
-      <c r="DZ2" s="1"/>
-      <c r="EA2" s="1"/>
+      <c r="DZ2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="EA2" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="EB2" s="1"/>
-      <c r="EC2" s="1"/>
-      <c r="ED2" s="1"/>
+      <c r="EC2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="ED2" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="EE2" s="1"/>
-      <c r="EF2" s="1"/>
-      <c r="EG2" s="1"/>
+      <c r="EF2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="EG2" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="EH2" s="1"/>
-      <c r="EI2" s="1"/>
-      <c r="EJ2" s="1"/>
+      <c r="EI2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="EJ2" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="EK2" s="1"/>
-      <c r="EL2" s="1"/>
-      <c r="EM2" s="1"/>
+      <c r="EL2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="EM2" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="EN2" s="1"/>
-      <c r="EO2" s="1"/>
-      <c r="EP2" s="1"/>
+      <c r="EO2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="EP2" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="EQ2" s="1"/>
-      <c r="ER2" s="1"/>
-      <c r="ES2" s="1"/>
+      <c r="ER2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="ES2" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="ET2" s="1"/>
-      <c r="EU2" s="1"/>
-      <c r="EV2" s="1"/>
+      <c r="EU2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="EV2" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="EW2" s="1"/>
-      <c r="EX2" s="1"/>
+      <c r="EX2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="EY2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="EZ2" s="1"/>
+      <c r="FA2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="FB2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="FC2" s="1"/>
+      <c r="FD2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="FE2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="FF2" s="1"/>
+      <c r="FG2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="FH2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="FI2" s="1"/>
+      <c r="FJ2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="FK2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="FL2" s="1"/>
+      <c r="FM2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="FN2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="FO2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="FP2" s="7"/>
+      <c r="FQ2" s="7"/>
+      <c r="FR2" s="7"/>
+      <c r="FS2" s="7"/>
+      <c r="FT2" s="7"/>
+      <c r="FU2" s="1"/>
+      <c r="FV2" s="1"/>
+      <c r="FW2" s="1"/>
+      <c r="FX2" s="1"/>
+      <c r="FY2" s="1"/>
+      <c r="FZ2" s="1"/>
+      <c r="GA2" s="1"/>
+      <c r="GB2" s="1"/>
     </row>
-    <row r="3" spans="1:154" ht="15.75" customHeight="1">
+    <row r="3" spans="1:184" ht="15.75" customHeight="1">
       <c r="A3" s="1">
         <v>-1</v>
       </c>
@@ -1193,7 +1365,10 @@
       <c r="AX3" s="1">
         <v>0</v>
       </c>
-      <c r="AY3" s="1"/>
+      <c r="AY3" s="1">
+        <f t="shared" ref="AY3:AY19" si="0">SUM($AX$3:AX3)</f>
+        <v>0</v>
+      </c>
       <c r="AZ3" s="1">
         <v>-1</v>
       </c>
@@ -1354,45 +1529,143 @@
       <c r="DO3" s="1">
         <v>0</v>
       </c>
-      <c r="DP3" s="1">
-        <v>0</v>
-      </c>
-      <c r="DQ3" s="1"/>
-      <c r="DR3" s="1"/>
+      <c r="DP3" s="1"/>
+      <c r="DQ3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="DR3" s="1">
+        <v>0</v>
+      </c>
       <c r="DS3" s="1"/>
-      <c r="DT3" s="1"/>
-      <c r="DU3" s="1"/>
+      <c r="DT3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="DU3" s="1">
+        <v>0</v>
+      </c>
       <c r="DV3" s="1"/>
-      <c r="DW3" s="1"/>
-      <c r="DX3" s="1"/>
+      <c r="DW3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="DX3" s="1">
+        <v>0</v>
+      </c>
       <c r="DY3" s="1"/>
-      <c r="DZ3" s="1"/>
-      <c r="EA3" s="1"/>
+      <c r="DZ3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="EA3" s="1">
+        <v>0</v>
+      </c>
       <c r="EB3" s="1"/>
-      <c r="EC3" s="1"/>
-      <c r="ED3" s="1"/>
+      <c r="EC3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="ED3" s="1">
+        <v>0</v>
+      </c>
       <c r="EE3" s="1"/>
-      <c r="EF3" s="1"/>
-      <c r="EG3" s="1"/>
+      <c r="EF3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="EG3" s="1">
+        <v>0</v>
+      </c>
       <c r="EH3" s="1"/>
-      <c r="EI3" s="1"/>
-      <c r="EJ3" s="1"/>
+      <c r="EI3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="EJ3" s="1">
+        <v>0</v>
+      </c>
       <c r="EK3" s="1"/>
-      <c r="EL3" s="1"/>
-      <c r="EM3" s="1"/>
+      <c r="EL3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="EM3" s="1">
+        <v>0</v>
+      </c>
       <c r="EN3" s="1"/>
-      <c r="EO3" s="1"/>
-      <c r="EP3" s="1"/>
+      <c r="EO3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="EP3" s="1">
+        <v>0</v>
+      </c>
       <c r="EQ3" s="1"/>
-      <c r="ER3" s="1"/>
-      <c r="ES3" s="1"/>
+      <c r="ER3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="ES3" s="1">
+        <v>0</v>
+      </c>
       <c r="ET3" s="1"/>
-      <c r="EU3" s="1"/>
-      <c r="EV3" s="1"/>
+      <c r="EU3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="EV3" s="1">
+        <v>0</v>
+      </c>
       <c r="EW3" s="1"/>
-      <c r="EX3" s="1"/>
+      <c r="EX3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="EY3" s="1">
+        <v>0</v>
+      </c>
+      <c r="EZ3" s="1"/>
+      <c r="FA3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="FB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="FC3" s="1"/>
+      <c r="FD3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="FE3" s="1">
+        <v>0</v>
+      </c>
+      <c r="FF3" s="1"/>
+      <c r="FG3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="FH3" s="1">
+        <v>0</v>
+      </c>
+      <c r="FI3" s="1"/>
+      <c r="FJ3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="FK3" s="1">
+        <v>0</v>
+      </c>
+      <c r="FL3" s="1"/>
+      <c r="FM3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="FN3" s="1">
+        <v>0</v>
+      </c>
+      <c r="FO3" s="8">
+        <v>0</v>
+      </c>
+      <c r="FP3" s="7"/>
+      <c r="FQ3" s="7"/>
+      <c r="FR3" s="7"/>
+      <c r="FS3" s="7"/>
+      <c r="FT3" s="7"/>
+      <c r="FU3" s="1"/>
+      <c r="FV3" s="1"/>
+      <c r="FW3" s="1"/>
+      <c r="FX3" s="1"/>
+      <c r="FY3" s="1"/>
+      <c r="FZ3" s="1"/>
+      <c r="GA3" s="1"/>
+      <c r="GB3" s="1"/>
     </row>
-    <row r="4" spans="1:154" ht="15.75" customHeight="1">
+    <row r="4" spans="1:184" ht="15.75" customHeight="1">
       <c r="A4" s="1">
         <v>-2</v>
       </c>
@@ -1503,7 +1776,10 @@
       <c r="AX4" s="1">
         <v>0</v>
       </c>
-      <c r="AY4" s="1"/>
+      <c r="AY4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AZ4" s="1">
         <v>-2</v>
       </c>
@@ -1665,42 +1941,140 @@
         <v>0</v>
       </c>
       <c r="DP4" s="1"/>
-      <c r="DQ4" s="1"/>
-      <c r="DR4" s="1"/>
+      <c r="DQ4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="DR4" s="1">
+        <v>0</v>
+      </c>
       <c r="DS4" s="1"/>
-      <c r="DT4" s="1"/>
-      <c r="DU4" s="1"/>
+      <c r="DT4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="DU4" s="1">
+        <v>0</v>
+      </c>
       <c r="DV4" s="1"/>
-      <c r="DW4" s="1"/>
-      <c r="DX4" s="1"/>
+      <c r="DW4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="DX4" s="1">
+        <v>0</v>
+      </c>
       <c r="DY4" s="1"/>
-      <c r="DZ4" s="1"/>
-      <c r="EA4" s="1"/>
+      <c r="DZ4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="EA4" s="1">
+        <v>0</v>
+      </c>
       <c r="EB4" s="1"/>
-      <c r="EC4" s="1"/>
-      <c r="ED4" s="1"/>
+      <c r="EC4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="ED4" s="1">
+        <v>0</v>
+      </c>
       <c r="EE4" s="1"/>
-      <c r="EF4" s="1"/>
-      <c r="EG4" s="1"/>
+      <c r="EF4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="EG4" s="1">
+        <v>0</v>
+      </c>
       <c r="EH4" s="1"/>
-      <c r="EI4" s="1"/>
-      <c r="EJ4" s="1"/>
+      <c r="EI4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="EJ4" s="1">
+        <v>0</v>
+      </c>
       <c r="EK4" s="1"/>
-      <c r="EL4" s="1"/>
-      <c r="EM4" s="1"/>
+      <c r="EL4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="EM4" s="1">
+        <v>0</v>
+      </c>
       <c r="EN4" s="1"/>
-      <c r="EO4" s="1"/>
-      <c r="EP4" s="1"/>
+      <c r="EO4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="EP4" s="1">
+        <v>0</v>
+      </c>
       <c r="EQ4" s="1"/>
-      <c r="ER4" s="1"/>
-      <c r="ES4" s="1"/>
+      <c r="ER4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="ES4" s="1">
+        <v>0</v>
+      </c>
       <c r="ET4" s="1"/>
-      <c r="EU4" s="1"/>
-      <c r="EV4" s="1"/>
+      <c r="EU4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="EV4" s="1">
+        <v>0</v>
+      </c>
       <c r="EW4" s="1"/>
-      <c r="EX4" s="1"/>
+      <c r="EX4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="EY4" s="1">
+        <v>0</v>
+      </c>
+      <c r="EZ4" s="1"/>
+      <c r="FA4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="FB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="FC4" s="1"/>
+      <c r="FD4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="FE4" s="1">
+        <v>0</v>
+      </c>
+      <c r="FF4" s="1"/>
+      <c r="FG4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="FH4" s="1">
+        <v>0</v>
+      </c>
+      <c r="FI4" s="1"/>
+      <c r="FJ4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="FK4" s="1">
+        <v>0</v>
+      </c>
+      <c r="FL4" s="1"/>
+      <c r="FM4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="FN4" s="1">
+        <v>0</v>
+      </c>
+      <c r="FO4" s="8"/>
+      <c r="FP4" s="7"/>
+      <c r="FQ4" s="7"/>
+      <c r="FR4" s="7"/>
+      <c r="FS4" s="7"/>
+      <c r="FT4" s="7"/>
+      <c r="FU4" s="1"/>
+      <c r="FV4" s="1"/>
+      <c r="FW4" s="1"/>
+      <c r="FX4" s="1"/>
+      <c r="FY4" s="1"/>
+      <c r="FZ4" s="1"/>
+      <c r="GA4" s="1"/>
+      <c r="GB4" s="1"/>
     </row>
-    <row r="5" spans="1:154" ht="15.75" customHeight="1">
+    <row r="5" spans="1:184" ht="15.75" customHeight="1">
       <c r="A5" s="1">
         <v>-3</v>
       </c>
@@ -1811,7 +2185,10 @@
       <c r="AX5" s="1">
         <v>0</v>
       </c>
-      <c r="AY5" s="1"/>
+      <c r="AY5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AZ5" s="1">
         <v>-3</v>
       </c>
@@ -1973,42 +2350,140 @@
         <v>0</v>
       </c>
       <c r="DP5" s="1"/>
-      <c r="DQ5" s="1"/>
-      <c r="DR5" s="1"/>
+      <c r="DQ5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="DR5" s="1">
+        <v>0</v>
+      </c>
       <c r="DS5" s="1"/>
-      <c r="DT5" s="1"/>
-      <c r="DU5" s="1"/>
+      <c r="DT5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="DU5" s="1">
+        <v>0</v>
+      </c>
       <c r="DV5" s="1"/>
-      <c r="DW5" s="1"/>
-      <c r="DX5" s="1"/>
+      <c r="DW5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="DX5" s="1">
+        <v>0</v>
+      </c>
       <c r="DY5" s="1"/>
-      <c r="DZ5" s="1"/>
-      <c r="EA5" s="1"/>
+      <c r="DZ5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="EA5" s="1">
+        <v>0</v>
+      </c>
       <c r="EB5" s="1"/>
-      <c r="EC5" s="1"/>
-      <c r="ED5" s="1"/>
+      <c r="EC5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="ED5" s="1">
+        <v>0</v>
+      </c>
       <c r="EE5" s="1"/>
-      <c r="EF5" s="1"/>
-      <c r="EG5" s="1"/>
+      <c r="EF5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="EG5" s="1">
+        <v>0</v>
+      </c>
       <c r="EH5" s="1"/>
-      <c r="EI5" s="1"/>
-      <c r="EJ5" s="1"/>
+      <c r="EI5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="EJ5" s="1">
+        <v>0</v>
+      </c>
       <c r="EK5" s="1"/>
-      <c r="EL5" s="1"/>
-      <c r="EM5" s="1"/>
+      <c r="EL5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="EM5" s="1">
+        <v>0</v>
+      </c>
       <c r="EN5" s="1"/>
-      <c r="EO5" s="1"/>
-      <c r="EP5" s="1"/>
+      <c r="EO5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="EP5" s="1">
+        <v>0</v>
+      </c>
       <c r="EQ5" s="1"/>
-      <c r="ER5" s="1"/>
-      <c r="ES5" s="1"/>
+      <c r="ER5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="ES5" s="1">
+        <v>0</v>
+      </c>
       <c r="ET5" s="1"/>
-      <c r="EU5" s="1"/>
-      <c r="EV5" s="1"/>
+      <c r="EU5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="EV5" s="1">
+        <v>0</v>
+      </c>
       <c r="EW5" s="1"/>
-      <c r="EX5" s="1"/>
+      <c r="EX5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="EY5" s="1">
+        <v>0</v>
+      </c>
+      <c r="EZ5" s="1"/>
+      <c r="FA5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="FB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="FC5" s="1"/>
+      <c r="FD5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="FE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="FF5" s="1"/>
+      <c r="FG5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="FH5" s="1">
+        <v>0</v>
+      </c>
+      <c r="FI5" s="1"/>
+      <c r="FJ5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="FK5" s="1">
+        <v>0</v>
+      </c>
+      <c r="FL5" s="1"/>
+      <c r="FM5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="FN5" s="1">
+        <v>0</v>
+      </c>
+      <c r="FO5" s="8"/>
+      <c r="FP5" s="7"/>
+      <c r="FQ5" s="7"/>
+      <c r="FR5" s="7"/>
+      <c r="FS5" s="7"/>
+      <c r="FT5" s="7"/>
+      <c r="FU5" s="1"/>
+      <c r="FV5" s="1"/>
+      <c r="FW5" s="1"/>
+      <c r="FX5" s="1"/>
+      <c r="FY5" s="1"/>
+      <c r="FZ5" s="1"/>
+      <c r="GA5" s="1"/>
+      <c r="GB5" s="1"/>
     </row>
-    <row r="6" spans="1:154" ht="15.75" customHeight="1">
+    <row r="6" spans="1:184" ht="15.75" customHeight="1">
       <c r="A6" s="1">
         <v>-4</v>
       </c>
@@ -2119,7 +2594,10 @@
       <c r="AX6" s="1">
         <v>0</v>
       </c>
-      <c r="AY6" s="1"/>
+      <c r="AY6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AZ6" s="1">
         <v>-4</v>
       </c>
@@ -2281,42 +2759,140 @@
         <v>0</v>
       </c>
       <c r="DP6" s="1"/>
-      <c r="DQ6" s="1"/>
-      <c r="DR6" s="1"/>
+      <c r="DQ6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="DR6" s="1">
+        <v>0</v>
+      </c>
       <c r="DS6" s="1"/>
-      <c r="DT6" s="1"/>
-      <c r="DU6" s="1"/>
+      <c r="DT6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="DU6" s="1">
+        <v>0</v>
+      </c>
       <c r="DV6" s="1"/>
-      <c r="DW6" s="1"/>
-      <c r="DX6" s="1"/>
+      <c r="DW6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="DX6" s="1">
+        <v>0</v>
+      </c>
       <c r="DY6" s="1"/>
-      <c r="DZ6" s="1"/>
-      <c r="EA6" s="1"/>
+      <c r="DZ6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="EA6" s="1">
+        <v>0</v>
+      </c>
       <c r="EB6" s="1"/>
-      <c r="EC6" s="1"/>
-      <c r="ED6" s="1"/>
+      <c r="EC6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="ED6" s="1">
+        <v>0</v>
+      </c>
       <c r="EE6" s="1"/>
-      <c r="EF6" s="1"/>
-      <c r="EG6" s="1"/>
+      <c r="EF6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="EG6" s="1">
+        <v>0</v>
+      </c>
       <c r="EH6" s="1"/>
-      <c r="EI6" s="1"/>
-      <c r="EJ6" s="1"/>
+      <c r="EI6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="EJ6" s="1">
+        <v>0</v>
+      </c>
       <c r="EK6" s="1"/>
-      <c r="EL6" s="1"/>
-      <c r="EM6" s="1"/>
+      <c r="EL6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="EM6" s="1">
+        <v>0</v>
+      </c>
       <c r="EN6" s="1"/>
-      <c r="EO6" s="1"/>
-      <c r="EP6" s="1"/>
+      <c r="EO6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="EP6" s="1">
+        <v>0</v>
+      </c>
       <c r="EQ6" s="1"/>
-      <c r="ER6" s="1"/>
-      <c r="ES6" s="1"/>
+      <c r="ER6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="ES6" s="1">
+        <v>0</v>
+      </c>
       <c r="ET6" s="1"/>
-      <c r="EU6" s="1"/>
-      <c r="EV6" s="1"/>
+      <c r="EU6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="EV6" s="1">
+        <v>0</v>
+      </c>
       <c r="EW6" s="1"/>
-      <c r="EX6" s="1"/>
+      <c r="EX6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="EY6" s="1">
+        <v>0</v>
+      </c>
+      <c r="EZ6" s="1"/>
+      <c r="FA6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="FB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="FC6" s="1"/>
+      <c r="FD6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="FE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="FF6" s="1"/>
+      <c r="FG6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="FH6" s="1">
+        <v>0</v>
+      </c>
+      <c r="FI6" s="1"/>
+      <c r="FJ6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="FK6" s="1">
+        <v>1</v>
+      </c>
+      <c r="FL6" s="1"/>
+      <c r="FM6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="FN6" s="1">
+        <v>0</v>
+      </c>
+      <c r="FO6" s="8"/>
+      <c r="FP6" s="7"/>
+      <c r="FQ6" s="7"/>
+      <c r="FR6" s="7"/>
+      <c r="FS6" s="7"/>
+      <c r="FT6" s="7"/>
+      <c r="FU6" s="1"/>
+      <c r="FV6" s="1"/>
+      <c r="FW6" s="1"/>
+      <c r="FX6" s="1"/>
+      <c r="FY6" s="1"/>
+      <c r="FZ6" s="1"/>
+      <c r="GA6" s="1"/>
+      <c r="GB6" s="1"/>
     </row>
-    <row r="7" spans="1:154" ht="15.75" customHeight="1">
+    <row r="7" spans="1:184" ht="15.75" customHeight="1">
       <c r="A7" s="1">
         <v>-5</v>
       </c>
@@ -2427,7 +3003,10 @@
       <c r="AX7" s="1">
         <v>0</v>
       </c>
-      <c r="AY7" s="1"/>
+      <c r="AY7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AZ7" s="1">
         <v>-5</v>
       </c>
@@ -2589,42 +3168,140 @@
         <v>0</v>
       </c>
       <c r="DP7" s="1"/>
-      <c r="DQ7" s="1"/>
-      <c r="DR7" s="1"/>
+      <c r="DQ7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="DR7" s="1">
+        <v>0</v>
+      </c>
       <c r="DS7" s="1"/>
-      <c r="DT7" s="1"/>
-      <c r="DU7" s="1"/>
+      <c r="DT7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="DU7" s="1">
+        <v>0</v>
+      </c>
       <c r="DV7" s="1"/>
-      <c r="DW7" s="1"/>
-      <c r="DX7" s="1"/>
+      <c r="DW7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="DX7" s="1">
+        <v>0</v>
+      </c>
       <c r="DY7" s="1"/>
-      <c r="DZ7" s="1"/>
-      <c r="EA7" s="1"/>
+      <c r="DZ7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="EA7" s="1">
+        <v>0</v>
+      </c>
       <c r="EB7" s="1"/>
-      <c r="EC7" s="1"/>
-      <c r="ED7" s="1"/>
+      <c r="EC7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="ED7" s="1">
+        <v>0</v>
+      </c>
       <c r="EE7" s="1"/>
-      <c r="EF7" s="1"/>
-      <c r="EG7" s="1"/>
+      <c r="EF7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="EG7" s="1">
+        <v>0</v>
+      </c>
       <c r="EH7" s="1"/>
-      <c r="EI7" s="1"/>
-      <c r="EJ7" s="1"/>
+      <c r="EI7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="EJ7" s="1">
+        <v>0</v>
+      </c>
       <c r="EK7" s="1"/>
-      <c r="EL7" s="1"/>
-      <c r="EM7" s="1"/>
+      <c r="EL7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="EM7" s="1">
+        <v>0</v>
+      </c>
       <c r="EN7" s="1"/>
-      <c r="EO7" s="1"/>
-      <c r="EP7" s="1"/>
+      <c r="EO7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="EP7" s="1">
+        <v>0</v>
+      </c>
       <c r="EQ7" s="1"/>
-      <c r="ER7" s="1"/>
-      <c r="ES7" s="1"/>
+      <c r="ER7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="ES7" s="1">
+        <v>11</v>
+      </c>
       <c r="ET7" s="1"/>
-      <c r="EU7" s="1"/>
-      <c r="EV7" s="1"/>
+      <c r="EU7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="EV7" s="1">
+        <v>0</v>
+      </c>
       <c r="EW7" s="1"/>
-      <c r="EX7" s="1"/>
+      <c r="EX7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="EY7" s="1">
+        <v>0</v>
+      </c>
+      <c r="EZ7" s="1"/>
+      <c r="FA7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="FB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="FC7" s="1"/>
+      <c r="FD7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="FE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="FF7" s="1"/>
+      <c r="FG7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="FH7" s="1">
+        <v>0</v>
+      </c>
+      <c r="FI7" s="1"/>
+      <c r="FJ7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="FK7" s="1">
+        <v>5</v>
+      </c>
+      <c r="FL7" s="1"/>
+      <c r="FM7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="FN7" s="1">
+        <v>0</v>
+      </c>
+      <c r="FO7" s="8"/>
+      <c r="FP7" s="7"/>
+      <c r="FQ7" s="7"/>
+      <c r="FR7" s="7"/>
+      <c r="FS7" s="7"/>
+      <c r="FT7" s="7"/>
+      <c r="FU7" s="1"/>
+      <c r="FV7" s="1"/>
+      <c r="FW7" s="1"/>
+      <c r="FX7" s="1"/>
+      <c r="FY7" s="1"/>
+      <c r="FZ7" s="1"/>
+      <c r="GA7" s="1"/>
+      <c r="GB7" s="1"/>
     </row>
-    <row r="8" spans="1:154" ht="15.75" customHeight="1">
+    <row r="8" spans="1:184" ht="15.75" customHeight="1">
       <c r="A8" s="1">
         <v>-6</v>
       </c>
@@ -2735,7 +3412,10 @@
       <c r="AX8" s="1">
         <v>0</v>
       </c>
-      <c r="AY8" s="1"/>
+      <c r="AY8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AZ8" s="1">
         <v>-6</v>
       </c>
@@ -2897,42 +3577,140 @@
         <v>0</v>
       </c>
       <c r="DP8" s="1"/>
-      <c r="DQ8" s="1"/>
-      <c r="DR8" s="1"/>
+      <c r="DQ8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="DR8" s="1">
+        <v>0</v>
+      </c>
       <c r="DS8" s="1"/>
-      <c r="DT8" s="1"/>
-      <c r="DU8" s="1"/>
+      <c r="DT8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="DU8" s="1">
+        <v>0</v>
+      </c>
       <c r="DV8" s="1"/>
-      <c r="DW8" s="1"/>
-      <c r="DX8" s="1"/>
+      <c r="DW8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="DX8" s="1">
+        <v>0</v>
+      </c>
       <c r="DY8" s="1"/>
-      <c r="DZ8" s="1"/>
-      <c r="EA8" s="1"/>
+      <c r="DZ8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="EA8" s="1">
+        <v>0</v>
+      </c>
       <c r="EB8" s="1"/>
-      <c r="EC8" s="1"/>
-      <c r="ED8" s="1"/>
+      <c r="EC8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="ED8" s="1">
+        <v>1</v>
+      </c>
       <c r="EE8" s="1"/>
-      <c r="EF8" s="1"/>
-      <c r="EG8" s="1"/>
+      <c r="EF8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="EG8" s="1">
+        <v>2</v>
+      </c>
       <c r="EH8" s="1"/>
-      <c r="EI8" s="1"/>
-      <c r="EJ8" s="1"/>
+      <c r="EI8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="EJ8" s="1">
+        <v>0</v>
+      </c>
       <c r="EK8" s="1"/>
-      <c r="EL8" s="1"/>
-      <c r="EM8" s="1"/>
+      <c r="EL8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="EM8" s="1">
+        <v>0</v>
+      </c>
       <c r="EN8" s="1"/>
-      <c r="EO8" s="1"/>
-      <c r="EP8" s="1"/>
+      <c r="EO8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="EP8" s="1">
+        <v>0</v>
+      </c>
       <c r="EQ8" s="1"/>
-      <c r="ER8" s="1"/>
-      <c r="ES8" s="1"/>
+      <c r="ER8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="ES8" s="1">
+        <v>6</v>
+      </c>
       <c r="ET8" s="1"/>
-      <c r="EU8" s="1"/>
-      <c r="EV8" s="1"/>
+      <c r="EU8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="EV8" s="1">
+        <v>0</v>
+      </c>
       <c r="EW8" s="1"/>
-      <c r="EX8" s="1"/>
+      <c r="EX8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="EY8" s="1">
+        <v>0</v>
+      </c>
+      <c r="EZ8" s="1"/>
+      <c r="FA8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="FB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="FC8" s="1"/>
+      <c r="FD8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="FE8" s="1">
+        <v>0</v>
+      </c>
+      <c r="FF8" s="1"/>
+      <c r="FG8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="FH8" s="1">
+        <v>0</v>
+      </c>
+      <c r="FI8" s="1"/>
+      <c r="FJ8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="FK8" s="1">
+        <v>3</v>
+      </c>
+      <c r="FL8" s="1"/>
+      <c r="FM8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="FN8" s="1">
+        <v>0</v>
+      </c>
+      <c r="FO8" s="8"/>
+      <c r="FP8" s="7"/>
+      <c r="FQ8" s="7"/>
+      <c r="FR8" s="7"/>
+      <c r="FS8" s="7"/>
+      <c r="FT8" s="7"/>
+      <c r="FU8" s="1"/>
+      <c r="FV8" s="1"/>
+      <c r="FW8" s="1"/>
+      <c r="FX8" s="1"/>
+      <c r="FY8" s="1"/>
+      <c r="FZ8" s="1"/>
+      <c r="GA8" s="1"/>
+      <c r="GB8" s="1"/>
     </row>
-    <row r="9" spans="1:154" ht="15.75" customHeight="1">
+    <row r="9" spans="1:184" ht="15.75" customHeight="1">
       <c r="A9" s="1">
         <v>-7</v>
       </c>
@@ -3043,7 +3821,10 @@
       <c r="AX9" s="1">
         <v>0</v>
       </c>
-      <c r="AY9" s="1"/>
+      <c r="AY9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AZ9" s="1">
         <v>-7</v>
       </c>
@@ -3205,42 +3986,140 @@
         <v>0</v>
       </c>
       <c r="DP9" s="1"/>
-      <c r="DQ9" s="1"/>
-      <c r="DR9" s="1"/>
+      <c r="DQ9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="DR9" s="1">
+        <v>1</v>
+      </c>
       <c r="DS9" s="1"/>
-      <c r="DT9" s="1"/>
-      <c r="DU9" s="1"/>
+      <c r="DT9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="DU9" s="1">
+        <v>0</v>
+      </c>
       <c r="DV9" s="1"/>
-      <c r="DW9" s="1"/>
-      <c r="DX9" s="1"/>
+      <c r="DW9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="DX9" s="1">
+        <v>0</v>
+      </c>
       <c r="DY9" s="1"/>
-      <c r="DZ9" s="1"/>
-      <c r="EA9" s="1"/>
+      <c r="DZ9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="EA9" s="1">
+        <v>0</v>
+      </c>
       <c r="EB9" s="1"/>
-      <c r="EC9" s="1"/>
-      <c r="ED9" s="1"/>
+      <c r="EC9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="ED9" s="1">
+        <v>3</v>
+      </c>
       <c r="EE9" s="1"/>
-      <c r="EF9" s="1"/>
-      <c r="EG9" s="1"/>
+      <c r="EF9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="EG9" s="1">
+        <v>3</v>
+      </c>
       <c r="EH9" s="1"/>
-      <c r="EI9" s="1"/>
-      <c r="EJ9" s="1"/>
+      <c r="EI9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="EJ9" s="1">
+        <v>0</v>
+      </c>
       <c r="EK9" s="1"/>
-      <c r="EL9" s="1"/>
-      <c r="EM9" s="1"/>
+      <c r="EL9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="EM9" s="1">
+        <v>0</v>
+      </c>
       <c r="EN9" s="1"/>
-      <c r="EO9" s="1"/>
-      <c r="EP9" s="1"/>
+      <c r="EO9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="EP9" s="1">
+        <v>1</v>
+      </c>
       <c r="EQ9" s="1"/>
-      <c r="ER9" s="1"/>
-      <c r="ES9" s="1"/>
+      <c r="ER9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="ES9" s="1">
+        <v>2</v>
+      </c>
       <c r="ET9" s="1"/>
-      <c r="EU9" s="1"/>
-      <c r="EV9" s="1"/>
+      <c r="EU9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="EV9" s="1">
+        <v>0</v>
+      </c>
       <c r="EW9" s="1"/>
-      <c r="EX9" s="1"/>
+      <c r="EX9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="EY9" s="1">
+        <v>1</v>
+      </c>
+      <c r="EZ9" s="1"/>
+      <c r="FA9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="FB9" s="1">
+        <v>1</v>
+      </c>
+      <c r="FC9" s="1"/>
+      <c r="FD9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="FE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="FF9" s="1"/>
+      <c r="FG9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="FH9" s="1">
+        <v>1</v>
+      </c>
+      <c r="FI9" s="1"/>
+      <c r="FJ9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="FK9" s="1">
+        <v>1</v>
+      </c>
+      <c r="FL9" s="1"/>
+      <c r="FM9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="FN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="FO9" s="8"/>
+      <c r="FP9" s="7"/>
+      <c r="FQ9" s="7"/>
+      <c r="FR9" s="7"/>
+      <c r="FS9" s="7"/>
+      <c r="FT9" s="7"/>
+      <c r="FU9" s="1"/>
+      <c r="FV9" s="1"/>
+      <c r="FW9" s="1"/>
+      <c r="FX9" s="1"/>
+      <c r="FY9" s="1"/>
+      <c r="FZ9" s="1"/>
+      <c r="GA9" s="1"/>
+      <c r="GB9" s="1"/>
     </row>
-    <row r="10" spans="1:154" ht="15.75" customHeight="1">
+    <row r="10" spans="1:184" ht="15.75" customHeight="1">
       <c r="A10" s="1">
         <v>-8</v>
       </c>
@@ -3351,7 +4230,10 @@
       <c r="AX10" s="1">
         <v>1</v>
       </c>
-      <c r="AY10" s="1"/>
+      <c r="AY10" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="AZ10" s="1">
         <v>-8</v>
       </c>
@@ -3513,42 +4395,140 @@
         <v>1</v>
       </c>
       <c r="DP10" s="1"/>
-      <c r="DQ10" s="1"/>
-      <c r="DR10" s="1"/>
+      <c r="DQ10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="DR10" s="1">
+        <v>1</v>
+      </c>
       <c r="DS10" s="1"/>
-      <c r="DT10" s="1"/>
-      <c r="DU10" s="1"/>
+      <c r="DT10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="DU10" s="1">
+        <v>0</v>
+      </c>
       <c r="DV10" s="1"/>
-      <c r="DW10" s="1"/>
-      <c r="DX10" s="1"/>
+      <c r="DW10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="DX10" s="1">
+        <v>1</v>
+      </c>
       <c r="DY10" s="1"/>
-      <c r="DZ10" s="1"/>
-      <c r="EA10" s="1"/>
+      <c r="DZ10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="EA10" s="1">
+        <v>1</v>
+      </c>
       <c r="EB10" s="1"/>
-      <c r="EC10" s="1"/>
-      <c r="ED10" s="1"/>
+      <c r="EC10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="ED10" s="1">
+        <v>8</v>
+      </c>
       <c r="EE10" s="1"/>
-      <c r="EF10" s="1"/>
-      <c r="EG10" s="1"/>
+      <c r="EF10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="EG10" s="1">
+        <v>4</v>
+      </c>
       <c r="EH10" s="1"/>
-      <c r="EI10" s="1"/>
-      <c r="EJ10" s="1"/>
+      <c r="EI10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="EJ10" s="1">
+        <v>0</v>
+      </c>
       <c r="EK10" s="1"/>
-      <c r="EL10" s="1"/>
-      <c r="EM10" s="1"/>
+      <c r="EL10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="EM10" s="1">
+        <v>0</v>
+      </c>
       <c r="EN10" s="1"/>
-      <c r="EO10" s="1"/>
-      <c r="EP10" s="1"/>
+      <c r="EO10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="EP10" s="1">
+        <v>9</v>
+      </c>
       <c r="EQ10" s="1"/>
-      <c r="ER10" s="1"/>
-      <c r="ES10" s="1"/>
+      <c r="ER10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="ES10" s="1">
+        <v>13</v>
+      </c>
       <c r="ET10" s="1"/>
-      <c r="EU10" s="1"/>
-      <c r="EV10" s="1"/>
+      <c r="EU10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="EV10" s="1">
+        <v>7</v>
+      </c>
       <c r="EW10" s="1"/>
-      <c r="EX10" s="1"/>
+      <c r="EX10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="EY10" s="1">
+        <v>1</v>
+      </c>
+      <c r="EZ10" s="1"/>
+      <c r="FA10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="FB10" s="1">
+        <v>1</v>
+      </c>
+      <c r="FC10" s="1"/>
+      <c r="FD10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="FE10" s="1">
+        <v>2</v>
+      </c>
+      <c r="FF10" s="1"/>
+      <c r="FG10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="FH10" s="1">
+        <v>3</v>
+      </c>
+      <c r="FI10" s="1"/>
+      <c r="FJ10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="FK10" s="1">
+        <v>12</v>
+      </c>
+      <c r="FL10" s="1"/>
+      <c r="FM10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="FN10" s="1">
+        <v>1</v>
+      </c>
+      <c r="FO10" s="8"/>
+      <c r="FP10" s="7"/>
+      <c r="FQ10" s="7"/>
+      <c r="FR10" s="7"/>
+      <c r="FS10" s="7"/>
+      <c r="FT10" s="7"/>
+      <c r="FU10" s="1"/>
+      <c r="FV10" s="1"/>
+      <c r="FW10" s="1"/>
+      <c r="FX10" s="1"/>
+      <c r="FY10" s="1"/>
+      <c r="FZ10" s="1"/>
+      <c r="GA10" s="1"/>
+      <c r="GB10" s="1"/>
     </row>
-    <row r="11" spans="1:154" ht="15.75" customHeight="1">
+    <row r="11" spans="1:184" ht="15.75" customHeight="1">
       <c r="A11" s="1">
         <v>-8.5</v>
       </c>
@@ -3659,7 +4639,10 @@
       <c r="AX11" s="1">
         <v>3</v>
       </c>
-      <c r="AY11" s="1"/>
+      <c r="AY11" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="AZ11" s="1">
         <v>-9</v>
       </c>
@@ -3821,42 +4804,140 @@
         <v>0</v>
       </c>
       <c r="DP11" s="1"/>
-      <c r="DQ11" s="1"/>
-      <c r="DR11" s="1"/>
+      <c r="DQ11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="DR11" s="1">
+        <v>0</v>
+      </c>
       <c r="DS11" s="1"/>
-      <c r="DT11" s="1"/>
-      <c r="DU11" s="1"/>
+      <c r="DT11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="DU11" s="1">
+        <v>0</v>
+      </c>
       <c r="DV11" s="1"/>
-      <c r="DW11" s="1"/>
-      <c r="DX11" s="1"/>
+      <c r="DW11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="DX11" s="1">
+        <v>0</v>
+      </c>
       <c r="DY11" s="1"/>
-      <c r="DZ11" s="1"/>
-      <c r="EA11" s="1"/>
+      <c r="DZ11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="EA11" s="1">
+        <v>1</v>
+      </c>
       <c r="EB11" s="1"/>
-      <c r="EC11" s="1"/>
-      <c r="ED11" s="1"/>
+      <c r="EC11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="ED11" s="1">
+        <v>9</v>
+      </c>
       <c r="EE11" s="1"/>
-      <c r="EF11" s="1"/>
-      <c r="EG11" s="1"/>
+      <c r="EF11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="EG11" s="1">
+        <v>7</v>
+      </c>
       <c r="EH11" s="1"/>
-      <c r="EI11" s="1"/>
-      <c r="EJ11" s="1"/>
+      <c r="EI11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="EJ11" s="1">
+        <v>3</v>
+      </c>
       <c r="EK11" s="1"/>
-      <c r="EL11" s="1"/>
-      <c r="EM11" s="1"/>
+      <c r="EL11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="EM11" s="1">
+        <v>1</v>
+      </c>
       <c r="EN11" s="1"/>
-      <c r="EO11" s="1"/>
-      <c r="EP11" s="1"/>
+      <c r="EO11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="EP11" s="1">
+        <v>5</v>
+      </c>
       <c r="EQ11" s="1"/>
-      <c r="ER11" s="1"/>
-      <c r="ES11" s="1"/>
+      <c r="ER11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="ES11" s="1">
+        <v>11</v>
+      </c>
       <c r="ET11" s="1"/>
-      <c r="EU11" s="1"/>
-      <c r="EV11" s="1"/>
+      <c r="EU11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="EV11" s="1">
+        <v>8</v>
+      </c>
       <c r="EW11" s="1"/>
-      <c r="EX11" s="1"/>
+      <c r="EX11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="EY11" s="1">
+        <v>7</v>
+      </c>
+      <c r="EZ11" s="1"/>
+      <c r="FA11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="FB11" s="1">
+        <v>8</v>
+      </c>
+      <c r="FC11" s="1"/>
+      <c r="FD11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="FE11" s="1">
+        <v>18</v>
+      </c>
+      <c r="FF11" s="1"/>
+      <c r="FG11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="FH11" s="1">
+        <v>13</v>
+      </c>
+      <c r="FI11" s="1"/>
+      <c r="FJ11" s="1">
+        <v>-8.5</v>
+      </c>
+      <c r="FK11" s="1">
+        <v>3</v>
+      </c>
+      <c r="FL11" s="1"/>
+      <c r="FM11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="FN11" s="1">
+        <v>6</v>
+      </c>
+      <c r="FO11" s="8"/>
+      <c r="FP11" s="7"/>
+      <c r="FQ11" s="7"/>
+      <c r="FR11" s="7"/>
+      <c r="FS11" s="7"/>
+      <c r="FT11" s="7"/>
+      <c r="FU11" s="1"/>
+      <c r="FV11" s="1"/>
+      <c r="FW11" s="1"/>
+      <c r="FX11" s="1"/>
+      <c r="FY11" s="1"/>
+      <c r="FZ11" s="1"/>
+      <c r="GA11" s="1"/>
+      <c r="GB11" s="1"/>
     </row>
-    <row r="12" spans="1:154" ht="15.75" customHeight="1">
+    <row r="12" spans="1:184" ht="15.75" customHeight="1">
       <c r="A12" s="1">
         <v>-9</v>
       </c>
@@ -3962,7 +5043,10 @@
       <c r="AX12" s="1">
         <v>3</v>
       </c>
-      <c r="AY12" s="1"/>
+      <c r="AY12" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="AZ12" s="1">
         <v>-10</v>
       </c>
@@ -4124,42 +5208,140 @@
         <v>1</v>
       </c>
       <c r="DP12" s="1"/>
-      <c r="DQ12" s="1"/>
-      <c r="DR12" s="1"/>
+      <c r="DQ12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="DR12" s="1">
+        <v>1</v>
+      </c>
       <c r="DS12" s="1"/>
-      <c r="DT12" s="1"/>
-      <c r="DU12" s="1"/>
+      <c r="DT12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="DU12" s="1">
+        <v>1</v>
+      </c>
       <c r="DV12" s="1"/>
-      <c r="DW12" s="1"/>
-      <c r="DX12" s="1"/>
+      <c r="DW12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="DX12" s="1">
+        <v>4</v>
+      </c>
       <c r="DY12" s="1"/>
-      <c r="DZ12" s="1"/>
-      <c r="EA12" s="1"/>
+      <c r="DZ12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="EA12" s="1">
+        <v>2</v>
+      </c>
       <c r="EB12" s="1"/>
-      <c r="EC12" s="1"/>
-      <c r="ED12" s="1"/>
+      <c r="EC12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="ED12" s="1">
+        <v>6</v>
+      </c>
       <c r="EE12" s="1"/>
-      <c r="EF12" s="1"/>
-      <c r="EG12" s="1"/>
+      <c r="EF12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="EG12" s="1">
+        <v>10</v>
+      </c>
       <c r="EH12" s="1"/>
-      <c r="EI12" s="1"/>
-      <c r="EJ12" s="1"/>
+      <c r="EI12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="EJ12" s="1">
+        <v>5</v>
+      </c>
       <c r="EK12" s="1"/>
-      <c r="EL12" s="1"/>
-      <c r="EM12" s="1"/>
+      <c r="EL12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="EM12" s="1">
+        <v>3</v>
+      </c>
       <c r="EN12" s="1"/>
-      <c r="EO12" s="1"/>
-      <c r="EP12" s="1"/>
+      <c r="EO12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="EP12" s="1">
+        <v>2</v>
+      </c>
       <c r="EQ12" s="1"/>
-      <c r="ER12" s="1"/>
-      <c r="ES12" s="1"/>
+      <c r="ER12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="ES12" s="1">
+        <v>14</v>
+      </c>
       <c r="ET12" s="1"/>
-      <c r="EU12" s="1"/>
-      <c r="EV12" s="1"/>
+      <c r="EU12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="EV12" s="1">
+        <v>4</v>
+      </c>
       <c r="EW12" s="1"/>
-      <c r="EX12" s="1"/>
+      <c r="EX12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="EY12" s="1">
+        <v>8</v>
+      </c>
+      <c r="EZ12" s="1"/>
+      <c r="FA12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="FB12" s="1">
+        <v>9</v>
+      </c>
+      <c r="FC12" s="1"/>
+      <c r="FD12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="FE12" s="1">
+        <v>14</v>
+      </c>
+      <c r="FF12" s="1"/>
+      <c r="FG12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="FH12" s="1">
+        <v>8</v>
+      </c>
+      <c r="FI12" s="1"/>
+      <c r="FJ12" s="1">
+        <v>-9</v>
+      </c>
+      <c r="FK12" s="1">
+        <v>16</v>
+      </c>
+      <c r="FL12" s="1"/>
+      <c r="FM12" s="1">
+        <v>-9.5</v>
+      </c>
+      <c r="FN12" s="1">
+        <v>4</v>
+      </c>
+      <c r="FO12" s="8"/>
+      <c r="FP12" s="7"/>
+      <c r="FQ12" s="7"/>
+      <c r="FR12" s="8"/>
+      <c r="FS12" s="7"/>
+      <c r="FT12" s="7"/>
+      <c r="FU12" s="1"/>
+      <c r="FV12" s="1"/>
+      <c r="FW12" s="1"/>
+      <c r="FX12" s="1"/>
+      <c r="FY12" s="1"/>
+      <c r="FZ12" s="1"/>
+      <c r="GA12" s="1"/>
+      <c r="GB12" s="1"/>
     </row>
-    <row r="13" spans="1:154" ht="15.75" customHeight="1">
+    <row r="13" spans="1:184" ht="15.75" customHeight="1">
       <c r="A13" s="1">
         <v>-9.5</v>
       </c>
@@ -4270,7 +5452,10 @@
       <c r="AX13" s="1">
         <v>7</v>
       </c>
-      <c r="AY13" s="1"/>
+      <c r="AY13" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="AZ13" s="1">
         <v>-11</v>
       </c>
@@ -4432,42 +5617,140 @@
         <v>3</v>
       </c>
       <c r="DP13" s="1"/>
-      <c r="DQ13" s="1"/>
-      <c r="DR13" s="1"/>
+      <c r="DQ13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="DR13" s="1">
+        <v>6</v>
+      </c>
       <c r="DS13" s="1"/>
-      <c r="DT13" s="1"/>
-      <c r="DU13" s="1"/>
+      <c r="DT13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="DU13" s="1">
+        <v>1</v>
+      </c>
       <c r="DV13" s="1"/>
-      <c r="DW13" s="1"/>
-      <c r="DX13" s="1"/>
+      <c r="DW13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="DX13" s="1">
+        <v>4</v>
+      </c>
       <c r="DY13" s="1"/>
-      <c r="DZ13" s="1"/>
-      <c r="EA13" s="1"/>
+      <c r="DZ13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="EA13" s="1">
+        <v>2</v>
+      </c>
       <c r="EB13" s="1"/>
-      <c r="EC13" s="1"/>
-      <c r="ED13" s="1"/>
+      <c r="EC13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="ED13" s="1">
+        <v>8</v>
+      </c>
       <c r="EE13" s="1"/>
-      <c r="EF13" s="1"/>
-      <c r="EG13" s="1"/>
+      <c r="EF13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="EG13" s="1">
+        <v>22</v>
+      </c>
       <c r="EH13" s="1"/>
-      <c r="EI13" s="1"/>
-      <c r="EJ13" s="1"/>
+      <c r="EI13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="EJ13" s="1">
+        <v>3</v>
+      </c>
       <c r="EK13" s="1"/>
-      <c r="EL13" s="1"/>
-      <c r="EM13" s="1"/>
+      <c r="EL13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="EM13" s="1">
+        <v>0</v>
+      </c>
       <c r="EN13" s="1"/>
-      <c r="EO13" s="1"/>
-      <c r="EP13" s="1"/>
+      <c r="EO13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="EP13" s="1">
+        <v>1</v>
+      </c>
       <c r="EQ13" s="1"/>
-      <c r="ER13" s="1"/>
-      <c r="ES13" s="1"/>
+      <c r="ER13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="ES13" s="1">
+        <v>11</v>
+      </c>
       <c r="ET13" s="1"/>
-      <c r="EU13" s="1"/>
-      <c r="EV13" s="1"/>
+      <c r="EU13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="EV13" s="1">
+        <v>17</v>
+      </c>
       <c r="EW13" s="1"/>
-      <c r="EX13" s="1"/>
+      <c r="EX13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="EY13" s="1">
+        <v>14</v>
+      </c>
+      <c r="EZ13" s="1"/>
+      <c r="FA13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="FB13" s="1">
+        <v>24</v>
+      </c>
+      <c r="FC13" s="1"/>
+      <c r="FD13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="FE13" s="1">
+        <v>10</v>
+      </c>
+      <c r="FF13" s="1"/>
+      <c r="FG13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="FH13" s="1">
+        <v>5</v>
+      </c>
+      <c r="FI13" s="1"/>
+      <c r="FJ13" s="1">
+        <v>-9.5</v>
+      </c>
+      <c r="FK13" s="1">
+        <v>3</v>
+      </c>
+      <c r="FL13" s="1"/>
+      <c r="FM13" s="1">
+        <v>-10</v>
+      </c>
+      <c r="FN13" s="1">
+        <v>4</v>
+      </c>
+      <c r="FO13" s="8"/>
+      <c r="FP13" s="7"/>
+      <c r="FQ13" s="7"/>
+      <c r="FR13" s="7"/>
+      <c r="FS13" s="7"/>
+      <c r="FT13" s="7"/>
+      <c r="FU13" s="1"/>
+      <c r="FV13" s="1"/>
+      <c r="FW13" s="1"/>
+      <c r="FX13" s="1"/>
+      <c r="FY13" s="1"/>
+      <c r="FZ13" s="1"/>
+      <c r="GA13" s="1"/>
+      <c r="GB13" s="1"/>
     </row>
-    <row r="14" spans="1:154" ht="15.75" customHeight="1">
+    <row r="14" spans="1:184" ht="15.75" customHeight="1">
       <c r="A14" s="1">
         <v>-10</v>
       </c>
@@ -4578,7 +5861,10 @@
       <c r="AX14" s="1">
         <v>4</v>
       </c>
-      <c r="AY14" s="1"/>
+      <c r="AY14" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="AZ14" s="1">
         <v>-12</v>
       </c>
@@ -4740,42 +6026,140 @@
         <v>0</v>
       </c>
       <c r="DP14" s="1"/>
-      <c r="DQ14" s="1"/>
-      <c r="DR14" s="1"/>
+      <c r="DQ14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="DR14" s="1">
+        <v>6</v>
+      </c>
       <c r="DS14" s="1"/>
-      <c r="DT14" s="1"/>
-      <c r="DU14" s="1"/>
+      <c r="DT14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="DU14" s="1">
+        <v>0</v>
+      </c>
       <c r="DV14" s="1"/>
-      <c r="DW14" s="1"/>
-      <c r="DX14" s="1"/>
+      <c r="DW14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="DX14" s="1">
+        <v>3</v>
+      </c>
       <c r="DY14" s="1"/>
-      <c r="DZ14" s="1"/>
-      <c r="EA14" s="1"/>
+      <c r="DZ14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="EA14" s="1">
+        <v>1</v>
+      </c>
       <c r="EB14" s="1"/>
-      <c r="EC14" s="1"/>
-      <c r="ED14" s="1"/>
+      <c r="EC14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="ED14" s="1">
+        <v>10</v>
+      </c>
       <c r="EE14" s="1"/>
-      <c r="EF14" s="1"/>
-      <c r="EG14" s="1"/>
+      <c r="EF14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="EG14" s="1">
+        <v>7</v>
+      </c>
       <c r="EH14" s="1"/>
-      <c r="EI14" s="1"/>
-      <c r="EJ14" s="1"/>
+      <c r="EI14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="EJ14" s="1">
+        <v>5</v>
+      </c>
       <c r="EK14" s="1"/>
-      <c r="EL14" s="1"/>
-      <c r="EM14" s="1"/>
+      <c r="EL14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="EM14" s="1">
+        <v>4</v>
+      </c>
       <c r="EN14" s="1"/>
-      <c r="EO14" s="1"/>
-      <c r="EP14" s="1"/>
+      <c r="EO14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="EP14" s="1">
+        <v>4</v>
+      </c>
       <c r="EQ14" s="1"/>
-      <c r="ER14" s="1"/>
-      <c r="ES14" s="1"/>
+      <c r="ER14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="ES14" s="1">
+        <v>9</v>
+      </c>
       <c r="ET14" s="1"/>
-      <c r="EU14" s="1"/>
-      <c r="EV14" s="1"/>
+      <c r="EU14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="EV14" s="1">
+        <v>8</v>
+      </c>
       <c r="EW14" s="1"/>
-      <c r="EX14" s="1"/>
+      <c r="EX14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="EY14" s="1">
+        <v>11</v>
+      </c>
+      <c r="EZ14" s="1"/>
+      <c r="FA14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="FB14" s="1">
+        <v>5</v>
+      </c>
+      <c r="FC14" s="1"/>
+      <c r="FD14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="FE14" s="1">
+        <v>7</v>
+      </c>
+      <c r="FF14" s="1"/>
+      <c r="FG14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="FH14" s="1">
+        <v>12</v>
+      </c>
+      <c r="FI14" s="1"/>
+      <c r="FJ14" s="1">
+        <v>-10</v>
+      </c>
+      <c r="FK14" s="1">
+        <v>16</v>
+      </c>
+      <c r="FL14" s="1"/>
+      <c r="FM14" s="1">
+        <v>-10.5</v>
+      </c>
+      <c r="FN14" s="1">
+        <v>1</v>
+      </c>
+      <c r="FO14" s="8"/>
+      <c r="FP14" s="7"/>
+      <c r="FQ14" s="7"/>
+      <c r="FR14" s="7"/>
+      <c r="FS14" s="7"/>
+      <c r="FT14" s="7"/>
+      <c r="FU14" s="1"/>
+      <c r="FV14" s="1"/>
+      <c r="FW14" s="1"/>
+      <c r="FX14" s="1"/>
+      <c r="FY14" s="1"/>
+      <c r="FZ14" s="1"/>
+      <c r="GA14" s="1"/>
+      <c r="GB14" s="1"/>
     </row>
-    <row r="15" spans="1:154" ht="15.75" customHeight="1">
+    <row r="15" spans="1:184" ht="15.75" customHeight="1">
       <c r="A15" s="1">
         <v>-10.5</v>
       </c>
@@ -4886,7 +6270,10 @@
       <c r="AX15" s="1">
         <v>12</v>
       </c>
-      <c r="AY15" s="1"/>
+      <c r="AY15" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="AZ15" s="1">
         <v>-13</v>
       </c>
@@ -5048,42 +6435,140 @@
         <v>6</v>
       </c>
       <c r="DP15" s="1"/>
-      <c r="DQ15" s="1"/>
-      <c r="DR15" s="1"/>
+      <c r="DQ15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="DR15" s="1">
+        <v>14</v>
+      </c>
       <c r="DS15" s="1"/>
-      <c r="DT15" s="1"/>
-      <c r="DU15" s="1"/>
+      <c r="DT15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="DU15" s="1">
+        <v>4</v>
+      </c>
       <c r="DV15" s="1"/>
-      <c r="DW15" s="1"/>
-      <c r="DX15" s="1"/>
+      <c r="DW15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="DX15" s="1">
+        <v>7</v>
+      </c>
       <c r="DY15" s="1"/>
-      <c r="DZ15" s="1"/>
-      <c r="EA15" s="1"/>
+      <c r="DZ15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="EA15" s="1">
+        <v>3</v>
+      </c>
       <c r="EB15" s="1"/>
-      <c r="EC15" s="1"/>
-      <c r="ED15" s="1"/>
+      <c r="EC15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="ED15" s="1">
+        <v>18</v>
+      </c>
       <c r="EE15" s="1"/>
-      <c r="EF15" s="1"/>
-      <c r="EG15" s="1"/>
+      <c r="EF15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="EG15" s="1">
+        <v>10</v>
+      </c>
       <c r="EH15" s="1"/>
-      <c r="EI15" s="1"/>
-      <c r="EJ15" s="1"/>
+      <c r="EI15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="EJ15" s="1">
+        <v>13</v>
+      </c>
       <c r="EK15" s="1"/>
-      <c r="EL15" s="1"/>
-      <c r="EM15" s="1"/>
+      <c r="EL15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="EM15" s="1">
+        <v>3</v>
+      </c>
       <c r="EN15" s="1"/>
-      <c r="EO15" s="1"/>
-      <c r="EP15" s="1"/>
+      <c r="EO15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="EP15" s="1">
+        <v>9</v>
+      </c>
       <c r="EQ15" s="1"/>
-      <c r="ER15" s="1"/>
-      <c r="ES15" s="1"/>
+      <c r="ER15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="ES15" s="1">
+        <v>9</v>
+      </c>
       <c r="ET15" s="1"/>
-      <c r="EU15" s="1"/>
-      <c r="EV15" s="1"/>
+      <c r="EU15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="EV15" s="1">
+        <v>14</v>
+      </c>
       <c r="EW15" s="1"/>
-      <c r="EX15" s="1"/>
+      <c r="EX15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="EY15" s="1">
+        <v>13</v>
+      </c>
+      <c r="EZ15" s="1"/>
+      <c r="FA15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="FB15" s="1">
+        <v>11</v>
+      </c>
+      <c r="FC15" s="1"/>
+      <c r="FD15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="FE15" s="1">
+        <v>5</v>
+      </c>
+      <c r="FF15" s="1"/>
+      <c r="FG15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="FH15" s="1">
+        <v>18</v>
+      </c>
+      <c r="FI15" s="1"/>
+      <c r="FJ15" s="1">
+        <v>-10.5</v>
+      </c>
+      <c r="FK15" s="1">
+        <v>11</v>
+      </c>
+      <c r="FL15" s="1"/>
+      <c r="FM15" s="1">
+        <v>-11</v>
+      </c>
+      <c r="FN15" s="1">
+        <v>5</v>
+      </c>
+      <c r="FO15" s="8"/>
+      <c r="FP15" s="7"/>
+      <c r="FQ15" s="7"/>
+      <c r="FR15" s="7"/>
+      <c r="FS15" s="7"/>
+      <c r="FT15" s="7"/>
+      <c r="FU15" s="1"/>
+      <c r="FV15" s="1"/>
+      <c r="FW15" s="1"/>
+      <c r="FX15" s="1"/>
+      <c r="FY15" s="1"/>
+      <c r="FZ15" s="1"/>
+      <c r="GA15" s="1"/>
+      <c r="GB15" s="1"/>
     </row>
-    <row r="16" spans="1:154" ht="15.75" customHeight="1">
+    <row r="16" spans="1:184" ht="15.75" customHeight="1">
       <c r="A16" s="1">
         <v>-11</v>
       </c>
@@ -5194,7 +6679,10 @@
       <c r="AX16" s="1">
         <v>22</v>
       </c>
-      <c r="AY16" s="1"/>
+      <c r="AY16" s="1">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
       <c r="AZ16" s="1">
         <v>-14</v>
       </c>
@@ -5356,42 +6844,140 @@
         <v>5</v>
       </c>
       <c r="DP16" s="1"/>
-      <c r="DQ16" s="1"/>
-      <c r="DR16" s="1"/>
+      <c r="DQ16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="DR16" s="1">
+        <v>13</v>
+      </c>
       <c r="DS16" s="1"/>
-      <c r="DT16" s="1"/>
-      <c r="DU16" s="1"/>
+      <c r="DT16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="DU16" s="1">
+        <v>7</v>
+      </c>
       <c r="DV16" s="1"/>
-      <c r="DW16" s="1"/>
-      <c r="DX16" s="1"/>
+      <c r="DW16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="DX16" s="1">
+        <v>11</v>
+      </c>
       <c r="DY16" s="1"/>
-      <c r="DZ16" s="1"/>
-      <c r="EA16" s="1"/>
+      <c r="DZ16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="EA16" s="1">
+        <v>5</v>
+      </c>
       <c r="EB16" s="1"/>
-      <c r="EC16" s="1"/>
-      <c r="ED16" s="1"/>
+      <c r="EC16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="ED16" s="1">
+        <v>14</v>
+      </c>
       <c r="EE16" s="1"/>
-      <c r="EF16" s="1"/>
-      <c r="EG16" s="1"/>
+      <c r="EF16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="EG16" s="1">
+        <v>16</v>
+      </c>
       <c r="EH16" s="1"/>
-      <c r="EI16" s="1"/>
-      <c r="EJ16" s="1"/>
+      <c r="EI16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="EJ16" s="1">
+        <v>14</v>
+      </c>
       <c r="EK16" s="1"/>
-      <c r="EL16" s="1"/>
-      <c r="EM16" s="1"/>
+      <c r="EL16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="EM16" s="1">
+        <v>12</v>
+      </c>
       <c r="EN16" s="1"/>
-      <c r="EO16" s="1"/>
-      <c r="EP16" s="1"/>
+      <c r="EO16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="EP16" s="1">
+        <v>26</v>
+      </c>
       <c r="EQ16" s="1"/>
-      <c r="ER16" s="1"/>
-      <c r="ES16" s="1"/>
+      <c r="ER16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="ES16" s="1">
+        <v>8</v>
+      </c>
       <c r="ET16" s="1"/>
-      <c r="EU16" s="1"/>
-      <c r="EV16" s="1"/>
+      <c r="EU16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="EV16" s="1">
+        <v>11</v>
+      </c>
       <c r="EW16" s="1"/>
-      <c r="EX16" s="1"/>
+      <c r="EX16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="EY16" s="1">
+        <v>24</v>
+      </c>
+      <c r="EZ16" s="1"/>
+      <c r="FA16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="FB16" s="1">
+        <v>14</v>
+      </c>
+      <c r="FC16" s="1"/>
+      <c r="FD16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="FE16" s="1">
+        <v>7</v>
+      </c>
+      <c r="FF16" s="1"/>
+      <c r="FG16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="FH16" s="1">
+        <v>5</v>
+      </c>
+      <c r="FI16" s="1"/>
+      <c r="FJ16" s="1">
+        <v>-11</v>
+      </c>
+      <c r="FK16" s="1">
+        <v>11</v>
+      </c>
+      <c r="FL16" s="1"/>
+      <c r="FM16" s="1">
+        <v>-11.5</v>
+      </c>
+      <c r="FN16" s="1">
+        <v>5</v>
+      </c>
+      <c r="FO16" s="8"/>
+      <c r="FP16" s="7"/>
+      <c r="FQ16" s="7"/>
+      <c r="FR16" s="7"/>
+      <c r="FS16" s="7"/>
+      <c r="FT16" s="7"/>
+      <c r="FU16" s="1"/>
+      <c r="FV16" s="1"/>
+      <c r="FW16" s="1"/>
+      <c r="FX16" s="1"/>
+      <c r="FY16" s="1"/>
+      <c r="FZ16" s="1"/>
+      <c r="GA16" s="1"/>
+      <c r="GB16" s="1"/>
     </row>
-    <row r="17" spans="1:154" ht="15.75" customHeight="1">
+    <row r="17" spans="1:184" ht="15.75" customHeight="1">
       <c r="A17" s="1">
         <v>-11.5</v>
       </c>
@@ -5426,7 +7012,7 @@
         <v>-12</v>
       </c>
       <c r="Q17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S17" s="1">
         <v>-7</v>
@@ -5502,7 +7088,10 @@
       <c r="AX17" s="1">
         <v>37</v>
       </c>
-      <c r="AY17" s="1"/>
+      <c r="AY17" s="1">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
       <c r="AZ17" s="1">
         <v>-15</v>
       </c>
@@ -5664,42 +7253,140 @@
         <v>12</v>
       </c>
       <c r="DP17" s="1"/>
-      <c r="DQ17" s="1"/>
-      <c r="DR17" s="1"/>
+      <c r="DQ17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="DR17" s="1">
+        <v>9</v>
+      </c>
       <c r="DS17" s="1"/>
-      <c r="DT17" s="1"/>
-      <c r="DU17" s="1"/>
+      <c r="DT17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="DU17" s="1">
+        <v>13</v>
+      </c>
       <c r="DV17" s="1"/>
-      <c r="DW17" s="1"/>
-      <c r="DX17" s="1"/>
+      <c r="DW17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="DX17" s="1">
+        <v>10</v>
+      </c>
       <c r="DY17" s="1"/>
-      <c r="DZ17" s="1"/>
-      <c r="EA17" s="1"/>
+      <c r="DZ17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="EA17" s="1">
+        <v>24</v>
+      </c>
       <c r="EB17" s="1"/>
-      <c r="EC17" s="1"/>
-      <c r="ED17" s="1"/>
+      <c r="EC17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="ED17" s="1">
+        <v>16</v>
+      </c>
       <c r="EE17" s="1"/>
-      <c r="EF17" s="1"/>
-      <c r="EG17" s="1"/>
+      <c r="EF17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="EG17" s="1">
+        <v>14</v>
+      </c>
       <c r="EH17" s="1"/>
-      <c r="EI17" s="1"/>
-      <c r="EJ17" s="1"/>
+      <c r="EI17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="EJ17" s="1">
+        <v>30</v>
+      </c>
       <c r="EK17" s="1"/>
-      <c r="EL17" s="1"/>
-      <c r="EM17" s="1"/>
+      <c r="EL17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="EM17" s="1">
+        <v>27</v>
+      </c>
       <c r="EN17" s="1"/>
-      <c r="EO17" s="1"/>
-      <c r="EP17" s="1"/>
+      <c r="EO17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="EP17" s="1">
+        <v>26</v>
+      </c>
       <c r="EQ17" s="1"/>
-      <c r="ER17" s="1"/>
-      <c r="ES17" s="1"/>
+      <c r="ER17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="ES17" s="1">
+        <v>7</v>
+      </c>
       <c r="ET17" s="1"/>
-      <c r="EU17" s="1"/>
-      <c r="EV17" s="1"/>
+      <c r="EU17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="EV17" s="1">
+        <v>21</v>
+      </c>
       <c r="EW17" s="1"/>
-      <c r="EX17" s="1"/>
+      <c r="EX17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="EY17" s="1">
+        <v>14</v>
+      </c>
+      <c r="EZ17" s="1"/>
+      <c r="FA17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="FB17" s="1">
+        <v>14</v>
+      </c>
+      <c r="FC17" s="1"/>
+      <c r="FD17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="FE17" s="1">
+        <v>26</v>
+      </c>
+      <c r="FF17" s="1"/>
+      <c r="FG17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="FH17" s="1">
+        <v>15</v>
+      </c>
+      <c r="FI17" s="1"/>
+      <c r="FJ17" s="1">
+        <v>-11.5</v>
+      </c>
+      <c r="FK17" s="1">
+        <v>4</v>
+      </c>
+      <c r="FL17" s="1"/>
+      <c r="FM17" s="1">
+        <v>-12</v>
+      </c>
+      <c r="FN17" s="1">
+        <v>6</v>
+      </c>
+      <c r="FO17" s="8"/>
+      <c r="FP17" s="7"/>
+      <c r="FQ17" s="7"/>
+      <c r="FR17" s="7"/>
+      <c r="FS17" s="7"/>
+      <c r="FT17" s="7"/>
+      <c r="FU17" s="1"/>
+      <c r="FV17" s="1"/>
+      <c r="FW17" s="1"/>
+      <c r="FX17" s="1"/>
+      <c r="FY17" s="1"/>
+      <c r="FZ17" s="1"/>
+      <c r="GA17" s="1"/>
+      <c r="GB17" s="1"/>
     </row>
-    <row r="18" spans="1:154" ht="15.75" customHeight="1">
+    <row r="18" spans="1:184" ht="15.75" customHeight="1">
       <c r="A18" s="1">
         <v>-12</v>
       </c>
@@ -5810,7 +7497,10 @@
       <c r="AX18" s="1">
         <v>11</v>
       </c>
-      <c r="AY18" s="1"/>
+      <c r="AY18" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="AZ18" s="1">
         <v>-16</v>
       </c>
@@ -5972,42 +7662,140 @@
         <v>24</v>
       </c>
       <c r="DP18" s="1"/>
-      <c r="DQ18" s="1"/>
-      <c r="DR18" s="1"/>
+      <c r="DQ18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="DR18" s="1">
+        <v>16</v>
+      </c>
       <c r="DS18" s="1"/>
-      <c r="DT18" s="1"/>
-      <c r="DU18" s="1"/>
+      <c r="DT18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="DU18" s="1">
+        <v>22</v>
+      </c>
       <c r="DV18" s="1"/>
-      <c r="DW18" s="1"/>
-      <c r="DX18" s="1"/>
+      <c r="DW18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="DX18" s="1">
+        <v>6</v>
+      </c>
       <c r="DY18" s="1"/>
-      <c r="DZ18" s="1"/>
-      <c r="EA18" s="1"/>
+      <c r="DZ18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="EA18" s="1">
+        <v>13</v>
+      </c>
       <c r="EB18" s="1"/>
-      <c r="EC18" s="1"/>
-      <c r="ED18" s="1"/>
+      <c r="EC18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="ED18" s="1">
+        <v>9</v>
+      </c>
       <c r="EE18" s="1"/>
-      <c r="EF18" s="1"/>
-      <c r="EG18" s="1"/>
+      <c r="EF18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="EG18" s="1">
+        <v>4</v>
+      </c>
       <c r="EH18" s="1"/>
-      <c r="EI18" s="1"/>
-      <c r="EJ18" s="1"/>
+      <c r="EI18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="EJ18" s="1">
+        <v>24</v>
+      </c>
       <c r="EK18" s="1"/>
-      <c r="EL18" s="1"/>
-      <c r="EM18" s="1"/>
+      <c r="EL18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="EM18" s="1">
+        <v>38</v>
+      </c>
       <c r="EN18" s="1"/>
-      <c r="EO18" s="1"/>
-      <c r="EP18" s="1"/>
+      <c r="EO18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="EP18" s="1">
+        <v>19</v>
+      </c>
       <c r="EQ18" s="1"/>
-      <c r="ER18" s="1"/>
-      <c r="ES18" s="1"/>
+      <c r="ER18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="ES18" s="1">
+        <v>2</v>
+      </c>
       <c r="ET18" s="1"/>
-      <c r="EU18" s="1"/>
-      <c r="EV18" s="1"/>
+      <c r="EU18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="EV18" s="1">
+        <v>12</v>
+      </c>
       <c r="EW18" s="1"/>
-      <c r="EX18" s="1"/>
+      <c r="EX18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="EY18" s="1">
+        <v>8</v>
+      </c>
+      <c r="EZ18" s="1"/>
+      <c r="FA18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="FB18" s="1">
+        <v>16</v>
+      </c>
+      <c r="FC18" s="1"/>
+      <c r="FD18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="FE18" s="1">
+        <v>9</v>
+      </c>
+      <c r="FF18" s="1"/>
+      <c r="FG18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="FH18" s="1">
+        <v>17</v>
+      </c>
+      <c r="FI18" s="1"/>
+      <c r="FJ18" s="1">
+        <v>-12</v>
+      </c>
+      <c r="FK18" s="1">
+        <v>5</v>
+      </c>
+      <c r="FL18" s="1"/>
+      <c r="FM18" s="1">
+        <v>-13</v>
+      </c>
+      <c r="FN18" s="1">
+        <v>15</v>
+      </c>
+      <c r="FO18" s="8"/>
+      <c r="FP18" s="7"/>
+      <c r="FQ18" s="7"/>
+      <c r="FR18" s="7"/>
+      <c r="FS18" s="7"/>
+      <c r="FT18" s="7"/>
+      <c r="FU18" s="1"/>
+      <c r="FV18" s="1"/>
+      <c r="FW18" s="1"/>
+      <c r="FX18" s="1"/>
+      <c r="FY18" s="1"/>
+      <c r="FZ18" s="1"/>
+      <c r="GA18" s="1"/>
+      <c r="GB18" s="1"/>
     </row>
-    <row r="19" spans="1:154" ht="15.75" customHeight="1">
+    <row r="19" spans="1:184" ht="15.75" customHeight="1">
       <c r="A19" s="1">
         <v>-12.5</v>
       </c>
@@ -6118,7 +7906,10 @@
       <c r="AX19" s="1">
         <v>3</v>
       </c>
-      <c r="AY19" s="1"/>
+      <c r="AY19" s="1">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
       <c r="AZ19" s="1">
         <v>-17</v>
       </c>
@@ -6280,42 +8071,132 @@
         <v>19</v>
       </c>
       <c r="DP19" s="1"/>
-      <c r="DQ19" s="1"/>
-      <c r="DR19" s="1"/>
+      <c r="DQ19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="DR19" s="1">
+        <v>12</v>
+      </c>
       <c r="DS19" s="1"/>
-      <c r="DT19" s="1"/>
-      <c r="DU19" s="1"/>
+      <c r="DT19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="DU19" s="1">
+        <v>14</v>
+      </c>
       <c r="DV19" s="1"/>
-      <c r="DW19" s="1"/>
-      <c r="DX19" s="1"/>
+      <c r="DW19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="DX19" s="1">
+        <v>12</v>
+      </c>
       <c r="DY19" s="1"/>
-      <c r="DZ19" s="1"/>
-      <c r="EA19" s="1"/>
+      <c r="DZ19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="EA19" s="1">
+        <v>9</v>
+      </c>
       <c r="EB19" s="1"/>
-      <c r="EC19" s="1"/>
-      <c r="ED19" s="1"/>
+      <c r="EC19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="ED19" s="1">
+        <v>1</v>
+      </c>
       <c r="EE19" s="1"/>
-      <c r="EF19" s="1"/>
-      <c r="EG19" s="1"/>
+      <c r="EF19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="EG19" s="1">
+        <v>4</v>
+      </c>
       <c r="EH19" s="1"/>
-      <c r="EI19" s="1"/>
-      <c r="EJ19" s="1"/>
+      <c r="EI19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="EJ19" s="1">
+        <v>5</v>
+      </c>
       <c r="EK19" s="1"/>
-      <c r="EL19" s="1"/>
-      <c r="EM19" s="1"/>
+      <c r="EL19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="EM19" s="1">
+        <v>14</v>
+      </c>
       <c r="EN19" s="1"/>
-      <c r="EO19" s="1"/>
-      <c r="EP19" s="1"/>
+      <c r="EO19" s="1">
+        <v>-16.5</v>
+      </c>
+      <c r="EP19" s="1">
+        <v>1</v>
+      </c>
       <c r="EQ19" s="1"/>
       <c r="ER19" s="1"/>
       <c r="ES19" s="1"/>
       <c r="ET19" s="1"/>
-      <c r="EU19" s="1"/>
-      <c r="EV19" s="1"/>
+      <c r="EU19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="EV19" s="1">
+        <v>1</v>
+      </c>
       <c r="EW19" s="1"/>
-      <c r="EX19" s="1"/>
+      <c r="EX19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="EY19" s="1">
+        <v>2</v>
+      </c>
+      <c r="EZ19" s="1"/>
+      <c r="FA19" s="1"/>
+      <c r="FB19" s="1"/>
+      <c r="FC19" s="1"/>
+      <c r="FD19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="FE19" s="1">
+        <v>5</v>
+      </c>
+      <c r="FF19" s="1"/>
+      <c r="FG19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="FH19" s="1">
+        <v>6</v>
+      </c>
+      <c r="FI19" s="1"/>
+      <c r="FJ19" s="1">
+        <v>-12.5</v>
+      </c>
+      <c r="FK19" s="1">
+        <v>1</v>
+      </c>
+      <c r="FL19" s="1"/>
+      <c r="FM19" s="1">
+        <v>-14</v>
+      </c>
+      <c r="FN19" s="1">
+        <v>15</v>
+      </c>
+      <c r="FO19" s="8"/>
+      <c r="FP19" s="7"/>
+      <c r="FQ19" s="7"/>
+      <c r="FR19" s="7"/>
+      <c r="FS19" s="7"/>
+      <c r="FT19" s="7"/>
+      <c r="FU19" s="1"/>
+      <c r="FV19" s="1"/>
+      <c r="FW19" s="1"/>
+      <c r="FX19" s="1"/>
+      <c r="FY19" s="1"/>
+      <c r="FZ19" s="1"/>
+      <c r="GA19" s="1"/>
+      <c r="GB19" s="1"/>
     </row>
-    <row r="20" spans="1:154" ht="15.75" customHeight="1">
+    <row r="20" spans="1:184" ht="15.75" customHeight="1">
       <c r="A20" s="1">
         <v>-13</v>
       </c>
@@ -6420,7 +8301,7 @@
       <c r="AY20" s="1"/>
       <c r="AZ20" s="1"/>
       <c r="BA20" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="BB20" s="1"/>
       <c r="BC20" s="1">
@@ -6577,17 +8458,33 @@
         <v>26</v>
       </c>
       <c r="DP20" s="1"/>
-      <c r="DQ20" s="1"/>
-      <c r="DR20" s="1"/>
+      <c r="DQ20" s="1">
+        <v>-18</v>
+      </c>
+      <c r="DR20" s="1">
+        <v>19</v>
+      </c>
       <c r="DS20" s="1"/>
-      <c r="DT20" s="1"/>
-      <c r="DU20" s="1"/>
+      <c r="DT20" s="1">
+        <v>-18</v>
+      </c>
+      <c r="DU20" s="1">
+        <v>21</v>
+      </c>
       <c r="DV20" s="1"/>
-      <c r="DW20" s="1"/>
-      <c r="DX20" s="1"/>
+      <c r="DW20" s="1">
+        <v>-18</v>
+      </c>
+      <c r="DX20" s="1">
+        <v>12</v>
+      </c>
       <c r="DY20" s="1"/>
-      <c r="DZ20" s="1"/>
-      <c r="EA20" s="1"/>
+      <c r="DZ20" s="1">
+        <v>-18</v>
+      </c>
+      <c r="EA20" s="1">
+        <v>19</v>
+      </c>
       <c r="EB20" s="1"/>
       <c r="EC20" s="1"/>
       <c r="ED20" s="1"/>
@@ -6595,11 +8492,19 @@
       <c r="EF20" s="1"/>
       <c r="EG20" s="1"/>
       <c r="EH20" s="1"/>
-      <c r="EI20" s="1"/>
-      <c r="EJ20" s="1"/>
+      <c r="EI20" s="1">
+        <v>-18</v>
+      </c>
+      <c r="EJ20" s="1">
+        <v>1</v>
+      </c>
       <c r="EK20" s="1"/>
-      <c r="EL20" s="1"/>
-      <c r="EM20" s="1"/>
+      <c r="EL20" s="1">
+        <v>-18</v>
+      </c>
+      <c r="EM20" s="1">
+        <v>1</v>
+      </c>
       <c r="EN20" s="1"/>
       <c r="EO20" s="1"/>
       <c r="EP20" s="1"/>
@@ -6611,8 +8516,46 @@
       <c r="EV20" s="1"/>
       <c r="EW20" s="1"/>
       <c r="EX20" s="1"/>
+      <c r="EY20" s="1"/>
+      <c r="EZ20" s="1"/>
+      <c r="FA20" s="1"/>
+      <c r="FB20" s="1"/>
+      <c r="FC20" s="1"/>
+      <c r="FD20" s="1"/>
+      <c r="FE20" s="1"/>
+      <c r="FF20" s="1"/>
+      <c r="FG20" s="1"/>
+      <c r="FH20" s="1"/>
+      <c r="FI20" s="1"/>
+      <c r="FJ20" s="1">
+        <v>-13</v>
+      </c>
+      <c r="FK20" s="1">
+        <v>2</v>
+      </c>
+      <c r="FL20" s="1"/>
+      <c r="FM20" s="1">
+        <v>-15</v>
+      </c>
+      <c r="FN20" s="1">
+        <v>29</v>
+      </c>
+      <c r="FO20" s="8"/>
+      <c r="FP20" s="7"/>
+      <c r="FQ20" s="7"/>
+      <c r="FR20" s="7"/>
+      <c r="FS20" s="7"/>
+      <c r="FT20" s="7"/>
+      <c r="FU20" s="1"/>
+      <c r="FV20" s="1"/>
+      <c r="FW20" s="1"/>
+      <c r="FX20" s="1"/>
+      <c r="FY20" s="1"/>
+      <c r="FZ20" s="1"/>
+      <c r="GA20" s="1"/>
+      <c r="GB20" s="1"/>
     </row>
-    <row r="21" spans="1:154" ht="15.75" customHeight="1">
+    <row r="21" spans="1:184" ht="15.75" customHeight="1">
       <c r="A21" s="1">
         <v>-13.5</v>
       </c>
@@ -6844,17 +8787,33 @@
         <v>5</v>
       </c>
       <c r="DP21" s="1"/>
-      <c r="DQ21" s="1"/>
-      <c r="DR21" s="1"/>
+      <c r="DQ21" s="1">
+        <v>-19</v>
+      </c>
+      <c r="DR21" s="1">
+        <v>4</v>
+      </c>
       <c r="DS21" s="1"/>
-      <c r="DT21" s="1"/>
-      <c r="DU21" s="1"/>
+      <c r="DT21" s="1">
+        <v>-19</v>
+      </c>
+      <c r="DU21" s="1">
+        <v>16</v>
+      </c>
       <c r="DV21" s="1"/>
-      <c r="DW21" s="1"/>
-      <c r="DX21" s="1"/>
+      <c r="DW21" s="1">
+        <v>-19</v>
+      </c>
+      <c r="DX21" s="1">
+        <v>19</v>
+      </c>
       <c r="DY21" s="1"/>
-      <c r="DZ21" s="1"/>
-      <c r="EA21" s="1"/>
+      <c r="DZ21" s="1">
+        <v>-19</v>
+      </c>
+      <c r="EA21" s="1">
+        <v>14</v>
+      </c>
       <c r="EB21" s="1"/>
       <c r="EC21" s="1"/>
       <c r="ED21" s="1"/>
@@ -6878,8 +8837,46 @@
       <c r="EV21" s="1"/>
       <c r="EW21" s="1"/>
       <c r="EX21" s="1"/>
+      <c r="EY21" s="1"/>
+      <c r="EZ21" s="1"/>
+      <c r="FA21" s="1"/>
+      <c r="FB21" s="1"/>
+      <c r="FC21" s="1"/>
+      <c r="FD21" s="1"/>
+      <c r="FE21" s="1"/>
+      <c r="FF21" s="1"/>
+      <c r="FG21" s="1"/>
+      <c r="FH21" s="1"/>
+      <c r="FI21" s="1"/>
+      <c r="FJ21" s="1">
+        <v>-14</v>
+      </c>
+      <c r="FK21" s="1">
+        <v>6</v>
+      </c>
+      <c r="FL21" s="1"/>
+      <c r="FM21" s="1">
+        <v>-16</v>
+      </c>
+      <c r="FN21" s="1">
+        <v>7</v>
+      </c>
+      <c r="FO21" s="8"/>
+      <c r="FP21" s="7"/>
+      <c r="FQ21" s="7"/>
+      <c r="FR21" s="7"/>
+      <c r="FS21" s="7"/>
+      <c r="FT21" s="7"/>
+      <c r="FU21" s="1"/>
+      <c r="FV21" s="1"/>
+      <c r="FW21" s="1"/>
+      <c r="FX21" s="1"/>
+      <c r="FY21" s="1"/>
+      <c r="FZ21" s="1"/>
+      <c r="GA21" s="1"/>
+      <c r="GB21" s="1"/>
     </row>
-    <row r="22" spans="1:154" ht="15.75" customHeight="1">
+    <row r="22" spans="1:184" ht="15.75" customHeight="1">
       <c r="A22" s="1">
         <v>-14</v>
       </c>
@@ -6950,7 +8947,7 @@
       <c r="AS22" s="1"/>
       <c r="AT22" s="1"/>
       <c r="AU22" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="AV22" s="1"/>
       <c r="AW22" s="1"/>
@@ -7071,14 +9068,26 @@
       <c r="DQ22" s="1"/>
       <c r="DR22" s="1"/>
       <c r="DS22" s="1"/>
-      <c r="DT22" s="1"/>
-      <c r="DU22" s="1"/>
+      <c r="DT22" s="1">
+        <v>-20</v>
+      </c>
+      <c r="DU22" s="1">
+        <v>2</v>
+      </c>
       <c r="DV22" s="1"/>
-      <c r="DW22" s="1"/>
-      <c r="DX22" s="1"/>
+      <c r="DW22" s="1">
+        <v>-20</v>
+      </c>
+      <c r="DX22" s="1">
+        <v>8</v>
+      </c>
       <c r="DY22" s="1"/>
-      <c r="DZ22" s="1"/>
-      <c r="EA22" s="1"/>
+      <c r="DZ22" s="1">
+        <v>-20</v>
+      </c>
+      <c r="EA22" s="1">
+        <v>8</v>
+      </c>
       <c r="EB22" s="1"/>
       <c r="EC22" s="1"/>
       <c r="ED22" s="1"/>
@@ -7102,8 +9111,46 @@
       <c r="EV22" s="1"/>
       <c r="EW22" s="1"/>
       <c r="EX22" s="1"/>
+      <c r="EY22" s="1"/>
+      <c r="EZ22" s="1"/>
+      <c r="FA22" s="1"/>
+      <c r="FB22" s="1"/>
+      <c r="FC22" s="1"/>
+      <c r="FD22" s="1"/>
+      <c r="FE22" s="1"/>
+      <c r="FF22" s="1"/>
+      <c r="FG22" s="1"/>
+      <c r="FH22" s="1"/>
+      <c r="FI22" s="1"/>
+      <c r="FJ22" s="1">
+        <v>-15</v>
+      </c>
+      <c r="FK22" s="1">
+        <v>3</v>
+      </c>
+      <c r="FL22" s="1"/>
+      <c r="FM22" s="1">
+        <v>-17</v>
+      </c>
+      <c r="FN22" s="1">
+        <v>5</v>
+      </c>
+      <c r="FO22" s="8"/>
+      <c r="FP22" s="7"/>
+      <c r="FQ22" s="7"/>
+      <c r="FR22" s="7"/>
+      <c r="FS22" s="7"/>
+      <c r="FT22" s="7"/>
+      <c r="FU22" s="1"/>
+      <c r="FV22" s="1"/>
+      <c r="FW22" s="1"/>
+      <c r="FX22" s="1"/>
+      <c r="FY22" s="1"/>
+      <c r="FZ22" s="1"/>
+      <c r="GA22" s="1"/>
+      <c r="GB22" s="1"/>
     </row>
-    <row r="23" spans="1:154" ht="15.75" customHeight="1">
+    <row r="23" spans="1:184" ht="15.75" customHeight="1">
       <c r="A23" s="1">
         <v>-14.5</v>
       </c>
@@ -7291,11 +9338,19 @@
       <c r="DT23" s="1"/>
       <c r="DU23" s="1"/>
       <c r="DV23" s="1"/>
-      <c r="DW23" s="1"/>
-      <c r="DX23" s="1"/>
+      <c r="DW23" s="1">
+        <v>-21</v>
+      </c>
+      <c r="DX23" s="1">
+        <v>6</v>
+      </c>
       <c r="DY23" s="1"/>
-      <c r="DZ23" s="1"/>
-      <c r="EA23" s="1"/>
+      <c r="DZ23" s="1">
+        <v>-20.5</v>
+      </c>
+      <c r="EA23" s="1">
+        <v>1</v>
+      </c>
       <c r="EB23" s="1"/>
       <c r="EC23" s="1"/>
       <c r="ED23" s="1"/>
@@ -7319,8 +9374,38 @@
       <c r="EV23" s="1"/>
       <c r="EW23" s="1"/>
       <c r="EX23" s="1"/>
+      <c r="EY23" s="1"/>
+      <c r="EZ23" s="1"/>
+      <c r="FA23" s="1"/>
+      <c r="FB23" s="1"/>
+      <c r="FC23" s="1"/>
+      <c r="FD23" s="1"/>
+      <c r="FE23" s="1"/>
+      <c r="FF23" s="1"/>
+      <c r="FG23" s="1"/>
+      <c r="FH23" s="1"/>
+      <c r="FI23" s="1"/>
+      <c r="FJ23" s="1"/>
+      <c r="FK23" s="1"/>
+      <c r="FL23" s="1"/>
+      <c r="FM23" s="1"/>
+      <c r="FN23" s="1"/>
+      <c r="FO23" s="7"/>
+      <c r="FP23" s="7"/>
+      <c r="FQ23" s="7"/>
+      <c r="FR23" s="7"/>
+      <c r="FS23" s="7"/>
+      <c r="FT23" s="7"/>
+      <c r="FU23" s="1"/>
+      <c r="FV23" s="1"/>
+      <c r="FW23" s="1"/>
+      <c r="FX23" s="1"/>
+      <c r="FY23" s="1"/>
+      <c r="FZ23" s="1"/>
+      <c r="GA23" s="1"/>
+      <c r="GB23" s="1"/>
     </row>
-    <row r="24" spans="1:154" ht="15.75" customHeight="1">
+    <row r="24" spans="1:184" ht="15.75" customHeight="1">
       <c r="A24" s="1">
         <v>-15</v>
       </c>
@@ -7509,8 +9594,38 @@
       <c r="EV24" s="1"/>
       <c r="EW24" s="1"/>
       <c r="EX24" s="1"/>
+      <c r="EY24" s="1"/>
+      <c r="EZ24" s="1"/>
+      <c r="FA24" s="1"/>
+      <c r="FB24" s="1"/>
+      <c r="FC24" s="1"/>
+      <c r="FD24" s="1"/>
+      <c r="FE24" s="1"/>
+      <c r="FF24" s="1"/>
+      <c r="FG24" s="1"/>
+      <c r="FH24" s="1"/>
+      <c r="FI24" s="1"/>
+      <c r="FJ24" s="1"/>
+      <c r="FK24" s="1"/>
+      <c r="FL24" s="1"/>
+      <c r="FM24" s="1"/>
+      <c r="FN24" s="1"/>
+      <c r="FO24" s="7"/>
+      <c r="FP24" s="7"/>
+      <c r="FQ24" s="7"/>
+      <c r="FR24" s="7"/>
+      <c r="FS24" s="7"/>
+      <c r="FT24" s="7"/>
+      <c r="FU24" s="1"/>
+      <c r="FV24" s="1"/>
+      <c r="FW24" s="1"/>
+      <c r="FX24" s="1"/>
+      <c r="FY24" s="1"/>
+      <c r="FZ24" s="1"/>
+      <c r="GA24" s="1"/>
+      <c r="GB24" s="1"/>
     </row>
-    <row r="25" spans="1:154" ht="15.75" customHeight="1">
+    <row r="25" spans="1:184" ht="15.75" customHeight="1">
       <c r="A25" s="1">
         <v>-15.5</v>
       </c>
@@ -7577,8 +9692,14 @@
       </c>
       <c r="CV25" s="1"/>
       <c r="CW25" s="1"/>
+      <c r="FO25" s="8"/>
+      <c r="FP25" s="8"/>
+      <c r="FQ25" s="8"/>
+      <c r="FR25" s="8"/>
+      <c r="FS25" s="8"/>
+      <c r="FT25" s="9"/>
     </row>
-    <row r="26" spans="1:154" ht="15.75" customHeight="1">
+    <row r="26" spans="1:184" ht="15.75" customHeight="1">
       <c r="A26" s="1">
         <v>-16</v>
       </c>
@@ -7609,8 +9730,14 @@
       <c r="CH26" s="1">
         <v>1</v>
       </c>
+      <c r="FO26" s="9"/>
+      <c r="FP26" s="9"/>
+      <c r="FQ26" s="9"/>
+      <c r="FR26" s="9"/>
+      <c r="FS26" s="9"/>
+      <c r="FT26" s="9"/>
     </row>
-    <row r="27" spans="1:154" ht="15.75" customHeight="1">
+    <row r="27" spans="1:184" ht="15.75" customHeight="1">
       <c r="A27" s="1">
         <v>-16.5</v>
       </c>
@@ -7624,7 +9751,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:154" ht="15.75" customHeight="1">
+    <row r="28" spans="1:184" ht="15.75" customHeight="1">
       <c r="A28" s="1">
         <v>-17</v>
       </c>
@@ -7638,7 +9765,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:154" ht="15.75" customHeight="1">
+    <row r="29" spans="1:184" ht="15.75" customHeight="1">
       <c r="A29" s="1">
         <v>-17.5</v>
       </c>
@@ -7652,7 +9779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:154" ht="15.75" customHeight="1">
+    <row r="30" spans="1:184" ht="15.75" customHeight="1">
       <c r="A30" s="1">
         <v>-18.5</v>
       </c>
@@ -7666,7 +9793,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:154" ht="15.75" customHeight="1">
+    <row r="31" spans="1:184" ht="15.75" customHeight="1">
       <c r="B31" s="1"/>
       <c r="J31" s="1">
         <v>-19</v>
@@ -7675,97 +9802,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:154" ht="15.75" customHeight="1">
+    <row r="32" spans="1:184" ht="15.75" customHeight="1">
       <c r="J32" s="1">
         <v>-19.5</v>
       </c>
       <c r="K32" s="1">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/datas_lab_IN.xlsx
+++ b/datas_lab_IN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="5">
   <si>
     <t>[Season, Source]</t>
   </si>
@@ -35,26 +35,18 @@
   <si>
     <t/>
   </si>
-  <si>
-    <t>Code</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
@@ -83,17 +75,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -425,18 +412,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:GB32"/>
+  <dimension ref="A1:HD29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DR1" workbookViewId="0">
-      <selection activeCell="EA24" sqref="EA24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:184" ht="15.75" customHeight="1">
+    <row r="1" spans="1:212" ht="15.75" customHeight="1">
       <c r="A1" s="1">
         <v>217</v>
       </c>
@@ -830,22 +815,70 @@
       <c r="FN1" s="2">
         <v>42179</v>
       </c>
-      <c r="FO1" s="5"/>
-      <c r="FP1" s="6"/>
-      <c r="FQ1" s="6"/>
-      <c r="FR1" s="6"/>
-      <c r="FS1" s="5"/>
-      <c r="FT1" s="5"/>
+      <c r="FO1" s="2"/>
+      <c r="FP1" s="1">
+        <v>359</v>
+      </c>
+      <c r="FQ1" s="2">
+        <v>42184</v>
+      </c>
+      <c r="FR1" s="1"/>
+      <c r="FS1" s="1">
+        <v>360</v>
+      </c>
+      <c r="FT1" s="2">
+        <v>42184</v>
+      </c>
       <c r="FU1" s="2"/>
-      <c r="FV1" s="2"/>
-      <c r="FW1" s="2"/>
+      <c r="FV1" s="1">
+        <v>361</v>
+      </c>
+      <c r="FW1" s="2">
+        <v>42184</v>
+      </c>
       <c r="FX1" s="2"/>
-      <c r="FY1" s="2"/>
-      <c r="FZ1" s="2"/>
+      <c r="FY1" s="1">
+        <v>362</v>
+      </c>
+      <c r="FZ1" s="2">
+        <v>42184</v>
+      </c>
       <c r="GA1" s="2"/>
-      <c r="GB1" s="2"/>
+      <c r="GB1" s="1">
+        <v>363</v>
+      </c>
+      <c r="GC1" s="2">
+        <v>42184</v>
+      </c>
+      <c r="GD1" s="2"/>
+      <c r="GE1" s="2"/>
+      <c r="GF1" s="2"/>
+      <c r="GG1" s="2"/>
+      <c r="GH1" s="2"/>
+      <c r="GI1" s="2"/>
+      <c r="GJ1" s="2"/>
+      <c r="GK1" s="2"/>
+      <c r="GL1" s="2"/>
+      <c r="GM1" s="2"/>
+      <c r="GN1" s="2"/>
+      <c r="GO1" s="2"/>
+      <c r="GP1" s="2"/>
+      <c r="GQ1" s="2"/>
+      <c r="GR1" s="2"/>
+      <c r="GS1" s="2"/>
+      <c r="GT1" s="2"/>
+      <c r="GU1" s="2"/>
+      <c r="GV1" s="2"/>
+      <c r="GW1" s="2"/>
+      <c r="GX1" s="2"/>
+      <c r="GY1" s="2"/>
+      <c r="GZ1" s="2"/>
+      <c r="HA1" s="2"/>
+      <c r="HB1" s="2"/>
+      <c r="HC1" s="2"/>
+      <c r="HD1" s="2"/>
     </row>
-    <row r="2" spans="1:184" ht="15.75" customHeight="1">
+    <row r="2" spans="1:212" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1237,24 +1270,70 @@
       <c r="FN2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="FO2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="FP2" s="7"/>
-      <c r="FQ2" s="7"/>
-      <c r="FR2" s="7"/>
-      <c r="FS2" s="7"/>
-      <c r="FT2" s="7"/>
+      <c r="FO2" s="1"/>
+      <c r="FP2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="FQ2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="FR2" s="1"/>
+      <c r="FS2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="FT2" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="FU2" s="1"/>
-      <c r="FV2" s="1"/>
-      <c r="FW2" s="1"/>
+      <c r="FV2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="FW2" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="FX2" s="1"/>
-      <c r="FY2" s="1"/>
-      <c r="FZ2" s="1"/>
+      <c r="FY2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="FZ2" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="GA2" s="1"/>
-      <c r="GB2" s="1"/>
+      <c r="GB2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="GC2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="GD2" s="1"/>
+      <c r="GE2" s="1"/>
+      <c r="GF2" s="1"/>
+      <c r="GG2" s="1"/>
+      <c r="GH2" s="1"/>
+      <c r="GI2" s="1"/>
+      <c r="GJ2" s="1"/>
+      <c r="GK2" s="1"/>
+      <c r="GL2" s="1"/>
+      <c r="GM2" s="1"/>
+      <c r="GN2" s="1"/>
+      <c r="GO2" s="1"/>
+      <c r="GP2" s="1"/>
+      <c r="GQ2" s="1"/>
+      <c r="GR2" s="1"/>
+      <c r="GS2" s="1"/>
+      <c r="GT2" s="1"/>
+      <c r="GU2" s="1"/>
+      <c r="GV2" s="1"/>
+      <c r="GW2" s="1"/>
+      <c r="GX2" s="1"/>
+      <c r="GY2" s="1"/>
+      <c r="GZ2" s="1"/>
+      <c r="HA2" s="1"/>
+      <c r="HB2" s="1"/>
+      <c r="HC2" s="1"/>
+      <c r="HD2" s="1"/>
     </row>
-    <row r="3" spans="1:184" ht="15.75" customHeight="1">
+    <row r="3" spans="1:212" ht="15.75" customHeight="1">
       <c r="A3" s="1">
         <v>-1</v>
       </c>
@@ -1289,6 +1368,10 @@
         <v>-1</v>
       </c>
       <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R23" si="0">SUM($Q$3:Q3)</f>
         <v>0</v>
       </c>
       <c r="S3" s="1">
@@ -1365,10 +1448,7 @@
       <c r="AX3" s="1">
         <v>0</v>
       </c>
-      <c r="AY3" s="1">
-        <f t="shared" ref="AY3:AY19" si="0">SUM($AX$3:AX3)</f>
-        <v>0</v>
-      </c>
+      <c r="AY3" s="1"/>
       <c r="AZ3" s="1">
         <v>-1</v>
       </c>
@@ -1648,24 +1728,69 @@
       <c r="FN3" s="1">
         <v>0</v>
       </c>
-      <c r="FO3" s="8">
-        <v>0</v>
-      </c>
-      <c r="FP3" s="7"/>
-      <c r="FQ3" s="7"/>
-      <c r="FR3" s="7"/>
-      <c r="FS3" s="7"/>
-      <c r="FT3" s="7"/>
+      <c r="FP3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="FQ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="FR3" s="1"/>
+      <c r="FS3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="FT3" s="1">
+        <v>0</v>
+      </c>
       <c r="FU3" s="1"/>
-      <c r="FV3" s="1"/>
-      <c r="FW3" s="1"/>
+      <c r="FV3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="FW3" s="1">
+        <v>0</v>
+      </c>
       <c r="FX3" s="1"/>
-      <c r="FY3" s="1"/>
-      <c r="FZ3" s="1"/>
+      <c r="FY3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="FZ3" s="1">
+        <v>0</v>
+      </c>
       <c r="GA3" s="1"/>
-      <c r="GB3" s="1"/>
+      <c r="GB3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="GC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="GD3" s="1"/>
+      <c r="GE3" s="1"/>
+      <c r="GF3" s="1"/>
+      <c r="GG3" s="1"/>
+      <c r="GH3" s="1"/>
+      <c r="GI3" s="1"/>
+      <c r="GJ3" s="1"/>
+      <c r="GK3" s="1"/>
+      <c r="GL3" s="1"/>
+      <c r="GM3" s="1"/>
+      <c r="GN3" s="1"/>
+      <c r="GO3" s="1"/>
+      <c r="GP3" s="1"/>
+      <c r="GQ3" s="1"/>
+      <c r="GR3" s="1"/>
+      <c r="GS3" s="1"/>
+      <c r="GT3" s="1"/>
+      <c r="GU3" s="1"/>
+      <c r="GV3" s="1"/>
+      <c r="GW3" s="1"/>
+      <c r="GX3" s="1"/>
+      <c r="GY3" s="1"/>
+      <c r="GZ3" s="1"/>
+      <c r="HA3" s="1"/>
+      <c r="HB3" s="1"/>
+      <c r="HC3" s="1"/>
+      <c r="HD3" s="1"/>
     </row>
-    <row r="4" spans="1:184" ht="15.75" customHeight="1">
+    <row r="4" spans="1:212" ht="15.75" customHeight="1">
       <c r="A4" s="1">
         <v>-2</v>
       </c>
@@ -1700,6 +1825,10 @@
         <v>-2</v>
       </c>
       <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S4" s="1">
@@ -1776,10 +1905,7 @@
       <c r="AX4" s="1">
         <v>0</v>
       </c>
-      <c r="AY4" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AY4" s="1"/>
       <c r="AZ4" s="1">
         <v>-2</v>
       </c>
@@ -2059,22 +2185,69 @@
       <c r="FN4" s="1">
         <v>0</v>
       </c>
-      <c r="FO4" s="8"/>
-      <c r="FP4" s="7"/>
-      <c r="FQ4" s="7"/>
-      <c r="FR4" s="7"/>
-      <c r="FS4" s="7"/>
-      <c r="FT4" s="7"/>
+      <c r="FP4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="FQ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="FR4" s="1"/>
+      <c r="FS4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="FT4" s="1">
+        <v>0</v>
+      </c>
       <c r="FU4" s="1"/>
-      <c r="FV4" s="1"/>
-      <c r="FW4" s="1"/>
+      <c r="FV4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="FW4" s="1">
+        <v>0</v>
+      </c>
       <c r="FX4" s="1"/>
-      <c r="FY4" s="1"/>
-      <c r="FZ4" s="1"/>
+      <c r="FY4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="FZ4" s="1">
+        <v>0</v>
+      </c>
       <c r="GA4" s="1"/>
-      <c r="GB4" s="1"/>
+      <c r="GB4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="GC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="GD4" s="1"/>
+      <c r="GE4" s="1"/>
+      <c r="GF4" s="1"/>
+      <c r="GG4" s="1"/>
+      <c r="GH4" s="1"/>
+      <c r="GI4" s="1"/>
+      <c r="GJ4" s="1"/>
+      <c r="GK4" s="1"/>
+      <c r="GL4" s="1"/>
+      <c r="GM4" s="1"/>
+      <c r="GN4" s="1"/>
+      <c r="GO4" s="1"/>
+      <c r="GP4" s="1"/>
+      <c r="GQ4" s="1"/>
+      <c r="GR4" s="1"/>
+      <c r="GS4" s="1"/>
+      <c r="GT4" s="1"/>
+      <c r="GU4" s="1"/>
+      <c r="GV4" s="1"/>
+      <c r="GW4" s="1"/>
+      <c r="GX4" s="1"/>
+      <c r="GY4" s="1"/>
+      <c r="GZ4" s="1"/>
+      <c r="HA4" s="1"/>
+      <c r="HB4" s="1"/>
+      <c r="HC4" s="1"/>
+      <c r="HD4" s="1"/>
     </row>
-    <row r="5" spans="1:184" ht="15.75" customHeight="1">
+    <row r="5" spans="1:212" ht="15.75" customHeight="1">
       <c r="A5" s="1">
         <v>-3</v>
       </c>
@@ -2109,6 +2282,10 @@
         <v>-3</v>
       </c>
       <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S5" s="1">
@@ -2185,10 +2362,7 @@
       <c r="AX5" s="1">
         <v>0</v>
       </c>
-      <c r="AY5" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AY5" s="1"/>
       <c r="AZ5" s="1">
         <v>-3</v>
       </c>
@@ -2468,22 +2642,69 @@
       <c r="FN5" s="1">
         <v>0</v>
       </c>
-      <c r="FO5" s="8"/>
-      <c r="FP5" s="7"/>
-      <c r="FQ5" s="7"/>
-      <c r="FR5" s="7"/>
-      <c r="FS5" s="7"/>
-      <c r="FT5" s="7"/>
+      <c r="FP5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="FQ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="FR5" s="1"/>
+      <c r="FS5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="FT5" s="1">
+        <v>0</v>
+      </c>
       <c r="FU5" s="1"/>
-      <c r="FV5" s="1"/>
-      <c r="FW5" s="1"/>
+      <c r="FV5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="FW5" s="1">
+        <v>0</v>
+      </c>
       <c r="FX5" s="1"/>
-      <c r="FY5" s="1"/>
-      <c r="FZ5" s="1"/>
+      <c r="FY5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="FZ5" s="1">
+        <v>0</v>
+      </c>
       <c r="GA5" s="1"/>
-      <c r="GB5" s="1"/>
+      <c r="GB5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="GC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="GD5" s="1"/>
+      <c r="GE5" s="1"/>
+      <c r="GF5" s="1"/>
+      <c r="GG5" s="1"/>
+      <c r="GH5" s="1"/>
+      <c r="GI5" s="1"/>
+      <c r="GJ5" s="1"/>
+      <c r="GK5" s="1"/>
+      <c r="GL5" s="1"/>
+      <c r="GM5" s="1"/>
+      <c r="GN5" s="1"/>
+      <c r="GO5" s="1"/>
+      <c r="GP5" s="1"/>
+      <c r="GQ5" s="1"/>
+      <c r="GR5" s="1"/>
+      <c r="GS5" s="1"/>
+      <c r="GT5" s="1"/>
+      <c r="GU5" s="1"/>
+      <c r="GV5" s="1"/>
+      <c r="GW5" s="1"/>
+      <c r="GX5" s="1"/>
+      <c r="GY5" s="1"/>
+      <c r="GZ5" s="1"/>
+      <c r="HA5" s="1"/>
+      <c r="HB5" s="1"/>
+      <c r="HC5" s="1"/>
+      <c r="HD5" s="1"/>
     </row>
-    <row r="6" spans="1:184" ht="15.75" customHeight="1">
+    <row r="6" spans="1:212" ht="15.75" customHeight="1">
       <c r="A6" s="1">
         <v>-4</v>
       </c>
@@ -2518,6 +2739,10 @@
         <v>-4</v>
       </c>
       <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S6" s="1">
@@ -2594,10 +2819,7 @@
       <c r="AX6" s="1">
         <v>0</v>
       </c>
-      <c r="AY6" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AY6" s="1"/>
       <c r="AZ6" s="1">
         <v>-4</v>
       </c>
@@ -2877,22 +3099,69 @@
       <c r="FN6" s="1">
         <v>0</v>
       </c>
-      <c r="FO6" s="8"/>
-      <c r="FP6" s="7"/>
-      <c r="FQ6" s="7"/>
-      <c r="FR6" s="7"/>
-      <c r="FS6" s="7"/>
-      <c r="FT6" s="7"/>
+      <c r="FP6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="FQ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="FR6" s="1"/>
+      <c r="FS6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="FT6" s="1">
+        <v>0</v>
+      </c>
       <c r="FU6" s="1"/>
-      <c r="FV6" s="1"/>
-      <c r="FW6" s="1"/>
+      <c r="FV6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="FW6" s="1">
+        <v>0</v>
+      </c>
       <c r="FX6" s="1"/>
-      <c r="FY6" s="1"/>
-      <c r="FZ6" s="1"/>
+      <c r="FY6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="FZ6" s="1">
+        <v>0</v>
+      </c>
       <c r="GA6" s="1"/>
-      <c r="GB6" s="1"/>
+      <c r="GB6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="GC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="GD6" s="1"/>
+      <c r="GE6" s="1"/>
+      <c r="GF6" s="1"/>
+      <c r="GG6" s="1"/>
+      <c r="GH6" s="1"/>
+      <c r="GI6" s="1"/>
+      <c r="GJ6" s="1"/>
+      <c r="GK6" s="1"/>
+      <c r="GL6" s="1"/>
+      <c r="GM6" s="1"/>
+      <c r="GN6" s="1"/>
+      <c r="GO6" s="1"/>
+      <c r="GP6" s="1"/>
+      <c r="GQ6" s="1"/>
+      <c r="GR6" s="1"/>
+      <c r="GS6" s="1"/>
+      <c r="GT6" s="1"/>
+      <c r="GU6" s="1"/>
+      <c r="GV6" s="1"/>
+      <c r="GW6" s="1"/>
+      <c r="GX6" s="1"/>
+      <c r="GY6" s="1"/>
+      <c r="GZ6" s="1"/>
+      <c r="HA6" s="1"/>
+      <c r="HB6" s="1"/>
+      <c r="HC6" s="1"/>
+      <c r="HD6" s="1"/>
     </row>
-    <row r="7" spans="1:184" ht="15.75" customHeight="1">
+    <row r="7" spans="1:212" ht="15.75" customHeight="1">
       <c r="A7" s="1">
         <v>-5</v>
       </c>
@@ -2927,6 +3196,10 @@
         <v>-5</v>
       </c>
       <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S7" s="1">
@@ -3003,10 +3276,7 @@
       <c r="AX7" s="1">
         <v>0</v>
       </c>
-      <c r="AY7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AY7" s="1"/>
       <c r="AZ7" s="1">
         <v>-5</v>
       </c>
@@ -3286,22 +3556,69 @@
       <c r="FN7" s="1">
         <v>0</v>
       </c>
-      <c r="FO7" s="8"/>
-      <c r="FP7" s="7"/>
-      <c r="FQ7" s="7"/>
-      <c r="FR7" s="7"/>
-      <c r="FS7" s="7"/>
-      <c r="FT7" s="7"/>
+      <c r="FP7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="FQ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="FR7" s="1"/>
+      <c r="FS7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="FT7" s="1">
+        <v>0</v>
+      </c>
       <c r="FU7" s="1"/>
-      <c r="FV7" s="1"/>
-      <c r="FW7" s="1"/>
+      <c r="FV7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="FW7" s="1">
+        <v>0</v>
+      </c>
       <c r="FX7" s="1"/>
-      <c r="FY7" s="1"/>
-      <c r="FZ7" s="1"/>
+      <c r="FY7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="FZ7" s="1">
+        <v>0</v>
+      </c>
       <c r="GA7" s="1"/>
-      <c r="GB7" s="1"/>
+      <c r="GB7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="GC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="GD7" s="1"/>
+      <c r="GE7" s="1"/>
+      <c r="GF7" s="1"/>
+      <c r="GG7" s="1"/>
+      <c r="GH7" s="1"/>
+      <c r="GI7" s="1"/>
+      <c r="GJ7" s="1"/>
+      <c r="GK7" s="1"/>
+      <c r="GL7" s="1"/>
+      <c r="GM7" s="1"/>
+      <c r="GN7" s="1"/>
+      <c r="GO7" s="1"/>
+      <c r="GP7" s="1"/>
+      <c r="GQ7" s="1"/>
+      <c r="GR7" s="1"/>
+      <c r="GS7" s="1"/>
+      <c r="GT7" s="1"/>
+      <c r="GU7" s="1"/>
+      <c r="GV7" s="1"/>
+      <c r="GW7" s="1"/>
+      <c r="GX7" s="1"/>
+      <c r="GY7" s="1"/>
+      <c r="GZ7" s="1"/>
+      <c r="HA7" s="1"/>
+      <c r="HB7" s="1"/>
+      <c r="HC7" s="1"/>
+      <c r="HD7" s="1"/>
     </row>
-    <row r="8" spans="1:184" ht="15.75" customHeight="1">
+    <row r="8" spans="1:212" ht="15.75" customHeight="1">
       <c r="A8" s="1">
         <v>-6</v>
       </c>
@@ -3336,6 +3653,10 @@
         <v>-6</v>
       </c>
       <c r="Q8" s="1">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="S8" s="1">
@@ -3412,10 +3733,7 @@
       <c r="AX8" s="1">
         <v>0</v>
       </c>
-      <c r="AY8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AY8" s="1"/>
       <c r="AZ8" s="1">
         <v>-6</v>
       </c>
@@ -3695,22 +4013,69 @@
       <c r="FN8" s="1">
         <v>0</v>
       </c>
-      <c r="FO8" s="8"/>
-      <c r="FP8" s="7"/>
-      <c r="FQ8" s="7"/>
-      <c r="FR8" s="7"/>
-      <c r="FS8" s="7"/>
-      <c r="FT8" s="7"/>
+      <c r="FP8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="FQ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="FR8" s="1"/>
+      <c r="FS8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="FT8" s="1">
+        <v>1</v>
+      </c>
       <c r="FU8" s="1"/>
-      <c r="FV8" s="1"/>
-      <c r="FW8" s="1"/>
+      <c r="FV8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="FW8" s="1">
+        <v>0</v>
+      </c>
       <c r="FX8" s="1"/>
-      <c r="FY8" s="1"/>
-      <c r="FZ8" s="1"/>
+      <c r="FY8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="FZ8" s="1">
+        <v>0</v>
+      </c>
       <c r="GA8" s="1"/>
-      <c r="GB8" s="1"/>
+      <c r="GB8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="GC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="GD8" s="1"/>
+      <c r="GE8" s="1"/>
+      <c r="GF8" s="1"/>
+      <c r="GG8" s="1"/>
+      <c r="GH8" s="1"/>
+      <c r="GI8" s="1"/>
+      <c r="GJ8" s="1"/>
+      <c r="GK8" s="1"/>
+      <c r="GL8" s="1"/>
+      <c r="GM8" s="1"/>
+      <c r="GN8" s="1"/>
+      <c r="GO8" s="1"/>
+      <c r="GP8" s="1"/>
+      <c r="GQ8" s="1"/>
+      <c r="GR8" s="1"/>
+      <c r="GS8" s="1"/>
+      <c r="GT8" s="1"/>
+      <c r="GU8" s="1"/>
+      <c r="GV8" s="1"/>
+      <c r="GW8" s="1"/>
+      <c r="GX8" s="1"/>
+      <c r="GY8" s="1"/>
+      <c r="GZ8" s="1"/>
+      <c r="HA8" s="1"/>
+      <c r="HB8" s="1"/>
+      <c r="HC8" s="1"/>
+      <c r="HD8" s="1"/>
     </row>
-    <row r="9" spans="1:184" ht="15.75" customHeight="1">
+    <row r="9" spans="1:212" ht="15.75" customHeight="1">
       <c r="A9" s="1">
         <v>-7</v>
       </c>
@@ -3746,6 +4111,10 @@
       </c>
       <c r="Q9" s="1">
         <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="S9" s="1">
         <v>-7</v>
@@ -3821,10 +4190,7 @@
       <c r="AX9" s="1">
         <v>0</v>
       </c>
-      <c r="AY9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AY9" s="1"/>
       <c r="AZ9" s="1">
         <v>-7</v>
       </c>
@@ -4104,22 +4470,69 @@
       <c r="FN9" s="1">
         <v>0</v>
       </c>
-      <c r="FO9" s="8"/>
-      <c r="FP9" s="7"/>
-      <c r="FQ9" s="7"/>
-      <c r="FR9" s="7"/>
-      <c r="FS9" s="7"/>
-      <c r="FT9" s="7"/>
+      <c r="FP9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="FQ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="FR9" s="1"/>
+      <c r="FS9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="FT9" s="1">
+        <v>1</v>
+      </c>
       <c r="FU9" s="1"/>
-      <c r="FV9" s="1"/>
-      <c r="FW9" s="1"/>
+      <c r="FV9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="FW9" s="1">
+        <v>4</v>
+      </c>
       <c r="FX9" s="1"/>
-      <c r="FY9" s="1"/>
-      <c r="FZ9" s="1"/>
+      <c r="FY9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="FZ9" s="1">
+        <v>1</v>
+      </c>
       <c r="GA9" s="1"/>
-      <c r="GB9" s="1"/>
+      <c r="GB9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="GC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="GD9" s="1"/>
+      <c r="GE9" s="1"/>
+      <c r="GF9" s="1"/>
+      <c r="GG9" s="1"/>
+      <c r="GH9" s="1"/>
+      <c r="GI9" s="1"/>
+      <c r="GJ9" s="1"/>
+      <c r="GK9" s="1"/>
+      <c r="GL9" s="1"/>
+      <c r="GM9" s="1"/>
+      <c r="GN9" s="1"/>
+      <c r="GO9" s="1"/>
+      <c r="GP9" s="1"/>
+      <c r="GQ9" s="1"/>
+      <c r="GR9" s="1"/>
+      <c r="GS9" s="1"/>
+      <c r="GT9" s="1"/>
+      <c r="GU9" s="1"/>
+      <c r="GV9" s="1"/>
+      <c r="GW9" s="1"/>
+      <c r="GX9" s="1"/>
+      <c r="GY9" s="1"/>
+      <c r="GZ9" s="1"/>
+      <c r="HA9" s="1"/>
+      <c r="HB9" s="1"/>
+      <c r="HC9" s="1"/>
+      <c r="HD9" s="1"/>
     </row>
-    <row r="10" spans="1:184" ht="15.75" customHeight="1">
+    <row r="10" spans="1:212" ht="15.75" customHeight="1">
       <c r="A10" s="1">
         <v>-8</v>
       </c>
@@ -4155,6 +4568,10 @@
       </c>
       <c r="Q10" s="1">
         <v>5</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="S10" s="1">
         <v>-8</v>
@@ -4230,10 +4647,7 @@
       <c r="AX10" s="1">
         <v>1</v>
       </c>
-      <c r="AY10" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="AY10" s="1"/>
       <c r="AZ10" s="1">
         <v>-8</v>
       </c>
@@ -4513,22 +4927,69 @@
       <c r="FN10" s="1">
         <v>1</v>
       </c>
-      <c r="FO10" s="8"/>
-      <c r="FP10" s="7"/>
-      <c r="FQ10" s="7"/>
-      <c r="FR10" s="7"/>
-      <c r="FS10" s="7"/>
-      <c r="FT10" s="7"/>
+      <c r="FP10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="FQ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="FR10" s="1"/>
+      <c r="FS10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="FT10" s="1">
+        <v>2</v>
+      </c>
       <c r="FU10" s="1"/>
-      <c r="FV10" s="1"/>
-      <c r="FW10" s="1"/>
+      <c r="FV10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="FW10" s="1">
+        <v>1</v>
+      </c>
       <c r="FX10" s="1"/>
-      <c r="FY10" s="1"/>
-      <c r="FZ10" s="1"/>
+      <c r="FY10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="FZ10" s="1">
+        <v>0</v>
+      </c>
       <c r="GA10" s="1"/>
-      <c r="GB10" s="1"/>
+      <c r="GB10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="GC10" s="1">
+        <v>1</v>
+      </c>
+      <c r="GD10" s="1"/>
+      <c r="GE10" s="1"/>
+      <c r="GF10" s="1"/>
+      <c r="GG10" s="1"/>
+      <c r="GH10" s="1"/>
+      <c r="GI10" s="1"/>
+      <c r="GJ10" s="1"/>
+      <c r="GK10" s="1"/>
+      <c r="GL10" s="1"/>
+      <c r="GM10" s="1"/>
+      <c r="GN10" s="1"/>
+      <c r="GO10" s="1"/>
+      <c r="GP10" s="1"/>
+      <c r="GQ10" s="1"/>
+      <c r="GR10" s="1"/>
+      <c r="GS10" s="1"/>
+      <c r="GT10" s="1"/>
+      <c r="GU10" s="1"/>
+      <c r="GV10" s="1"/>
+      <c r="GW10" s="1"/>
+      <c r="GX10" s="1"/>
+      <c r="GY10" s="1"/>
+      <c r="GZ10" s="1"/>
+      <c r="HA10" s="1"/>
+      <c r="HB10" s="1"/>
+      <c r="HC10" s="1"/>
+      <c r="HD10" s="1"/>
     </row>
-    <row r="11" spans="1:184" ht="15.75" customHeight="1">
+    <row r="11" spans="1:212" ht="15.75" customHeight="1">
       <c r="A11" s="1">
         <v>-8.5</v>
       </c>
@@ -4564,6 +5025,10 @@
       </c>
       <c r="Q11" s="1">
         <v>28</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>34</v>
       </c>
       <c r="S11" s="1">
         <v>-8.5</v>
@@ -4639,10 +5104,7 @@
       <c r="AX11" s="1">
         <v>3</v>
       </c>
-      <c r="AY11" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
+      <c r="AY11" s="1"/>
       <c r="AZ11" s="1">
         <v>-9</v>
       </c>
@@ -4922,22 +5384,69 @@
       <c r="FN11" s="1">
         <v>6</v>
       </c>
-      <c r="FO11" s="8"/>
-      <c r="FP11" s="7"/>
-      <c r="FQ11" s="7"/>
-      <c r="FR11" s="7"/>
-      <c r="FS11" s="7"/>
-      <c r="FT11" s="7"/>
+      <c r="FP11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="FQ11" s="1">
+        <v>3</v>
+      </c>
+      <c r="FR11" s="1"/>
+      <c r="FS11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="FT11" s="1">
+        <v>11</v>
+      </c>
       <c r="FU11" s="1"/>
-      <c r="FV11" s="1"/>
-      <c r="FW11" s="1"/>
+      <c r="FV11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="FW11" s="1">
+        <v>15</v>
+      </c>
       <c r="FX11" s="1"/>
-      <c r="FY11" s="1"/>
-      <c r="FZ11" s="1"/>
+      <c r="FY11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="FZ11" s="1">
+        <v>4</v>
+      </c>
       <c r="GA11" s="1"/>
-      <c r="GB11" s="1"/>
+      <c r="GB11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="GC11" s="1">
+        <v>6</v>
+      </c>
+      <c r="GD11" s="1"/>
+      <c r="GE11" s="1"/>
+      <c r="GF11" s="1"/>
+      <c r="GG11" s="1"/>
+      <c r="GH11" s="1"/>
+      <c r="GI11" s="1"/>
+      <c r="GJ11" s="1"/>
+      <c r="GK11" s="1"/>
+      <c r="GL11" s="1"/>
+      <c r="GM11" s="1"/>
+      <c r="GN11" s="1"/>
+      <c r="GO11" s="1"/>
+      <c r="GP11" s="1"/>
+      <c r="GQ11" s="1"/>
+      <c r="GR11" s="1"/>
+      <c r="GS11" s="1"/>
+      <c r="GT11" s="1"/>
+      <c r="GU11" s="1"/>
+      <c r="GV11" s="1"/>
+      <c r="GW11" s="1"/>
+      <c r="GX11" s="1"/>
+      <c r="GY11" s="1"/>
+      <c r="GZ11" s="1"/>
+      <c r="HA11" s="1"/>
+      <c r="HB11" s="1"/>
+      <c r="HC11" s="1"/>
+      <c r="HD11" s="1"/>
     </row>
-    <row r="12" spans="1:184" ht="15.75" customHeight="1">
+    <row r="12" spans="1:212" ht="15.75" customHeight="1">
       <c r="A12" s="1">
         <v>-9</v>
       </c>
@@ -4973,6 +5482,10 @@
       </c>
       <c r="Q12" s="1">
         <v>14</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>48</v>
       </c>
       <c r="S12" s="1"/>
       <c r="V12" s="1">
@@ -5043,10 +5556,7 @@
       <c r="AX12" s="1">
         <v>3</v>
       </c>
-      <c r="AY12" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
+      <c r="AY12" s="1"/>
       <c r="AZ12" s="1">
         <v>-10</v>
       </c>
@@ -5326,22 +5836,68 @@
       <c r="FN12" s="1">
         <v>4</v>
       </c>
-      <c r="FO12" s="8"/>
-      <c r="FP12" s="7"/>
-      <c r="FQ12" s="7"/>
-      <c r="FR12" s="8"/>
-      <c r="FS12" s="7"/>
-      <c r="FT12" s="7"/>
+      <c r="FP12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="FQ12" s="1">
+        <v>5</v>
+      </c>
+      <c r="FS12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="FT12" s="1">
+        <v>5</v>
+      </c>
       <c r="FU12" s="1"/>
-      <c r="FV12" s="1"/>
-      <c r="FW12" s="1"/>
+      <c r="FV12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="FW12" s="1">
+        <v>13</v>
+      </c>
       <c r="FX12" s="1"/>
-      <c r="FY12" s="1"/>
-      <c r="FZ12" s="1"/>
+      <c r="FY12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="FZ12" s="1">
+        <v>4</v>
+      </c>
       <c r="GA12" s="1"/>
-      <c r="GB12" s="1"/>
+      <c r="GB12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="GC12" s="1">
+        <v>3</v>
+      </c>
+      <c r="GD12" s="1"/>
+      <c r="GE12" s="1"/>
+      <c r="GF12" s="1"/>
+      <c r="GG12" s="1"/>
+      <c r="GH12" s="1"/>
+      <c r="GI12" s="1"/>
+      <c r="GJ12" s="1"/>
+      <c r="GK12" s="1"/>
+      <c r="GL12" s="1"/>
+      <c r="GM12" s="1"/>
+      <c r="GN12" s="1"/>
+      <c r="GO12" s="1"/>
+      <c r="GP12" s="1"/>
+      <c r="GQ12" s="1"/>
+      <c r="GR12" s="1"/>
+      <c r="GS12" s="1"/>
+      <c r="GT12" s="1"/>
+      <c r="GU12" s="1"/>
+      <c r="GV12" s="1"/>
+      <c r="GW12" s="1"/>
+      <c r="GX12" s="1"/>
+      <c r="GY12" s="1"/>
+      <c r="GZ12" s="1"/>
+      <c r="HA12" s="1"/>
+      <c r="HB12" s="1"/>
+      <c r="HC12" s="1"/>
+      <c r="HD12" s="1"/>
     </row>
-    <row r="13" spans="1:184" ht="15.75" customHeight="1">
+    <row r="13" spans="1:212" ht="15.75" customHeight="1">
       <c r="A13" s="1">
         <v>-9.5</v>
       </c>
@@ -5377,6 +5933,10 @@
       </c>
       <c r="Q13" s="1">
         <v>17</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>65</v>
       </c>
       <c r="S13" s="1">
         <v>-6</v>
@@ -5452,10 +6012,7 @@
       <c r="AX13" s="1">
         <v>7</v>
       </c>
-      <c r="AY13" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
+      <c r="AY13" s="1"/>
       <c r="AZ13" s="1">
         <v>-11</v>
       </c>
@@ -5735,22 +6292,69 @@
       <c r="FN13" s="1">
         <v>4</v>
       </c>
-      <c r="FO13" s="8"/>
-      <c r="FP13" s="7"/>
-      <c r="FQ13" s="7"/>
-      <c r="FR13" s="7"/>
-      <c r="FS13" s="7"/>
-      <c r="FT13" s="7"/>
+      <c r="FP13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="FQ13" s="1">
+        <v>4</v>
+      </c>
+      <c r="FR13" s="1"/>
+      <c r="FS13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="FT13" s="1">
+        <v>8</v>
+      </c>
       <c r="FU13" s="1"/>
-      <c r="FV13" s="1"/>
-      <c r="FW13" s="1"/>
+      <c r="FV13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="FW13" s="1">
+        <v>20</v>
+      </c>
       <c r="FX13" s="1"/>
-      <c r="FY13" s="1"/>
-      <c r="FZ13" s="1"/>
+      <c r="FY13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="FZ13" s="1">
+        <v>5</v>
+      </c>
       <c r="GA13" s="1"/>
-      <c r="GB13" s="1"/>
+      <c r="GB13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="GC13" s="1">
+        <v>7</v>
+      </c>
+      <c r="GD13" s="1"/>
+      <c r="GE13" s="1"/>
+      <c r="GF13" s="1"/>
+      <c r="GG13" s="1"/>
+      <c r="GH13" s="1"/>
+      <c r="GI13" s="1"/>
+      <c r="GJ13" s="1"/>
+      <c r="GK13" s="1"/>
+      <c r="GL13" s="1"/>
+      <c r="GM13" s="1"/>
+      <c r="GN13" s="1"/>
+      <c r="GO13" s="1"/>
+      <c r="GP13" s="1"/>
+      <c r="GQ13" s="1"/>
+      <c r="GR13" s="1"/>
+      <c r="GS13" s="1"/>
+      <c r="GT13" s="1"/>
+      <c r="GU13" s="1"/>
+      <c r="GV13" s="1"/>
+      <c r="GW13" s="1"/>
+      <c r="GX13" s="1"/>
+      <c r="GY13" s="1"/>
+      <c r="GZ13" s="1"/>
+      <c r="HA13" s="1"/>
+      <c r="HB13" s="1"/>
+      <c r="HC13" s="1"/>
+      <c r="HD13" s="1"/>
     </row>
-    <row r="14" spans="1:184" ht="15.75" customHeight="1">
+    <row r="14" spans="1:212" ht="15.75" customHeight="1">
       <c r="A14" s="1">
         <v>-10</v>
       </c>
@@ -5786,6 +6390,10 @@
       </c>
       <c r="Q14" s="1">
         <v>9</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>74</v>
       </c>
       <c r="S14" s="1">
         <v>-6.25</v>
@@ -5861,10 +6469,7 @@
       <c r="AX14" s="1">
         <v>4</v>
       </c>
-      <c r="AY14" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
+      <c r="AY14" s="1"/>
       <c r="AZ14" s="1">
         <v>-12</v>
       </c>
@@ -6144,22 +6749,69 @@
       <c r="FN14" s="1">
         <v>1</v>
       </c>
-      <c r="FO14" s="8"/>
-      <c r="FP14" s="7"/>
-      <c r="FQ14" s="7"/>
-      <c r="FR14" s="7"/>
-      <c r="FS14" s="7"/>
-      <c r="FT14" s="7"/>
+      <c r="FP14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="FQ14" s="1">
+        <v>6</v>
+      </c>
+      <c r="FR14" s="1"/>
+      <c r="FS14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="FT14" s="1">
+        <v>13</v>
+      </c>
       <c r="FU14" s="1"/>
-      <c r="FV14" s="1"/>
-      <c r="FW14" s="1"/>
+      <c r="FV14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="FW14" s="1">
+        <v>17</v>
+      </c>
       <c r="FX14" s="1"/>
-      <c r="FY14" s="1"/>
-      <c r="FZ14" s="1"/>
+      <c r="FY14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="FZ14" s="1">
+        <v>10</v>
+      </c>
       <c r="GA14" s="1"/>
-      <c r="GB14" s="1"/>
+      <c r="GB14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="GC14" s="1">
+        <v>6</v>
+      </c>
+      <c r="GD14" s="1"/>
+      <c r="GE14" s="1"/>
+      <c r="GF14" s="1"/>
+      <c r="GG14" s="1"/>
+      <c r="GH14" s="1"/>
+      <c r="GI14" s="1"/>
+      <c r="GJ14" s="1"/>
+      <c r="GK14" s="1"/>
+      <c r="GL14" s="1"/>
+      <c r="GM14" s="1"/>
+      <c r="GN14" s="1"/>
+      <c r="GO14" s="1"/>
+      <c r="GP14" s="1"/>
+      <c r="GQ14" s="1"/>
+      <c r="GR14" s="1"/>
+      <c r="GS14" s="1"/>
+      <c r="GT14" s="1"/>
+      <c r="GU14" s="1"/>
+      <c r="GV14" s="1"/>
+      <c r="GW14" s="1"/>
+      <c r="GX14" s="1"/>
+      <c r="GY14" s="1"/>
+      <c r="GZ14" s="1"/>
+      <c r="HA14" s="1"/>
+      <c r="HB14" s="1"/>
+      <c r="HC14" s="1"/>
+      <c r="HD14" s="1"/>
     </row>
-    <row r="15" spans="1:184" ht="15.75" customHeight="1">
+    <row r="15" spans="1:212" ht="15.75" customHeight="1">
       <c r="A15" s="1">
         <v>-10.5</v>
       </c>
@@ -6195,6 +6847,10 @@
       </c>
       <c r="Q15" s="1">
         <v>6</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
       <c r="S15" s="1">
         <v>-6.5</v>
@@ -6270,10 +6926,7 @@
       <c r="AX15" s="1">
         <v>12</v>
       </c>
-      <c r="AY15" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
+      <c r="AY15" s="1"/>
       <c r="AZ15" s="1">
         <v>-13</v>
       </c>
@@ -6553,22 +7206,69 @@
       <c r="FN15" s="1">
         <v>5</v>
       </c>
-      <c r="FO15" s="8"/>
-      <c r="FP15" s="7"/>
-      <c r="FQ15" s="7"/>
-      <c r="FR15" s="7"/>
-      <c r="FS15" s="7"/>
-      <c r="FT15" s="7"/>
+      <c r="FP15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="FQ15" s="1">
+        <v>2</v>
+      </c>
+      <c r="FR15" s="1"/>
+      <c r="FS15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="FT15" s="1">
+        <v>22</v>
+      </c>
       <c r="FU15" s="1"/>
-      <c r="FV15" s="1"/>
-      <c r="FW15" s="1"/>
+      <c r="FV15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="FW15" s="1">
+        <v>12</v>
+      </c>
       <c r="FX15" s="1"/>
-      <c r="FY15" s="1"/>
-      <c r="FZ15" s="1"/>
+      <c r="FY15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="FZ15" s="1">
+        <v>5</v>
+      </c>
       <c r="GA15" s="1"/>
-      <c r="GB15" s="1"/>
+      <c r="GB15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="GC15" s="1">
+        <v>10</v>
+      </c>
+      <c r="GD15" s="1"/>
+      <c r="GE15" s="1"/>
+      <c r="GF15" s="1"/>
+      <c r="GG15" s="1"/>
+      <c r="GH15" s="1"/>
+      <c r="GI15" s="1"/>
+      <c r="GJ15" s="1"/>
+      <c r="GK15" s="1"/>
+      <c r="GL15" s="1"/>
+      <c r="GM15" s="1"/>
+      <c r="GN15" s="1"/>
+      <c r="GO15" s="1"/>
+      <c r="GP15" s="1"/>
+      <c r="GQ15" s="1"/>
+      <c r="GR15" s="1"/>
+      <c r="GS15" s="1"/>
+      <c r="GT15" s="1"/>
+      <c r="GU15" s="1"/>
+      <c r="GV15" s="1"/>
+      <c r="GW15" s="1"/>
+      <c r="GX15" s="1"/>
+      <c r="GY15" s="1"/>
+      <c r="GZ15" s="1"/>
+      <c r="HA15" s="1"/>
+      <c r="HB15" s="1"/>
+      <c r="HC15" s="1"/>
+      <c r="HD15" s="1"/>
     </row>
-    <row r="16" spans="1:184" ht="15.75" customHeight="1">
+    <row r="16" spans="1:212" ht="15.75" customHeight="1">
       <c r="A16" s="1">
         <v>-11</v>
       </c>
@@ -6604,6 +7304,10 @@
       </c>
       <c r="Q16" s="1">
         <v>4</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>84</v>
       </c>
       <c r="S16" s="1">
         <v>-6.75</v>
@@ -6679,10 +7383,7 @@
       <c r="AX16" s="1">
         <v>22</v>
       </c>
-      <c r="AY16" s="1">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
+      <c r="AY16" s="1"/>
       <c r="AZ16" s="1">
         <v>-14</v>
       </c>
@@ -6962,22 +7663,69 @@
       <c r="FN16" s="1">
         <v>5</v>
       </c>
-      <c r="FO16" s="8"/>
-      <c r="FP16" s="7"/>
-      <c r="FQ16" s="7"/>
-      <c r="FR16" s="7"/>
-      <c r="FS16" s="7"/>
-      <c r="FT16" s="7"/>
+      <c r="FP16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="FQ16" s="1">
+        <v>6</v>
+      </c>
+      <c r="FR16" s="1"/>
+      <c r="FS16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="FT16" s="1">
+        <v>9</v>
+      </c>
       <c r="FU16" s="1"/>
-      <c r="FV16" s="1"/>
-      <c r="FW16" s="1"/>
+      <c r="FV16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="FW16" s="1">
+        <v>8</v>
+      </c>
       <c r="FX16" s="1"/>
-      <c r="FY16" s="1"/>
-      <c r="FZ16" s="1"/>
+      <c r="FY16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="FZ16" s="1">
+        <v>14</v>
+      </c>
       <c r="GA16" s="1"/>
-      <c r="GB16" s="1"/>
+      <c r="GB16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="GC16" s="1">
+        <v>16</v>
+      </c>
+      <c r="GD16" s="1"/>
+      <c r="GE16" s="1"/>
+      <c r="GF16" s="1"/>
+      <c r="GG16" s="1"/>
+      <c r="GH16" s="1"/>
+      <c r="GI16" s="1"/>
+      <c r="GJ16" s="1"/>
+      <c r="GK16" s="1"/>
+      <c r="GL16" s="1"/>
+      <c r="GM16" s="1"/>
+      <c r="GN16" s="1"/>
+      <c r="GO16" s="1"/>
+      <c r="GP16" s="1"/>
+      <c r="GQ16" s="1"/>
+      <c r="GR16" s="1"/>
+      <c r="GS16" s="1"/>
+      <c r="GT16" s="1"/>
+      <c r="GU16" s="1"/>
+      <c r="GV16" s="1"/>
+      <c r="GW16" s="1"/>
+      <c r="GX16" s="1"/>
+      <c r="GY16" s="1"/>
+      <c r="GZ16" s="1"/>
+      <c r="HA16" s="1"/>
+      <c r="HB16" s="1"/>
+      <c r="HC16" s="1"/>
+      <c r="HD16" s="1"/>
     </row>
-    <row r="17" spans="1:184" ht="15.75" customHeight="1">
+    <row r="17" spans="1:212" ht="15.75" customHeight="1">
       <c r="A17" s="1">
         <v>-11.5</v>
       </c>
@@ -7013,6 +7761,10 @@
       </c>
       <c r="Q17" s="1">
         <v>3</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
       <c r="S17" s="1">
         <v>-7</v>
@@ -7088,10 +7840,7 @@
       <c r="AX17" s="1">
         <v>37</v>
       </c>
-      <c r="AY17" s="1">
-        <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
+      <c r="AY17" s="1"/>
       <c r="AZ17" s="1">
         <v>-15</v>
       </c>
@@ -7371,22 +8120,69 @@
       <c r="FN17" s="1">
         <v>6</v>
       </c>
-      <c r="FO17" s="8"/>
-      <c r="FP17" s="7"/>
-      <c r="FQ17" s="7"/>
-      <c r="FR17" s="7"/>
-      <c r="FS17" s="7"/>
-      <c r="FT17" s="7"/>
+      <c r="FP17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="FQ17" s="1">
+        <v>16</v>
+      </c>
+      <c r="FR17" s="1"/>
+      <c r="FS17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="FT17" s="1">
+        <v>17</v>
+      </c>
       <c r="FU17" s="1"/>
-      <c r="FV17" s="1"/>
-      <c r="FW17" s="1"/>
+      <c r="FV17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="FW17" s="1">
+        <v>8</v>
+      </c>
       <c r="FX17" s="1"/>
-      <c r="FY17" s="1"/>
-      <c r="FZ17" s="1"/>
+      <c r="FY17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="FZ17" s="1">
+        <v>16</v>
+      </c>
       <c r="GA17" s="1"/>
-      <c r="GB17" s="1"/>
+      <c r="GB17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="GC17" s="1">
+        <v>13</v>
+      </c>
+      <c r="GD17" s="1"/>
+      <c r="GE17" s="1"/>
+      <c r="GF17" s="1"/>
+      <c r="GG17" s="1"/>
+      <c r="GH17" s="1"/>
+      <c r="GI17" s="1"/>
+      <c r="GJ17" s="1"/>
+      <c r="GK17" s="1"/>
+      <c r="GL17" s="1"/>
+      <c r="GM17" s="1"/>
+      <c r="GN17" s="1"/>
+      <c r="GO17" s="1"/>
+      <c r="GP17" s="1"/>
+      <c r="GQ17" s="1"/>
+      <c r="GR17" s="1"/>
+      <c r="GS17" s="1"/>
+      <c r="GT17" s="1"/>
+      <c r="GU17" s="1"/>
+      <c r="GV17" s="1"/>
+      <c r="GW17" s="1"/>
+      <c r="GX17" s="1"/>
+      <c r="GY17" s="1"/>
+      <c r="GZ17" s="1"/>
+      <c r="HA17" s="1"/>
+      <c r="HB17" s="1"/>
+      <c r="HC17" s="1"/>
+      <c r="HD17" s="1"/>
     </row>
-    <row r="18" spans="1:184" ht="15.75" customHeight="1">
+    <row r="18" spans="1:212" ht="15.75" customHeight="1">
       <c r="A18" s="1">
         <v>-12</v>
       </c>
@@ -7422,6 +8218,10 @@
       </c>
       <c r="Q18" s="1">
         <v>2</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="0"/>
+        <v>89</v>
       </c>
       <c r="S18" s="1">
         <v>-7.25</v>
@@ -7497,10 +8297,7 @@
       <c r="AX18" s="1">
         <v>11</v>
       </c>
-      <c r="AY18" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
+      <c r="AY18" s="1"/>
       <c r="AZ18" s="1">
         <v>-16</v>
       </c>
@@ -7780,22 +8577,69 @@
       <c r="FN18" s="1">
         <v>15</v>
       </c>
-      <c r="FO18" s="8"/>
-      <c r="FP18" s="7"/>
-      <c r="FQ18" s="7"/>
-      <c r="FR18" s="7"/>
-      <c r="FS18" s="7"/>
-      <c r="FT18" s="7"/>
+      <c r="FP18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="FQ18" s="1">
+        <v>22</v>
+      </c>
+      <c r="FR18" s="1"/>
+      <c r="FS18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="FT18" s="1">
+        <v>3</v>
+      </c>
       <c r="FU18" s="1"/>
-      <c r="FV18" s="1"/>
-      <c r="FW18" s="1"/>
+      <c r="FV18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="FW18" s="1">
+        <v>2</v>
+      </c>
       <c r="FX18" s="1"/>
-      <c r="FY18" s="1"/>
-      <c r="FZ18" s="1"/>
+      <c r="FY18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="FZ18" s="1">
+        <v>28</v>
+      </c>
       <c r="GA18" s="1"/>
-      <c r="GB18" s="1"/>
+      <c r="GB18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="GC18" s="1">
+        <v>31</v>
+      </c>
+      <c r="GD18" s="1"/>
+      <c r="GE18" s="1"/>
+      <c r="GF18" s="1"/>
+      <c r="GG18" s="1"/>
+      <c r="GH18" s="1"/>
+      <c r="GI18" s="1"/>
+      <c r="GJ18" s="1"/>
+      <c r="GK18" s="1"/>
+      <c r="GL18" s="1"/>
+      <c r="GM18" s="1"/>
+      <c r="GN18" s="1"/>
+      <c r="GO18" s="1"/>
+      <c r="GP18" s="1"/>
+      <c r="GQ18" s="1"/>
+      <c r="GR18" s="1"/>
+      <c r="GS18" s="1"/>
+      <c r="GT18" s="1"/>
+      <c r="GU18" s="1"/>
+      <c r="GV18" s="1"/>
+      <c r="GW18" s="1"/>
+      <c r="GX18" s="1"/>
+      <c r="GY18" s="1"/>
+      <c r="GZ18" s="1"/>
+      <c r="HA18" s="1"/>
+      <c r="HB18" s="1"/>
+      <c r="HC18" s="1"/>
+      <c r="HD18" s="1"/>
     </row>
-    <row r="19" spans="1:184" ht="15.75" customHeight="1">
+    <row r="19" spans="1:212" ht="15.75" customHeight="1">
       <c r="A19" s="1">
         <v>-12.5</v>
       </c>
@@ -7831,6 +8675,10 @@
       </c>
       <c r="Q19" s="1">
         <v>7</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="0"/>
+        <v>96</v>
       </c>
       <c r="S19" s="1">
         <v>-7.5</v>
@@ -7906,10 +8754,7 @@
       <c r="AX19" s="1">
         <v>3</v>
       </c>
-      <c r="AY19" s="1">
-        <f t="shared" si="0"/>
-        <v>103</v>
-      </c>
+      <c r="AY19" s="1"/>
       <c r="AZ19" s="1">
         <v>-17</v>
       </c>
@@ -8181,22 +9026,69 @@
       <c r="FN19" s="1">
         <v>15</v>
       </c>
-      <c r="FO19" s="8"/>
-      <c r="FP19" s="7"/>
-      <c r="FQ19" s="7"/>
-      <c r="FR19" s="7"/>
-      <c r="FS19" s="7"/>
-      <c r="FT19" s="7"/>
+      <c r="FP19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="FQ19" s="1">
+        <v>9</v>
+      </c>
+      <c r="FR19" s="1"/>
+      <c r="FS19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="FT19" s="1">
+        <v>11</v>
+      </c>
       <c r="FU19" s="1"/>
-      <c r="FV19" s="1"/>
-      <c r="FW19" s="1"/>
+      <c r="FV19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="FW19" s="1">
+        <v>3</v>
+      </c>
       <c r="FX19" s="1"/>
-      <c r="FY19" s="1"/>
-      <c r="FZ19" s="1"/>
+      <c r="FY19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="FZ19" s="1">
+        <v>6</v>
+      </c>
       <c r="GA19" s="1"/>
-      <c r="GB19" s="1"/>
+      <c r="GB19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="GC19" s="1">
+        <v>6</v>
+      </c>
+      <c r="GD19" s="1"/>
+      <c r="GE19" s="1"/>
+      <c r="GF19" s="1"/>
+      <c r="GG19" s="1"/>
+      <c r="GH19" s="1"/>
+      <c r="GI19" s="1"/>
+      <c r="GJ19" s="1"/>
+      <c r="GK19" s="1"/>
+      <c r="GL19" s="1"/>
+      <c r="GM19" s="1"/>
+      <c r="GN19" s="1"/>
+      <c r="GO19" s="1"/>
+      <c r="GP19" s="1"/>
+      <c r="GQ19" s="1"/>
+      <c r="GR19" s="1"/>
+      <c r="GS19" s="1"/>
+      <c r="GT19" s="1"/>
+      <c r="GU19" s="1"/>
+      <c r="GV19" s="1"/>
+      <c r="GW19" s="1"/>
+      <c r="GX19" s="1"/>
+      <c r="GY19" s="1"/>
+      <c r="GZ19" s="1"/>
+      <c r="HA19" s="1"/>
+      <c r="HB19" s="1"/>
+      <c r="HC19" s="1"/>
+      <c r="HD19" s="1"/>
     </row>
-    <row r="20" spans="1:184" ht="15.75" customHeight="1">
+    <row r="20" spans="1:212" ht="15.75" customHeight="1">
       <c r="A20" s="1">
         <v>-13</v>
       </c>
@@ -8232,6 +9124,10 @@
       </c>
       <c r="Q20" s="1">
         <v>0</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="0"/>
+        <v>96</v>
       </c>
       <c r="S20" s="1">
         <v>-7.75</v>
@@ -8540,22 +9436,60 @@
       <c r="FN20" s="1">
         <v>29</v>
       </c>
-      <c r="FO20" s="8"/>
-      <c r="FP20" s="7"/>
-      <c r="FQ20" s="7"/>
-      <c r="FR20" s="7"/>
-      <c r="FS20" s="7"/>
-      <c r="FT20" s="7"/>
+      <c r="FP20" s="1">
+        <v>-18</v>
+      </c>
+      <c r="FQ20" s="1">
+        <v>30</v>
+      </c>
+      <c r="FR20" s="1"/>
+      <c r="FS20" s="1"/>
       <c r="FU20" s="1"/>
       <c r="FV20" s="1"/>
       <c r="FW20" s="1"/>
       <c r="FX20" s="1"/>
-      <c r="FY20" s="1"/>
-      <c r="FZ20" s="1"/>
+      <c r="FY20" s="1">
+        <v>-18</v>
+      </c>
+      <c r="FZ20" s="1">
+        <v>10</v>
+      </c>
       <c r="GA20" s="1"/>
-      <c r="GB20" s="1"/>
+      <c r="GB20" s="1">
+        <v>-18</v>
+      </c>
+      <c r="GC20" s="1">
+        <v>4</v>
+      </c>
+      <c r="GD20" s="1"/>
+      <c r="GE20" s="1"/>
+      <c r="GF20" s="1"/>
+      <c r="GG20" s="1"/>
+      <c r="GH20" s="1"/>
+      <c r="GI20" s="1"/>
+      <c r="GJ20" s="1"/>
+      <c r="GK20" s="1"/>
+      <c r="GL20" s="1"/>
+      <c r="GM20" s="1"/>
+      <c r="GN20" s="1"/>
+      <c r="GO20" s="1"/>
+      <c r="GP20" s="1"/>
+      <c r="GQ20" s="1"/>
+      <c r="GR20" s="1"/>
+      <c r="GS20" s="1"/>
+      <c r="GT20" s="1"/>
+      <c r="GU20" s="1"/>
+      <c r="GV20" s="1"/>
+      <c r="GW20" s="1"/>
+      <c r="GX20" s="1"/>
+      <c r="GY20" s="1"/>
+      <c r="GZ20" s="1"/>
+      <c r="HA20" s="1"/>
+      <c r="HB20" s="1"/>
+      <c r="HC20" s="1"/>
+      <c r="HD20" s="1"/>
     </row>
-    <row r="21" spans="1:184" ht="15.75" customHeight="1">
+    <row r="21" spans="1:212" ht="15.75" customHeight="1">
       <c r="A21" s="1">
         <v>-13.5</v>
       </c>
@@ -8591,6 +9525,10 @@
       </c>
       <c r="Q21" s="1">
         <v>2</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="0"/>
+        <v>98</v>
       </c>
       <c r="S21" s="1">
         <v>-8</v>
@@ -8861,12 +9799,11 @@
       <c r="FN21" s="1">
         <v>7</v>
       </c>
-      <c r="FO21" s="8"/>
-      <c r="FP21" s="7"/>
-      <c r="FQ21" s="7"/>
-      <c r="FR21" s="7"/>
-      <c r="FS21" s="7"/>
-      <c r="FT21" s="7"/>
+      <c r="FP21" s="1"/>
+      <c r="FQ21" s="1"/>
+      <c r="FR21" s="1"/>
+      <c r="FS21" s="1"/>
+      <c r="FT21" s="1"/>
       <c r="FU21" s="1"/>
       <c r="FV21" s="1"/>
       <c r="FW21" s="1"/>
@@ -8875,8 +9812,36 @@
       <c r="FZ21" s="1"/>
       <c r="GA21" s="1"/>
       <c r="GB21" s="1"/>
+      <c r="GC21" s="1"/>
+      <c r="GD21" s="1"/>
+      <c r="GE21" s="1"/>
+      <c r="GF21" s="1"/>
+      <c r="GG21" s="1"/>
+      <c r="GH21" s="1"/>
+      <c r="GI21" s="1"/>
+      <c r="GJ21" s="1"/>
+      <c r="GK21" s="1"/>
+      <c r="GL21" s="1"/>
+      <c r="GM21" s="1"/>
+      <c r="GN21" s="1"/>
+      <c r="GO21" s="1"/>
+      <c r="GP21" s="1"/>
+      <c r="GQ21" s="1"/>
+      <c r="GR21" s="1"/>
+      <c r="GS21" s="1"/>
+      <c r="GT21" s="1"/>
+      <c r="GU21" s="1"/>
+      <c r="GV21" s="1"/>
+      <c r="GW21" s="1"/>
+      <c r="GX21" s="1"/>
+      <c r="GY21" s="1"/>
+      <c r="GZ21" s="1"/>
+      <c r="HA21" s="1"/>
+      <c r="HB21" s="1"/>
+      <c r="HC21" s="1"/>
+      <c r="HD21" s="1"/>
     </row>
-    <row r="22" spans="1:184" ht="15.75" customHeight="1">
+    <row r="22" spans="1:212" ht="15.75" customHeight="1">
       <c r="A22" s="1">
         <v>-14</v>
       </c>
@@ -8907,6 +9872,10 @@
       </c>
       <c r="Q22" s="1">
         <v>4</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="0"/>
+        <v>102</v>
       </c>
       <c r="S22" s="1">
         <v>-8.5</v>
@@ -9135,12 +10104,11 @@
       <c r="FN22" s="1">
         <v>5</v>
       </c>
-      <c r="FO22" s="8"/>
-      <c r="FP22" s="7"/>
-      <c r="FQ22" s="7"/>
-      <c r="FR22" s="7"/>
-      <c r="FS22" s="7"/>
-      <c r="FT22" s="7"/>
+      <c r="FP22" s="1"/>
+      <c r="FQ22" s="1"/>
+      <c r="FR22" s="1"/>
+      <c r="FS22" s="1"/>
+      <c r="FT22" s="1"/>
       <c r="FU22" s="1"/>
       <c r="FV22" s="1"/>
       <c r="FW22" s="1"/>
@@ -9149,8 +10117,36 @@
       <c r="FZ22" s="1"/>
       <c r="GA22" s="1"/>
       <c r="GB22" s="1"/>
+      <c r="GC22" s="1"/>
+      <c r="GD22" s="1"/>
+      <c r="GE22" s="1"/>
+      <c r="GF22" s="1"/>
+      <c r="GG22" s="1"/>
+      <c r="GH22" s="1"/>
+      <c r="GI22" s="1"/>
+      <c r="GJ22" s="1"/>
+      <c r="GK22" s="1"/>
+      <c r="GL22" s="1"/>
+      <c r="GM22" s="1"/>
+      <c r="GN22" s="1"/>
+      <c r="GO22" s="1"/>
+      <c r="GP22" s="1"/>
+      <c r="GQ22" s="1"/>
+      <c r="GR22" s="1"/>
+      <c r="GS22" s="1"/>
+      <c r="GT22" s="1"/>
+      <c r="GU22" s="1"/>
+      <c r="GV22" s="1"/>
+      <c r="GW22" s="1"/>
+      <c r="GX22" s="1"/>
+      <c r="GY22" s="1"/>
+      <c r="GZ22" s="1"/>
+      <c r="HA22" s="1"/>
+      <c r="HB22" s="1"/>
+      <c r="HC22" s="1"/>
+      <c r="HD22" s="1"/>
     </row>
-    <row r="23" spans="1:184" ht="15.75" customHeight="1">
+    <row r="23" spans="1:212" ht="15.75" customHeight="1">
       <c r="A23" s="1">
         <v>-14.5</v>
       </c>
@@ -9180,6 +10176,10 @@
       </c>
       <c r="Q23" s="1">
         <v>1</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="0"/>
+        <v>103</v>
       </c>
       <c r="S23" s="1">
         <v>-8.75</v>
@@ -9390,12 +10390,12 @@
       <c r="FL23" s="1"/>
       <c r="FM23" s="1"/>
       <c r="FN23" s="1"/>
-      <c r="FO23" s="7"/>
-      <c r="FP23" s="7"/>
-      <c r="FQ23" s="7"/>
-      <c r="FR23" s="7"/>
-      <c r="FS23" s="7"/>
-      <c r="FT23" s="7"/>
+      <c r="FO23" s="1"/>
+      <c r="FP23" s="1"/>
+      <c r="FQ23" s="1"/>
+      <c r="FR23" s="1"/>
+      <c r="FS23" s="1"/>
+      <c r="FT23" s="1"/>
       <c r="FU23" s="1"/>
       <c r="FV23" s="1"/>
       <c r="FW23" s="1"/>
@@ -9404,8 +10404,36 @@
       <c r="FZ23" s="1"/>
       <c r="GA23" s="1"/>
       <c r="GB23" s="1"/>
+      <c r="GC23" s="1"/>
+      <c r="GD23" s="1"/>
+      <c r="GE23" s="1"/>
+      <c r="GF23" s="1"/>
+      <c r="GG23" s="1"/>
+      <c r="GH23" s="1"/>
+      <c r="GI23" s="1"/>
+      <c r="GJ23" s="1"/>
+      <c r="GK23" s="1"/>
+      <c r="GL23" s="1"/>
+      <c r="GM23" s="1"/>
+      <c r="GN23" s="1"/>
+      <c r="GO23" s="1"/>
+      <c r="GP23" s="1"/>
+      <c r="GQ23" s="1"/>
+      <c r="GR23" s="1"/>
+      <c r="GS23" s="1"/>
+      <c r="GT23" s="1"/>
+      <c r="GU23" s="1"/>
+      <c r="GV23" s="1"/>
+      <c r="GW23" s="1"/>
+      <c r="GX23" s="1"/>
+      <c r="GY23" s="1"/>
+      <c r="GZ23" s="1"/>
+      <c r="HA23" s="1"/>
+      <c r="HB23" s="1"/>
+      <c r="HC23" s="1"/>
+      <c r="HD23" s="1"/>
     </row>
-    <row r="24" spans="1:184" ht="15.75" customHeight="1">
+    <row r="24" spans="1:212" ht="15.75" customHeight="1">
       <c r="A24" s="1">
         <v>-15</v>
       </c>
@@ -9610,12 +10638,12 @@
       <c r="FL24" s="1"/>
       <c r="FM24" s="1"/>
       <c r="FN24" s="1"/>
-      <c r="FO24" s="7"/>
-      <c r="FP24" s="7"/>
-      <c r="FQ24" s="7"/>
-      <c r="FR24" s="7"/>
-      <c r="FS24" s="7"/>
-      <c r="FT24" s="7"/>
+      <c r="FO24" s="1"/>
+      <c r="FP24" s="1"/>
+      <c r="FQ24" s="1"/>
+      <c r="FR24" s="1"/>
+      <c r="FS24" s="1"/>
+      <c r="FT24" s="1"/>
       <c r="FU24" s="1"/>
       <c r="FV24" s="1"/>
       <c r="FW24" s="1"/>
@@ -9624,8 +10652,36 @@
       <c r="FZ24" s="1"/>
       <c r="GA24" s="1"/>
       <c r="GB24" s="1"/>
+      <c r="GC24" s="1"/>
+      <c r="GD24" s="1"/>
+      <c r="GE24" s="1"/>
+      <c r="GF24" s="1"/>
+      <c r="GG24" s="1"/>
+      <c r="GH24" s="1"/>
+      <c r="GI24" s="1"/>
+      <c r="GJ24" s="1"/>
+      <c r="GK24" s="1"/>
+      <c r="GL24" s="1"/>
+      <c r="GM24" s="1"/>
+      <c r="GN24" s="1"/>
+      <c r="GO24" s="1"/>
+      <c r="GP24" s="1"/>
+      <c r="GQ24" s="1"/>
+      <c r="GR24" s="1"/>
+      <c r="GS24" s="1"/>
+      <c r="GT24" s="1"/>
+      <c r="GU24" s="1"/>
+      <c r="GV24" s="1"/>
+      <c r="GW24" s="1"/>
+      <c r="GX24" s="1"/>
+      <c r="GY24" s="1"/>
+      <c r="GZ24" s="1"/>
+      <c r="HA24" s="1"/>
+      <c r="HB24" s="1"/>
+      <c r="HC24" s="1"/>
+      <c r="HD24" s="1"/>
     </row>
-    <row r="25" spans="1:184" ht="15.75" customHeight="1">
+    <row r="25" spans="1:212" ht="15.75" customHeight="1">
       <c r="A25" s="1">
         <v>-15.5</v>
       </c>
@@ -9692,14 +10748,8 @@
       </c>
       <c r="CV25" s="1"/>
       <c r="CW25" s="1"/>
-      <c r="FO25" s="8"/>
-      <c r="FP25" s="8"/>
-      <c r="FQ25" s="8"/>
-      <c r="FR25" s="8"/>
-      <c r="FS25" s="8"/>
-      <c r="FT25" s="9"/>
     </row>
-    <row r="26" spans="1:184" ht="15.75" customHeight="1">
+    <row r="26" spans="1:212" ht="15.75" customHeight="1">
       <c r="A26" s="1">
         <v>-16</v>
       </c>
@@ -9730,14 +10780,8 @@
       <c r="CH26" s="1">
         <v>1</v>
       </c>
-      <c r="FO26" s="9"/>
-      <c r="FP26" s="9"/>
-      <c r="FQ26" s="9"/>
-      <c r="FR26" s="9"/>
-      <c r="FS26" s="9"/>
-      <c r="FT26" s="9"/>
     </row>
-    <row r="27" spans="1:184" ht="15.75" customHeight="1">
+    <row r="27" spans="1:212" ht="15.75" customHeight="1">
       <c r="A27" s="1">
         <v>-16.5</v>
       </c>
@@ -9751,7 +10795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:184" ht="15.75" customHeight="1">
+    <row r="28" spans="1:212" ht="15.75" customHeight="1">
       <c r="A28" s="1">
         <v>-17</v>
       </c>
@@ -9765,7 +10809,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:184" ht="15.75" customHeight="1">
+    <row r="29" spans="1:212" ht="15.75" customHeight="1">
       <c r="A29" s="1">
         <v>-17.5</v>
       </c>
@@ -9776,37 +10820,6 @@
         <v>-18</v>
       </c>
       <c r="K29" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:184" ht="15.75" customHeight="1">
-      <c r="A30" s="1">
-        <v>-18.5</v>
-      </c>
-      <c r="B30" s="1">
-        <v>2</v>
-      </c>
-      <c r="J30" s="1">
-        <v>-18.5</v>
-      </c>
-      <c r="K30" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:184" ht="15.75" customHeight="1">
-      <c r="B31" s="1"/>
-      <c r="J31" s="1">
-        <v>-19</v>
-      </c>
-      <c r="K31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:184" ht="15.75" customHeight="1">
-      <c r="J32" s="1">
-        <v>-19.5</v>
-      </c>
-      <c r="K32" s="1">
         <v>3</v>
       </c>
     </row>

--- a/datas_lab_IN.xlsx
+++ b/datas_lab_IN.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="5">
   <si>
     <t>[Season, Source]</t>
   </si>
@@ -851,14 +851,26 @@
         <v>42184</v>
       </c>
       <c r="GD1" s="2"/>
-      <c r="GE1" s="2"/>
-      <c r="GF1" s="2"/>
+      <c r="GE1" s="1">
+        <v>364</v>
+      </c>
+      <c r="GF1" s="2">
+        <v>42186</v>
+      </c>
       <c r="GG1" s="2"/>
-      <c r="GH1" s="2"/>
-      <c r="GI1" s="2"/>
+      <c r="GH1" s="1">
+        <v>367</v>
+      </c>
+      <c r="GI1" s="2">
+        <v>42186</v>
+      </c>
       <c r="GJ1" s="2"/>
-      <c r="GK1" s="2"/>
-      <c r="GL1" s="2"/>
+      <c r="GK1" s="1">
+        <v>373</v>
+      </c>
+      <c r="GL1" s="2">
+        <v>42186</v>
+      </c>
       <c r="GM1" s="2"/>
       <c r="GN1" s="2"/>
       <c r="GO1" s="2"/>
@@ -1306,14 +1318,26 @@
         <v>2</v>
       </c>
       <c r="GD2" s="1"/>
-      <c r="GE2" s="1"/>
-      <c r="GF2" s="1"/>
+      <c r="GE2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="GF2" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="GG2" s="1"/>
-      <c r="GH2" s="1"/>
-      <c r="GI2" s="1"/>
+      <c r="GH2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="GI2" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="GJ2" s="1"/>
-      <c r="GK2" s="1"/>
-      <c r="GL2" s="1"/>
+      <c r="GK2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="GL2" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="GM2" s="1"/>
       <c r="GN2" s="1"/>
       <c r="GO2" s="1"/>
@@ -1763,13 +1787,23 @@
         <v>0</v>
       </c>
       <c r="GD3" s="1"/>
-      <c r="GE3" s="1"/>
-      <c r="GF3" s="1"/>
+      <c r="GE3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="GF3" s="1">
+        <v>0</v>
+      </c>
       <c r="GG3" s="1"/>
-      <c r="GH3" s="1"/>
-      <c r="GI3" s="1"/>
+      <c r="GH3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="GI3" s="1">
+        <v>0</v>
+      </c>
       <c r="GJ3" s="1"/>
-      <c r="GK3" s="1"/>
+      <c r="GK3" s="1">
+        <v>-1</v>
+      </c>
       <c r="GL3" s="1"/>
       <c r="GM3" s="1"/>
       <c r="GN3" s="1"/>
@@ -2220,13 +2254,23 @@
         <v>0</v>
       </c>
       <c r="GD4" s="1"/>
-      <c r="GE4" s="1"/>
-      <c r="GF4" s="1"/>
+      <c r="GE4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="GF4" s="1">
+        <v>0</v>
+      </c>
       <c r="GG4" s="1"/>
-      <c r="GH4" s="1"/>
-      <c r="GI4" s="1"/>
+      <c r="GH4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="GI4" s="1">
+        <v>0</v>
+      </c>
       <c r="GJ4" s="1"/>
-      <c r="GK4" s="1"/>
+      <c r="GK4" s="1">
+        <v>-2</v>
+      </c>
       <c r="GL4" s="1"/>
       <c r="GM4" s="1"/>
       <c r="GN4" s="1"/>
@@ -2677,13 +2721,23 @@
         <v>0</v>
       </c>
       <c r="GD5" s="1"/>
-      <c r="GE5" s="1"/>
-      <c r="GF5" s="1"/>
+      <c r="GE5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="GF5" s="1">
+        <v>0</v>
+      </c>
       <c r="GG5" s="1"/>
-      <c r="GH5" s="1"/>
-      <c r="GI5" s="1"/>
+      <c r="GH5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="GI5" s="1">
+        <v>0</v>
+      </c>
       <c r="GJ5" s="1"/>
-      <c r="GK5" s="1"/>
+      <c r="GK5" s="1">
+        <v>-3</v>
+      </c>
       <c r="GL5" s="1"/>
       <c r="GM5" s="1"/>
       <c r="GN5" s="1"/>
@@ -3134,13 +3188,23 @@
         <v>0</v>
       </c>
       <c r="GD6" s="1"/>
-      <c r="GE6" s="1"/>
-      <c r="GF6" s="1"/>
+      <c r="GE6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="GF6" s="1">
+        <v>0</v>
+      </c>
       <c r="GG6" s="1"/>
-      <c r="GH6" s="1"/>
-      <c r="GI6" s="1"/>
+      <c r="GH6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="GI6" s="1">
+        <v>0</v>
+      </c>
       <c r="GJ6" s="1"/>
-      <c r="GK6" s="1"/>
+      <c r="GK6" s="1">
+        <v>-4</v>
+      </c>
       <c r="GL6" s="1"/>
       <c r="GM6" s="1"/>
       <c r="GN6" s="1"/>
@@ -3591,13 +3655,23 @@
         <v>0</v>
       </c>
       <c r="GD7" s="1"/>
-      <c r="GE7" s="1"/>
-      <c r="GF7" s="1"/>
+      <c r="GE7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="GF7" s="1">
+        <v>0</v>
+      </c>
       <c r="GG7" s="1"/>
-      <c r="GH7" s="1"/>
-      <c r="GI7" s="1"/>
+      <c r="GH7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="GI7" s="1">
+        <v>0</v>
+      </c>
       <c r="GJ7" s="1"/>
-      <c r="GK7" s="1"/>
+      <c r="GK7" s="1">
+        <v>-5</v>
+      </c>
       <c r="GL7" s="1"/>
       <c r="GM7" s="1"/>
       <c r="GN7" s="1"/>
@@ -4048,13 +4122,23 @@
         <v>0</v>
       </c>
       <c r="GD8" s="1"/>
-      <c r="GE8" s="1"/>
-      <c r="GF8" s="1"/>
+      <c r="GE8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="GF8" s="1">
+        <v>0</v>
+      </c>
       <c r="GG8" s="1"/>
-      <c r="GH8" s="1"/>
-      <c r="GI8" s="1"/>
+      <c r="GH8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="GI8" s="1">
+        <v>0</v>
+      </c>
       <c r="GJ8" s="1"/>
-      <c r="GK8" s="1"/>
+      <c r="GK8" s="1">
+        <v>-6</v>
+      </c>
       <c r="GL8" s="1"/>
       <c r="GM8" s="1"/>
       <c r="GN8" s="1"/>
@@ -4505,13 +4589,23 @@
         <v>0</v>
       </c>
       <c r="GD9" s="1"/>
-      <c r="GE9" s="1"/>
-      <c r="GF9" s="1"/>
+      <c r="GE9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="GF9" s="1">
+        <v>0</v>
+      </c>
       <c r="GG9" s="1"/>
-      <c r="GH9" s="1"/>
-      <c r="GI9" s="1"/>
+      <c r="GH9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="GI9" s="1">
+        <v>0</v>
+      </c>
       <c r="GJ9" s="1"/>
-      <c r="GK9" s="1"/>
+      <c r="GK9" s="1">
+        <v>-7</v>
+      </c>
       <c r="GL9" s="1"/>
       <c r="GM9" s="1"/>
       <c r="GN9" s="1"/>
@@ -4962,13 +5056,23 @@
         <v>1</v>
       </c>
       <c r="GD10" s="1"/>
-      <c r="GE10" s="1"/>
-      <c r="GF10" s="1"/>
+      <c r="GE10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="GF10" s="1">
+        <v>0</v>
+      </c>
       <c r="GG10" s="1"/>
-      <c r="GH10" s="1"/>
-      <c r="GI10" s="1"/>
+      <c r="GH10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="GI10" s="1">
+        <v>5</v>
+      </c>
       <c r="GJ10" s="1"/>
-      <c r="GK10" s="1"/>
+      <c r="GK10" s="1">
+        <v>-8</v>
+      </c>
       <c r="GL10" s="1"/>
       <c r="GM10" s="1"/>
       <c r="GN10" s="1"/>
@@ -5419,13 +5523,23 @@
         <v>6</v>
       </c>
       <c r="GD11" s="1"/>
-      <c r="GE11" s="1"/>
-      <c r="GF11" s="1"/>
+      <c r="GE11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="GF11" s="1">
+        <v>3</v>
+      </c>
       <c r="GG11" s="1"/>
-      <c r="GH11" s="1"/>
-      <c r="GI11" s="1"/>
+      <c r="GH11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="GI11" s="1">
+        <v>2</v>
+      </c>
       <c r="GJ11" s="1"/>
-      <c r="GK11" s="1"/>
+      <c r="GK11" s="1">
+        <v>-9</v>
+      </c>
       <c r="GL11" s="1"/>
       <c r="GM11" s="1"/>
       <c r="GN11" s="1"/>
@@ -5870,13 +5984,23 @@
         <v>3</v>
       </c>
       <c r="GD12" s="1"/>
-      <c r="GE12" s="1"/>
-      <c r="GF12" s="1"/>
+      <c r="GE12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="GF12" s="1">
+        <v>5</v>
+      </c>
       <c r="GG12" s="1"/>
-      <c r="GH12" s="1"/>
-      <c r="GI12" s="1"/>
+      <c r="GH12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="GI12" s="1">
+        <v>4</v>
+      </c>
       <c r="GJ12" s="1"/>
-      <c r="GK12" s="1"/>
+      <c r="GK12" s="1">
+        <v>-10</v>
+      </c>
       <c r="GL12" s="1"/>
       <c r="GM12" s="1"/>
       <c r="GN12" s="1"/>
@@ -6327,13 +6451,23 @@
         <v>7</v>
       </c>
       <c r="GD13" s="1"/>
-      <c r="GE13" s="1"/>
-      <c r="GF13" s="1"/>
+      <c r="GE13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="GF13" s="1">
+        <v>9</v>
+      </c>
       <c r="GG13" s="1"/>
-      <c r="GH13" s="1"/>
-      <c r="GI13" s="1"/>
+      <c r="GH13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="GI13" s="1">
+        <v>5</v>
+      </c>
       <c r="GJ13" s="1"/>
-      <c r="GK13" s="1"/>
+      <c r="GK13" s="1">
+        <v>-11</v>
+      </c>
       <c r="GL13" s="1"/>
       <c r="GM13" s="1"/>
       <c r="GN13" s="1"/>
@@ -6784,13 +6918,23 @@
         <v>6</v>
       </c>
       <c r="GD14" s="1"/>
-      <c r="GE14" s="1"/>
-      <c r="GF14" s="1"/>
+      <c r="GE14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="GF14" s="1">
+        <v>17</v>
+      </c>
       <c r="GG14" s="1"/>
-      <c r="GH14" s="1"/>
-      <c r="GI14" s="1"/>
+      <c r="GH14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="GI14" s="1">
+        <v>16</v>
+      </c>
       <c r="GJ14" s="1"/>
-      <c r="GK14" s="1"/>
+      <c r="GK14" s="1">
+        <v>-12</v>
+      </c>
       <c r="GL14" s="1"/>
       <c r="GM14" s="1"/>
       <c r="GN14" s="1"/>
@@ -7241,13 +7385,23 @@
         <v>10</v>
       </c>
       <c r="GD15" s="1"/>
-      <c r="GE15" s="1"/>
-      <c r="GF15" s="1"/>
+      <c r="GE15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="GF15" s="1">
+        <v>18</v>
+      </c>
       <c r="GG15" s="1"/>
-      <c r="GH15" s="1"/>
-      <c r="GI15" s="1"/>
+      <c r="GH15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="GI15" s="1">
+        <v>10</v>
+      </c>
       <c r="GJ15" s="1"/>
-      <c r="GK15" s="1"/>
+      <c r="GK15" s="1">
+        <v>-13</v>
+      </c>
       <c r="GL15" s="1"/>
       <c r="GM15" s="1"/>
       <c r="GN15" s="1"/>
@@ -7698,13 +7852,23 @@
         <v>16</v>
       </c>
       <c r="GD16" s="1"/>
-      <c r="GE16" s="1"/>
-      <c r="GF16" s="1"/>
+      <c r="GE16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="GF16" s="1">
+        <v>11</v>
+      </c>
       <c r="GG16" s="1"/>
-      <c r="GH16" s="1"/>
-      <c r="GI16" s="1"/>
+      <c r="GH16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="GI16" s="1">
+        <v>23</v>
+      </c>
       <c r="GJ16" s="1"/>
-      <c r="GK16" s="1"/>
+      <c r="GK16" s="1">
+        <v>-14</v>
+      </c>
       <c r="GL16" s="1"/>
       <c r="GM16" s="1"/>
       <c r="GN16" s="1"/>
@@ -8155,13 +8319,23 @@
         <v>13</v>
       </c>
       <c r="GD17" s="1"/>
-      <c r="GE17" s="1"/>
-      <c r="GF17" s="1"/>
+      <c r="GE17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="GF17" s="1">
+        <v>14</v>
+      </c>
       <c r="GG17" s="1"/>
-      <c r="GH17" s="1"/>
-      <c r="GI17" s="1"/>
+      <c r="GH17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="GI17" s="1">
+        <v>16</v>
+      </c>
       <c r="GJ17" s="1"/>
-      <c r="GK17" s="1"/>
+      <c r="GK17" s="1">
+        <v>-15</v>
+      </c>
       <c r="GL17" s="1"/>
       <c r="GM17" s="1"/>
       <c r="GN17" s="1"/>
@@ -8612,13 +8786,23 @@
         <v>31</v>
       </c>
       <c r="GD18" s="1"/>
-      <c r="GE18" s="1"/>
-      <c r="GF18" s="1"/>
+      <c r="GE18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="GF18" s="1">
+        <v>20</v>
+      </c>
       <c r="GG18" s="1"/>
-      <c r="GH18" s="1"/>
-      <c r="GI18" s="1"/>
+      <c r="GH18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="GI18" s="1">
+        <v>10</v>
+      </c>
       <c r="GJ18" s="1"/>
-      <c r="GK18" s="1"/>
+      <c r="GK18" s="1">
+        <v>-16</v>
+      </c>
       <c r="GL18" s="1"/>
       <c r="GM18" s="1"/>
       <c r="GN18" s="1"/>
@@ -9061,13 +9245,23 @@
         <v>6</v>
       </c>
       <c r="GD19" s="1"/>
-      <c r="GE19" s="1"/>
-      <c r="GF19" s="1"/>
+      <c r="GE19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="GF19" s="1">
+        <v>5</v>
+      </c>
       <c r="GG19" s="1"/>
-      <c r="GH19" s="1"/>
-      <c r="GI19" s="1"/>
+      <c r="GH19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="GI19" s="1">
+        <v>10</v>
+      </c>
       <c r="GJ19" s="1"/>
-      <c r="GK19" s="1"/>
+      <c r="GK19" s="1">
+        <v>-17</v>
+      </c>
       <c r="GL19" s="1"/>
       <c r="GM19" s="1"/>
       <c r="GN19" s="1"/>
@@ -9462,13 +9656,23 @@
         <v>4</v>
       </c>
       <c r="GD20" s="1"/>
-      <c r="GE20" s="1"/>
-      <c r="GF20" s="1"/>
+      <c r="GE20" s="1">
+        <v>-18</v>
+      </c>
+      <c r="GF20" s="1">
+        <v>1</v>
+      </c>
       <c r="GG20" s="1"/>
-      <c r="GH20" s="1"/>
-      <c r="GI20" s="1"/>
+      <c r="GH20" s="1">
+        <v>-18</v>
+      </c>
+      <c r="GI20" s="1">
+        <v>2</v>
+      </c>
       <c r="GJ20" s="1"/>
-      <c r="GK20" s="1"/>
+      <c r="GK20" s="1">
+        <v>-18</v>
+      </c>
       <c r="GL20" s="1"/>
       <c r="GM20" s="1"/>
       <c r="GN20" s="1"/>

--- a/datas_lab_IN.xlsx
+++ b/datas_lab_IN.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="5">
-  <si>
-    <t>[Season, Source]</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="4">
   <si>
     <t>Temperature</t>
   </si>
@@ -412,25 +409,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:HD29"/>
+  <dimension ref="A1:IT29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:212" ht="15.75" customHeight="1">
+    <row r="1" spans="1:254" ht="15.75" customHeight="1">
       <c r="A1" s="1">
         <v>217</v>
       </c>
       <c r="B1" s="2">
         <v>42152</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="C1" s="1"/>
       <c r="D1" s="1">
         <v>218</v>
       </c>
@@ -872,492 +869,624 @@
         <v>42186</v>
       </c>
       <c r="GM1" s="2"/>
-      <c r="GN1" s="2"/>
-      <c r="GO1" s="2"/>
+      <c r="GN1" s="1">
+        <v>374</v>
+      </c>
+      <c r="GO1" s="2">
+        <v>42186</v>
+      </c>
       <c r="GP1" s="2"/>
-      <c r="GQ1" s="2"/>
-      <c r="GR1" s="2"/>
+      <c r="GQ1" s="1">
+        <v>378</v>
+      </c>
+      <c r="GR1" s="2">
+        <v>42187</v>
+      </c>
       <c r="GS1" s="2"/>
-      <c r="GT1" s="2"/>
-      <c r="GU1" s="2"/>
+      <c r="GT1" s="1">
+        <v>381</v>
+      </c>
+      <c r="GU1" s="2">
+        <v>42187</v>
+      </c>
       <c r="GV1" s="2"/>
-      <c r="GW1" s="2"/>
-      <c r="GX1" s="2"/>
+      <c r="GW1" s="1">
+        <v>401</v>
+      </c>
+      <c r="GX1" s="2">
+        <v>42187</v>
+      </c>
       <c r="GY1" s="2"/>
-      <c r="GZ1" s="2"/>
-      <c r="HA1" s="2"/>
+      <c r="GZ1" s="1">
+        <v>402</v>
+      </c>
+      <c r="HA1" s="2">
+        <v>42193</v>
+      </c>
       <c r="HB1" s="2"/>
-      <c r="HC1" s="2"/>
-      <c r="HD1" s="2"/>
+      <c r="HC1" s="1">
+        <v>405</v>
+      </c>
+      <c r="HD1" s="2">
+        <v>42193</v>
+      </c>
+      <c r="HE1" s="2"/>
+      <c r="HF1" s="2"/>
+      <c r="HG1" s="2"/>
+      <c r="HH1" s="2"/>
+      <c r="HI1" s="2"/>
+      <c r="HJ1" s="2"/>
+      <c r="HK1" s="2"/>
+      <c r="HL1" s="2"/>
+      <c r="HM1" s="2"/>
+      <c r="HN1" s="2"/>
+      <c r="HO1" s="2"/>
+      <c r="HP1" s="2"/>
+      <c r="HQ1" s="2"/>
+      <c r="HR1" s="2"/>
+      <c r="HS1" s="2"/>
+      <c r="HT1" s="2"/>
+      <c r="HU1" s="2"/>
+      <c r="HV1" s="2"/>
+      <c r="HW1" s="2"/>
+      <c r="HX1" s="2"/>
+      <c r="HY1" s="2"/>
+      <c r="HZ1" s="2"/>
+      <c r="IA1" s="2"/>
+      <c r="IB1" s="2"/>
+      <c r="IC1" s="2"/>
+      <c r="ID1" s="2"/>
+      <c r="IE1" s="2"/>
+      <c r="IF1" s="2"/>
+      <c r="IG1" s="2"/>
+      <c r="IH1" s="2"/>
+      <c r="II1" s="2"/>
+      <c r="IJ1" s="2"/>
+      <c r="IK1" s="2"/>
+      <c r="IL1" s="2"/>
+      <c r="IM1" s="2"/>
+      <c r="IN1" s="2"/>
+      <c r="IO1" s="2"/>
+      <c r="IP1" s="2"/>
+      <c r="IQ1" s="2"/>
+      <c r="IR1" s="2"/>
+      <c r="IS1" s="2"/>
+      <c r="IT1" s="2"/>
     </row>
-    <row r="2" spans="1:212" ht="15.75" customHeight="1">
+    <row r="2" spans="1:254" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM2" s="1"/>
       <c r="AN2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS2" s="1"/>
       <c r="AT2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV2" s="1"/>
       <c r="AW2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB2" s="1"/>
       <c r="BC2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BH2" s="1"/>
       <c r="BI2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BM2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BN2" s="1"/>
       <c r="BO2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BQ2" s="1"/>
       <c r="BR2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BS2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BT2" s="1"/>
       <c r="BU2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BW2" s="1"/>
       <c r="BX2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BY2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BZ2" s="1"/>
       <c r="CA2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CB2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CC2" s="1"/>
       <c r="CD2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CE2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CF2" s="1"/>
       <c r="CG2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CI2" s="1"/>
       <c r="CJ2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CL2" s="1"/>
       <c r="CM2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CN2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CO2" s="1"/>
       <c r="CP2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CQ2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CR2" s="1"/>
       <c r="CS2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CT2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CU2" s="1"/>
       <c r="CV2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CW2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CX2" s="1"/>
       <c r="CY2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CZ2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DA2" s="1"/>
       <c r="DB2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DC2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DD2" s="1"/>
       <c r="DE2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DF2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DG2" s="1"/>
       <c r="DH2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DI2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DJ2" s="1"/>
       <c r="DK2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DL2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DM2" s="1"/>
       <c r="DN2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DO2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DP2" s="1"/>
       <c r="DQ2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DR2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DS2" s="1"/>
       <c r="DT2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DU2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DV2" s="1"/>
       <c r="DW2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DX2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DY2" s="1"/>
       <c r="DZ2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="EA2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EB2" s="1"/>
       <c r="EC2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="ED2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EE2" s="1"/>
       <c r="EF2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="EG2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EH2" s="1"/>
       <c r="EI2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="EJ2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EK2" s="1"/>
       <c r="EL2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="EM2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EN2" s="1"/>
       <c r="EO2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="EP2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EQ2" s="1"/>
       <c r="ER2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="ES2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="ET2" s="1"/>
       <c r="EU2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="EV2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EW2" s="1"/>
       <c r="EX2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="EY2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EZ2" s="1"/>
       <c r="FA2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FB2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FC2" s="1"/>
       <c r="FD2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FE2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FF2" s="1"/>
       <c r="FG2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FH2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FI2" s="1"/>
       <c r="FJ2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FK2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FL2" s="1"/>
       <c r="FM2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FN2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FO2" s="1"/>
       <c r="FP2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FQ2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FR2" s="1"/>
       <c r="FS2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FT2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FU2" s="1"/>
       <c r="FV2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FW2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FX2" s="1"/>
       <c r="FY2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FZ2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GA2" s="1"/>
       <c r="GB2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="GC2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GD2" s="1"/>
       <c r="GE2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="GF2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GG2" s="1"/>
       <c r="GH2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="GI2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GJ2" s="1"/>
       <c r="GK2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="GL2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GM2" s="1"/>
-      <c r="GN2" s="1"/>
-      <c r="GO2" s="1"/>
+      <c r="GN2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="GO2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="GP2" s="1"/>
-      <c r="GQ2" s="1"/>
-      <c r="GR2" s="1"/>
+      <c r="GQ2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="GR2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="GS2" s="1"/>
-      <c r="GT2" s="1"/>
-      <c r="GU2" s="1"/>
+      <c r="GT2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="GU2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="GV2" s="1"/>
-      <c r="GW2" s="1"/>
-      <c r="GX2" s="1"/>
+      <c r="GW2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="GX2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="GY2" s="1"/>
-      <c r="GZ2" s="1"/>
-      <c r="HA2" s="1"/>
+      <c r="GZ2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="HA2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="HB2" s="1"/>
-      <c r="HC2" s="1"/>
-      <c r="HD2" s="1"/>
+      <c r="HC2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="HD2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="HE2" s="1"/>
+      <c r="HF2" s="1"/>
+      <c r="HG2" s="1"/>
+      <c r="HH2" s="1"/>
+      <c r="HI2" s="1"/>
+      <c r="HJ2" s="1"/>
+      <c r="HK2" s="1"/>
+      <c r="HL2" s="1"/>
+      <c r="HM2" s="1"/>
+      <c r="HN2" s="1"/>
+      <c r="HO2" s="1"/>
+      <c r="HP2" s="1"/>
+      <c r="HQ2" s="1"/>
+      <c r="HR2" s="1"/>
+      <c r="HS2" s="1"/>
+      <c r="HT2" s="1"/>
+      <c r="HU2" s="1"/>
+      <c r="HV2" s="1"/>
+      <c r="HW2" s="1"/>
+      <c r="HX2" s="1"/>
+      <c r="HY2" s="1"/>
+      <c r="HZ2" s="1"/>
+      <c r="IA2" s="1"/>
+      <c r="IB2" s="1"/>
+      <c r="IC2" s="1"/>
+      <c r="ID2" s="1"/>
+      <c r="IE2" s="1"/>
+      <c r="IF2" s="1"/>
+      <c r="IG2" s="1"/>
+      <c r="IH2" s="1"/>
+      <c r="II2" s="1"/>
+      <c r="IJ2" s="1"/>
+      <c r="IK2" s="1"/>
+      <c r="IL2" s="1"/>
+      <c r="IM2" s="1"/>
+      <c r="IN2" s="1"/>
+      <c r="IO2" s="1"/>
+      <c r="IP2" s="1"/>
+      <c r="IQ2" s="1"/>
+      <c r="IR2" s="1"/>
+      <c r="IS2" s="1"/>
+      <c r="IT2" s="1"/>
     </row>
-    <row r="3" spans="1:212" ht="15.75" customHeight="1">
+    <row r="3" spans="1:254" ht="15.75" customHeight="1">
       <c r="A3" s="1">
         <v>-1</v>
       </c>
@@ -1392,10 +1521,6 @@
         <v>-1</v>
       </c>
       <c r="Q3" s="1">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <f t="shared" ref="R3:R23" si="0">SUM($Q$3:Q3)</f>
         <v>0</v>
       </c>
       <c r="S3" s="1">
@@ -1804,27 +1929,95 @@
       <c r="GK3" s="1">
         <v>-1</v>
       </c>
-      <c r="GL3" s="1"/>
+      <c r="GL3" s="1">
+        <v>0</v>
+      </c>
       <c r="GM3" s="1"/>
-      <c r="GN3" s="1"/>
-      <c r="GO3" s="1"/>
+      <c r="GN3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="GO3" s="1">
+        <v>0</v>
+      </c>
       <c r="GP3" s="1"/>
-      <c r="GQ3" s="1"/>
-      <c r="GR3" s="1"/>
+      <c r="GQ3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="GR3" s="1">
+        <v>0</v>
+      </c>
       <c r="GS3" s="1"/>
-      <c r="GT3" s="1"/>
-      <c r="GU3" s="1"/>
+      <c r="GT3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="GU3" s="1">
+        <v>0</v>
+      </c>
       <c r="GV3" s="1"/>
-      <c r="GW3" s="1"/>
-      <c r="GX3" s="1"/>
+      <c r="GW3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="GX3" s="1">
+        <v>0</v>
+      </c>
       <c r="GY3" s="1"/>
-      <c r="GZ3" s="1"/>
-      <c r="HA3" s="1"/>
+      <c r="GZ3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="HA3" s="1">
+        <v>0</v>
+      </c>
       <c r="HB3" s="1"/>
-      <c r="HC3" s="1"/>
-      <c r="HD3" s="1"/>
+      <c r="HC3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="HD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="HE3" s="1"/>
+      <c r="HF3" s="1"/>
+      <c r="HG3" s="1"/>
+      <c r="HH3" s="1"/>
+      <c r="HI3" s="1"/>
+      <c r="HJ3" s="1"/>
+      <c r="HK3" s="1"/>
+      <c r="HL3" s="1"/>
+      <c r="HM3" s="1"/>
+      <c r="HN3" s="1"/>
+      <c r="HO3" s="1"/>
+      <c r="HP3" s="1"/>
+      <c r="HQ3" s="1"/>
+      <c r="HR3" s="1"/>
+      <c r="HS3" s="1"/>
+      <c r="HT3" s="1"/>
+      <c r="HU3" s="1"/>
+      <c r="HV3" s="1"/>
+      <c r="HW3" s="1"/>
+      <c r="HX3" s="1"/>
+      <c r="HY3" s="1"/>
+      <c r="HZ3" s="1"/>
+      <c r="IA3" s="1"/>
+      <c r="IB3" s="1"/>
+      <c r="IC3" s="1"/>
+      <c r="ID3" s="1"/>
+      <c r="IE3" s="1"/>
+      <c r="IF3" s="1"/>
+      <c r="IG3" s="1"/>
+      <c r="IH3" s="1"/>
+      <c r="II3" s="1"/>
+      <c r="IJ3" s="1"/>
+      <c r="IK3" s="1"/>
+      <c r="IL3" s="1"/>
+      <c r="IM3" s="1"/>
+      <c r="IN3" s="1"/>
+      <c r="IO3" s="1"/>
+      <c r="IP3" s="1"/>
+      <c r="IQ3" s="1"/>
+      <c r="IR3" s="1"/>
+      <c r="IS3" s="1"/>
+      <c r="IT3" s="1"/>
     </row>
-    <row r="4" spans="1:212" ht="15.75" customHeight="1">
+    <row r="4" spans="1:254" ht="15.75" customHeight="1">
       <c r="A4" s="1">
         <v>-2</v>
       </c>
@@ -1859,10 +2052,6 @@
         <v>-2</v>
       </c>
       <c r="Q4" s="1">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S4" s="1">
@@ -2271,27 +2460,95 @@
       <c r="GK4" s="1">
         <v>-2</v>
       </c>
-      <c r="GL4" s="1"/>
+      <c r="GL4" s="1">
+        <v>0</v>
+      </c>
       <c r="GM4" s="1"/>
-      <c r="GN4" s="1"/>
-      <c r="GO4" s="1"/>
+      <c r="GN4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="GO4" s="1">
+        <v>0</v>
+      </c>
       <c r="GP4" s="1"/>
-      <c r="GQ4" s="1"/>
-      <c r="GR4" s="1"/>
+      <c r="GQ4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="GR4" s="1">
+        <v>0</v>
+      </c>
       <c r="GS4" s="1"/>
-      <c r="GT4" s="1"/>
-      <c r="GU4" s="1"/>
+      <c r="GT4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="GU4" s="1">
+        <v>0</v>
+      </c>
       <c r="GV4" s="1"/>
-      <c r="GW4" s="1"/>
-      <c r="GX4" s="1"/>
+      <c r="GW4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="GX4" s="1">
+        <v>0</v>
+      </c>
       <c r="GY4" s="1"/>
-      <c r="GZ4" s="1"/>
-      <c r="HA4" s="1"/>
+      <c r="GZ4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="HA4" s="1">
+        <v>0</v>
+      </c>
       <c r="HB4" s="1"/>
-      <c r="HC4" s="1"/>
-      <c r="HD4" s="1"/>
+      <c r="HC4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="HD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="HE4" s="1"/>
+      <c r="HF4" s="1"/>
+      <c r="HG4" s="1"/>
+      <c r="HH4" s="1"/>
+      <c r="HI4" s="1"/>
+      <c r="HJ4" s="1"/>
+      <c r="HK4" s="1"/>
+      <c r="HL4" s="1"/>
+      <c r="HM4" s="1"/>
+      <c r="HN4" s="1"/>
+      <c r="HO4" s="1"/>
+      <c r="HP4" s="1"/>
+      <c r="HQ4" s="1"/>
+      <c r="HR4" s="1"/>
+      <c r="HS4" s="1"/>
+      <c r="HT4" s="1"/>
+      <c r="HU4" s="1"/>
+      <c r="HV4" s="1"/>
+      <c r="HW4" s="1"/>
+      <c r="HX4" s="1"/>
+      <c r="HY4" s="1"/>
+      <c r="HZ4" s="1"/>
+      <c r="IA4" s="1"/>
+      <c r="IB4" s="1"/>
+      <c r="IC4" s="1"/>
+      <c r="ID4" s="1"/>
+      <c r="IE4" s="1"/>
+      <c r="IF4" s="1"/>
+      <c r="IG4" s="1"/>
+      <c r="IH4" s="1"/>
+      <c r="II4" s="1"/>
+      <c r="IJ4" s="1"/>
+      <c r="IK4" s="1"/>
+      <c r="IL4" s="1"/>
+      <c r="IM4" s="1"/>
+      <c r="IN4" s="1"/>
+      <c r="IO4" s="1"/>
+      <c r="IP4" s="1"/>
+      <c r="IQ4" s="1"/>
+      <c r="IR4" s="1"/>
+      <c r="IS4" s="1"/>
+      <c r="IT4" s="1"/>
     </row>
-    <row r="5" spans="1:212" ht="15.75" customHeight="1">
+    <row r="5" spans="1:254" ht="15.75" customHeight="1">
       <c r="A5" s="1">
         <v>-3</v>
       </c>
@@ -2326,10 +2583,6 @@
         <v>-3</v>
       </c>
       <c r="Q5" s="1">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S5" s="1">
@@ -2738,27 +2991,95 @@
       <c r="GK5" s="1">
         <v>-3</v>
       </c>
-      <c r="GL5" s="1"/>
+      <c r="GL5" s="1">
+        <v>0</v>
+      </c>
       <c r="GM5" s="1"/>
-      <c r="GN5" s="1"/>
-      <c r="GO5" s="1"/>
+      <c r="GN5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="GO5" s="1">
+        <v>0</v>
+      </c>
       <c r="GP5" s="1"/>
-      <c r="GQ5" s="1"/>
-      <c r="GR5" s="1"/>
+      <c r="GQ5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="GR5" s="1">
+        <v>0</v>
+      </c>
       <c r="GS5" s="1"/>
-      <c r="GT5" s="1"/>
-      <c r="GU5" s="1"/>
+      <c r="GT5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="GU5" s="1">
+        <v>0</v>
+      </c>
       <c r="GV5" s="1"/>
-      <c r="GW5" s="1"/>
-      <c r="GX5" s="1"/>
+      <c r="GW5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="GX5" s="1">
+        <v>0</v>
+      </c>
       <c r="GY5" s="1"/>
-      <c r="GZ5" s="1"/>
-      <c r="HA5" s="1"/>
+      <c r="GZ5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="HA5" s="1">
+        <v>0</v>
+      </c>
       <c r="HB5" s="1"/>
-      <c r="HC5" s="1"/>
-      <c r="HD5" s="1"/>
+      <c r="HC5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="HD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="HE5" s="1"/>
+      <c r="HF5" s="1"/>
+      <c r="HG5" s="1"/>
+      <c r="HH5" s="1"/>
+      <c r="HI5" s="1"/>
+      <c r="HJ5" s="1"/>
+      <c r="HK5" s="1"/>
+      <c r="HL5" s="1"/>
+      <c r="HM5" s="1"/>
+      <c r="HN5" s="1"/>
+      <c r="HO5" s="1"/>
+      <c r="HP5" s="1"/>
+      <c r="HQ5" s="1"/>
+      <c r="HR5" s="1"/>
+      <c r="HS5" s="1"/>
+      <c r="HT5" s="1"/>
+      <c r="HU5" s="1"/>
+      <c r="HV5" s="1"/>
+      <c r="HW5" s="1"/>
+      <c r="HX5" s="1"/>
+      <c r="HY5" s="1"/>
+      <c r="HZ5" s="1"/>
+      <c r="IA5" s="1"/>
+      <c r="IB5" s="1"/>
+      <c r="IC5" s="1"/>
+      <c r="ID5" s="1"/>
+      <c r="IE5" s="1"/>
+      <c r="IF5" s="1"/>
+      <c r="IG5" s="1"/>
+      <c r="IH5" s="1"/>
+      <c r="II5" s="1"/>
+      <c r="IJ5" s="1"/>
+      <c r="IK5" s="1"/>
+      <c r="IL5" s="1"/>
+      <c r="IM5" s="1"/>
+      <c r="IN5" s="1"/>
+      <c r="IO5" s="1"/>
+      <c r="IP5" s="1"/>
+      <c r="IQ5" s="1"/>
+      <c r="IR5" s="1"/>
+      <c r="IS5" s="1"/>
+      <c r="IT5" s="1"/>
     </row>
-    <row r="6" spans="1:212" ht="15.75" customHeight="1">
+    <row r="6" spans="1:254" ht="15.75" customHeight="1">
       <c r="A6" s="1">
         <v>-4</v>
       </c>
@@ -2793,10 +3114,6 @@
         <v>-4</v>
       </c>
       <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S6" s="1">
@@ -3205,27 +3522,95 @@
       <c r="GK6" s="1">
         <v>-4</v>
       </c>
-      <c r="GL6" s="1"/>
+      <c r="GL6" s="1">
+        <v>0</v>
+      </c>
       <c r="GM6" s="1"/>
-      <c r="GN6" s="1"/>
-      <c r="GO6" s="1"/>
+      <c r="GN6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="GO6" s="1">
+        <v>0</v>
+      </c>
       <c r="GP6" s="1"/>
-      <c r="GQ6" s="1"/>
-      <c r="GR6" s="1"/>
+      <c r="GQ6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="GR6" s="1">
+        <v>0</v>
+      </c>
       <c r="GS6" s="1"/>
-      <c r="GT6" s="1"/>
-      <c r="GU6" s="1"/>
+      <c r="GT6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="GU6" s="1">
+        <v>0</v>
+      </c>
       <c r="GV6" s="1"/>
-      <c r="GW6" s="1"/>
-      <c r="GX6" s="1"/>
+      <c r="GW6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="GX6" s="1">
+        <v>0</v>
+      </c>
       <c r="GY6" s="1"/>
-      <c r="GZ6" s="1"/>
-      <c r="HA6" s="1"/>
+      <c r="GZ6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="HA6" s="1">
+        <v>0</v>
+      </c>
       <c r="HB6" s="1"/>
-      <c r="HC6" s="1"/>
-      <c r="HD6" s="1"/>
+      <c r="HC6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="HD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="HE6" s="1"/>
+      <c r="HF6" s="1"/>
+      <c r="HG6" s="1"/>
+      <c r="HH6" s="1"/>
+      <c r="HI6" s="1"/>
+      <c r="HJ6" s="1"/>
+      <c r="HK6" s="1"/>
+      <c r="HL6" s="1"/>
+      <c r="HM6" s="1"/>
+      <c r="HN6" s="1"/>
+      <c r="HO6" s="1"/>
+      <c r="HP6" s="1"/>
+      <c r="HQ6" s="1"/>
+      <c r="HR6" s="1"/>
+      <c r="HS6" s="1"/>
+      <c r="HT6" s="1"/>
+      <c r="HU6" s="1"/>
+      <c r="HV6" s="1"/>
+      <c r="HW6" s="1"/>
+      <c r="HX6" s="1"/>
+      <c r="HY6" s="1"/>
+      <c r="HZ6" s="1"/>
+      <c r="IA6" s="1"/>
+      <c r="IB6" s="1"/>
+      <c r="IC6" s="1"/>
+      <c r="ID6" s="1"/>
+      <c r="IE6" s="1"/>
+      <c r="IF6" s="1"/>
+      <c r="IG6" s="1"/>
+      <c r="IH6" s="1"/>
+      <c r="II6" s="1"/>
+      <c r="IJ6" s="1"/>
+      <c r="IK6" s="1"/>
+      <c r="IL6" s="1"/>
+      <c r="IM6" s="1"/>
+      <c r="IN6" s="1"/>
+      <c r="IO6" s="1"/>
+      <c r="IP6" s="1"/>
+      <c r="IQ6" s="1"/>
+      <c r="IR6" s="1"/>
+      <c r="IS6" s="1"/>
+      <c r="IT6" s="1"/>
     </row>
-    <row r="7" spans="1:212" ht="15.75" customHeight="1">
+    <row r="7" spans="1:254" ht="15.75" customHeight="1">
       <c r="A7" s="1">
         <v>-5</v>
       </c>
@@ -3260,10 +3645,6 @@
         <v>-5</v>
       </c>
       <c r="Q7" s="1">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S7" s="1">
@@ -3672,27 +4053,95 @@
       <c r="GK7" s="1">
         <v>-5</v>
       </c>
-      <c r="GL7" s="1"/>
+      <c r="GL7" s="1">
+        <v>0</v>
+      </c>
       <c r="GM7" s="1"/>
-      <c r="GN7" s="1"/>
-      <c r="GO7" s="1"/>
+      <c r="GN7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="GO7" s="1">
+        <v>0</v>
+      </c>
       <c r="GP7" s="1"/>
-      <c r="GQ7" s="1"/>
-      <c r="GR7" s="1"/>
+      <c r="GQ7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="GR7" s="1">
+        <v>0</v>
+      </c>
       <c r="GS7" s="1"/>
-      <c r="GT7" s="1"/>
-      <c r="GU7" s="1"/>
+      <c r="GT7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="GU7" s="1">
+        <v>0</v>
+      </c>
       <c r="GV7" s="1"/>
-      <c r="GW7" s="1"/>
-      <c r="GX7" s="1"/>
+      <c r="GW7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="GX7" s="1">
+        <v>0</v>
+      </c>
       <c r="GY7" s="1"/>
-      <c r="GZ7" s="1"/>
-      <c r="HA7" s="1"/>
+      <c r="GZ7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="HA7" s="1">
+        <v>0</v>
+      </c>
       <c r="HB7" s="1"/>
-      <c r="HC7" s="1"/>
-      <c r="HD7" s="1"/>
+      <c r="HC7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="HD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="HE7" s="1"/>
+      <c r="HF7" s="1"/>
+      <c r="HG7" s="1"/>
+      <c r="HH7" s="1"/>
+      <c r="HI7" s="1"/>
+      <c r="HJ7" s="1"/>
+      <c r="HK7" s="1"/>
+      <c r="HL7" s="1"/>
+      <c r="HM7" s="1"/>
+      <c r="HN7" s="1"/>
+      <c r="HO7" s="1"/>
+      <c r="HP7" s="1"/>
+      <c r="HQ7" s="1"/>
+      <c r="HR7" s="1"/>
+      <c r="HS7" s="1"/>
+      <c r="HT7" s="1"/>
+      <c r="HU7" s="1"/>
+      <c r="HV7" s="1"/>
+      <c r="HW7" s="1"/>
+      <c r="HX7" s="1"/>
+      <c r="HY7" s="1"/>
+      <c r="HZ7" s="1"/>
+      <c r="IA7" s="1"/>
+      <c r="IB7" s="1"/>
+      <c r="IC7" s="1"/>
+      <c r="ID7" s="1"/>
+      <c r="IE7" s="1"/>
+      <c r="IF7" s="1"/>
+      <c r="IG7" s="1"/>
+      <c r="IH7" s="1"/>
+      <c r="II7" s="1"/>
+      <c r="IJ7" s="1"/>
+      <c r="IK7" s="1"/>
+      <c r="IL7" s="1"/>
+      <c r="IM7" s="1"/>
+      <c r="IN7" s="1"/>
+      <c r="IO7" s="1"/>
+      <c r="IP7" s="1"/>
+      <c r="IQ7" s="1"/>
+      <c r="IR7" s="1"/>
+      <c r="IS7" s="1"/>
+      <c r="IT7" s="1"/>
     </row>
-    <row r="8" spans="1:212" ht="15.75" customHeight="1">
+    <row r="8" spans="1:254" ht="15.75" customHeight="1">
       <c r="A8" s="1">
         <v>-6</v>
       </c>
@@ -3727,10 +4176,6 @@
         <v>-6</v>
       </c>
       <c r="Q8" s="1">
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="S8" s="1">
@@ -4139,27 +4584,95 @@
       <c r="GK8" s="1">
         <v>-6</v>
       </c>
-      <c r="GL8" s="1"/>
+      <c r="GL8" s="1">
+        <v>1</v>
+      </c>
       <c r="GM8" s="1"/>
-      <c r="GN8" s="1"/>
-      <c r="GO8" s="1"/>
+      <c r="GN8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="GO8" s="1">
+        <v>0</v>
+      </c>
       <c r="GP8" s="1"/>
-      <c r="GQ8" s="1"/>
-      <c r="GR8" s="1"/>
+      <c r="GQ8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="GR8" s="1">
+        <v>0</v>
+      </c>
       <c r="GS8" s="1"/>
-      <c r="GT8" s="1"/>
-      <c r="GU8" s="1"/>
+      <c r="GT8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="GU8" s="1">
+        <v>2</v>
+      </c>
       <c r="GV8" s="1"/>
-      <c r="GW8" s="1"/>
-      <c r="GX8" s="1"/>
+      <c r="GW8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="GX8" s="1">
+        <v>0</v>
+      </c>
       <c r="GY8" s="1"/>
-      <c r="GZ8" s="1"/>
-      <c r="HA8" s="1"/>
+      <c r="GZ8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="HA8" s="1">
+        <v>0</v>
+      </c>
       <c r="HB8" s="1"/>
-      <c r="HC8" s="1"/>
-      <c r="HD8" s="1"/>
+      <c r="HC8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="HD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="HE8" s="1"/>
+      <c r="HF8" s="1"/>
+      <c r="HG8" s="1"/>
+      <c r="HH8" s="1"/>
+      <c r="HI8" s="1"/>
+      <c r="HJ8" s="1"/>
+      <c r="HK8" s="1"/>
+      <c r="HL8" s="1"/>
+      <c r="HM8" s="1"/>
+      <c r="HN8" s="1"/>
+      <c r="HO8" s="1"/>
+      <c r="HP8" s="1"/>
+      <c r="HQ8" s="1"/>
+      <c r="HR8" s="1"/>
+      <c r="HS8" s="1"/>
+      <c r="HT8" s="1"/>
+      <c r="HU8" s="1"/>
+      <c r="HV8" s="1"/>
+      <c r="HW8" s="1"/>
+      <c r="HX8" s="1"/>
+      <c r="HY8" s="1"/>
+      <c r="HZ8" s="1"/>
+      <c r="IA8" s="1"/>
+      <c r="IB8" s="1"/>
+      <c r="IC8" s="1"/>
+      <c r="ID8" s="1"/>
+      <c r="IE8" s="1"/>
+      <c r="IF8" s="1"/>
+      <c r="IG8" s="1"/>
+      <c r="IH8" s="1"/>
+      <c r="II8" s="1"/>
+      <c r="IJ8" s="1"/>
+      <c r="IK8" s="1"/>
+      <c r="IL8" s="1"/>
+      <c r="IM8" s="1"/>
+      <c r="IN8" s="1"/>
+      <c r="IO8" s="1"/>
+      <c r="IP8" s="1"/>
+      <c r="IQ8" s="1"/>
+      <c r="IR8" s="1"/>
+      <c r="IS8" s="1"/>
+      <c r="IT8" s="1"/>
     </row>
-    <row r="9" spans="1:212" ht="15.75" customHeight="1">
+    <row r="9" spans="1:254" ht="15.75" customHeight="1">
       <c r="A9" s="1">
         <v>-7</v>
       </c>
@@ -4196,12 +4709,8 @@
       <c r="Q9" s="1">
         <v>0</v>
       </c>
-      <c r="R9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="S9" s="1">
-        <v>-7</v>
+        <v>-6.25</v>
       </c>
       <c r="T9" s="1">
         <v>0</v>
@@ -4606,27 +5115,95 @@
       <c r="GK9" s="1">
         <v>-7</v>
       </c>
-      <c r="GL9" s="1"/>
+      <c r="GL9" s="1">
+        <v>1</v>
+      </c>
       <c r="GM9" s="1"/>
-      <c r="GN9" s="1"/>
-      <c r="GO9" s="1"/>
+      <c r="GN9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="GO9" s="1">
+        <v>1</v>
+      </c>
       <c r="GP9" s="1"/>
-      <c r="GQ9" s="1"/>
-      <c r="GR9" s="1"/>
+      <c r="GQ9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="GR9" s="1">
+        <v>0</v>
+      </c>
       <c r="GS9" s="1"/>
-      <c r="GT9" s="1"/>
-      <c r="GU9" s="1"/>
+      <c r="GT9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="GU9" s="1">
+        <v>2</v>
+      </c>
       <c r="GV9" s="1"/>
-      <c r="GW9" s="1"/>
-      <c r="GX9" s="1"/>
+      <c r="GW9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="GX9" s="1">
+        <v>0</v>
+      </c>
       <c r="GY9" s="1"/>
-      <c r="GZ9" s="1"/>
-      <c r="HA9" s="1"/>
+      <c r="GZ9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="HA9" s="1">
+        <v>0</v>
+      </c>
       <c r="HB9" s="1"/>
-      <c r="HC9" s="1"/>
-      <c r="HD9" s="1"/>
+      <c r="HC9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="HD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="HE9" s="1"/>
+      <c r="HF9" s="1"/>
+      <c r="HG9" s="1"/>
+      <c r="HH9" s="1"/>
+      <c r="HI9" s="1"/>
+      <c r="HJ9" s="1"/>
+      <c r="HK9" s="1"/>
+      <c r="HL9" s="1"/>
+      <c r="HM9" s="1"/>
+      <c r="HN9" s="1"/>
+      <c r="HO9" s="1"/>
+      <c r="HP9" s="1"/>
+      <c r="HQ9" s="1"/>
+      <c r="HR9" s="1"/>
+      <c r="HS9" s="1"/>
+      <c r="HT9" s="1"/>
+      <c r="HU9" s="1"/>
+      <c r="HV9" s="1"/>
+      <c r="HW9" s="1"/>
+      <c r="HX9" s="1"/>
+      <c r="HY9" s="1"/>
+      <c r="HZ9" s="1"/>
+      <c r="IA9" s="1"/>
+      <c r="IB9" s="1"/>
+      <c r="IC9" s="1"/>
+      <c r="ID9" s="1"/>
+      <c r="IE9" s="1"/>
+      <c r="IF9" s="1"/>
+      <c r="IG9" s="1"/>
+      <c r="IH9" s="1"/>
+      <c r="II9" s="1"/>
+      <c r="IJ9" s="1"/>
+      <c r="IK9" s="1"/>
+      <c r="IL9" s="1"/>
+      <c r="IM9" s="1"/>
+      <c r="IN9" s="1"/>
+      <c r="IO9" s="1"/>
+      <c r="IP9" s="1"/>
+      <c r="IQ9" s="1"/>
+      <c r="IR9" s="1"/>
+      <c r="IS9" s="1"/>
+      <c r="IT9" s="1"/>
     </row>
-    <row r="10" spans="1:212" ht="15.75" customHeight="1">
+    <row r="10" spans="1:254" ht="15.75" customHeight="1">
       <c r="A10" s="1">
         <v>-8</v>
       </c>
@@ -4663,15 +5240,11 @@
       <c r="Q10" s="1">
         <v>5</v>
       </c>
-      <c r="R10">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
       <c r="S10" s="1">
-        <v>-8</v>
+        <v>-6.5</v>
       </c>
       <c r="T10" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="V10" s="1">
         <v>-8</v>
@@ -5073,27 +5646,95 @@
       <c r="GK10" s="1">
         <v>-8</v>
       </c>
-      <c r="GL10" s="1"/>
+      <c r="GL10" s="1">
+        <v>6</v>
+      </c>
       <c r="GM10" s="1"/>
-      <c r="GN10" s="1"/>
-      <c r="GO10" s="1"/>
+      <c r="GN10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="GO10" s="1">
+        <v>1</v>
+      </c>
       <c r="GP10" s="1"/>
-      <c r="GQ10" s="1"/>
-      <c r="GR10" s="1"/>
+      <c r="GQ10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="GR10" s="1">
+        <v>0</v>
+      </c>
       <c r="GS10" s="1"/>
-      <c r="GT10" s="1"/>
-      <c r="GU10" s="1"/>
+      <c r="GT10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="GU10" s="1">
+        <v>0</v>
+      </c>
       <c r="GV10" s="1"/>
-      <c r="GW10" s="1"/>
-      <c r="GX10" s="1"/>
+      <c r="GW10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="GX10" s="1">
+        <v>2</v>
+      </c>
       <c r="GY10" s="1"/>
-      <c r="GZ10" s="1"/>
-      <c r="HA10" s="1"/>
+      <c r="GZ10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="HA10" s="1">
+        <v>0</v>
+      </c>
       <c r="HB10" s="1"/>
-      <c r="HC10" s="1"/>
-      <c r="HD10" s="1"/>
+      <c r="HC10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="HD10" s="1">
+        <v>7</v>
+      </c>
+      <c r="HE10" s="1"/>
+      <c r="HF10" s="1"/>
+      <c r="HG10" s="1"/>
+      <c r="HH10" s="1"/>
+      <c r="HI10" s="1"/>
+      <c r="HJ10" s="1"/>
+      <c r="HK10" s="1"/>
+      <c r="HL10" s="1"/>
+      <c r="HM10" s="1"/>
+      <c r="HN10" s="1"/>
+      <c r="HO10" s="1"/>
+      <c r="HP10" s="1"/>
+      <c r="HQ10" s="1"/>
+      <c r="HR10" s="1"/>
+      <c r="HS10" s="1"/>
+      <c r="HT10" s="1"/>
+      <c r="HU10" s="1"/>
+      <c r="HV10" s="1"/>
+      <c r="HW10" s="1"/>
+      <c r="HX10" s="1"/>
+      <c r="HY10" s="1"/>
+      <c r="HZ10" s="1"/>
+      <c r="IA10" s="1"/>
+      <c r="IB10" s="1"/>
+      <c r="IC10" s="1"/>
+      <c r="ID10" s="1"/>
+      <c r="IE10" s="1"/>
+      <c r="IF10" s="1"/>
+      <c r="IG10" s="1"/>
+      <c r="IH10" s="1"/>
+      <c r="II10" s="1"/>
+      <c r="IJ10" s="1"/>
+      <c r="IK10" s="1"/>
+      <c r="IL10" s="1"/>
+      <c r="IM10" s="1"/>
+      <c r="IN10" s="1"/>
+      <c r="IO10" s="1"/>
+      <c r="IP10" s="1"/>
+      <c r="IQ10" s="1"/>
+      <c r="IR10" s="1"/>
+      <c r="IS10" s="1"/>
+      <c r="IT10" s="1"/>
     </row>
-    <row r="11" spans="1:212" ht="15.75" customHeight="1">
+    <row r="11" spans="1:254" ht="15.75" customHeight="1">
       <c r="A11" s="1">
         <v>-8.5</v>
       </c>
@@ -5130,15 +5771,11 @@
       <c r="Q11" s="1">
         <v>28</v>
       </c>
-      <c r="R11">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
       <c r="S11" s="1">
-        <v>-8.5</v>
+        <v>-6.75</v>
       </c>
       <c r="T11" s="1">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="V11" s="1">
         <v>-9</v>
@@ -5540,27 +6177,95 @@
       <c r="GK11" s="1">
         <v>-9</v>
       </c>
-      <c r="GL11" s="1"/>
+      <c r="GL11" s="1">
+        <v>1</v>
+      </c>
       <c r="GM11" s="1"/>
-      <c r="GN11" s="1"/>
-      <c r="GO11" s="1"/>
+      <c r="GN11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="GO11" s="1">
+        <v>2</v>
+      </c>
       <c r="GP11" s="1"/>
-      <c r="GQ11" s="1"/>
-      <c r="GR11" s="1"/>
+      <c r="GQ11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="GR11" s="1">
+        <v>6</v>
+      </c>
       <c r="GS11" s="1"/>
-      <c r="GT11" s="1"/>
-      <c r="GU11" s="1"/>
+      <c r="GT11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="GU11" s="1">
+        <v>6</v>
+      </c>
       <c r="GV11" s="1"/>
-      <c r="GW11" s="1"/>
-      <c r="GX11" s="1"/>
+      <c r="GW11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="GX11" s="1">
+        <v>5</v>
+      </c>
       <c r="GY11" s="1"/>
-      <c r="GZ11" s="1"/>
-      <c r="HA11" s="1"/>
+      <c r="GZ11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="HA11" s="1">
+        <v>2</v>
+      </c>
       <c r="HB11" s="1"/>
-      <c r="HC11" s="1"/>
-      <c r="HD11" s="1"/>
+      <c r="HC11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="HD11" s="1">
+        <v>1</v>
+      </c>
+      <c r="HE11" s="1"/>
+      <c r="HF11" s="1"/>
+      <c r="HG11" s="1"/>
+      <c r="HH11" s="1"/>
+      <c r="HI11" s="1"/>
+      <c r="HJ11" s="1"/>
+      <c r="HK11" s="1"/>
+      <c r="HL11" s="1"/>
+      <c r="HM11" s="1"/>
+      <c r="HN11" s="1"/>
+      <c r="HO11" s="1"/>
+      <c r="HP11" s="1"/>
+      <c r="HQ11" s="1"/>
+      <c r="HR11" s="1"/>
+      <c r="HS11" s="1"/>
+      <c r="HT11" s="1"/>
+      <c r="HU11" s="1"/>
+      <c r="HV11" s="1"/>
+      <c r="HW11" s="1"/>
+      <c r="HX11" s="1"/>
+      <c r="HY11" s="1"/>
+      <c r="HZ11" s="1"/>
+      <c r="IA11" s="1"/>
+      <c r="IB11" s="1"/>
+      <c r="IC11" s="1"/>
+      <c r="ID11" s="1"/>
+      <c r="IE11" s="1"/>
+      <c r="IF11" s="1"/>
+      <c r="IG11" s="1"/>
+      <c r="IH11" s="1"/>
+      <c r="II11" s="1"/>
+      <c r="IJ11" s="1"/>
+      <c r="IK11" s="1"/>
+      <c r="IL11" s="1"/>
+      <c r="IM11" s="1"/>
+      <c r="IN11" s="1"/>
+      <c r="IO11" s="1"/>
+      <c r="IP11" s="1"/>
+      <c r="IQ11" s="1"/>
+      <c r="IR11" s="1"/>
+      <c r="IS11" s="1"/>
+      <c r="IT11" s="1"/>
     </row>
-    <row r="12" spans="1:212" ht="15.75" customHeight="1">
+    <row r="12" spans="1:254" ht="15.75" customHeight="1">
       <c r="A12" s="1">
         <v>-9</v>
       </c>
@@ -5597,11 +6302,12 @@
       <c r="Q12" s="1">
         <v>14</v>
       </c>
-      <c r="R12">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="S12" s="1"/>
+      <c r="S12" s="1">
+        <v>-7</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
       <c r="V12" s="1">
         <v>-10</v>
       </c>
@@ -6001,27 +6707,95 @@
       <c r="GK12" s="1">
         <v>-10</v>
       </c>
-      <c r="GL12" s="1"/>
+      <c r="GL12" s="1">
+        <v>2</v>
+      </c>
       <c r="GM12" s="1"/>
-      <c r="GN12" s="1"/>
-      <c r="GO12" s="1"/>
+      <c r="GN12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="GO12" s="1">
+        <v>2</v>
+      </c>
       <c r="GP12" s="1"/>
-      <c r="GQ12" s="1"/>
-      <c r="GR12" s="1"/>
+      <c r="GQ12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="GR12" s="1">
+        <v>1</v>
+      </c>
       <c r="GS12" s="1"/>
-      <c r="GT12" s="1"/>
-      <c r="GU12" s="1"/>
+      <c r="GT12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="GU12" s="1">
+        <v>17</v>
+      </c>
       <c r="GV12" s="1"/>
-      <c r="GW12" s="1"/>
-      <c r="GX12" s="1"/>
+      <c r="GW12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="GX12" s="1">
+        <v>5</v>
+      </c>
       <c r="GY12" s="1"/>
-      <c r="GZ12" s="1"/>
-      <c r="HA12" s="1"/>
+      <c r="GZ12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="HA12" s="1">
+        <v>0</v>
+      </c>
       <c r="HB12" s="1"/>
-      <c r="HC12" s="1"/>
-      <c r="HD12" s="1"/>
+      <c r="HC12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="HD12" s="1">
+        <v>1</v>
+      </c>
+      <c r="HE12" s="1"/>
+      <c r="HF12" s="1"/>
+      <c r="HG12" s="1"/>
+      <c r="HH12" s="1"/>
+      <c r="HI12" s="1"/>
+      <c r="HJ12" s="1"/>
+      <c r="HK12" s="1"/>
+      <c r="HL12" s="1"/>
+      <c r="HM12" s="1"/>
+      <c r="HN12" s="1"/>
+      <c r="HO12" s="1"/>
+      <c r="HP12" s="1"/>
+      <c r="HQ12" s="1"/>
+      <c r="HR12" s="1"/>
+      <c r="HS12" s="1"/>
+      <c r="HT12" s="1"/>
+      <c r="HU12" s="1"/>
+      <c r="HV12" s="1"/>
+      <c r="HW12" s="1"/>
+      <c r="HX12" s="1"/>
+      <c r="HY12" s="1"/>
+      <c r="HZ12" s="1"/>
+      <c r="IA12" s="1"/>
+      <c r="IB12" s="1"/>
+      <c r="IC12" s="1"/>
+      <c r="ID12" s="1"/>
+      <c r="IE12" s="1"/>
+      <c r="IF12" s="1"/>
+      <c r="IG12" s="1"/>
+      <c r="IH12" s="1"/>
+      <c r="II12" s="1"/>
+      <c r="IJ12" s="1"/>
+      <c r="IK12" s="1"/>
+      <c r="IL12" s="1"/>
+      <c r="IM12" s="1"/>
+      <c r="IN12" s="1"/>
+      <c r="IO12" s="1"/>
+      <c r="IP12" s="1"/>
+      <c r="IQ12" s="1"/>
+      <c r="IR12" s="1"/>
+      <c r="IS12" s="1"/>
+      <c r="IT12" s="1"/>
     </row>
-    <row r="13" spans="1:212" ht="15.75" customHeight="1">
+    <row r="13" spans="1:254" ht="15.75" customHeight="1">
       <c r="A13" s="1">
         <v>-9.5</v>
       </c>
@@ -6058,15 +6832,11 @@
       <c r="Q13" s="1">
         <v>17</v>
       </c>
-      <c r="R13">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
       <c r="S13" s="1">
-        <v>-6</v>
+        <v>-7.25</v>
       </c>
       <c r="T13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" s="1">
         <v>-11</v>
@@ -6468,27 +7238,95 @@
       <c r="GK13" s="1">
         <v>-11</v>
       </c>
-      <c r="GL13" s="1"/>
+      <c r="GL13" s="1">
+        <v>4</v>
+      </c>
       <c r="GM13" s="1"/>
-      <c r="GN13" s="1"/>
-      <c r="GO13" s="1"/>
+      <c r="GN13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="GO13" s="1">
+        <v>7</v>
+      </c>
       <c r="GP13" s="1"/>
-      <c r="GQ13" s="1"/>
-      <c r="GR13" s="1"/>
+      <c r="GQ13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="GR13" s="1">
+        <v>1</v>
+      </c>
       <c r="GS13" s="1"/>
-      <c r="GT13" s="1"/>
-      <c r="GU13" s="1"/>
+      <c r="GT13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="GU13" s="1">
+        <v>12</v>
+      </c>
       <c r="GV13" s="1"/>
-      <c r="GW13" s="1"/>
-      <c r="GX13" s="1"/>
+      <c r="GW13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="GX13" s="1">
+        <v>3</v>
+      </c>
       <c r="GY13" s="1"/>
-      <c r="GZ13" s="1"/>
-      <c r="HA13" s="1"/>
+      <c r="GZ13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="HA13" s="1">
+        <v>3</v>
+      </c>
       <c r="HB13" s="1"/>
-      <c r="HC13" s="1"/>
-      <c r="HD13" s="1"/>
+      <c r="HC13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="HD13" s="1">
+        <v>40</v>
+      </c>
+      <c r="HE13" s="1"/>
+      <c r="HF13" s="1"/>
+      <c r="HG13" s="1"/>
+      <c r="HH13" s="1"/>
+      <c r="HI13" s="1"/>
+      <c r="HJ13" s="1"/>
+      <c r="HK13" s="1"/>
+      <c r="HL13" s="1"/>
+      <c r="HM13" s="1"/>
+      <c r="HN13" s="1"/>
+      <c r="HO13" s="1"/>
+      <c r="HP13" s="1"/>
+      <c r="HQ13" s="1"/>
+      <c r="HR13" s="1"/>
+      <c r="HS13" s="1"/>
+      <c r="HT13" s="1"/>
+      <c r="HU13" s="1"/>
+      <c r="HV13" s="1"/>
+      <c r="HW13" s="1"/>
+      <c r="HX13" s="1"/>
+      <c r="HY13" s="1"/>
+      <c r="HZ13" s="1"/>
+      <c r="IA13" s="1"/>
+      <c r="IB13" s="1"/>
+      <c r="IC13" s="1"/>
+      <c r="ID13" s="1"/>
+      <c r="IE13" s="1"/>
+      <c r="IF13" s="1"/>
+      <c r="IG13" s="1"/>
+      <c r="IH13" s="1"/>
+      <c r="II13" s="1"/>
+      <c r="IJ13" s="1"/>
+      <c r="IK13" s="1"/>
+      <c r="IL13" s="1"/>
+      <c r="IM13" s="1"/>
+      <c r="IN13" s="1"/>
+      <c r="IO13" s="1"/>
+      <c r="IP13" s="1"/>
+      <c r="IQ13" s="1"/>
+      <c r="IR13" s="1"/>
+      <c r="IS13" s="1"/>
+      <c r="IT13" s="1"/>
     </row>
-    <row r="14" spans="1:212" ht="15.75" customHeight="1">
+    <row r="14" spans="1:254" ht="15.75" customHeight="1">
       <c r="A14" s="1">
         <v>-10</v>
       </c>
@@ -6525,15 +7363,11 @@
       <c r="Q14" s="1">
         <v>9</v>
       </c>
-      <c r="R14">
-        <f t="shared" si="0"/>
-        <v>74</v>
-      </c>
       <c r="S14" s="1">
-        <v>-6.25</v>
+        <v>-7.5</v>
       </c>
       <c r="T14" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V14" s="1">
         <v>-12</v>
@@ -6935,27 +7769,95 @@
       <c r="GK14" s="1">
         <v>-12</v>
       </c>
-      <c r="GL14" s="1"/>
+      <c r="GL14" s="1">
+        <v>20</v>
+      </c>
       <c r="GM14" s="1"/>
-      <c r="GN14" s="1"/>
-      <c r="GO14" s="1"/>
+      <c r="GN14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="GO14" s="1">
+        <v>4</v>
+      </c>
       <c r="GP14" s="1"/>
-      <c r="GQ14" s="1"/>
-      <c r="GR14" s="1"/>
+      <c r="GQ14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="GR14" s="1">
+        <v>3</v>
+      </c>
       <c r="GS14" s="1"/>
-      <c r="GT14" s="1"/>
-      <c r="GU14" s="1"/>
+      <c r="GT14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="GU14" s="1">
+        <v>14</v>
+      </c>
       <c r="GV14" s="1"/>
-      <c r="GW14" s="1"/>
-      <c r="GX14" s="1"/>
+      <c r="GW14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="GX14" s="1">
+        <v>5</v>
+      </c>
       <c r="GY14" s="1"/>
-      <c r="GZ14" s="1"/>
-      <c r="HA14" s="1"/>
+      <c r="GZ14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="HA14" s="1">
+        <v>5</v>
+      </c>
       <c r="HB14" s="1"/>
-      <c r="HC14" s="1"/>
-      <c r="HD14" s="1"/>
+      <c r="HC14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="HD14" s="1">
+        <v>6</v>
+      </c>
+      <c r="HE14" s="1"/>
+      <c r="HF14" s="1"/>
+      <c r="HG14" s="1"/>
+      <c r="HH14" s="1"/>
+      <c r="HI14" s="1"/>
+      <c r="HJ14" s="1"/>
+      <c r="HK14" s="1"/>
+      <c r="HL14" s="1"/>
+      <c r="HM14" s="1"/>
+      <c r="HN14" s="1"/>
+      <c r="HO14" s="1"/>
+      <c r="HP14" s="1"/>
+      <c r="HQ14" s="1"/>
+      <c r="HR14" s="1"/>
+      <c r="HS14" s="1"/>
+      <c r="HT14" s="1"/>
+      <c r="HU14" s="1"/>
+      <c r="HV14" s="1"/>
+      <c r="HW14" s="1"/>
+      <c r="HX14" s="1"/>
+      <c r="HY14" s="1"/>
+      <c r="HZ14" s="1"/>
+      <c r="IA14" s="1"/>
+      <c r="IB14" s="1"/>
+      <c r="IC14" s="1"/>
+      <c r="ID14" s="1"/>
+      <c r="IE14" s="1"/>
+      <c r="IF14" s="1"/>
+      <c r="IG14" s="1"/>
+      <c r="IH14" s="1"/>
+      <c r="II14" s="1"/>
+      <c r="IJ14" s="1"/>
+      <c r="IK14" s="1"/>
+      <c r="IL14" s="1"/>
+      <c r="IM14" s="1"/>
+      <c r="IN14" s="1"/>
+      <c r="IO14" s="1"/>
+      <c r="IP14" s="1"/>
+      <c r="IQ14" s="1"/>
+      <c r="IR14" s="1"/>
+      <c r="IS14" s="1"/>
+      <c r="IT14" s="1"/>
     </row>
-    <row r="15" spans="1:212" ht="15.75" customHeight="1">
+    <row r="15" spans="1:254" ht="15.75" customHeight="1">
       <c r="A15" s="1">
         <v>-10.5</v>
       </c>
@@ -6992,15 +7894,11 @@
       <c r="Q15" s="1">
         <v>6</v>
       </c>
-      <c r="R15">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
       <c r="S15" s="1">
-        <v>-6.5</v>
+        <v>-7.75</v>
       </c>
       <c r="T15" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V15" s="1">
         <v>-13</v>
@@ -7402,27 +8300,95 @@
       <c r="GK15" s="1">
         <v>-13</v>
       </c>
-      <c r="GL15" s="1"/>
+      <c r="GL15" s="1">
+        <v>11</v>
+      </c>
       <c r="GM15" s="1"/>
-      <c r="GN15" s="1"/>
-      <c r="GO15" s="1"/>
+      <c r="GN15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="GO15" s="1">
+        <v>54</v>
+      </c>
       <c r="GP15" s="1"/>
-      <c r="GQ15" s="1"/>
-      <c r="GR15" s="1"/>
+      <c r="GQ15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="GR15" s="1">
+        <v>12</v>
+      </c>
       <c r="GS15" s="1"/>
-      <c r="GT15" s="1"/>
-      <c r="GU15" s="1"/>
+      <c r="GT15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="GU15" s="1">
+        <v>21</v>
+      </c>
       <c r="GV15" s="1"/>
-      <c r="GW15" s="1"/>
-      <c r="GX15" s="1"/>
+      <c r="GW15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="GX15" s="1">
+        <v>9</v>
+      </c>
       <c r="GY15" s="1"/>
-      <c r="GZ15" s="1"/>
-      <c r="HA15" s="1"/>
+      <c r="GZ15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="HA15" s="1">
+        <v>4</v>
+      </c>
       <c r="HB15" s="1"/>
-      <c r="HC15" s="1"/>
-      <c r="HD15" s="1"/>
+      <c r="HC15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="HD15" s="1">
+        <v>6</v>
+      </c>
+      <c r="HE15" s="1"/>
+      <c r="HF15" s="1"/>
+      <c r="HG15" s="1"/>
+      <c r="HH15" s="1"/>
+      <c r="HI15" s="1"/>
+      <c r="HJ15" s="1"/>
+      <c r="HK15" s="1"/>
+      <c r="HL15" s="1"/>
+      <c r="HM15" s="1"/>
+      <c r="HN15" s="1"/>
+      <c r="HO15" s="1"/>
+      <c r="HP15" s="1"/>
+      <c r="HQ15" s="1"/>
+      <c r="HR15" s="1"/>
+      <c r="HS15" s="1"/>
+      <c r="HT15" s="1"/>
+      <c r="HU15" s="1"/>
+      <c r="HV15" s="1"/>
+      <c r="HW15" s="1"/>
+      <c r="HX15" s="1"/>
+      <c r="HY15" s="1"/>
+      <c r="HZ15" s="1"/>
+      <c r="IA15" s="1"/>
+      <c r="IB15" s="1"/>
+      <c r="IC15" s="1"/>
+      <c r="ID15" s="1"/>
+      <c r="IE15" s="1"/>
+      <c r="IF15" s="1"/>
+      <c r="IG15" s="1"/>
+      <c r="IH15" s="1"/>
+      <c r="II15" s="1"/>
+      <c r="IJ15" s="1"/>
+      <c r="IK15" s="1"/>
+      <c r="IL15" s="1"/>
+      <c r="IM15" s="1"/>
+      <c r="IN15" s="1"/>
+      <c r="IO15" s="1"/>
+      <c r="IP15" s="1"/>
+      <c r="IQ15" s="1"/>
+      <c r="IR15" s="1"/>
+      <c r="IS15" s="1"/>
+      <c r="IT15" s="1"/>
     </row>
-    <row r="16" spans="1:212" ht="15.75" customHeight="1">
+    <row r="16" spans="1:254" ht="15.75" customHeight="1">
       <c r="A16" s="1">
         <v>-11</v>
       </c>
@@ -7459,15 +8425,11 @@
       <c r="Q16" s="1">
         <v>4</v>
       </c>
-      <c r="R16">
-        <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
       <c r="S16" s="1">
-        <v>-6.75</v>
+        <v>-8</v>
       </c>
       <c r="T16" s="1">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="V16" s="1">
         <v>-14</v>
@@ -7869,27 +8831,95 @@
       <c r="GK16" s="1">
         <v>-14</v>
       </c>
-      <c r="GL16" s="1"/>
+      <c r="GL16" s="1">
+        <v>23</v>
+      </c>
       <c r="GM16" s="1"/>
-      <c r="GN16" s="1"/>
-      <c r="GO16" s="1"/>
+      <c r="GN16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="GO16" s="1">
+        <v>14</v>
+      </c>
       <c r="GP16" s="1"/>
-      <c r="GQ16" s="1"/>
-      <c r="GR16" s="1"/>
+      <c r="GQ16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="GR16" s="1">
+        <v>8</v>
+      </c>
       <c r="GS16" s="1"/>
-      <c r="GT16" s="1"/>
-      <c r="GU16" s="1"/>
+      <c r="GT16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="GU16" s="1">
+        <v>11</v>
+      </c>
       <c r="GV16" s="1"/>
-      <c r="GW16" s="1"/>
-      <c r="GX16" s="1"/>
+      <c r="GW16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="GX16" s="1">
+        <v>7</v>
+      </c>
       <c r="GY16" s="1"/>
-      <c r="GZ16" s="1"/>
-      <c r="HA16" s="1"/>
+      <c r="GZ16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="HA16" s="1">
+        <v>5</v>
+      </c>
       <c r="HB16" s="1"/>
-      <c r="HC16" s="1"/>
-      <c r="HD16" s="1"/>
+      <c r="HC16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="HD16" s="1">
+        <v>11</v>
+      </c>
+      <c r="HE16" s="1"/>
+      <c r="HF16" s="1"/>
+      <c r="HG16" s="1"/>
+      <c r="HH16" s="1"/>
+      <c r="HI16" s="1"/>
+      <c r="HJ16" s="1"/>
+      <c r="HK16" s="1"/>
+      <c r="HL16" s="1"/>
+      <c r="HM16" s="1"/>
+      <c r="HN16" s="1"/>
+      <c r="HO16" s="1"/>
+      <c r="HP16" s="1"/>
+      <c r="HQ16" s="1"/>
+      <c r="HR16" s="1"/>
+      <c r="HS16" s="1"/>
+      <c r="HT16" s="1"/>
+      <c r="HU16" s="1"/>
+      <c r="HV16" s="1"/>
+      <c r="HW16" s="1"/>
+      <c r="HX16" s="1"/>
+      <c r="HY16" s="1"/>
+      <c r="HZ16" s="1"/>
+      <c r="IA16" s="1"/>
+      <c r="IB16" s="1"/>
+      <c r="IC16" s="1"/>
+      <c r="ID16" s="1"/>
+      <c r="IE16" s="1"/>
+      <c r="IF16" s="1"/>
+      <c r="IG16" s="1"/>
+      <c r="IH16" s="1"/>
+      <c r="II16" s="1"/>
+      <c r="IJ16" s="1"/>
+      <c r="IK16" s="1"/>
+      <c r="IL16" s="1"/>
+      <c r="IM16" s="1"/>
+      <c r="IN16" s="1"/>
+      <c r="IO16" s="1"/>
+      <c r="IP16" s="1"/>
+      <c r="IQ16" s="1"/>
+      <c r="IR16" s="1"/>
+      <c r="IS16" s="1"/>
+      <c r="IT16" s="1"/>
     </row>
-    <row r="17" spans="1:212" ht="15.75" customHeight="1">
+    <row r="17" spans="1:254" ht="15.75" customHeight="1">
       <c r="A17" s="1">
         <v>-11.5</v>
       </c>
@@ -7926,15 +8956,11 @@
       <c r="Q17" s="1">
         <v>3</v>
       </c>
-      <c r="R17">
-        <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
       <c r="S17" s="1">
-        <v>-7</v>
+        <v>-8.5</v>
       </c>
       <c r="T17" s="1">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="V17" s="1">
         <v>-15</v>
@@ -8336,27 +9362,95 @@
       <c r="GK17" s="1">
         <v>-15</v>
       </c>
-      <c r="GL17" s="1"/>
+      <c r="GL17" s="1">
+        <v>8</v>
+      </c>
       <c r="GM17" s="1"/>
-      <c r="GN17" s="1"/>
-      <c r="GO17" s="1"/>
+      <c r="GN17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="GO17" s="1">
+        <v>15</v>
+      </c>
       <c r="GP17" s="1"/>
-      <c r="GQ17" s="1"/>
-      <c r="GR17" s="1"/>
+      <c r="GQ17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="GR17" s="1">
+        <v>28</v>
+      </c>
       <c r="GS17" s="1"/>
-      <c r="GT17" s="1"/>
-      <c r="GU17" s="1"/>
+      <c r="GT17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="GU17" s="1">
+        <v>11</v>
+      </c>
       <c r="GV17" s="1"/>
-      <c r="GW17" s="1"/>
-      <c r="GX17" s="1"/>
+      <c r="GW17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="GX17" s="1">
+        <v>25</v>
+      </c>
       <c r="GY17" s="1"/>
-      <c r="GZ17" s="1"/>
-      <c r="HA17" s="1"/>
+      <c r="GZ17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="HA17" s="1">
+        <v>19</v>
+      </c>
       <c r="HB17" s="1"/>
-      <c r="HC17" s="1"/>
-      <c r="HD17" s="1"/>
+      <c r="HC17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="HD17" s="1">
+        <v>23</v>
+      </c>
+      <c r="HE17" s="1"/>
+      <c r="HF17" s="1"/>
+      <c r="HG17" s="1"/>
+      <c r="HH17" s="1"/>
+      <c r="HI17" s="1"/>
+      <c r="HJ17" s="1"/>
+      <c r="HK17" s="1"/>
+      <c r="HL17" s="1"/>
+      <c r="HM17" s="1"/>
+      <c r="HN17" s="1"/>
+      <c r="HO17" s="1"/>
+      <c r="HP17" s="1"/>
+      <c r="HQ17" s="1"/>
+      <c r="HR17" s="1"/>
+      <c r="HS17" s="1"/>
+      <c r="HT17" s="1"/>
+      <c r="HU17" s="1"/>
+      <c r="HV17" s="1"/>
+      <c r="HW17" s="1"/>
+      <c r="HX17" s="1"/>
+      <c r="HY17" s="1"/>
+      <c r="HZ17" s="1"/>
+      <c r="IA17" s="1"/>
+      <c r="IB17" s="1"/>
+      <c r="IC17" s="1"/>
+      <c r="ID17" s="1"/>
+      <c r="IE17" s="1"/>
+      <c r="IF17" s="1"/>
+      <c r="IG17" s="1"/>
+      <c r="IH17" s="1"/>
+      <c r="II17" s="1"/>
+      <c r="IJ17" s="1"/>
+      <c r="IK17" s="1"/>
+      <c r="IL17" s="1"/>
+      <c r="IM17" s="1"/>
+      <c r="IN17" s="1"/>
+      <c r="IO17" s="1"/>
+      <c r="IP17" s="1"/>
+      <c r="IQ17" s="1"/>
+      <c r="IR17" s="1"/>
+      <c r="IS17" s="1"/>
+      <c r="IT17" s="1"/>
     </row>
-    <row r="18" spans="1:212" ht="15.75" customHeight="1">
+    <row r="18" spans="1:254" ht="15.75" customHeight="1">
       <c r="A18" s="1">
         <v>-12</v>
       </c>
@@ -8393,15 +9487,11 @@
       <c r="Q18" s="1">
         <v>2</v>
       </c>
-      <c r="R18">
-        <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
       <c r="S18" s="1">
-        <v>-7.25</v>
+        <v>-8.75</v>
       </c>
       <c r="T18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V18" s="1">
         <v>-16</v>
@@ -8803,27 +9893,95 @@
       <c r="GK18" s="1">
         <v>-16</v>
       </c>
-      <c r="GL18" s="1"/>
+      <c r="GL18" s="1">
+        <v>23</v>
+      </c>
       <c r="GM18" s="1"/>
-      <c r="GN18" s="1"/>
-      <c r="GO18" s="1"/>
+      <c r="GN18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="GO18" s="1">
+        <v>3</v>
+      </c>
       <c r="GP18" s="1"/>
-      <c r="GQ18" s="1"/>
-      <c r="GR18" s="1"/>
+      <c r="GQ18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="GR18" s="1">
+        <v>21</v>
+      </c>
       <c r="GS18" s="1"/>
-      <c r="GT18" s="1"/>
-      <c r="GU18" s="1"/>
+      <c r="GT18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="GU18" s="1">
+        <v>4</v>
+      </c>
       <c r="GV18" s="1"/>
-      <c r="GW18" s="1"/>
-      <c r="GX18" s="1"/>
+      <c r="GW18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="GX18" s="1">
+        <v>17</v>
+      </c>
       <c r="GY18" s="1"/>
-      <c r="GZ18" s="1"/>
-      <c r="HA18" s="1"/>
+      <c r="GZ18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="HA18" s="1">
+        <v>11</v>
+      </c>
       <c r="HB18" s="1"/>
-      <c r="HC18" s="1"/>
-      <c r="HD18" s="1"/>
+      <c r="HC18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="HD18" s="1">
+        <v>3</v>
+      </c>
+      <c r="HE18" s="1"/>
+      <c r="HF18" s="1"/>
+      <c r="HG18" s="1"/>
+      <c r="HH18" s="1"/>
+      <c r="HI18" s="1"/>
+      <c r="HJ18" s="1"/>
+      <c r="HK18" s="1"/>
+      <c r="HL18" s="1"/>
+      <c r="HM18" s="1"/>
+      <c r="HN18" s="1"/>
+      <c r="HO18" s="1"/>
+      <c r="HP18" s="1"/>
+      <c r="HQ18" s="1"/>
+      <c r="HR18" s="1"/>
+      <c r="HS18" s="1"/>
+      <c r="HT18" s="1"/>
+      <c r="HU18" s="1"/>
+      <c r="HV18" s="1"/>
+      <c r="HW18" s="1"/>
+      <c r="HX18" s="1"/>
+      <c r="HY18" s="1"/>
+      <c r="HZ18" s="1"/>
+      <c r="IA18" s="1"/>
+      <c r="IB18" s="1"/>
+      <c r="IC18" s="1"/>
+      <c r="ID18" s="1"/>
+      <c r="IE18" s="1"/>
+      <c r="IF18" s="1"/>
+      <c r="IG18" s="1"/>
+      <c r="IH18" s="1"/>
+      <c r="II18" s="1"/>
+      <c r="IJ18" s="1"/>
+      <c r="IK18" s="1"/>
+      <c r="IL18" s="1"/>
+      <c r="IM18" s="1"/>
+      <c r="IN18" s="1"/>
+      <c r="IO18" s="1"/>
+      <c r="IP18" s="1"/>
+      <c r="IQ18" s="1"/>
+      <c r="IR18" s="1"/>
+      <c r="IS18" s="1"/>
+      <c r="IT18" s="1"/>
     </row>
-    <row r="19" spans="1:212" ht="15.75" customHeight="1">
+    <row r="19" spans="1:254" ht="15.75" customHeight="1">
       <c r="A19" s="1">
         <v>-12.5</v>
       </c>
@@ -8860,16 +10018,8 @@
       <c r="Q19" s="1">
         <v>7</v>
       </c>
-      <c r="R19">
-        <f t="shared" si="0"/>
-        <v>96</v>
-      </c>
-      <c r="S19" s="1">
-        <v>-7.5</v>
-      </c>
-      <c r="T19" s="1">
-        <v>3</v>
-      </c>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
       <c r="V19" s="1">
         <v>-17</v>
       </c>
@@ -9262,27 +10412,91 @@
       <c r="GK19" s="1">
         <v>-17</v>
       </c>
-      <c r="GL19" s="1"/>
+      <c r="GL19" s="1">
+        <v>2</v>
+      </c>
       <c r="GM19" s="1"/>
       <c r="GN19" s="1"/>
       <c r="GO19" s="1"/>
       <c r="GP19" s="1"/>
-      <c r="GQ19" s="1"/>
-      <c r="GR19" s="1"/>
+      <c r="GQ19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="GR19" s="1">
+        <v>11</v>
+      </c>
       <c r="GS19" s="1"/>
-      <c r="GT19" s="1"/>
-      <c r="GU19" s="1"/>
+      <c r="GT19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="GU19" s="1">
+        <v>1</v>
+      </c>
       <c r="GV19" s="1"/>
-      <c r="GW19" s="1"/>
-      <c r="GX19" s="1"/>
+      <c r="GW19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="GX19" s="1">
+        <v>17</v>
+      </c>
       <c r="GY19" s="1"/>
-      <c r="GZ19" s="1"/>
-      <c r="HA19" s="1"/>
+      <c r="GZ19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="HA19" s="1">
+        <v>21</v>
+      </c>
       <c r="HB19" s="1"/>
-      <c r="HC19" s="1"/>
-      <c r="HD19" s="1"/>
+      <c r="HC19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="HD19" s="1">
+        <v>2</v>
+      </c>
+      <c r="HE19" s="1"/>
+      <c r="HF19" s="1"/>
+      <c r="HG19" s="1"/>
+      <c r="HH19" s="1"/>
+      <c r="HI19" s="1"/>
+      <c r="HJ19" s="1"/>
+      <c r="HK19" s="1"/>
+      <c r="HL19" s="1"/>
+      <c r="HM19" s="1"/>
+      <c r="HN19" s="1"/>
+      <c r="HO19" s="1"/>
+      <c r="HP19" s="1"/>
+      <c r="HQ19" s="1"/>
+      <c r="HR19" s="1"/>
+      <c r="HS19" s="1"/>
+      <c r="HT19" s="1"/>
+      <c r="HU19" s="1"/>
+      <c r="HV19" s="1"/>
+      <c r="HW19" s="1"/>
+      <c r="HX19" s="1"/>
+      <c r="HY19" s="1"/>
+      <c r="HZ19" s="1"/>
+      <c r="IA19" s="1"/>
+      <c r="IB19" s="1"/>
+      <c r="IC19" s="1"/>
+      <c r="ID19" s="1"/>
+      <c r="IE19" s="1"/>
+      <c r="IF19" s="1"/>
+      <c r="IG19" s="1"/>
+      <c r="IH19" s="1"/>
+      <c r="II19" s="1"/>
+      <c r="IJ19" s="1"/>
+      <c r="IK19" s="1"/>
+      <c r="IL19" s="1"/>
+      <c r="IM19" s="1"/>
+      <c r="IN19" s="1"/>
+      <c r="IO19" s="1"/>
+      <c r="IP19" s="1"/>
+      <c r="IQ19" s="1"/>
+      <c r="IR19" s="1"/>
+      <c r="IS19" s="1"/>
+      <c r="IT19" s="1"/>
     </row>
-    <row r="20" spans="1:212" ht="15.75" customHeight="1">
+    <row r="20" spans="1:254" ht="15.75" customHeight="1">
       <c r="A20" s="1">
         <v>-13</v>
       </c>
@@ -9319,16 +10533,8 @@
       <c r="Q20" s="1">
         <v>0</v>
       </c>
-      <c r="R20">
-        <f t="shared" si="0"/>
-        <v>96</v>
-      </c>
-      <c r="S20" s="1">
-        <v>-7.75</v>
-      </c>
-      <c r="T20" s="1">
-        <v>8</v>
-      </c>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
       <c r="V20" s="1">
         <v>-17.5</v>
       </c>
@@ -9391,7 +10597,7 @@
       <c r="AY20" s="1"/>
       <c r="AZ20" s="1"/>
       <c r="BA20" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB20" s="1"/>
       <c r="BC20" s="1">
@@ -9673,27 +10879,89 @@
       <c r="GK20" s="1">
         <v>-18</v>
       </c>
-      <c r="GL20" s="1"/>
+      <c r="GL20" s="1">
+        <v>1</v>
+      </c>
       <c r="GM20" s="1"/>
       <c r="GN20" s="1"/>
       <c r="GO20" s="1"/>
       <c r="GP20" s="1"/>
-      <c r="GQ20" s="1"/>
-      <c r="GR20" s="1"/>
+      <c r="GQ20" s="1">
+        <v>-18</v>
+      </c>
+      <c r="GR20" s="1">
+        <v>12</v>
+      </c>
       <c r="GS20" s="1"/>
       <c r="GT20" s="1"/>
-      <c r="GU20" s="1"/>
+      <c r="GU20" s="1">
+        <v>2</v>
+      </c>
       <c r="GV20" s="1"/>
-      <c r="GW20" s="1"/>
-      <c r="GX20" s="1"/>
+      <c r="GW20" s="1">
+        <v>-18</v>
+      </c>
+      <c r="GX20" s="1">
+        <v>7</v>
+      </c>
       <c r="GY20" s="1"/>
-      <c r="GZ20" s="1"/>
-      <c r="HA20" s="1"/>
+      <c r="GZ20" s="1">
+        <v>-18</v>
+      </c>
+      <c r="HA20" s="1">
+        <v>7</v>
+      </c>
       <c r="HB20" s="1"/>
-      <c r="HC20" s="1"/>
-      <c r="HD20" s="1"/>
+      <c r="HC20" s="1">
+        <v>-18</v>
+      </c>
+      <c r="HD20" s="1">
+        <v>2</v>
+      </c>
+      <c r="HE20" s="1"/>
+      <c r="HF20" s="1"/>
+      <c r="HG20" s="1"/>
+      <c r="HH20" s="1"/>
+      <c r="HI20" s="1"/>
+      <c r="HJ20" s="1"/>
+      <c r="HK20" s="1"/>
+      <c r="HL20" s="1"/>
+      <c r="HM20" s="1"/>
+      <c r="HN20" s="1"/>
+      <c r="HO20" s="1"/>
+      <c r="HP20" s="1"/>
+      <c r="HQ20" s="1"/>
+      <c r="HR20" s="1"/>
+      <c r="HS20" s="1"/>
+      <c r="HT20" s="1"/>
+      <c r="HU20" s="1"/>
+      <c r="HV20" s="1"/>
+      <c r="HW20" s="1"/>
+      <c r="HX20" s="1"/>
+      <c r="HY20" s="1"/>
+      <c r="HZ20" s="1"/>
+      <c r="IA20" s="1"/>
+      <c r="IB20" s="1"/>
+      <c r="IC20" s="1"/>
+      <c r="ID20" s="1"/>
+      <c r="IE20" s="1"/>
+      <c r="IF20" s="1"/>
+      <c r="IG20" s="1"/>
+      <c r="IH20" s="1"/>
+      <c r="II20" s="1"/>
+      <c r="IJ20" s="1"/>
+      <c r="IK20" s="1"/>
+      <c r="IL20" s="1"/>
+      <c r="IM20" s="1"/>
+      <c r="IN20" s="1"/>
+      <c r="IO20" s="1"/>
+      <c r="IP20" s="1"/>
+      <c r="IQ20" s="1"/>
+      <c r="IR20" s="1"/>
+      <c r="IS20" s="1"/>
+      <c r="IT20" s="1"/>
     </row>
-    <row r="21" spans="1:212" ht="15.75" customHeight="1">
+    <row r="21" spans="1:254" ht="15.75" customHeight="1">
       <c r="A21" s="1">
         <v>-13.5</v>
       </c>
@@ -9730,16 +10998,8 @@
       <c r="Q21" s="1">
         <v>2</v>
       </c>
-      <c r="R21">
-        <f t="shared" si="0"/>
-        <v>98</v>
-      </c>
-      <c r="S21" s="1">
-        <v>-8</v>
-      </c>
-      <c r="T21" s="1">
-        <v>26</v>
-      </c>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
       <c r="V21" s="1">
         <v>-18</v>
       </c>
@@ -10036,16 +11296,70 @@
       <c r="GT21" s="1"/>
       <c r="GU21" s="1"/>
       <c r="GV21" s="1"/>
-      <c r="GW21" s="1"/>
-      <c r="GX21" s="1"/>
+      <c r="GW21" s="1">
+        <v>-19</v>
+      </c>
+      <c r="GX21" s="1">
+        <v>1</v>
+      </c>
       <c r="GY21" s="1"/>
-      <c r="GZ21" s="1"/>
-      <c r="HA21" s="1"/>
+      <c r="GZ21" s="1">
+        <v>-19</v>
+      </c>
+      <c r="HA21" s="1">
+        <v>18</v>
+      </c>
       <c r="HB21" s="1"/>
-      <c r="HC21" s="1"/>
-      <c r="HD21" s="1"/>
+      <c r="HC21" s="1">
+        <v>-19</v>
+      </c>
+      <c r="HD21" s="1">
+        <v>1</v>
+      </c>
+      <c r="HE21" s="1"/>
+      <c r="HF21" s="1"/>
+      <c r="HG21" s="1"/>
+      <c r="HH21" s="1"/>
+      <c r="HI21" s="1"/>
+      <c r="HJ21" s="1"/>
+      <c r="HK21" s="1"/>
+      <c r="HL21" s="1"/>
+      <c r="HM21" s="1"/>
+      <c r="HN21" s="1"/>
+      <c r="HO21" s="1"/>
+      <c r="HP21" s="1"/>
+      <c r="HQ21" s="1"/>
+      <c r="HR21" s="1"/>
+      <c r="HS21" s="1"/>
+      <c r="HT21" s="1"/>
+      <c r="HU21" s="1"/>
+      <c r="HV21" s="1"/>
+      <c r="HW21" s="1"/>
+      <c r="HX21" s="1"/>
+      <c r="HY21" s="1"/>
+      <c r="HZ21" s="1"/>
+      <c r="IA21" s="1"/>
+      <c r="IB21" s="1"/>
+      <c r="IC21" s="1"/>
+      <c r="ID21" s="1"/>
+      <c r="IE21" s="1"/>
+      <c r="IF21" s="1"/>
+      <c r="IG21" s="1"/>
+      <c r="IH21" s="1"/>
+      <c r="II21" s="1"/>
+      <c r="IJ21" s="1"/>
+      <c r="IK21" s="1"/>
+      <c r="IL21" s="1"/>
+      <c r="IM21" s="1"/>
+      <c r="IN21" s="1"/>
+      <c r="IO21" s="1"/>
+      <c r="IP21" s="1"/>
+      <c r="IQ21" s="1"/>
+      <c r="IR21" s="1"/>
+      <c r="IS21" s="1"/>
+      <c r="IT21" s="1"/>
     </row>
-    <row r="22" spans="1:212" ht="15.75" customHeight="1">
+    <row r="22" spans="1:254" ht="15.75" customHeight="1">
       <c r="A22" s="1">
         <v>-14</v>
       </c>
@@ -10077,16 +11391,8 @@
       <c r="Q22" s="1">
         <v>4</v>
       </c>
-      <c r="R22">
-        <f t="shared" si="0"/>
-        <v>102</v>
-      </c>
-      <c r="S22" s="1">
-        <v>-8.5</v>
-      </c>
-      <c r="T22" s="1">
-        <v>62</v>
-      </c>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
       <c r="V22" s="1">
         <v>-18.5</v>
       </c>
@@ -10120,7 +11426,7 @@
       <c r="AS22" s="1"/>
       <c r="AT22" s="1"/>
       <c r="AU22" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV22" s="1"/>
       <c r="AW22" s="1"/>
@@ -10344,13 +11650,59 @@
       <c r="GW22" s="1"/>
       <c r="GX22" s="1"/>
       <c r="GY22" s="1"/>
-      <c r="GZ22" s="1"/>
-      <c r="HA22" s="1"/>
+      <c r="GZ22" s="1">
+        <v>-20</v>
+      </c>
+      <c r="HA22" s="1">
+        <v>8</v>
+      </c>
       <c r="HB22" s="1"/>
       <c r="HC22" s="1"/>
       <c r="HD22" s="1"/>
+      <c r="HE22" s="1"/>
+      <c r="HF22" s="1"/>
+      <c r="HG22" s="1"/>
+      <c r="HH22" s="1"/>
+      <c r="HI22" s="1"/>
+      <c r="HJ22" s="1"/>
+      <c r="HK22" s="1"/>
+      <c r="HL22" s="1"/>
+      <c r="HM22" s="1"/>
+      <c r="HN22" s="1"/>
+      <c r="HO22" s="1"/>
+      <c r="HP22" s="1"/>
+      <c r="HQ22" s="1"/>
+      <c r="HR22" s="1"/>
+      <c r="HS22" s="1"/>
+      <c r="HT22" s="1"/>
+      <c r="HU22" s="1"/>
+      <c r="HV22" s="1"/>
+      <c r="HW22" s="1"/>
+      <c r="HX22" s="1"/>
+      <c r="HY22" s="1"/>
+      <c r="HZ22" s="1"/>
+      <c r="IA22" s="1"/>
+      <c r="IB22" s="1"/>
+      <c r="IC22" s="1"/>
+      <c r="ID22" s="1"/>
+      <c r="IE22" s="1"/>
+      <c r="IF22" s="1"/>
+      <c r="IG22" s="1"/>
+      <c r="IH22" s="1"/>
+      <c r="II22" s="1"/>
+      <c r="IJ22" s="1"/>
+      <c r="IK22" s="1"/>
+      <c r="IL22" s="1"/>
+      <c r="IM22" s="1"/>
+      <c r="IN22" s="1"/>
+      <c r="IO22" s="1"/>
+      <c r="IP22" s="1"/>
+      <c r="IQ22" s="1"/>
+      <c r="IR22" s="1"/>
+      <c r="IS22" s="1"/>
+      <c r="IT22" s="1"/>
     </row>
-    <row r="23" spans="1:212" ht="15.75" customHeight="1">
+    <row r="23" spans="1:254" ht="15.75" customHeight="1">
       <c r="A23" s="1">
         <v>-14.5</v>
       </c>
@@ -10381,16 +11733,8 @@
       <c r="Q23" s="1">
         <v>1</v>
       </c>
-      <c r="R23">
-        <f t="shared" si="0"/>
-        <v>103</v>
-      </c>
-      <c r="S23" s="1">
-        <v>-8.75</v>
-      </c>
-      <c r="T23" s="1">
-        <v>3</v>
-      </c>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
       <c r="W23" s="4"/>
       <c r="Y23" s="1">
         <v>-18</v>
@@ -10636,8 +11980,50 @@
       <c r="HB23" s="1"/>
       <c r="HC23" s="1"/>
       <c r="HD23" s="1"/>
+      <c r="HE23" s="1"/>
+      <c r="HF23" s="1"/>
+      <c r="HG23" s="1"/>
+      <c r="HH23" s="1"/>
+      <c r="HI23" s="1"/>
+      <c r="HJ23" s="1"/>
+      <c r="HK23" s="1"/>
+      <c r="HL23" s="1"/>
+      <c r="HM23" s="1"/>
+      <c r="HN23" s="1"/>
+      <c r="HO23" s="1"/>
+      <c r="HP23" s="1"/>
+      <c r="HQ23" s="1"/>
+      <c r="HR23" s="1"/>
+      <c r="HS23" s="1"/>
+      <c r="HT23" s="1"/>
+      <c r="HU23" s="1"/>
+      <c r="HV23" s="1"/>
+      <c r="HW23" s="1"/>
+      <c r="HX23" s="1"/>
+      <c r="HY23" s="1"/>
+      <c r="HZ23" s="1"/>
+      <c r="IA23" s="1"/>
+      <c r="IB23" s="1"/>
+      <c r="IC23" s="1"/>
+      <c r="ID23" s="1"/>
+      <c r="IE23" s="1"/>
+      <c r="IF23" s="1"/>
+      <c r="IG23" s="1"/>
+      <c r="IH23" s="1"/>
+      <c r="II23" s="1"/>
+      <c r="IJ23" s="1"/>
+      <c r="IK23" s="1"/>
+      <c r="IL23" s="1"/>
+      <c r="IM23" s="1"/>
+      <c r="IN23" s="1"/>
+      <c r="IO23" s="1"/>
+      <c r="IP23" s="1"/>
+      <c r="IQ23" s="1"/>
+      <c r="IR23" s="1"/>
+      <c r="IS23" s="1"/>
+      <c r="IT23" s="1"/>
     </row>
-    <row r="24" spans="1:212" ht="15.75" customHeight="1">
+    <row r="24" spans="1:254" ht="15.75" customHeight="1">
       <c r="A24" s="1">
         <v>-15</v>
       </c>
@@ -10884,8 +12270,50 @@
       <c r="HB24" s="1"/>
       <c r="HC24" s="1"/>
       <c r="HD24" s="1"/>
+      <c r="HE24" s="1"/>
+      <c r="HF24" s="1"/>
+      <c r="HG24" s="1"/>
+      <c r="HH24" s="1"/>
+      <c r="HI24" s="1"/>
+      <c r="HJ24" s="1"/>
+      <c r="HK24" s="1"/>
+      <c r="HL24" s="1"/>
+      <c r="HM24" s="1"/>
+      <c r="HN24" s="1"/>
+      <c r="HO24" s="1"/>
+      <c r="HP24" s="1"/>
+      <c r="HQ24" s="1"/>
+      <c r="HR24" s="1"/>
+      <c r="HS24" s="1"/>
+      <c r="HT24" s="1"/>
+      <c r="HU24" s="1"/>
+      <c r="HV24" s="1"/>
+      <c r="HW24" s="1"/>
+      <c r="HX24" s="1"/>
+      <c r="HY24" s="1"/>
+      <c r="HZ24" s="1"/>
+      <c r="IA24" s="1"/>
+      <c r="IB24" s="1"/>
+      <c r="IC24" s="1"/>
+      <c r="ID24" s="1"/>
+      <c r="IE24" s="1"/>
+      <c r="IF24" s="1"/>
+      <c r="IG24" s="1"/>
+      <c r="IH24" s="1"/>
+      <c r="II24" s="1"/>
+      <c r="IJ24" s="1"/>
+      <c r="IK24" s="1"/>
+      <c r="IL24" s="1"/>
+      <c r="IM24" s="1"/>
+      <c r="IN24" s="1"/>
+      <c r="IO24" s="1"/>
+      <c r="IP24" s="1"/>
+      <c r="IQ24" s="1"/>
+      <c r="IR24" s="1"/>
+      <c r="IS24" s="1"/>
+      <c r="IT24" s="1"/>
     </row>
-    <row r="25" spans="1:212" ht="15.75" customHeight="1">
+    <row r="25" spans="1:254" ht="15.75" customHeight="1">
       <c r="A25" s="1">
         <v>-15.5</v>
       </c>
@@ -10953,7 +12381,7 @@
       <c r="CV25" s="1"/>
       <c r="CW25" s="1"/>
     </row>
-    <row r="26" spans="1:212" ht="15.75" customHeight="1">
+    <row r="26" spans="1:254" ht="15.75" customHeight="1">
       <c r="A26" s="1">
         <v>-16</v>
       </c>
@@ -10985,7 +12413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:212" ht="15.75" customHeight="1">
+    <row r="27" spans="1:254" ht="15.75" customHeight="1">
       <c r="A27" s="1">
         <v>-16.5</v>
       </c>
@@ -10999,7 +12427,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:212" ht="15.75" customHeight="1">
+    <row r="28" spans="1:254" ht="15.75" customHeight="1">
       <c r="A28" s="1">
         <v>-17</v>
       </c>
@@ -11013,7 +12441,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:212" ht="15.75" customHeight="1">
+    <row r="29" spans="1:254" ht="15.75" customHeight="1">
       <c r="A29" s="1">
         <v>-17.5</v>
       </c>

--- a/datas_lab_IN.xlsx
+++ b/datas_lab_IN.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="4">
   <si>
     <t>Temperature</t>
   </si>
@@ -411,7 +411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IT29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -911,26 +911,54 @@
         <v>42193</v>
       </c>
       <c r="HE1" s="2"/>
-      <c r="HF1" s="2"/>
-      <c r="HG1" s="2"/>
+      <c r="HF1" s="1">
+        <v>407</v>
+      </c>
+      <c r="HG1" s="2">
+        <v>42193</v>
+      </c>
       <c r="HH1" s="2"/>
-      <c r="HI1" s="2"/>
-      <c r="HJ1" s="2"/>
+      <c r="HI1" s="1">
+        <v>408</v>
+      </c>
+      <c r="HJ1" s="2">
+        <v>42193</v>
+      </c>
       <c r="HK1" s="2"/>
-      <c r="HL1" s="2"/>
-      <c r="HM1" s="2"/>
+      <c r="HL1" s="1">
+        <v>409</v>
+      </c>
+      <c r="HM1" s="2">
+        <v>42194</v>
+      </c>
       <c r="HN1" s="2"/>
-      <c r="HO1" s="2"/>
-      <c r="HP1" s="2"/>
+      <c r="HO1" s="1">
+        <v>410</v>
+      </c>
+      <c r="HP1" s="2">
+        <v>42194</v>
+      </c>
       <c r="HQ1" s="2"/>
-      <c r="HR1" s="2"/>
-      <c r="HS1" s="2"/>
+      <c r="HR1" s="1">
+        <v>411</v>
+      </c>
+      <c r="HS1" s="2">
+        <v>42194</v>
+      </c>
       <c r="HT1" s="2"/>
-      <c r="HU1" s="2"/>
-      <c r="HV1" s="2"/>
+      <c r="HU1" s="1">
+        <v>412</v>
+      </c>
+      <c r="HV1" s="2">
+        <v>42194</v>
+      </c>
       <c r="HW1" s="2"/>
-      <c r="HX1" s="2"/>
-      <c r="HY1" s="2"/>
+      <c r="HX1" s="1">
+        <v>413</v>
+      </c>
+      <c r="HY1" s="2">
+        <v>42194</v>
+      </c>
       <c r="HZ1" s="2"/>
       <c r="IA1" s="2"/>
       <c r="IB1" s="2"/>
@@ -1444,26 +1472,54 @@
         <v>1</v>
       </c>
       <c r="HE2" s="1"/>
-      <c r="HF2" s="1"/>
-      <c r="HG2" s="1"/>
+      <c r="HF2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="HG2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="HH2" s="1"/>
-      <c r="HI2" s="1"/>
-      <c r="HJ2" s="1"/>
+      <c r="HI2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="HJ2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="HK2" s="1"/>
-      <c r="HL2" s="1"/>
-      <c r="HM2" s="1"/>
+      <c r="HL2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="HM2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="HN2" s="1"/>
-      <c r="HO2" s="1"/>
-      <c r="HP2" s="1"/>
+      <c r="HO2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="HP2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="HQ2" s="1"/>
-      <c r="HR2" s="1"/>
-      <c r="HS2" s="1"/>
+      <c r="HR2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="HS2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="HT2" s="1"/>
-      <c r="HU2" s="1"/>
-      <c r="HV2" s="1"/>
+      <c r="HU2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="HV2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="HW2" s="1"/>
-      <c r="HX2" s="1"/>
-      <c r="HY2" s="1"/>
+      <c r="HX2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="HY2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="HZ2" s="1"/>
       <c r="IA2" s="1"/>
       <c r="IB2" s="1"/>
@@ -1975,26 +2031,54 @@
         <v>0</v>
       </c>
       <c r="HE3" s="1"/>
-      <c r="HF3" s="1"/>
-      <c r="HG3" s="1"/>
+      <c r="HF3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="HG3" s="1">
+        <v>0</v>
+      </c>
       <c r="HH3" s="1"/>
-      <c r="HI3" s="1"/>
-      <c r="HJ3" s="1"/>
+      <c r="HI3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="HJ3" s="1">
+        <v>0</v>
+      </c>
       <c r="HK3" s="1"/>
-      <c r="HL3" s="1"/>
-      <c r="HM3" s="1"/>
+      <c r="HL3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="HM3" s="1">
+        <v>0</v>
+      </c>
       <c r="HN3" s="1"/>
-      <c r="HO3" s="1"/>
-      <c r="HP3" s="1"/>
+      <c r="HO3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="HP3" s="1">
+        <v>0</v>
+      </c>
       <c r="HQ3" s="1"/>
-      <c r="HR3" s="1"/>
-      <c r="HS3" s="1"/>
+      <c r="HR3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="HS3" s="1">
+        <v>0</v>
+      </c>
       <c r="HT3" s="1"/>
-      <c r="HU3" s="1"/>
-      <c r="HV3" s="1"/>
+      <c r="HU3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="HV3" s="1">
+        <v>0</v>
+      </c>
       <c r="HW3" s="1"/>
-      <c r="HX3" s="1"/>
-      <c r="HY3" s="1"/>
+      <c r="HX3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="HY3" s="1">
+        <v>0</v>
+      </c>
       <c r="HZ3" s="1"/>
       <c r="IA3" s="1"/>
       <c r="IB3" s="1"/>
@@ -2506,26 +2590,54 @@
         <v>0</v>
       </c>
       <c r="HE4" s="1"/>
-      <c r="HF4" s="1"/>
-      <c r="HG4" s="1"/>
+      <c r="HF4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="HG4" s="1">
+        <v>0</v>
+      </c>
       <c r="HH4" s="1"/>
-      <c r="HI4" s="1"/>
-      <c r="HJ4" s="1"/>
+      <c r="HI4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="HJ4" s="1">
+        <v>0</v>
+      </c>
       <c r="HK4" s="1"/>
-      <c r="HL4" s="1"/>
-      <c r="HM4" s="1"/>
+      <c r="HL4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="HM4" s="1">
+        <v>0</v>
+      </c>
       <c r="HN4" s="1"/>
-      <c r="HO4" s="1"/>
-      <c r="HP4" s="1"/>
+      <c r="HO4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="HP4" s="1">
+        <v>0</v>
+      </c>
       <c r="HQ4" s="1"/>
-      <c r="HR4" s="1"/>
-      <c r="HS4" s="1"/>
+      <c r="HR4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="HS4" s="1">
+        <v>0</v>
+      </c>
       <c r="HT4" s="1"/>
-      <c r="HU4" s="1"/>
-      <c r="HV4" s="1"/>
+      <c r="HU4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="HV4" s="1">
+        <v>0</v>
+      </c>
       <c r="HW4" s="1"/>
-      <c r="HX4" s="1"/>
-      <c r="HY4" s="1"/>
+      <c r="HX4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="HY4" s="1">
+        <v>0</v>
+      </c>
       <c r="HZ4" s="1"/>
       <c r="IA4" s="1"/>
       <c r="IB4" s="1"/>
@@ -3037,26 +3149,54 @@
         <v>0</v>
       </c>
       <c r="HE5" s="1"/>
-      <c r="HF5" s="1"/>
-      <c r="HG5" s="1"/>
+      <c r="HF5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="HG5" s="1">
+        <v>0</v>
+      </c>
       <c r="HH5" s="1"/>
-      <c r="HI5" s="1"/>
-      <c r="HJ5" s="1"/>
+      <c r="HI5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="HJ5" s="1">
+        <v>0</v>
+      </c>
       <c r="HK5" s="1"/>
-      <c r="HL5" s="1"/>
-      <c r="HM5" s="1"/>
+      <c r="HL5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="HM5" s="1">
+        <v>0</v>
+      </c>
       <c r="HN5" s="1"/>
-      <c r="HO5" s="1"/>
-      <c r="HP5" s="1"/>
+      <c r="HO5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="HP5" s="1">
+        <v>0</v>
+      </c>
       <c r="HQ5" s="1"/>
-      <c r="HR5" s="1"/>
-      <c r="HS5" s="1"/>
+      <c r="HR5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="HS5" s="1">
+        <v>0</v>
+      </c>
       <c r="HT5" s="1"/>
-      <c r="HU5" s="1"/>
-      <c r="HV5" s="1"/>
+      <c r="HU5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="HV5" s="1">
+        <v>0</v>
+      </c>
       <c r="HW5" s="1"/>
-      <c r="HX5" s="1"/>
-      <c r="HY5" s="1"/>
+      <c r="HX5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="HY5" s="1">
+        <v>0</v>
+      </c>
       <c r="HZ5" s="1"/>
       <c r="IA5" s="1"/>
       <c r="IB5" s="1"/>
@@ -3568,26 +3708,54 @@
         <v>0</v>
       </c>
       <c r="HE6" s="1"/>
-      <c r="HF6" s="1"/>
-      <c r="HG6" s="1"/>
+      <c r="HF6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="HG6" s="1">
+        <v>0</v>
+      </c>
       <c r="HH6" s="1"/>
-      <c r="HI6" s="1"/>
-      <c r="HJ6" s="1"/>
+      <c r="HI6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="HJ6" s="1">
+        <v>0</v>
+      </c>
       <c r="HK6" s="1"/>
-      <c r="HL6" s="1"/>
-      <c r="HM6" s="1"/>
+      <c r="HL6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="HM6" s="1">
+        <v>0</v>
+      </c>
       <c r="HN6" s="1"/>
-      <c r="HO6" s="1"/>
-      <c r="HP6" s="1"/>
+      <c r="HO6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="HP6" s="1">
+        <v>0</v>
+      </c>
       <c r="HQ6" s="1"/>
-      <c r="HR6" s="1"/>
-      <c r="HS6" s="1"/>
+      <c r="HR6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="HS6" s="1">
+        <v>0</v>
+      </c>
       <c r="HT6" s="1"/>
-      <c r="HU6" s="1"/>
-      <c r="HV6" s="1"/>
+      <c r="HU6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="HV6" s="1">
+        <v>0</v>
+      </c>
       <c r="HW6" s="1"/>
-      <c r="HX6" s="1"/>
-      <c r="HY6" s="1"/>
+      <c r="HX6" s="1">
+        <v>-4</v>
+      </c>
+      <c r="HY6" s="1">
+        <v>0</v>
+      </c>
       <c r="HZ6" s="1"/>
       <c r="IA6" s="1"/>
       <c r="IB6" s="1"/>
@@ -4099,26 +4267,54 @@
         <v>0</v>
       </c>
       <c r="HE7" s="1"/>
-      <c r="HF7" s="1"/>
-      <c r="HG7" s="1"/>
+      <c r="HF7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="HG7" s="1">
+        <v>0</v>
+      </c>
       <c r="HH7" s="1"/>
-      <c r="HI7" s="1"/>
-      <c r="HJ7" s="1"/>
+      <c r="HI7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="HJ7" s="1">
+        <v>0</v>
+      </c>
       <c r="HK7" s="1"/>
-      <c r="HL7" s="1"/>
-      <c r="HM7" s="1"/>
+      <c r="HL7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="HM7" s="1">
+        <v>0</v>
+      </c>
       <c r="HN7" s="1"/>
-      <c r="HO7" s="1"/>
-      <c r="HP7" s="1"/>
+      <c r="HO7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="HP7" s="1">
+        <v>0</v>
+      </c>
       <c r="HQ7" s="1"/>
-      <c r="HR7" s="1"/>
-      <c r="HS7" s="1"/>
+      <c r="HR7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="HS7" s="1">
+        <v>0</v>
+      </c>
       <c r="HT7" s="1"/>
-      <c r="HU7" s="1"/>
-      <c r="HV7" s="1"/>
+      <c r="HU7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="HV7" s="1">
+        <v>0</v>
+      </c>
       <c r="HW7" s="1"/>
-      <c r="HX7" s="1"/>
-      <c r="HY7" s="1"/>
+      <c r="HX7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="HY7" s="1">
+        <v>0</v>
+      </c>
       <c r="HZ7" s="1"/>
       <c r="IA7" s="1"/>
       <c r="IB7" s="1"/>
@@ -4630,26 +4826,54 @@
         <v>0</v>
       </c>
       <c r="HE8" s="1"/>
-      <c r="HF8" s="1"/>
-      <c r="HG8" s="1"/>
+      <c r="HF8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="HG8" s="1">
+        <v>0</v>
+      </c>
       <c r="HH8" s="1"/>
-      <c r="HI8" s="1"/>
-      <c r="HJ8" s="1"/>
+      <c r="HI8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="HJ8" s="1">
+        <v>0</v>
+      </c>
       <c r="HK8" s="1"/>
-      <c r="HL8" s="1"/>
-      <c r="HM8" s="1"/>
+      <c r="HL8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="HM8" s="1">
+        <v>0</v>
+      </c>
       <c r="HN8" s="1"/>
-      <c r="HO8" s="1"/>
-      <c r="HP8" s="1"/>
+      <c r="HO8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="HP8" s="1">
+        <v>0</v>
+      </c>
       <c r="HQ8" s="1"/>
-      <c r="HR8" s="1"/>
-      <c r="HS8" s="1"/>
+      <c r="HR8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="HS8" s="1">
+        <v>1</v>
+      </c>
       <c r="HT8" s="1"/>
-      <c r="HU8" s="1"/>
-      <c r="HV8" s="1"/>
+      <c r="HU8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="HV8" s="1">
+        <v>0</v>
+      </c>
       <c r="HW8" s="1"/>
-      <c r="HX8" s="1"/>
-      <c r="HY8" s="1"/>
+      <c r="HX8" s="1">
+        <v>-6</v>
+      </c>
+      <c r="HY8" s="1">
+        <v>0</v>
+      </c>
       <c r="HZ8" s="1"/>
       <c r="IA8" s="1"/>
       <c r="IB8" s="1"/>
@@ -5161,26 +5385,54 @@
         <v>0</v>
       </c>
       <c r="HE9" s="1"/>
-      <c r="HF9" s="1"/>
-      <c r="HG9" s="1"/>
+      <c r="HF9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="HG9" s="1">
+        <v>0</v>
+      </c>
       <c r="HH9" s="1"/>
-      <c r="HI9" s="1"/>
-      <c r="HJ9" s="1"/>
+      <c r="HI9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="HJ9" s="1">
+        <v>3</v>
+      </c>
       <c r="HK9" s="1"/>
-      <c r="HL9" s="1"/>
-      <c r="HM9" s="1"/>
+      <c r="HL9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="HM9" s="1">
+        <v>0</v>
+      </c>
       <c r="HN9" s="1"/>
-      <c r="HO9" s="1"/>
-      <c r="HP9" s="1"/>
+      <c r="HO9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="HP9" s="1">
+        <v>0</v>
+      </c>
       <c r="HQ9" s="1"/>
-      <c r="HR9" s="1"/>
-      <c r="HS9" s="1"/>
+      <c r="HR9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="HS9" s="1">
+        <v>2</v>
+      </c>
       <c r="HT9" s="1"/>
-      <c r="HU9" s="1"/>
-      <c r="HV9" s="1"/>
+      <c r="HU9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="HV9" s="1">
+        <v>0</v>
+      </c>
       <c r="HW9" s="1"/>
-      <c r="HX9" s="1"/>
-      <c r="HY9" s="1"/>
+      <c r="HX9" s="1">
+        <v>-7</v>
+      </c>
+      <c r="HY9" s="1">
+        <v>1</v>
+      </c>
       <c r="HZ9" s="1"/>
       <c r="IA9" s="1"/>
       <c r="IB9" s="1"/>
@@ -5692,26 +5944,54 @@
         <v>7</v>
       </c>
       <c r="HE10" s="1"/>
-      <c r="HF10" s="1"/>
-      <c r="HG10" s="1"/>
+      <c r="HF10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="HG10" s="1">
+        <v>0</v>
+      </c>
       <c r="HH10" s="1"/>
-      <c r="HI10" s="1"/>
-      <c r="HJ10" s="1"/>
+      <c r="HI10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="HJ10" s="1">
+        <v>2</v>
+      </c>
       <c r="HK10" s="1"/>
-      <c r="HL10" s="1"/>
-      <c r="HM10" s="1"/>
+      <c r="HL10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="HM10" s="1">
+        <v>0</v>
+      </c>
       <c r="HN10" s="1"/>
-      <c r="HO10" s="1"/>
-      <c r="HP10" s="1"/>
+      <c r="HO10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="HP10" s="1">
+        <v>1</v>
+      </c>
       <c r="HQ10" s="1"/>
-      <c r="HR10" s="1"/>
-      <c r="HS10" s="1"/>
+      <c r="HR10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="HS10" s="1">
+        <v>1</v>
+      </c>
       <c r="HT10" s="1"/>
-      <c r="HU10" s="1"/>
-      <c r="HV10" s="1"/>
+      <c r="HU10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="HV10" s="1">
+        <v>1</v>
+      </c>
       <c r="HW10" s="1"/>
-      <c r="HX10" s="1"/>
-      <c r="HY10" s="1"/>
+      <c r="HX10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="HY10" s="1">
+        <v>0</v>
+      </c>
       <c r="HZ10" s="1"/>
       <c r="IA10" s="1"/>
       <c r="IB10" s="1"/>
@@ -6223,26 +6503,54 @@
         <v>1</v>
       </c>
       <c r="HE11" s="1"/>
-      <c r="HF11" s="1"/>
-      <c r="HG11" s="1"/>
+      <c r="HF11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="HG11" s="1">
+        <v>1</v>
+      </c>
       <c r="HH11" s="1"/>
-      <c r="HI11" s="1"/>
-      <c r="HJ11" s="1"/>
+      <c r="HI11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="HJ11" s="1">
+        <v>0</v>
+      </c>
       <c r="HK11" s="1"/>
-      <c r="HL11" s="1"/>
-      <c r="HM11" s="1"/>
+      <c r="HL11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="HM11" s="1">
+        <v>0</v>
+      </c>
       <c r="HN11" s="1"/>
-      <c r="HO11" s="1"/>
-      <c r="HP11" s="1"/>
+      <c r="HO11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="HP11" s="1">
+        <v>1</v>
+      </c>
       <c r="HQ11" s="1"/>
-      <c r="HR11" s="1"/>
-      <c r="HS11" s="1"/>
+      <c r="HR11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="HS11" s="1">
+        <v>1</v>
+      </c>
       <c r="HT11" s="1"/>
-      <c r="HU11" s="1"/>
-      <c r="HV11" s="1"/>
+      <c r="HU11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="HV11" s="1">
+        <v>2</v>
+      </c>
       <c r="HW11" s="1"/>
-      <c r="HX11" s="1"/>
-      <c r="HY11" s="1"/>
+      <c r="HX11" s="1">
+        <v>-9</v>
+      </c>
+      <c r="HY11" s="1">
+        <v>1</v>
+      </c>
       <c r="HZ11" s="1"/>
       <c r="IA11" s="1"/>
       <c r="IB11" s="1"/>
@@ -6753,26 +7061,54 @@
         <v>1</v>
       </c>
       <c r="HE12" s="1"/>
-      <c r="HF12" s="1"/>
-      <c r="HG12" s="1"/>
+      <c r="HF12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="HG12" s="1">
+        <v>8</v>
+      </c>
       <c r="HH12" s="1"/>
-      <c r="HI12" s="1"/>
-      <c r="HJ12" s="1"/>
+      <c r="HI12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="HJ12" s="1">
+        <v>15</v>
+      </c>
       <c r="HK12" s="1"/>
-      <c r="HL12" s="1"/>
-      <c r="HM12" s="1"/>
+      <c r="HL12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="HM12" s="1">
+        <v>1</v>
+      </c>
       <c r="HN12" s="1"/>
-      <c r="HO12" s="1"/>
-      <c r="HP12" s="1"/>
+      <c r="HO12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="HP12" s="1">
+        <v>1</v>
+      </c>
       <c r="HQ12" s="1"/>
-      <c r="HR12" s="1"/>
-      <c r="HS12" s="1"/>
+      <c r="HR12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="HS12" s="1">
+        <v>11</v>
+      </c>
       <c r="HT12" s="1"/>
-      <c r="HU12" s="1"/>
-      <c r="HV12" s="1"/>
+      <c r="HU12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="HV12" s="1">
+        <v>6</v>
+      </c>
       <c r="HW12" s="1"/>
-      <c r="HX12" s="1"/>
-      <c r="HY12" s="1"/>
+      <c r="HX12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="HY12" s="1">
+        <v>0</v>
+      </c>
       <c r="HZ12" s="1"/>
       <c r="IA12" s="1"/>
       <c r="IB12" s="1"/>
@@ -7284,26 +7620,54 @@
         <v>40</v>
       </c>
       <c r="HE13" s="1"/>
-      <c r="HF13" s="1"/>
-      <c r="HG13" s="1"/>
+      <c r="HF13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="HG13" s="1">
+        <v>22</v>
+      </c>
       <c r="HH13" s="1"/>
-      <c r="HI13" s="1"/>
-      <c r="HJ13" s="1"/>
+      <c r="HI13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="HJ13" s="1">
+        <v>6</v>
+      </c>
       <c r="HK13" s="1"/>
-      <c r="HL13" s="1"/>
-      <c r="HM13" s="1"/>
+      <c r="HL13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="HM13" s="1">
+        <v>4</v>
+      </c>
       <c r="HN13" s="1"/>
-      <c r="HO13" s="1"/>
-      <c r="HP13" s="1"/>
+      <c r="HO13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="HP13" s="1">
+        <v>3</v>
+      </c>
       <c r="HQ13" s="1"/>
-      <c r="HR13" s="1"/>
-      <c r="HS13" s="1"/>
+      <c r="HR13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="HS13" s="1">
+        <v>2</v>
+      </c>
       <c r="HT13" s="1"/>
-      <c r="HU13" s="1"/>
-      <c r="HV13" s="1"/>
+      <c r="HU13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="HV13" s="1">
+        <v>3</v>
+      </c>
       <c r="HW13" s="1"/>
-      <c r="HX13" s="1"/>
-      <c r="HY13" s="1"/>
+      <c r="HX13" s="1">
+        <v>-11</v>
+      </c>
+      <c r="HY13" s="1">
+        <v>1</v>
+      </c>
       <c r="HZ13" s="1"/>
       <c r="IA13" s="1"/>
       <c r="IB13" s="1"/>
@@ -7815,26 +8179,54 @@
         <v>6</v>
       </c>
       <c r="HE14" s="1"/>
-      <c r="HF14" s="1"/>
-      <c r="HG14" s="1"/>
+      <c r="HF14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="HG14" s="1">
+        <v>13</v>
+      </c>
       <c r="HH14" s="1"/>
-      <c r="HI14" s="1"/>
-      <c r="HJ14" s="1"/>
+      <c r="HI14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="HJ14" s="1">
+        <v>3</v>
+      </c>
       <c r="HK14" s="1"/>
-      <c r="HL14" s="1"/>
-      <c r="HM14" s="1"/>
+      <c r="HL14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="HM14" s="1">
+        <v>4</v>
+      </c>
       <c r="HN14" s="1"/>
-      <c r="HO14" s="1"/>
-      <c r="HP14" s="1"/>
+      <c r="HO14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="HP14" s="1">
+        <v>0</v>
+      </c>
       <c r="HQ14" s="1"/>
-      <c r="HR14" s="1"/>
-      <c r="HS14" s="1"/>
+      <c r="HR14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="HS14" s="1">
+        <v>19</v>
+      </c>
       <c r="HT14" s="1"/>
-      <c r="HU14" s="1"/>
-      <c r="HV14" s="1"/>
+      <c r="HU14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="HV14" s="1">
+        <v>12</v>
+      </c>
       <c r="HW14" s="1"/>
-      <c r="HX14" s="1"/>
-      <c r="HY14" s="1"/>
+      <c r="HX14" s="1">
+        <v>-12</v>
+      </c>
+      <c r="HY14" s="1">
+        <v>1</v>
+      </c>
       <c r="HZ14" s="1"/>
       <c r="IA14" s="1"/>
       <c r="IB14" s="1"/>
@@ -8346,26 +8738,54 @@
         <v>6</v>
       </c>
       <c r="HE15" s="1"/>
-      <c r="HF15" s="1"/>
-      <c r="HG15" s="1"/>
+      <c r="HF15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="HG15" s="1">
+        <v>2</v>
+      </c>
       <c r="HH15" s="1"/>
-      <c r="HI15" s="1"/>
-      <c r="HJ15" s="1"/>
+      <c r="HI15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="HJ15" s="1">
+        <v>20</v>
+      </c>
       <c r="HK15" s="1"/>
-      <c r="HL15" s="1"/>
-      <c r="HM15" s="1"/>
+      <c r="HL15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="HM15" s="1">
+        <v>15</v>
+      </c>
       <c r="HN15" s="1"/>
-      <c r="HO15" s="1"/>
-      <c r="HP15" s="1"/>
+      <c r="HO15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="HP15" s="1">
+        <v>12</v>
+      </c>
       <c r="HQ15" s="1"/>
-      <c r="HR15" s="1"/>
-      <c r="HS15" s="1"/>
+      <c r="HR15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="HS15" s="1">
+        <v>7</v>
+      </c>
       <c r="HT15" s="1"/>
-      <c r="HU15" s="1"/>
-      <c r="HV15" s="1"/>
+      <c r="HU15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="HV15" s="1">
+        <v>16</v>
+      </c>
       <c r="HW15" s="1"/>
-      <c r="HX15" s="1"/>
-      <c r="HY15" s="1"/>
+      <c r="HX15" s="1">
+        <v>-13</v>
+      </c>
+      <c r="HY15" s="1">
+        <v>4</v>
+      </c>
       <c r="HZ15" s="1"/>
       <c r="IA15" s="1"/>
       <c r="IB15" s="1"/>
@@ -8877,26 +9297,54 @@
         <v>11</v>
       </c>
       <c r="HE16" s="1"/>
-      <c r="HF16" s="1"/>
-      <c r="HG16" s="1"/>
+      <c r="HF16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="HG16" s="1">
+        <v>12</v>
+      </c>
       <c r="HH16" s="1"/>
-      <c r="HI16" s="1"/>
-      <c r="HJ16" s="1"/>
+      <c r="HI16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="HJ16" s="1">
+        <v>20</v>
+      </c>
       <c r="HK16" s="1"/>
-      <c r="HL16" s="1"/>
-      <c r="HM16" s="1"/>
+      <c r="HL16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="HM16" s="1">
+        <v>8</v>
+      </c>
       <c r="HN16" s="1"/>
-      <c r="HO16" s="1"/>
-      <c r="HP16" s="1"/>
+      <c r="HO16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="HP16" s="1">
+        <v>19</v>
+      </c>
       <c r="HQ16" s="1"/>
-      <c r="HR16" s="1"/>
-      <c r="HS16" s="1"/>
+      <c r="HR16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="HS16" s="1">
+        <v>16</v>
+      </c>
       <c r="HT16" s="1"/>
-      <c r="HU16" s="1"/>
-      <c r="HV16" s="1"/>
+      <c r="HU16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="HV16" s="1">
+        <v>23</v>
+      </c>
       <c r="HW16" s="1"/>
-      <c r="HX16" s="1"/>
-      <c r="HY16" s="1"/>
+      <c r="HX16" s="1">
+        <v>-14</v>
+      </c>
+      <c r="HY16" s="1">
+        <v>9</v>
+      </c>
       <c r="HZ16" s="1"/>
       <c r="IA16" s="1"/>
       <c r="IB16" s="1"/>
@@ -9408,26 +9856,54 @@
         <v>23</v>
       </c>
       <c r="HE17" s="1"/>
-      <c r="HF17" s="1"/>
-      <c r="HG17" s="1"/>
+      <c r="HF17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="HG17" s="1">
+        <v>25</v>
+      </c>
       <c r="HH17" s="1"/>
-      <c r="HI17" s="1"/>
-      <c r="HJ17" s="1"/>
+      <c r="HI17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="HJ17" s="1">
+        <v>10</v>
+      </c>
       <c r="HK17" s="1"/>
-      <c r="HL17" s="1"/>
-      <c r="HM17" s="1"/>
+      <c r="HL17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="HM17" s="1">
+        <v>19</v>
+      </c>
       <c r="HN17" s="1"/>
-      <c r="HO17" s="1"/>
-      <c r="HP17" s="1"/>
+      <c r="HO17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="HP17" s="1">
+        <v>18</v>
+      </c>
       <c r="HQ17" s="1"/>
-      <c r="HR17" s="1"/>
-      <c r="HS17" s="1"/>
+      <c r="HR17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="HS17" s="1">
+        <v>20</v>
+      </c>
       <c r="HT17" s="1"/>
-      <c r="HU17" s="1"/>
-      <c r="HV17" s="1"/>
+      <c r="HU17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="HV17" s="1">
+        <v>25</v>
+      </c>
       <c r="HW17" s="1"/>
-      <c r="HX17" s="1"/>
-      <c r="HY17" s="1"/>
+      <c r="HX17" s="1">
+        <v>-15</v>
+      </c>
+      <c r="HY17" s="1">
+        <v>31</v>
+      </c>
       <c r="HZ17" s="1"/>
       <c r="IA17" s="1"/>
       <c r="IB17" s="1"/>
@@ -9939,26 +10415,54 @@
         <v>3</v>
       </c>
       <c r="HE18" s="1"/>
-      <c r="HF18" s="1"/>
-      <c r="HG18" s="1"/>
+      <c r="HF18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="HG18" s="1">
+        <v>15</v>
+      </c>
       <c r="HH18" s="1"/>
-      <c r="HI18" s="1"/>
-      <c r="HJ18" s="1"/>
+      <c r="HI18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="HJ18" s="1">
+        <v>10</v>
+      </c>
       <c r="HK18" s="1"/>
-      <c r="HL18" s="1"/>
-      <c r="HM18" s="1"/>
+      <c r="HL18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="HM18" s="1">
+        <v>39</v>
+      </c>
       <c r="HN18" s="1"/>
-      <c r="HO18" s="1"/>
-      <c r="HP18" s="1"/>
+      <c r="HO18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="HP18" s="1">
+        <v>17</v>
+      </c>
       <c r="HQ18" s="1"/>
-      <c r="HR18" s="1"/>
-      <c r="HS18" s="1"/>
+      <c r="HR18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="HS18" s="1">
+        <v>10</v>
+      </c>
       <c r="HT18" s="1"/>
-      <c r="HU18" s="1"/>
-      <c r="HV18" s="1"/>
+      <c r="HU18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="HV18" s="1">
+        <v>10</v>
+      </c>
       <c r="HW18" s="1"/>
-      <c r="HX18" s="1"/>
-      <c r="HY18" s="1"/>
+      <c r="HX18" s="1">
+        <v>-16</v>
+      </c>
+      <c r="HY18" s="1">
+        <v>23</v>
+      </c>
       <c r="HZ18" s="1"/>
       <c r="IA18" s="1"/>
       <c r="IB18" s="1"/>
@@ -10454,26 +10958,54 @@
         <v>2</v>
       </c>
       <c r="HE19" s="1"/>
-      <c r="HF19" s="1"/>
-      <c r="HG19" s="1"/>
+      <c r="HF19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="HG19" s="1">
+        <v>5</v>
+      </c>
       <c r="HH19" s="1"/>
-      <c r="HI19" s="1"/>
-      <c r="HJ19" s="1"/>
+      <c r="HI19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="HJ19" s="1">
+        <v>10</v>
+      </c>
       <c r="HK19" s="1"/>
-      <c r="HL19" s="1"/>
-      <c r="HM19" s="1"/>
+      <c r="HL19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="HM19" s="1">
+        <v>7</v>
+      </c>
       <c r="HN19" s="1"/>
-      <c r="HO19" s="1"/>
-      <c r="HP19" s="1"/>
+      <c r="HO19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="HP19" s="1">
+        <v>23</v>
+      </c>
       <c r="HQ19" s="1"/>
-      <c r="HR19" s="1"/>
-      <c r="HS19" s="1"/>
+      <c r="HR19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="HS19" s="1">
+        <v>7</v>
+      </c>
       <c r="HT19" s="1"/>
-      <c r="HU19" s="1"/>
-      <c r="HV19" s="1"/>
+      <c r="HU19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="HV19" s="1">
+        <v>2</v>
+      </c>
       <c r="HW19" s="1"/>
-      <c r="HX19" s="1"/>
-      <c r="HY19" s="1"/>
+      <c r="HX19" s="1">
+        <v>-17</v>
+      </c>
+      <c r="HY19" s="1">
+        <v>17</v>
+      </c>
       <c r="HZ19" s="1"/>
       <c r="IA19" s="1"/>
       <c r="IB19" s="1"/>
@@ -10922,23 +11454,47 @@
       <c r="HF20" s="1"/>
       <c r="HG20" s="1"/>
       <c r="HH20" s="1"/>
-      <c r="HI20" s="1"/>
-      <c r="HJ20" s="1"/>
+      <c r="HI20" s="1">
+        <v>-18</v>
+      </c>
+      <c r="HJ20" s="1">
+        <v>3</v>
+      </c>
       <c r="HK20" s="1"/>
-      <c r="HL20" s="1"/>
-      <c r="HM20" s="1"/>
+      <c r="HL20" s="1">
+        <v>-18</v>
+      </c>
+      <c r="HM20" s="1">
+        <v>4</v>
+      </c>
       <c r="HN20" s="1"/>
-      <c r="HO20" s="1"/>
-      <c r="HP20" s="1"/>
+      <c r="HO20" s="1">
+        <v>-18</v>
+      </c>
+      <c r="HP20" s="1">
+        <v>4</v>
+      </c>
       <c r="HQ20" s="1"/>
-      <c r="HR20" s="1"/>
-      <c r="HS20" s="1"/>
+      <c r="HR20" s="1">
+        <v>-18</v>
+      </c>
+      <c r="HS20" s="1">
+        <v>2</v>
+      </c>
       <c r="HT20" s="1"/>
-      <c r="HU20" s="1"/>
-      <c r="HV20" s="1"/>
+      <c r="HU20" s="1">
+        <v>-18</v>
+      </c>
+      <c r="HV20" s="1">
+        <v>2</v>
+      </c>
       <c r="HW20" s="1"/>
-      <c r="HX20" s="1"/>
-      <c r="HY20" s="1"/>
+      <c r="HX20" s="1">
+        <v>-18</v>
+      </c>
+      <c r="HY20" s="1">
+        <v>9</v>
+      </c>
       <c r="HZ20" s="1"/>
       <c r="IA20" s="1"/>
       <c r="IB20" s="1"/>
@@ -11323,20 +11879,40 @@
       <c r="HI21" s="1"/>
       <c r="HJ21" s="1"/>
       <c r="HK21" s="1"/>
-      <c r="HL21" s="1"/>
-      <c r="HM21" s="1"/>
+      <c r="HL21" s="1">
+        <v>-19</v>
+      </c>
+      <c r="HM21" s="1">
+        <v>2</v>
+      </c>
       <c r="HN21" s="1"/>
-      <c r="HO21" s="1"/>
-      <c r="HP21" s="1"/>
+      <c r="HO21" s="1">
+        <v>-19</v>
+      </c>
+      <c r="HP21" s="1">
+        <v>2</v>
+      </c>
       <c r="HQ21" s="1"/>
-      <c r="HR21" s="1"/>
-      <c r="HS21" s="1"/>
+      <c r="HR21" s="1">
+        <v>-19</v>
+      </c>
+      <c r="HS21" s="1">
+        <v>4</v>
+      </c>
       <c r="HT21" s="1"/>
-      <c r="HU21" s="1"/>
-      <c r="HV21" s="1"/>
+      <c r="HU21" s="1">
+        <v>-19</v>
+      </c>
+      <c r="HV21" s="1">
+        <v>0</v>
+      </c>
       <c r="HW21" s="1"/>
-      <c r="HX21" s="1"/>
-      <c r="HY21" s="1"/>
+      <c r="HX21" s="1">
+        <v>-19</v>
+      </c>
+      <c r="HY21" s="1">
+        <v>6</v>
+      </c>
       <c r="HZ21" s="1"/>
       <c r="IA21" s="1"/>
       <c r="IB21" s="1"/>
@@ -11669,14 +12245,22 @@
       <c r="HL22" s="1"/>
       <c r="HM22" s="1"/>
       <c r="HN22" s="1"/>
-      <c r="HO22" s="1"/>
-      <c r="HP22" s="1"/>
+      <c r="HO22" s="1">
+        <v>-20</v>
+      </c>
+      <c r="HP22" s="1">
+        <v>2</v>
+      </c>
       <c r="HQ22" s="1"/>
       <c r="HR22" s="1"/>
       <c r="HS22" s="1"/>
       <c r="HT22" s="1"/>
-      <c r="HU22" s="1"/>
-      <c r="HV22" s="1"/>
+      <c r="HU22" s="1">
+        <v>-20</v>
+      </c>
+      <c r="HV22" s="1">
+        <v>1</v>
+      </c>
       <c r="HW22" s="1"/>
       <c r="HX22" s="1"/>
       <c r="HY22" s="1"/>
